--- a/mathematics/MathItems.xlsx
+++ b/mathematics/MathItems.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/DAACS-Deployment/assessments/mathematics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/Projects/DAACS-Github/DAACS-Website/assessments/mathematics/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,33 +381,6 @@
     <t>Which equation represents a vertical line?</t>
   </si>
   <si>
-    <t>&lt;i&gt;y&lt;\i&gt; = &lt;i&gt; -x&lt;\i&gt;</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;y&lt;\i&gt; = 12</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;x&lt;\i&gt; = &lt;i&gt;y&lt;\i&gt;</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;x&lt;\i&gt; = 12</t>
-  </si>
-  <si>
-    <t>Byron has 72 coins in his piggy bank. The piggy bank contains only dimes and quarters. If he has $14.70 in his piggy bank, which equation can be used to determine &lt;i&gt;q&lt;\i&gt;, the number of quarters he has?</t>
-  </si>
-  <si>
-    <t>\(14.70 + 0.25&lt;i&gt;q&lt;\i&gt; = 72\)</t>
-  </si>
-  <si>
-    <t>\(0.10(&lt;i&gt;q&lt;\i&gt; -72) + 0.25&lt;i&gt;q&lt;\i&gt; = 14.70\)</t>
-  </si>
-  <si>
-    <t>\(0.10(72 - &lt;i&gt;q&lt;\i&gt;) + 0.25&lt;i&gt;q&lt;\i&gt; = 14.70\)</t>
-  </si>
-  <si>
-    <t>\(0.10&lt;i&gt;q&lt;\i&gt; + 0.25(72 - &lt;i&gt;q&lt;\i&gt;) = 14.70\)</t>
-  </si>
-  <si>
     <t>&lt;img src='NY-2014-08-25-A.png'&gt;</t>
   </si>
   <si>
@@ -430,18 +403,6 @@
   </si>
   <si>
     <t>What is the result when \(6x^{2} - 13x + 12\) is subtracted from \(-3x^{2} + 6x + 7\)?</t>
-  </si>
-  <si>
-    <t>\(3x^{2} - 7x + 19\)</t>
-  </si>
-  <si>
-    <t>\(9x^{2} - 19x + 5\)</t>
-  </si>
-  <si>
-    <t>\(9x^{2} - 7x + 19\)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> \(-9x^{2} + 19x - 5\)</t>
   </si>
   <si>
     <t>{-6, -4}</t>
@@ -614,9 +575,6 @@
     <t>The value of the expression \( \mid -20 \mid - \mid 6 \mid \) is</t>
   </si>
   <si>
-    <t>When \( 9x^{2} - 100 \) is factored, it is equivalent to \( \big(3x-b\big)  \big(3x+b\big) \). What is the value for &lt;i&gt; b&lt;\i&gt;?</t>
-  </si>
-  <si>
     <t>The graph below represents the parabolic path of a ball kicked by a young child. What are the vertex and the axis of symmetry for the parabola?  
 &lt;br/&gt;&lt;img src='NY-2014-08-05.png'&gt;</t>
   </si>
@@ -643,24 +601,6 @@
     <t>What is the solution of the equation \( \frac{12}{7x} +  \frac{3}{2x}  =  \frac{15}{14} \)?</t>
   </si>
   <si>
-    <t>The expression \( \frac{2 x^{2} + 10x -28}{4x + 28} \) is undefined when &lt;i&gt;x&lt;\i&gt; is</t>
-  </si>
-  <si>
-    <r>
-      <t>In the right triangle &lt;i&gt;JKL&lt;\i&gt; in the diagram below, &lt;i&gt;KL&lt;\i&gt; = 7, &lt;i&gt;JK&lt;\i&gt; = 24, &lt;i&gt;JL&lt;\i&gt; = 25, and \( \angle K = 90</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>° \).  
-&lt;br/&gt;&lt;img src='NY-2014-08-18.png'&gt;</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">A teacher asked the class to solve the equation \(3(x + 2) =  21 \). Robert wrote \(3x + 6 = 21 \) as his first step. Which property did he use?
 </t>
   </si>
@@ -668,9 +608,6 @@
     <t>Which graph represents the equation \( y= \mid x-2 \mid \)?</t>
   </si>
   <si>
-    <t>If \( ax + 3 = 7 - bx \), what is &lt;i&gt;x&lt;\i&gt; expressed in terms of &lt;i&gt;a&lt;\i&gt; and &lt;i&gt;b&lt;\i&gt;?</t>
-  </si>
-  <si>
     <t>What is the solution set of the equation \( \frac{x}{3} =  \frac{8}{x + 2} \)?</t>
   </si>
   <si>
@@ -888,18 +825,6 @@
   </si>
   <si>
     <t>\( y=(- \frac{2}{3} x) + \frac{7}{3} \)</t>
-  </si>
-  <si>
-    <t>\(-4x^{2}y^{3}\)</t>
-  </si>
-  <si>
-    <t>\(-4x^{3}y^{3}\)</t>
-  </si>
-  <si>
-    <t>\(-4x^{9}y^{4}\)</t>
-  </si>
-  <si>
-    <t>\(-4x^{3}y^{2}\)</t>
   </si>
   <si>
     <t>MA</t>
@@ -967,61 +892,6 @@
   <si>
     <t>Standard: 10.P.8 - Solve everyday problems that can be modeled using systems of linear equations or inequalities. Apply algebraic and graphical methods to the solution. Use technology when appropriate. Include mixture, rate, and work problems. (AI.P.12) 
 Standard: CCSS.Math.Content.HSA-REI.C.6 - Solve systems of linear equations exactly and approximately (e.g., with graphs), focusing on pairs of linear equations in two variables.</t>
-  </si>
-  <si>
-    <r>
-      <t>Which values of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> make the system of equations below true? 2&lt;i&gt;x&lt;\i&gt;-&lt;i&gt;y&lt;\i&gt;=-1 3&lt;i&gt;x&lt;\i&gt;-&lt;i&gt;y&lt;\i&gt;=-3</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;i&gt;x&lt;\i&gt;=-4; &lt;i&gt;y&lt;\i&gt;=-7</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;x&lt;\i&gt;=-2; &lt;i&gt;y&lt;\i&gt;=-3</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;x&lt;\i&gt;=2; &lt;i&gt;y&lt;\i&gt;=5</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;x&lt;\i&gt;=4; &lt;i&gt;y&lt;\i&gt;=15</t>
   </si>
   <si>
     <t>Standard: 10.N.1 - Identify and use the properties of operations on real numbers, including the associative, commutative, and distributive properties; the existence of the identity and inverse elements for addition and multiplication; the existence of nth roots of positive real numbers for any positive integer n; and the inverse relationship between taking the nth root of and the nth power of a positive real number. (AI.N.1) 
@@ -1454,18 +1324,6 @@
     <t xml:space="preserve">What are the solutions of the equation below? \big(x-2\big)  \big(x+9\big)=0 </t>
   </si>
   <si>
-    <t>&lt;i&gt;x&lt;\i&gt;=-2; &lt;i&gt;x&lt;\i&gt;=-9</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;x&lt;\i&gt;=-2; &lt;i&gt;x&lt;\i&gt;=9</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;x&lt;\i&gt;=2; &lt;i&gt;x&lt;\i&gt;=-9</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;x&lt;\i&gt;=2; &lt;i&gt;x&lt;\i&gt;=9</t>
-  </si>
-  <si>
     <t>The line plot below shows the fuel efficiency, in miles per gallon, for the vehicles owned by a rental car company. &lt;img src='MA-2015-06-07.png'&gt; Based on the line plot, what is the median fuel efficiency, in miles per gallon, for the vehicles?</t>
   </si>
   <si>
@@ -1619,14 +1477,6 @@
     <t>&lt;img src='MA-2015-06-27-D.png'&gt;</t>
   </si>
   <si>
-    <t>Two families buy refreshments at a concession stand.
-Each drink costs &lt;i&gt;d&lt;\i&gt; dollars.
-Each snack costs &lt;i&gt;s&lt;\i&gt; dollars.
-The Blake family buys 3 drinks and 2 snacks for $12.
-The Reese family buys 2 drinks and 4 snacks for $16.
-What is the cost of one drink at the concession stand?</t>
-  </si>
-  <si>
     <t>Standard: 10.P.1 - Describe, complete, extend, analyze, generalize, and create a wide variety of patterns, including iterative, recursive (e.g., Fibonacci Numbers), linear, quadratic, and exponential functional relationships. (AI.P.1) 
 Standard: CCSS.Math.Content.HSF-BF.A.1 - Write a function that describes a relationship between two quantities.*</t>
   </si>
@@ -1805,18 +1655,6 @@
   </si>
   <si>
     <t xml:space="preserve">Which of the following is not a solution of the equation below? 3x \big(x-1\big) \big(x-2\big) = 0  </t>
-  </si>
-  <si>
-    <t>&lt;i&gt;x&lt;\i&gt; = 0</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;x&lt;\i&gt; = 1</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;x&lt;\i&gt; = 2</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;x&lt;\i&gt; = 3</t>
   </si>
   <si>
     <t>Standard: 10.G.7 - Using rectangular coordinates, calculate midpoints of segments, slopes of lines and segments, and distances between two points, and apply the results to the solutions of problems.
@@ -3741,6 +3579,117 @@
   <si>
     <t>Word Problems</t>
   </si>
+  <si>
+    <t>Byron has 72 coins in his piggy bank. The piggy bank contains only dimes and quarters. If he has $14.70 in his piggy bank, which equation can be used to determine &lt;i&gt;q&lt;/i&gt;, the number of quarters he has?</t>
+  </si>
+  <si>
+    <t>When \( 9x^{2} - 100 \) is factored, it is equivalent to \( \big(3x-b\big)  \big(3x+b\big) \). What is the value for &lt;i&gt; b&lt;/i&gt;?</t>
+  </si>
+  <si>
+    <t>The expression \( \frac{2 x^{2} + 10x -28}{4x + 28} \) is undefined when &lt;i&gt;x&lt;/i&gt; is</t>
+  </si>
+  <si>
+    <t>In the right triangle &lt;i&gt;JKL&lt;/i&gt; in the diagram below, &lt;i&gt;KL&lt;/i&gt; = 7, &lt;i&gt;JK&lt;/i&gt; = 24, &lt;i&gt;JL&lt;/i&gt; = 25, and \( \angle K = 90° \).  
+&lt;br/&gt;&lt;img src='NY-2014-08-18.png'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;y&lt;/i&gt; = &lt;i&gt; -x&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;y&lt;/i&gt; = 12</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;x&lt;/i&gt; = &lt;i&gt;y&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;x&lt;/i&gt; = 12</t>
+  </si>
+  <si>
+    <t>If \( ax + 3 = 7 - bx \), what is &lt;i&gt;x&lt;/i&gt; expressed in terms of &lt;i&gt;a&lt;/i&gt; and &lt;i&gt;b&lt;/i&gt;?</t>
+  </si>
+  <si>
+    <t>Which values of x and y make the system of equations below true? 2&lt;i&gt;x&lt;/i&gt;-&lt;i&gt;y&lt;/i&gt;=-1 3&lt;i&gt;x&lt;/i&gt;-&lt;i&gt;y&lt;/i&gt;=-3</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;x&lt;/i&gt;=-4; &lt;i&gt;y&lt;/i&gt;=-7</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;x&lt;/i&gt;=-2; &lt;i&gt;y&lt;/i&gt;=-3</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;x&lt;/i&gt;=2; &lt;i&gt;y&lt;/i&gt;=5</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;x&lt;/i&gt;=4; &lt;i&gt;y&lt;/i&gt;=15</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;x&lt;/i&gt;=-2; &lt;i&gt;x&lt;/i&gt;=-9</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;x&lt;/i&gt;=-2; &lt;i&gt;x&lt;/i&gt;=9</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;x&lt;/i&gt;=2; &lt;i&gt;x&lt;/i&gt;=-9</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;x&lt;/i&gt;=2; &lt;i&gt;x&lt;/i&gt;=9</t>
+  </si>
+  <si>
+    <t>Two families buy refreshments at a concession stand.
+Each drink costs &lt;i&gt;d&lt;/i&gt; dollars.
+Each snack costs &lt;i&gt;s&lt;/i&gt; dollars.
+The Blake family buys 3 drinks and 2 snacks for $12.
+The Reese family buys 2 drinks and 4 snacks for $16.
+What is the cost of one drink at the concession stand?</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;x&lt;/i&gt; = 0</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;x&lt;/i&gt; = 1</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;x&lt;/i&gt; = 2</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;x&lt;/i&gt; = 3</t>
+  </si>
+  <si>
+    <t>\( 14.70 + 0.25&lt;i&gt;q&lt;/i&gt; = 72 \)</t>
+  </si>
+  <si>
+    <t>\( 0.10(&lt;i&gt;q&lt;/i&gt; -72) + 0.25&lt;i&gt;q&lt;/i&gt; = 14.70 \)</t>
+  </si>
+  <si>
+    <t>\( 0.10(72 - &lt;i&gt;q&lt;/i&gt;) + 0.25&lt;i&gt;q&lt;/i&gt; = 14.70 \)</t>
+  </si>
+  <si>
+    <t>\( 0.10&lt;i&gt;q&lt;/i&gt; + 0.25(72 - &lt;i&gt;q&lt;/i&gt;) = 14.70 \)</t>
+  </si>
+  <si>
+    <t>\( 3x^{2} - 7x + 19 \)</t>
+  </si>
+  <si>
+    <t>\( 9x^{2} - 19x + 5 \)</t>
+  </si>
+  <si>
+    <t>\( 9x^{2} - 7x + 19 \)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \( -9x^{2} + 19x - 5 \)</t>
+  </si>
+  <si>
+    <t>\( -4x^{2}y^{3} \)</t>
+  </si>
+  <si>
+    <t>\( -4x^{3}y^{3} \)</t>
+  </si>
+  <si>
+    <t>\( -4x^{9}y^{4} \)</t>
+  </si>
+  <si>
+    <t>\( -4x^{3}y^{2} \)</t>
+  </si>
 </sst>
 </file>
 
@@ -3749,19 +3698,13 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3851,23 +3794,23 @@
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3881,91 +3824,91 @@
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="46" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4246,10 +4189,10 @@
   <dimension ref="A1:Q234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F143" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F144" sqref="F144"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4275,43 +4218,43 @@
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>937</v>
+        <v>902</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>14</v>
@@ -4346,10 +4289,10 @@
         <v>2</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="12"/>
@@ -4391,29 +4334,29 @@
         <v>2</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="13" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>271</v>
+        <v>942</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>272</v>
+        <v>943</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>273</v>
+        <v>944</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>274</v>
+        <v>945</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -4436,10 +4379,10 @@
         <v>2</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>945</v>
+        <v>910</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="12"/>
@@ -4481,10 +4424,10 @@
         <v>10</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="12"/>
@@ -4526,10 +4469,10 @@
         <v>2</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>942</v>
+        <v>907</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="12"/>
@@ -4539,16 +4482,16 @@
         <v>13</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -4571,29 +4514,29 @@
         <v>2</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64" x14ac:dyDescent="0.2">
@@ -4616,10 +4559,10 @@
         <v>2</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>945</v>
+        <v>910</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="12"/>
@@ -4629,16 +4572,16 @@
         <v>15</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -4661,10 +4604,10 @@
         <v>16</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="12"/>
@@ -4706,10 +4649,10 @@
         <v>2</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>942</v>
+        <v>907</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="12"/>
@@ -4719,16 +4662,16 @@
         <v>18</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -4751,29 +4694,29 @@
         <v>19</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H11" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="13" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="96" x14ac:dyDescent="0.2">
@@ -4800,19 +4743,19 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="13" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="80" x14ac:dyDescent="0.2">
@@ -4835,10 +4778,10 @@
         <v>2</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="12"/>
@@ -4880,17 +4823,17 @@
         <v>2</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="13" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
@@ -4899,10 +4842,10 @@
         <v>-2</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -4925,10 +4868,10 @@
         <v>10</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="12"/>
@@ -4970,17 +4913,17 @@
         <v>2</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="13" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="N16" s="1">
         <v>1</v>
@@ -5019,7 +4962,7 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="13" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="N17" s="1">
         <v>27.8</v>
@@ -5057,7 +5000,7 @@
         <v>28</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="12"/>
@@ -5099,10 +5042,10 @@
         <v>19</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="12"/>
@@ -5144,17 +5087,17 @@
         <v>16</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H20" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="13" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="N20" s="1">
         <v>25</v>
@@ -5192,14 +5135,14 @@
         <v>28</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="13" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>29</v>
@@ -5234,29 +5177,29 @@
         <v>16</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="13" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -5282,14 +5225,14 @@
         <v>28</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="13" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>33</v>
@@ -5324,10 +5267,10 @@
         <v>2</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>945</v>
+        <v>910</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="12"/>
@@ -5369,29 +5312,29 @@
         <v>2</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>942</v>
+        <v>907</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="13" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -5414,17 +5357,17 @@
         <v>2</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="13" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>42</v>
@@ -5459,26 +5402,26 @@
         <v>2</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="13" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="O27" s="1">
         <v>-15</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Q27" s="1">
         <v>15</v>
@@ -5504,10 +5447,10 @@
         <v>2</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>945</v>
+        <v>910</v>
       </c>
       <c r="H28" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="12"/>
@@ -5549,17 +5492,17 @@
         <v>2</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>942</v>
+        <v>907</v>
       </c>
       <c r="H29" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="13" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>51</v>
@@ -5594,17 +5537,17 @@
         <v>2</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H30" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="13" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>55</v>
@@ -5639,17 +5582,17 @@
         <v>16</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H31" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="13" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>59</v>
@@ -5684,10 +5627,10 @@
         <v>2</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>942</v>
+        <v>907</v>
       </c>
       <c r="H32" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="12"/>
@@ -5732,7 +5675,7 @@
         <v>28</v>
       </c>
       <c r="H33" s="51" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="12"/>
@@ -5774,10 +5717,10 @@
         <v>2</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>942</v>
+        <v>907</v>
       </c>
       <c r="H34" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="12"/>
@@ -5823,7 +5766,7 @@
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="13" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="N35" s="1">
         <v>46</v>
@@ -5858,10 +5801,10 @@
         <v>2</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="12"/>
@@ -5903,10 +5846,10 @@
         <v>2</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>945</v>
+        <v>910</v>
       </c>
       <c r="H37" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="12"/>
@@ -5948,10 +5891,10 @@
         <v>2</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>945</v>
+        <v>910</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="12"/>
@@ -5993,17 +5936,17 @@
         <v>2</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H39" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="13" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="N39" s="1">
         <v>-9</v>
@@ -6038,17 +5981,17 @@
         <v>10</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H40" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="13" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="N40" s="1">
         <v>21</v>
@@ -6087,7 +6030,7 @@
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="13" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="N41" s="1">
         <v>61</v>
@@ -6122,29 +6065,29 @@
         <v>10</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H42" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="13" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="64" x14ac:dyDescent="0.2">
@@ -6167,29 +6110,29 @@
         <v>16</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H43" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I43" s="11"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="13" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -6216,7 +6159,7 @@
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="13" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>81</v>
@@ -6251,17 +6194,17 @@
         <v>19</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H45" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="13" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="N45" s="1">
         <v>6</v>
@@ -6296,29 +6239,29 @@
         <v>19</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H46" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
       <c r="M46" s="13" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -6344,14 +6287,14 @@
         <v>28</v>
       </c>
       <c r="H47" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="13" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="N47" s="1">
         <v>60</v>
@@ -6386,29 +6329,29 @@
         <v>2</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H48" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="13" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -6431,17 +6374,17 @@
         <v>19</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H49" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I49" s="11"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
       <c r="M49" s="13" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="N49" s="1">
         <v>26</v>
@@ -6476,17 +6419,17 @@
         <v>2</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H50" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="13" t="s">
-        <v>186</v>
+        <v>912</v>
       </c>
       <c r="N50" s="1">
         <v>50</v>
@@ -6521,10 +6464,10 @@
         <v>2</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>942</v>
+        <v>907</v>
       </c>
       <c r="H51" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="12"/>
@@ -6566,17 +6509,17 @@
         <v>28</v>
       </c>
       <c r="G52" s="47" t="s">
-        <v>942</v>
+        <v>907</v>
       </c>
       <c r="H52" s="51" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="13" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>90</v>
@@ -6611,29 +6554,29 @@
         <v>2</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H53" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="13" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -6656,10 +6599,10 @@
         <v>2</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>945</v>
+        <v>910</v>
       </c>
       <c r="H54" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="12"/>
@@ -6669,16 +6612,16 @@
         <v>94</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -6701,10 +6644,10 @@
         <v>2</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>942</v>
+        <v>907</v>
       </c>
       <c r="H55" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="12"/>
@@ -6714,16 +6657,16 @@
         <v>95</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -6786,17 +6729,17 @@
         <v>16</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H57" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I57" s="11"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="13" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="N57" s="1">
         <v>27</v>
@@ -6834,14 +6777,14 @@
         <v>28</v>
       </c>
       <c r="H58" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
       <c r="M58" s="13" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>101</v>
@@ -6876,17 +6819,17 @@
         <v>10</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H59" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I59" s="11"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
       <c r="M59" s="13" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="N59" s="1">
         <v>300</v>
@@ -6921,17 +6864,17 @@
         <v>2</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H60" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I60" s="11"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
       <c r="M60" s="13" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="N60" s="1">
         <v>1</v>
@@ -6966,17 +6909,17 @@
         <v>2</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H61" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I61" s="11"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
       <c r="M61" s="13" t="s">
-        <v>193</v>
+        <v>913</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>105</v>
@@ -7015,19 +6958,19 @@
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
       <c r="M62" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P62" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="N62" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="Q62" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="64" x14ac:dyDescent="0.2">
@@ -7054,7 +6997,7 @@
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
       <c r="M63" s="13" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>109</v>
@@ -7089,10 +7032,10 @@
         <v>16</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H64" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="12"/>
@@ -7102,16 +7045,16 @@
         <v>112</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="64" x14ac:dyDescent="0.2">
@@ -7134,10 +7077,10 @@
         <v>2</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H65" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I65" s="11"/>
       <c r="J65" s="12"/>
@@ -7179,10 +7122,10 @@
         <v>2</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>942</v>
+        <v>907</v>
       </c>
       <c r="H66" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I66" s="11"/>
       <c r="J66" s="12"/>
@@ -7192,19 +7135,19 @@
         <v>114</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>115</v>
+        <v>915</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>116</v>
+        <v>916</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>117</v>
+        <v>917</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>0</v>
       </c>
@@ -7224,29 +7167,29 @@
         <v>2</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>945</v>
+        <v>910</v>
       </c>
       <c r="H67" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I67" s="11"/>
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
       <c r="M67" s="13" t="s">
-        <v>119</v>
+        <v>911</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>120</v>
+        <v>934</v>
       </c>
       <c r="O67" s="13" t="s">
-        <v>121</v>
+        <v>935</v>
       </c>
       <c r="P67" s="13" t="s">
-        <v>122</v>
+        <v>936</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>123</v>
+        <v>937</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -7272,26 +7215,26 @@
         <v>28</v>
       </c>
       <c r="H68" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I68" s="11"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
       <c r="M68" s="13" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -7314,29 +7257,29 @@
         <v>2</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H69" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I69" s="11"/>
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
       <c r="M69" s="13" t="s">
-        <v>197</v>
+        <v>919</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -7359,29 +7302,29 @@
         <v>2</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>942</v>
+        <v>907</v>
       </c>
       <c r="H70" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I70" s="11"/>
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
       <c r="M70" s="13" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -7404,29 +7347,29 @@
         <v>2</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H71" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I71" s="11"/>
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
       <c r="M71" s="13" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>132</v>
+        <v>938</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>133</v>
+        <v>939</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>134</v>
+        <v>940</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>135</v>
+        <v>941</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -7449,34 +7392,34 @@
         <v>2</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H72" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I72" s="11"/>
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
       <c r="L72" s="12"/>
       <c r="M72" s="13" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B73" s="16">
         <v>2016</v>
@@ -7494,13 +7437,13 @@
         <v>19</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H73" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I73" s="19" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="J73" s="20"/>
       <c r="K73" s="20">
@@ -7508,24 +7451,24 @@
       </c>
       <c r="L73" s="20"/>
       <c r="M73" s="21" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="N73" s="18" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="O73" s="18" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="P73" s="18" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="Q73" s="18" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B74" s="16">
         <v>2016</v>
@@ -7540,16 +7483,16 @@
         <v>14</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H74" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I74" s="19" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="J74" s="20"/>
       <c r="K74" s="20">
@@ -7557,24 +7500,24 @@
       </c>
       <c r="L74" s="20"/>
       <c r="M74" s="21" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="N74" s="18" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="O74" s="18" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="P74" s="18" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="Q74" s="18" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B75" s="23">
         <v>2016</v>
@@ -7594,7 +7537,7 @@
       <c r="G75" s="25"/>
       <c r="H75" s="46"/>
       <c r="I75" s="26" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="J75" s="27"/>
       <c r="K75" s="27">
@@ -7602,24 +7545,24 @@
       </c>
       <c r="L75" s="27"/>
       <c r="M75" s="28" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="N75" s="25" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="O75" s="25" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="P75" s="25" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="Q75" s="25" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B76" s="16">
         <v>2016</v>
@@ -7634,16 +7577,16 @@
         <v>12</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H76" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I76" s="19" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="J76" s="20"/>
       <c r="K76" s="20">
@@ -7651,24 +7594,24 @@
       </c>
       <c r="L76" s="20"/>
       <c r="M76" s="21" t="s">
-        <v>296</v>
+        <v>920</v>
       </c>
       <c r="N76" s="18" t="s">
-        <v>297</v>
+        <v>921</v>
       </c>
       <c r="O76" s="18" t="s">
-        <v>298</v>
+        <v>922</v>
       </c>
       <c r="P76" s="18" t="s">
-        <v>299</v>
+        <v>923</v>
       </c>
       <c r="Q76" s="18" t="s">
-        <v>300</v>
+        <v>924</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B77" s="16">
         <v>2016</v>
@@ -7686,13 +7629,13 @@
         <v>19</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H77" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="J77" s="20"/>
       <c r="K77" s="20">
@@ -7700,24 +7643,24 @@
       </c>
       <c r="L77" s="20"/>
       <c r="M77" s="21" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="N77" s="18" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="O77" s="18" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="P77" s="18" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="Q77" s="18" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B78" s="16">
         <v>2016</v>
@@ -7735,13 +7678,13 @@
         <v>19</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H78" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="J78" s="20"/>
       <c r="K78" s="20">
@@ -7749,7 +7692,7 @@
       </c>
       <c r="L78" s="20"/>
       <c r="M78" s="21" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="N78" s="29">
         <v>21000</v>
@@ -7766,7 +7709,7 @@
     </row>
     <row r="79" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B79" s="16">
         <v>2016</v>
@@ -7781,16 +7724,16 @@
         <v>14</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>945</v>
+        <v>910</v>
       </c>
       <c r="H79" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I79" s="19" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="J79" s="20"/>
       <c r="K79" s="20">
@@ -7798,24 +7741,24 @@
       </c>
       <c r="L79" s="20"/>
       <c r="M79" s="30" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="N79" s="18" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="O79" s="18" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="P79" s="18" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="Q79" s="18" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B80" s="16">
         <v>2016</v>
@@ -7833,13 +7776,13 @@
         <v>19</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H80" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I80" s="19" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="J80" s="20"/>
       <c r="K80" s="20">
@@ -7847,7 +7790,7 @@
       </c>
       <c r="L80" s="20"/>
       <c r="M80" s="21" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="N80" s="18">
         <v>-8</v>
@@ -7864,7 +7807,7 @@
     </row>
     <row r="81" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B81" s="16">
         <v>2016</v>
@@ -7885,10 +7828,10 @@
         <v>28</v>
       </c>
       <c r="H81" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I81" s="19" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="J81" s="20"/>
       <c r="K81" s="20">
@@ -7896,7 +7839,7 @@
       </c>
       <c r="L81" s="20"/>
       <c r="M81" s="31" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="N81" s="18">
         <v>2</v>
@@ -7913,7 +7856,7 @@
     </row>
     <row r="82" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B82" s="16">
         <v>2016</v>
@@ -7931,13 +7874,13 @@
         <v>19</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H82" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I82" s="19" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="J82" s="20"/>
       <c r="K82" s="20">
@@ -7945,7 +7888,7 @@
       </c>
       <c r="L82" s="20"/>
       <c r="M82" s="31" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="N82" s="18">
         <v>150</v>
@@ -7962,7 +7905,7 @@
     </row>
     <row r="83" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B83" s="16">
         <v>2016</v>
@@ -7980,13 +7923,13 @@
         <v>19</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H83" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="J83" s="20"/>
       <c r="K83" s="20">
@@ -7994,24 +7937,24 @@
       </c>
       <c r="L83" s="20"/>
       <c r="M83" s="31" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="N83" s="18" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="O83" s="18" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="P83" s="18" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="Q83" s="18" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B84" s="16">
         <v>2016</v>
@@ -8026,16 +7969,16 @@
         <v>14</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H84" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="J84" s="20"/>
       <c r="K84" s="20">
@@ -8043,24 +7986,24 @@
       </c>
       <c r="L84" s="20"/>
       <c r="M84" s="31" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="N84" s="18" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="O84" s="18" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="P84" s="18" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="Q84" s="18" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="235" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B85" s="16">
         <v>2016</v>
@@ -8075,16 +8018,16 @@
         <v>12</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>942</v>
+        <v>907</v>
       </c>
       <c r="H85" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I85" s="19" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="J85" s="20"/>
       <c r="K85" s="20">
@@ -8092,24 +8035,24 @@
       </c>
       <c r="L85" s="20"/>
       <c r="M85" s="31" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="N85" s="18" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="O85" s="18" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="P85" s="18" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="Q85" s="18" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B86" s="16">
         <v>2016</v>
@@ -8130,10 +8073,10 @@
         <v>28</v>
       </c>
       <c r="H86" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="J86" s="20"/>
       <c r="K86" s="20">
@@ -8141,24 +8084,24 @@
       </c>
       <c r="L86" s="20"/>
       <c r="M86" s="21" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="N86" s="18" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="O86" s="18" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="P86" s="18" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="Q86" s="18" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B87" s="16">
         <v>2016</v>
@@ -8173,16 +8116,16 @@
         <v>12</v>
       </c>
       <c r="F87" s="22" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H87" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I87" s="19" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="J87" s="20"/>
       <c r="K87" s="20">
@@ -8190,24 +8133,24 @@
       </c>
       <c r="L87" s="20"/>
       <c r="M87" s="31" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="N87" s="18" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="O87" s="18" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="P87" s="18" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="Q87" s="18" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B88" s="16">
         <v>2016</v>
@@ -8222,12 +8165,12 @@
         <v>1</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G88" s="48"/>
       <c r="H88" s="45"/>
       <c r="I88" s="19" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="J88" s="20"/>
       <c r="K88" s="20">
@@ -8235,16 +8178,16 @@
       </c>
       <c r="L88" s="20"/>
       <c r="M88" s="31" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="N88" s="18">
         <v>0</v>
       </c>
       <c r="O88" s="18" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="P88" s="18" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="Q88" s="18">
         <v>1</v>
@@ -8252,7 +8195,7 @@
     </row>
     <row r="89" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B89" s="16">
         <v>2016</v>
@@ -8272,7 +8215,7 @@
       <c r="G89" s="18"/>
       <c r="H89" s="44"/>
       <c r="I89" s="19" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="J89" s="20"/>
       <c r="K89" s="20">
@@ -8280,7 +8223,7 @@
       </c>
       <c r="L89" s="20"/>
       <c r="M89" s="31" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="N89" s="18">
         <v>10</v>
@@ -8297,7 +8240,7 @@
     </row>
     <row r="90" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B90" s="16">
         <v>2016</v>
@@ -8318,10 +8261,10 @@
         <v>28</v>
       </c>
       <c r="H90" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="J90" s="20"/>
       <c r="K90" s="20">
@@ -8329,24 +8272,24 @@
       </c>
       <c r="L90" s="20"/>
       <c r="M90" s="31" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="N90" s="18" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="O90" s="18" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="P90" s="18" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="Q90" s="19" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B91" s="16">
         <v>2016</v>
@@ -8361,16 +8304,16 @@
         <v>1</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>945</v>
+        <v>910</v>
       </c>
       <c r="H91" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I91" s="19" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="J91" s="20"/>
       <c r="K91" s="20">
@@ -8378,7 +8321,7 @@
       </c>
       <c r="L91" s="20"/>
       <c r="M91" s="31" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="N91" s="32">
         <v>108</v>
@@ -8395,7 +8338,7 @@
     </row>
     <row r="92" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B92" s="16">
         <v>2016</v>
@@ -8413,13 +8356,13 @@
         <v>16</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H92" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I92" s="19" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="J92" s="20"/>
       <c r="K92" s="20">
@@ -8427,24 +8370,24 @@
       </c>
       <c r="L92" s="20"/>
       <c r="M92" s="31" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="N92" s="18" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="O92" s="18" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="P92" s="18" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="Q92" s="18" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="183" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B93" s="16">
         <v>2016</v>
@@ -8462,13 +8405,13 @@
         <v>16</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H93" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I93" s="19" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="J93" s="20"/>
       <c r="K93" s="20">
@@ -8476,7 +8419,7 @@
       </c>
       <c r="L93" s="20"/>
       <c r="M93" s="31" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="N93" s="18">
         <v>254</v>
@@ -8493,7 +8436,7 @@
     </row>
     <row r="94" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A94" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B94" s="16">
         <v>2016</v>
@@ -8514,10 +8457,10 @@
         <v>28</v>
       </c>
       <c r="H94" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I94" s="19" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="J94" s="20"/>
       <c r="K94" s="20">
@@ -8525,24 +8468,24 @@
       </c>
       <c r="L94" s="20"/>
       <c r="M94" s="31" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="N94" s="18" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="O94" s="18" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="P94" s="18" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="Q94" s="18" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B95" s="16">
         <v>2016</v>
@@ -8560,13 +8503,13 @@
         <v>19</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H95" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I95" s="19" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="J95" s="20"/>
       <c r="K95" s="20">
@@ -8574,24 +8517,24 @@
       </c>
       <c r="L95" s="20"/>
       <c r="M95" s="31" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="N95" s="19" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="O95" s="33" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="P95" s="19" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="Q95" s="19" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A96" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B96" s="16">
         <v>2016</v>
@@ -8609,13 +8552,13 @@
         <v>16</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H96" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I96" s="19" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="J96" s="20"/>
       <c r="K96" s="20">
@@ -8623,24 +8566,24 @@
       </c>
       <c r="L96" s="20"/>
       <c r="M96" s="31" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="N96" s="18" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="O96" s="18" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="P96" s="18" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="Q96" s="18" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B97" s="16">
         <v>2016</v>
@@ -8658,13 +8601,13 @@
         <v>16</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H97" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I97" s="19" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="J97" s="20"/>
       <c r="K97" s="20">
@@ -8672,24 +8615,24 @@
       </c>
       <c r="L97" s="20"/>
       <c r="M97" s="31" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="N97" s="18" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="O97" s="18" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="P97" s="18" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="Q97" s="18" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A98" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B98" s="16">
         <v>2016</v>
@@ -8707,13 +8650,13 @@
         <v>16</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H98" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I98" s="19" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="J98" s="20"/>
       <c r="K98" s="20">
@@ -8721,24 +8664,24 @@
       </c>
       <c r="L98" s="20"/>
       <c r="M98" s="31" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="N98" s="18" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="O98" s="18" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="P98" s="18" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="Q98" s="18" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A99" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B99" s="16">
         <v>2016</v>
@@ -8759,10 +8702,10 @@
         <v>28</v>
       </c>
       <c r="H99" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I99" s="19" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="J99" s="20"/>
       <c r="K99" s="20">
@@ -8770,24 +8713,24 @@
       </c>
       <c r="L99" s="20"/>
       <c r="M99" s="21" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="N99" s="18" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="O99" s="18" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="P99" s="18" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="Q99" s="18" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
     </row>
     <row r="100" spans="1:17" ht="287" x14ac:dyDescent="0.2">
       <c r="A100" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B100" s="16">
         <v>2016</v>
@@ -8802,16 +8745,16 @@
         <v>12</v>
       </c>
       <c r="F100" s="22" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>942</v>
+        <v>907</v>
       </c>
       <c r="H100" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I100" s="19" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="J100" s="20"/>
       <c r="K100" s="20">
@@ -8819,24 +8762,24 @@
       </c>
       <c r="L100" s="20"/>
       <c r="M100" s="21" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="N100" s="18" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="O100" s="18" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="P100" s="18" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="Q100" s="18" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A101" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B101" s="16">
         <v>2015</v>
@@ -8851,12 +8794,12 @@
         <v>1</v>
       </c>
       <c r="F101" s="22" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G101" s="48"/>
       <c r="H101" s="45"/>
       <c r="I101" s="19" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="J101" s="20"/>
       <c r="K101" s="20">
@@ -8864,7 +8807,7 @@
       </c>
       <c r="L101" s="20"/>
       <c r="M101" s="31" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="N101" s="18">
         <v>432</v>
@@ -8881,7 +8824,7 @@
     </row>
     <row r="102" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A102" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B102" s="16">
         <v>2015</v>
@@ -8896,16 +8839,16 @@
         <v>14</v>
       </c>
       <c r="F102" s="22" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H102" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I102" s="19" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="J102" s="20"/>
       <c r="K102" s="20">
@@ -8913,24 +8856,24 @@
       </c>
       <c r="L102" s="20"/>
       <c r="M102" s="31" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="N102" s="18" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="O102" s="18" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="P102" s="18" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="Q102" s="18" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A103" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B103" s="16">
         <v>2015</v>
@@ -8948,13 +8891,13 @@
         <v>19</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H103" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I103" s="19" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="J103" s="20"/>
       <c r="K103" s="20">
@@ -8962,7 +8905,7 @@
       </c>
       <c r="L103" s="20"/>
       <c r="M103" s="31" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="N103" s="18">
         <v>8.3000000000000007</v>
@@ -8979,7 +8922,7 @@
     </row>
     <row r="104" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A104" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B104" s="16">
         <v>2015</v>
@@ -8997,13 +8940,13 @@
         <v>16</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H104" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="J104" s="20"/>
       <c r="K104" s="20">
@@ -9011,24 +8954,24 @@
       </c>
       <c r="L104" s="20"/>
       <c r="M104" s="31" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="N104" s="18" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="O104" s="18" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="P104" s="18" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="Q104" s="18" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="365" x14ac:dyDescent="0.2">
       <c r="A105" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B105" s="16">
         <v>2015</v>
@@ -9046,13 +8989,13 @@
         <v>19</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H105" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="J105" s="20"/>
       <c r="K105" s="20">
@@ -9060,7 +9003,7 @@
       </c>
       <c r="L105" s="20"/>
       <c r="M105" s="31" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="N105" s="18">
         <v>20</v>
@@ -9077,7 +9020,7 @@
     </row>
     <row r="106" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A106" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B106" s="16">
         <v>2015</v>
@@ -9092,16 +9035,16 @@
         <v>1</v>
       </c>
       <c r="F106" s="22" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H106" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="J106" s="20"/>
       <c r="K106" s="20">
@@ -9109,24 +9052,24 @@
       </c>
       <c r="L106" s="20"/>
       <c r="M106" s="31" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="N106" s="18" t="s">
-        <v>425</v>
+        <v>925</v>
       </c>
       <c r="O106" s="18" t="s">
-        <v>426</v>
+        <v>926</v>
       </c>
       <c r="P106" s="18" t="s">
-        <v>427</v>
+        <v>927</v>
       </c>
       <c r="Q106" s="18" t="s">
-        <v>428</v>
+        <v>928</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A107" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B107" s="16">
         <v>2015</v>
@@ -9144,13 +9087,13 @@
         <v>16</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H107" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I107" s="19" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="J107" s="20"/>
       <c r="K107" s="20">
@@ -9158,7 +9101,7 @@
       </c>
       <c r="L107" s="20"/>
       <c r="M107" s="31" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="N107" s="18">
         <v>32</v>
@@ -9175,7 +9118,7 @@
     </row>
     <row r="108" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A108" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B108" s="16">
         <v>2015</v>
@@ -9193,13 +9136,13 @@
         <v>28</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>942</v>
+        <v>907</v>
       </c>
       <c r="H108" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I108" s="19" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="J108" s="20"/>
       <c r="K108" s="20">
@@ -9207,24 +9150,24 @@
       </c>
       <c r="L108" s="20"/>
       <c r="M108" s="31" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="N108" s="18" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="O108" s="18" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="P108" s="18" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="Q108" s="18" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A109" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B109" s="16">
         <v>2015</v>
@@ -9242,13 +9185,13 @@
         <v>19</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H109" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I109" s="19" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="J109" s="20"/>
       <c r="K109" s="20">
@@ -9256,24 +9199,24 @@
       </c>
       <c r="L109" s="20"/>
       <c r="M109" s="31" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="N109" s="18" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="O109" s="18" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="P109" s="18" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="Q109" s="18" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="365" x14ac:dyDescent="0.2">
       <c r="A110" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B110" s="16">
         <v>2015</v>
@@ -9291,13 +9234,13 @@
         <v>19</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H110" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I110" s="19" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="J110" s="20"/>
       <c r="K110" s="20">
@@ -9305,24 +9248,24 @@
       </c>
       <c r="L110" s="20"/>
       <c r="M110" s="31" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="N110" s="18" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="O110" s="18" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="P110" s="18" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="Q110" s="18" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B111" s="16">
         <v>2015</v>
@@ -9340,13 +9283,13 @@
         <v>16</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H111" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I111" s="19" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="J111" s="20"/>
       <c r="K111" s="20">
@@ -9354,7 +9297,7 @@
       </c>
       <c r="L111" s="20"/>
       <c r="M111" s="31" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="N111" s="32">
         <v>1500</v>
@@ -9371,7 +9314,7 @@
     </row>
     <row r="112" spans="1:17" ht="235" x14ac:dyDescent="0.2">
       <c r="A112" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B112" s="16">
         <v>2015</v>
@@ -9391,7 +9334,7 @@
       <c r="G112" s="18"/>
       <c r="H112" s="44"/>
       <c r="I112" s="19" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="J112" s="20"/>
       <c r="K112" s="20">
@@ -9399,7 +9342,7 @@
       </c>
       <c r="L112" s="20"/>
       <c r="M112" s="31" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="N112" s="18">
         <v>0</v>
@@ -9416,7 +9359,7 @@
     </row>
     <row r="113" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A113" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B113" s="16">
         <v>2015</v>
@@ -9434,13 +9377,13 @@
         <v>19</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H113" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I113" s="19" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="J113" s="20"/>
       <c r="K113" s="20">
@@ -9448,7 +9391,7 @@
       </c>
       <c r="L113" s="20"/>
       <c r="M113" s="31" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="N113" s="34">
         <v>0.15</v>
@@ -9465,7 +9408,7 @@
     </row>
     <row r="114" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A114" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B114" s="16">
         <v>2015</v>
@@ -9480,16 +9423,16 @@
         <v>4</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H114" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I114" s="19" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="J114" s="20"/>
       <c r="K114" s="20">
@@ -9497,24 +9440,24 @@
       </c>
       <c r="L114" s="20"/>
       <c r="M114" s="31" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="N114" s="18" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="O114" s="18" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="P114" s="18" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="Q114" s="18" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A115" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B115" s="16">
         <v>2015</v>
@@ -9532,13 +9475,13 @@
         <v>19</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H115" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I115" s="19" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="J115" s="20"/>
       <c r="K115" s="20">
@@ -9546,24 +9489,24 @@
       </c>
       <c r="L115" s="20"/>
       <c r="M115" s="31" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="N115" s="18" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="O115" s="18" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="P115" s="18" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="Q115" s="18" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A116" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B116" s="16">
         <v>2015</v>
@@ -9583,7 +9526,7 @@
       <c r="G116" s="18"/>
       <c r="H116" s="44"/>
       <c r="I116" s="19" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="J116" s="20"/>
       <c r="K116" s="20">
@@ -9591,7 +9534,7 @@
       </c>
       <c r="L116" s="20"/>
       <c r="M116" s="31" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="N116" s="18">
         <v>1</v>
@@ -9608,7 +9551,7 @@
     </row>
     <row r="117" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B117" s="16">
         <v>2015</v>
@@ -9626,13 +9569,13 @@
         <v>16</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H117" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I117" s="19" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="J117" s="20"/>
       <c r="K117" s="20">
@@ -9640,24 +9583,24 @@
       </c>
       <c r="L117" s="20"/>
       <c r="M117" s="31" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="N117" s="18" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="O117" s="18" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="P117" s="18" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="Q117" s="18" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
     </row>
     <row r="118" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A118" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B118" s="16">
         <v>2015</v>
@@ -9678,10 +9621,10 @@
         <v>28</v>
       </c>
       <c r="H118" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I118" s="19" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="J118" s="20"/>
       <c r="K118" s="20">
@@ -9689,24 +9632,24 @@
       </c>
       <c r="L118" s="20"/>
       <c r="M118" s="31" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="N118" s="18" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
       <c r="O118" s="18" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="P118" s="18" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="Q118" s="18" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A119" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B119" s="16">
         <v>2015</v>
@@ -9724,13 +9667,13 @@
         <v>16</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H119" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I119" s="19" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="J119" s="20"/>
       <c r="K119" s="20">
@@ -9738,24 +9681,24 @@
       </c>
       <c r="L119" s="20"/>
       <c r="M119" s="31" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="N119" s="18" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="O119" s="18" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="P119" s="18" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="Q119" s="18" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A120" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B120" s="16">
         <v>2015</v>
@@ -9770,16 +9713,16 @@
         <v>14</v>
       </c>
       <c r="F120" s="22" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>945</v>
+        <v>910</v>
       </c>
       <c r="H120" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I120" s="19" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="J120" s="20"/>
       <c r="K120" s="20">
@@ -9787,7 +9730,7 @@
       </c>
       <c r="L120" s="20"/>
       <c r="M120" s="31" t="s">
-        <v>477</v>
+        <v>929</v>
       </c>
       <c r="N120" s="32">
         <v>2</v>
@@ -9804,7 +9747,7 @@
     </row>
     <row r="121" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A121" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B121" s="16">
         <v>2015</v>
@@ -9819,12 +9762,12 @@
         <v>14</v>
       </c>
       <c r="F121" s="22" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G121" s="48"/>
       <c r="H121" s="45"/>
       <c r="I121" s="19" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="J121" s="20"/>
       <c r="K121" s="20">
@@ -9832,24 +9775,24 @@
       </c>
       <c r="L121" s="20"/>
       <c r="M121" s="31" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="N121" s="18" t="s">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="O121" s="18" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="P121" s="19" t="s">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="Q121" s="19" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A122" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B122" s="16">
         <v>2015</v>
@@ -9864,16 +9807,16 @@
         <v>4</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H122" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I122" s="19" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="J122" s="20"/>
       <c r="K122" s="20">
@@ -9881,7 +9824,7 @@
       </c>
       <c r="L122" s="20"/>
       <c r="M122" s="31" t="s">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="N122" s="18">
         <v>3</v>
@@ -9898,7 +9841,7 @@
     </row>
     <row r="123" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A123" s="35" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B123" s="35">
         <v>2015</v>
@@ -9919,10 +9862,10 @@
         <v>28</v>
       </c>
       <c r="H123" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="J123" s="39"/>
       <c r="K123" s="39">
@@ -9930,7 +9873,7 @@
       </c>
       <c r="L123" s="39"/>
       <c r="M123" s="40" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="N123" s="41">
         <v>1.1256944444444443</v>
@@ -9947,7 +9890,7 @@
     </row>
     <row r="124" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A124" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B124" s="16">
         <v>2015</v>
@@ -9968,10 +9911,10 @@
         <v>28</v>
       </c>
       <c r="H124" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I124" s="19" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="J124" s="20"/>
       <c r="K124" s="20">
@@ -9979,24 +9922,24 @@
       </c>
       <c r="L124" s="20"/>
       <c r="M124" s="31" t="s">
-        <v>487</v>
+        <v>456</v>
       </c>
       <c r="N124" s="18" t="s">
-        <v>488</v>
+        <v>457</v>
       </c>
       <c r="O124" s="18" t="s">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="P124" s="18" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="Q124" s="18" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
     </row>
     <row r="125" spans="1:17" ht="326" x14ac:dyDescent="0.2">
       <c r="A125" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B125" s="16">
         <v>2015</v>
@@ -10011,16 +9954,16 @@
         <v>12</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>942</v>
+        <v>907</v>
       </c>
       <c r="H125" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I125" s="19" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="J125" s="20"/>
       <c r="K125" s="20">
@@ -10028,13 +9971,13 @@
       </c>
       <c r="L125" s="20"/>
       <c r="M125" s="31" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="N125" s="18" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="O125" s="18" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="P125" s="18">
         <v>4</v>
@@ -10045,7 +9988,7 @@
     </row>
     <row r="126" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A126" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B126" s="16">
         <v>2015</v>
@@ -10066,10 +10009,10 @@
         <v>28</v>
       </c>
       <c r="H126" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I126" s="19" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="J126" s="20"/>
       <c r="K126" s="20">
@@ -10077,7 +10020,7 @@
       </c>
       <c r="L126" s="20"/>
       <c r="M126" s="31" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="N126" s="18">
         <v>3</v>
@@ -10094,7 +10037,7 @@
     </row>
     <row r="127" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A127" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B127" s="16">
         <v>2015</v>
@@ -10115,10 +10058,10 @@
         <v>28</v>
       </c>
       <c r="H127" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I127" s="19" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="J127" s="20"/>
       <c r="K127" s="20">
@@ -10126,7 +10069,7 @@
       </c>
       <c r="L127" s="20"/>
       <c r="M127" s="31" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="N127" s="18">
         <v>10</v>
@@ -10143,7 +10086,7 @@
     </row>
     <row r="128" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A128" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B128" s="16">
         <v>2015</v>
@@ -10164,10 +10107,10 @@
         <v>28</v>
       </c>
       <c r="H128" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I128" s="19" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="J128" s="20"/>
       <c r="K128" s="20">
@@ -10175,24 +10118,24 @@
       </c>
       <c r="L128" s="20"/>
       <c r="M128" s="31" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="N128" s="18" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="O128" s="18" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="P128" s="18" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="Q128" s="18" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
     </row>
     <row r="129" spans="1:17" ht="183" x14ac:dyDescent="0.2">
       <c r="A129" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B129" s="16">
         <v>2015</v>
@@ -10207,16 +10150,16 @@
         <v>1</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>942</v>
+        <v>907</v>
       </c>
       <c r="H129" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I129" s="19" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="J129" s="20"/>
       <c r="K129" s="20">
@@ -10224,24 +10167,24 @@
       </c>
       <c r="L129" s="20"/>
       <c r="M129" s="31" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="N129" s="19" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
       <c r="O129" s="19" t="s">
-        <v>507</v>
+        <v>476</v>
       </c>
       <c r="P129" s="19" t="s">
-        <v>508</v>
+        <v>477</v>
       </c>
       <c r="Q129" s="19" t="s">
-        <v>509</v>
+        <v>478</v>
       </c>
     </row>
     <row r="130" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B130" s="16">
         <v>2015</v>
@@ -10262,10 +10205,10 @@
         <v>28</v>
       </c>
       <c r="H130" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I130" s="19" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="J130" s="20"/>
       <c r="K130" s="20">
@@ -10273,24 +10216,24 @@
       </c>
       <c r="L130" s="20"/>
       <c r="M130" s="31" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="N130" s="18" t="s">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="O130" s="18" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="P130" s="18" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="Q130" s="18" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
     </row>
     <row r="131" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A131" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B131" s="16">
         <v>2014</v>
@@ -10308,13 +10251,13 @@
         <v>19</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H131" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I131" s="19" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="J131" s="20"/>
       <c r="K131" s="20">
@@ -10322,7 +10265,7 @@
       </c>
       <c r="L131" s="20"/>
       <c r="M131" s="31" t="s">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="N131" s="29">
         <v>3000</v>
@@ -10339,7 +10282,7 @@
     </row>
     <row r="132" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A132" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B132" s="16">
         <v>2014</v>
@@ -10357,13 +10300,13 @@
         <v>19</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H132" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I132" s="19" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="J132" s="20"/>
       <c r="K132" s="20">
@@ -10371,7 +10314,7 @@
       </c>
       <c r="L132" s="20"/>
       <c r="M132" s="31" t="s">
-        <v>517</v>
+        <v>486</v>
       </c>
       <c r="N132" s="18">
         <v>-7</v>
@@ -10388,7 +10331,7 @@
     </row>
     <row r="133" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A133" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B133" s="16">
         <v>2014</v>
@@ -10403,16 +10346,16 @@
         <v>4</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H133" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I133" s="19" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="J133" s="20"/>
       <c r="K133" s="20">
@@ -10420,24 +10363,24 @@
       </c>
       <c r="L133" s="20"/>
       <c r="M133" s="31" t="s">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="N133" s="18" t="s">
-        <v>519</v>
+        <v>488</v>
       </c>
       <c r="O133" s="18" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="P133" s="18" t="s">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="Q133" s="18" t="s">
-        <v>522</v>
+        <v>491</v>
       </c>
     </row>
     <row r="134" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A134" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B134" s="16">
         <v>2014</v>
@@ -10452,16 +10395,16 @@
         <v>14</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>942</v>
+        <v>907</v>
       </c>
       <c r="H134" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I134" s="19" t="s">
-        <v>523</v>
+        <v>492</v>
       </c>
       <c r="J134" s="20"/>
       <c r="K134" s="20">
@@ -10469,24 +10412,24 @@
       </c>
       <c r="L134" s="20"/>
       <c r="M134" s="31" t="s">
-        <v>524</v>
+        <v>493</v>
       </c>
       <c r="N134" s="18" t="s">
-        <v>525</v>
+        <v>494</v>
       </c>
       <c r="O134" s="18" t="s">
-        <v>526</v>
+        <v>495</v>
       </c>
       <c r="P134" s="18" t="s">
-        <v>527</v>
+        <v>496</v>
       </c>
       <c r="Q134" s="18" t="s">
-        <v>528</v>
+        <v>497</v>
       </c>
     </row>
     <row r="135" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A135" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B135" s="16">
         <v>2014</v>
@@ -10504,13 +10447,13 @@
         <v>19</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H135" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I135" s="19" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="J135" s="20"/>
       <c r="K135" s="20">
@@ -10518,7 +10461,7 @@
       </c>
       <c r="L135" s="20"/>
       <c r="M135" s="31" t="s">
-        <v>529</v>
+        <v>498</v>
       </c>
       <c r="N135" s="18">
         <v>2</v>
@@ -10535,7 +10478,7 @@
     </row>
     <row r="136" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A136" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B136" s="16">
         <v>2014</v>
@@ -10553,13 +10496,13 @@
         <v>16</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H136" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I136" s="19" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="J136" s="20"/>
       <c r="K136" s="20">
@@ -10567,7 +10510,7 @@
       </c>
       <c r="L136" s="20"/>
       <c r="M136" s="31" t="s">
-        <v>530</v>
+        <v>499</v>
       </c>
       <c r="N136" s="18">
         <v>2</v>
@@ -10584,7 +10527,7 @@
     </row>
     <row r="137" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A137" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B137" s="16">
         <v>2014</v>
@@ -10599,16 +10542,16 @@
         <v>4</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H137" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I137" s="19" t="s">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="J137" s="20"/>
       <c r="K137" s="20">
@@ -10616,24 +10559,24 @@
       </c>
       <c r="L137" s="20"/>
       <c r="M137" s="31" t="s">
-        <v>532</v>
+        <v>501</v>
       </c>
       <c r="N137" s="18" t="s">
-        <v>533</v>
+        <v>930</v>
       </c>
       <c r="O137" s="18" t="s">
-        <v>534</v>
+        <v>931</v>
       </c>
       <c r="P137" s="18" t="s">
-        <v>535</v>
+        <v>932</v>
       </c>
       <c r="Q137" s="18" t="s">
-        <v>536</v>
+        <v>933</v>
       </c>
     </row>
     <row r="138" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A138" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B138" s="16">
         <v>2014</v>
@@ -10654,10 +10597,10 @@
         <v>28</v>
       </c>
       <c r="H138" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I138" s="19" t="s">
-        <v>537</v>
+        <v>502</v>
       </c>
       <c r="J138" s="20"/>
       <c r="K138" s="20">
@@ -10665,24 +10608,24 @@
       </c>
       <c r="L138" s="20"/>
       <c r="M138" s="31" t="s">
-        <v>538</v>
+        <v>503</v>
       </c>
       <c r="N138" s="18" t="s">
-        <v>539</v>
+        <v>504</v>
       </c>
       <c r="O138" s="18" t="s">
-        <v>540</v>
+        <v>505</v>
       </c>
       <c r="P138" s="18" t="s">
-        <v>541</v>
+        <v>506</v>
       </c>
       <c r="Q138" s="18" t="s">
-        <v>542</v>
+        <v>507</v>
       </c>
     </row>
     <row r="139" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A139" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B139" s="16">
         <v>2014</v>
@@ -10700,13 +10643,13 @@
         <v>16</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H139" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I139" s="19" t="s">
-        <v>543</v>
+        <v>508</v>
       </c>
       <c r="J139" s="20"/>
       <c r="K139" s="20">
@@ -10714,24 +10657,24 @@
       </c>
       <c r="L139" s="20"/>
       <c r="M139" s="31" t="s">
-        <v>544</v>
+        <v>509</v>
       </c>
       <c r="N139" s="18" t="s">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="O139" s="19" t="s">
-        <v>546</v>
+        <v>511</v>
       </c>
       <c r="P139" s="33" t="s">
-        <v>547</v>
+        <v>512</v>
       </c>
       <c r="Q139" s="33" t="s">
-        <v>548</v>
+        <v>513</v>
       </c>
     </row>
     <row r="140" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A140" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B140" s="16">
         <v>2014</v>
@@ -10746,16 +10689,16 @@
         <v>1</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H140" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I140" s="19" t="s">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="J140" s="20"/>
       <c r="K140" s="20">
@@ -10763,24 +10706,24 @@
       </c>
       <c r="L140" s="20"/>
       <c r="M140" s="31" t="s">
-        <v>549</v>
+        <v>514</v>
       </c>
       <c r="N140" s="18" t="s">
-        <v>550</v>
+        <v>515</v>
       </c>
       <c r="O140" s="18" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
       <c r="P140" s="18" t="s">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="Q140" s="18" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
     </row>
     <row r="141" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A141" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B141" s="16">
         <v>2014</v>
@@ -10798,13 +10741,13 @@
         <v>19</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H141" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I141" s="19" t="s">
-        <v>554</v>
+        <v>519</v>
       </c>
       <c r="J141" s="20"/>
       <c r="K141" s="20">
@@ -10812,24 +10755,24 @@
       </c>
       <c r="L141" s="20"/>
       <c r="M141" s="21" t="s">
-        <v>555</v>
+        <v>520</v>
       </c>
       <c r="N141" s="18" t="s">
-        <v>556</v>
+        <v>521</v>
       </c>
       <c r="O141" s="18" t="s">
-        <v>557</v>
+        <v>522</v>
       </c>
       <c r="P141" s="18" t="s">
-        <v>558</v>
+        <v>523</v>
       </c>
       <c r="Q141" s="18" t="s">
-        <v>559</v>
+        <v>524</v>
       </c>
     </row>
     <row r="142" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A142" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B142" s="16">
         <v>2014</v>
@@ -10850,10 +10793,10 @@
         <v>28</v>
       </c>
       <c r="H142" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I142" s="19" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="J142" s="20"/>
       <c r="K142" s="20">
@@ -10861,24 +10804,24 @@
       </c>
       <c r="L142" s="20"/>
       <c r="M142" s="31" t="s">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="N142" s="18" t="s">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="O142" s="18" t="s">
-        <v>562</v>
+        <v>527</v>
       </c>
       <c r="P142" s="18" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="Q142" s="18" t="s">
-        <v>564</v>
+        <v>529</v>
       </c>
     </row>
     <row r="143" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A143" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B143" s="16">
         <v>2014</v>
@@ -10896,13 +10839,13 @@
         <v>19</v>
       </c>
       <c r="G143" s="49" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H143" s="52" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I143" s="19" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="J143" s="20"/>
       <c r="K143" s="20">
@@ -10910,24 +10853,24 @@
       </c>
       <c r="L143" s="20"/>
       <c r="M143" s="31" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="N143" s="18" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="O143" s="18" t="s">
-        <v>567</v>
+        <v>532</v>
       </c>
       <c r="P143" s="18" t="s">
-        <v>568</v>
+        <v>533</v>
       </c>
       <c r="Q143" s="18" t="s">
-        <v>569</v>
+        <v>534</v>
       </c>
     </row>
     <row r="144" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A144" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B144" s="16">
         <v>2014</v>
@@ -10945,13 +10888,13 @@
         <v>19</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H144" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I144" s="19" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="J144" s="20"/>
       <c r="K144" s="20">
@@ -10959,7 +10902,7 @@
       </c>
       <c r="L144" s="20"/>
       <c r="M144" s="31" t="s">
-        <v>570</v>
+        <v>535</v>
       </c>
       <c r="N144" s="32">
         <v>1200</v>
@@ -10976,7 +10919,7 @@
     </row>
     <row r="145" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A145" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B145" s="16">
         <v>2014</v>
@@ -10991,16 +10934,16 @@
         <v>14</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>945</v>
+        <v>910</v>
       </c>
       <c r="H145" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I145" s="19" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="J145" s="20"/>
       <c r="K145" s="20">
@@ -11008,7 +10951,7 @@
       </c>
       <c r="L145" s="20"/>
       <c r="M145" s="31" t="s">
-        <v>571</v>
+        <v>536</v>
       </c>
       <c r="N145" s="18">
         <v>15</v>
@@ -11025,7 +10968,7 @@
     </row>
     <row r="146" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A146" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B146" s="16">
         <v>2014</v>
@@ -11046,10 +10989,10 @@
         <v>28</v>
       </c>
       <c r="H146" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I146" s="19" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="J146" s="20"/>
       <c r="K146" s="20">
@@ -11057,24 +11000,24 @@
       </c>
       <c r="L146" s="20"/>
       <c r="M146" s="31" t="s">
-        <v>572</v>
+        <v>537</v>
       </c>
       <c r="N146" s="18" t="s">
-        <v>573</v>
+        <v>538</v>
       </c>
       <c r="O146" s="18" t="s">
-        <v>574</v>
+        <v>539</v>
       </c>
       <c r="P146" s="18" t="s">
-        <v>575</v>
+        <v>540</v>
       </c>
       <c r="Q146" s="18" t="s">
-        <v>576</v>
+        <v>541</v>
       </c>
     </row>
     <row r="147" spans="1:17" ht="183" x14ac:dyDescent="0.2">
       <c r="A147" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B147" s="16">
         <v>2014</v>
@@ -11092,13 +11035,13 @@
         <v>16</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H147" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I147" s="19" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="J147" s="20"/>
       <c r="K147" s="20">
@@ -11106,7 +11049,7 @@
       </c>
       <c r="L147" s="20"/>
       <c r="M147" s="31" t="s">
-        <v>577</v>
+        <v>542</v>
       </c>
       <c r="N147" s="32">
         <v>140</v>
@@ -11123,7 +11066,7 @@
     </row>
     <row r="148" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A148" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B148" s="16">
         <v>2014</v>
@@ -11141,13 +11084,13 @@
         <v>16</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H148" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I148" s="19" t="s">
-        <v>578</v>
+        <v>543</v>
       </c>
       <c r="J148" s="20"/>
       <c r="K148" s="20">
@@ -11155,24 +11098,24 @@
       </c>
       <c r="L148" s="20"/>
       <c r="M148" s="21" t="s">
-        <v>579</v>
+        <v>544</v>
       </c>
       <c r="N148" s="18" t="s">
-        <v>580</v>
+        <v>545</v>
       </c>
       <c r="O148" s="18" t="s">
-        <v>581</v>
+        <v>546</v>
       </c>
       <c r="P148" s="18" t="s">
-        <v>582</v>
+        <v>547</v>
       </c>
       <c r="Q148" s="18" t="s">
-        <v>583</v>
+        <v>548</v>
       </c>
     </row>
     <row r="149" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A149" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B149" s="16">
         <v>2014</v>
@@ -11193,10 +11136,10 @@
         <v>28</v>
       </c>
       <c r="H149" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I149" s="19" t="s">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="J149" s="20"/>
       <c r="K149" s="20">
@@ -11204,7 +11147,7 @@
       </c>
       <c r="L149" s="20"/>
       <c r="M149" s="31" t="s">
-        <v>585</v>
+        <v>550</v>
       </c>
       <c r="N149" s="18">
         <v>8</v>
@@ -11221,7 +11164,7 @@
     </row>
     <row r="150" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A150" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B150" s="16">
         <v>2014</v>
@@ -11242,10 +11185,10 @@
         <v>28</v>
       </c>
       <c r="H150" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I150" s="19" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="J150" s="20"/>
       <c r="K150" s="20">
@@ -11253,24 +11196,24 @@
       </c>
       <c r="L150" s="20"/>
       <c r="M150" s="31" t="s">
-        <v>586</v>
+        <v>551</v>
       </c>
       <c r="N150" s="18" t="s">
-        <v>587</v>
+        <v>552</v>
       </c>
       <c r="O150" s="18" t="s">
-        <v>588</v>
+        <v>553</v>
       </c>
       <c r="P150" s="18" t="s">
-        <v>589</v>
+        <v>554</v>
       </c>
       <c r="Q150" s="18" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
     </row>
     <row r="151" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A151" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B151" s="16">
         <v>2014</v>
@@ -11288,13 +11231,13 @@
         <v>19</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H151" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I151" s="19" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="J151" s="20"/>
       <c r="K151" s="20">
@@ -11302,7 +11245,7 @@
       </c>
       <c r="L151" s="20"/>
       <c r="M151" s="31" t="s">
-        <v>591</v>
+        <v>556</v>
       </c>
       <c r="N151" s="18">
         <v>8</v>
@@ -11319,7 +11262,7 @@
     </row>
     <row r="152" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A152" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B152" s="16">
         <v>2014</v>
@@ -11340,10 +11283,10 @@
         <v>28</v>
       </c>
       <c r="H152" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I152" s="19" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="J152" s="20"/>
       <c r="K152" s="20">
@@ -11351,24 +11294,24 @@
       </c>
       <c r="L152" s="20"/>
       <c r="M152" s="31" t="s">
-        <v>592</v>
+        <v>557</v>
       </c>
       <c r="N152" s="18" t="s">
-        <v>593</v>
+        <v>558</v>
       </c>
       <c r="O152" s="18" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="P152" s="18" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="Q152" s="18" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
     </row>
     <row r="153" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A153" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B153" s="16">
         <v>2014</v>
@@ -11386,13 +11329,13 @@
         <v>16</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H153" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I153" s="19" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="J153" s="20"/>
       <c r="K153" s="20">
@@ -11400,24 +11343,24 @@
       </c>
       <c r="L153" s="20"/>
       <c r="M153" s="31" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="N153" s="18" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="O153" s="18" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="P153" s="18" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="Q153" s="18" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
     </row>
     <row r="154" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A154" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B154" s="16">
         <v>2014</v>
@@ -11432,16 +11375,16 @@
         <v>12</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H154" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I154" s="19" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="J154" s="20"/>
       <c r="K154" s="20">
@@ -11449,24 +11392,24 @@
       </c>
       <c r="L154" s="20"/>
       <c r="M154" s="31" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="N154" s="18" t="s">
-        <v>603</v>
+        <v>568</v>
       </c>
       <c r="O154" s="18" t="s">
-        <v>604</v>
+        <v>569</v>
       </c>
       <c r="P154" s="18" t="s">
-        <v>605</v>
+        <v>570</v>
       </c>
       <c r="Q154" s="18" t="s">
-        <v>606</v>
+        <v>571</v>
       </c>
     </row>
     <row r="155" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A155" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B155" s="16">
         <v>2014</v>
@@ -11487,10 +11430,10 @@
         <v>28</v>
       </c>
       <c r="H155" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I155" s="19" t="s">
-        <v>607</v>
+        <v>572</v>
       </c>
       <c r="J155" s="20"/>
       <c r="K155" s="20">
@@ -11498,24 +11441,24 @@
       </c>
       <c r="L155" s="20"/>
       <c r="M155" s="31" t="s">
-        <v>608</v>
+        <v>573</v>
       </c>
       <c r="N155" s="18" t="s">
-        <v>609</v>
+        <v>574</v>
       </c>
       <c r="O155" s="18" t="s">
-        <v>610</v>
+        <v>575</v>
       </c>
       <c r="P155" s="18" t="s">
-        <v>611</v>
+        <v>576</v>
       </c>
       <c r="Q155" s="18" t="s">
-        <v>612</v>
+        <v>577</v>
       </c>
     </row>
     <row r="156" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A156" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B156" s="16">
         <v>2014</v>
@@ -11533,13 +11476,13 @@
         <v>16</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H156" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I156" s="19" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="J156" s="20"/>
       <c r="K156" s="20">
@@ -11547,24 +11490,24 @@
       </c>
       <c r="L156" s="20"/>
       <c r="M156" s="31" t="s">
-        <v>613</v>
+        <v>578</v>
       </c>
       <c r="N156" s="18" t="s">
-        <v>614</v>
+        <v>579</v>
       </c>
       <c r="O156" s="18" t="s">
-        <v>615</v>
+        <v>580</v>
       </c>
       <c r="P156" s="18" t="s">
-        <v>616</v>
+        <v>581</v>
       </c>
       <c r="Q156" s="18" t="s">
-        <v>617</v>
+        <v>582</v>
       </c>
     </row>
     <row r="157" spans="1:17" ht="202" x14ac:dyDescent="0.2">
       <c r="A157" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B157" s="16">
         <v>2013</v>
@@ -11579,16 +11522,16 @@
         <v>1</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H157" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I157" s="43" t="s">
-        <v>618</v>
+        <v>583</v>
       </c>
       <c r="J157" s="20"/>
       <c r="K157" s="20">
@@ -11596,24 +11539,24 @@
       </c>
       <c r="L157" s="20"/>
       <c r="M157" s="31" t="s">
-        <v>619</v>
+        <v>584</v>
       </c>
       <c r="N157" s="18" t="s">
-        <v>620</v>
+        <v>585</v>
       </c>
       <c r="O157" s="18" t="s">
-        <v>621</v>
+        <v>586</v>
       </c>
       <c r="P157" s="18" t="s">
-        <v>622</v>
+        <v>587</v>
       </c>
       <c r="Q157" s="18" t="s">
-        <v>623</v>
+        <v>588</v>
       </c>
     </row>
     <row r="158" spans="1:17" ht="224" x14ac:dyDescent="0.2">
       <c r="A158" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B158" s="16">
         <v>2013</v>
@@ -11631,13 +11574,13 @@
         <v>19</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H158" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I158" s="43" t="s">
-        <v>624</v>
+        <v>589</v>
       </c>
       <c r="J158" s="20"/>
       <c r="K158" s="20">
@@ -11645,24 +11588,24 @@
       </c>
       <c r="L158" s="20"/>
       <c r="M158" s="31" t="s">
-        <v>625</v>
+        <v>590</v>
       </c>
       <c r="N158" s="18" t="s">
-        <v>626</v>
+        <v>591</v>
       </c>
       <c r="O158" s="18" t="s">
-        <v>627</v>
+        <v>592</v>
       </c>
       <c r="P158" s="18" t="s">
-        <v>628</v>
+        <v>593</v>
       </c>
       <c r="Q158" s="18" t="s">
-        <v>629</v>
+        <v>594</v>
       </c>
     </row>
     <row r="159" spans="1:17" ht="367" x14ac:dyDescent="0.2">
       <c r="A159" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B159" s="16">
         <v>2013</v>
@@ -11680,13 +11623,13 @@
         <v>19</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H159" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I159" s="43" t="s">
-        <v>630</v>
+        <v>595</v>
       </c>
       <c r="J159" s="20"/>
       <c r="K159" s="20">
@@ -11694,7 +11637,7 @@
       </c>
       <c r="L159" s="20"/>
       <c r="M159" s="31" t="s">
-        <v>631</v>
+        <v>596</v>
       </c>
       <c r="N159" s="18">
         <v>38</v>
@@ -11711,7 +11654,7 @@
     </row>
     <row r="160" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A160" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B160" s="16">
         <v>2013</v>
@@ -11726,16 +11669,16 @@
         <v>12</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G160" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H160" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I160" s="19" t="s">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="J160" s="20"/>
       <c r="K160" s="20">
@@ -11743,7 +11686,7 @@
       </c>
       <c r="L160" s="20"/>
       <c r="M160" s="31" t="s">
-        <v>632</v>
+        <v>597</v>
       </c>
       <c r="N160" s="18">
         <v>2</v>
@@ -11760,7 +11703,7 @@
     </row>
     <row r="161" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A161" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B161" s="16">
         <v>2013</v>
@@ -11778,13 +11721,13 @@
         <v>16</v>
       </c>
       <c r="G161" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H161" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I161" s="19" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="J161" s="20"/>
       <c r="K161" s="20">
@@ -11792,24 +11735,24 @@
       </c>
       <c r="L161" s="20"/>
       <c r="M161" s="31" t="s">
-        <v>633</v>
+        <v>598</v>
       </c>
       <c r="N161" s="18" t="s">
-        <v>634</v>
+        <v>599</v>
       </c>
       <c r="O161" s="18" t="s">
-        <v>635</v>
+        <v>600</v>
       </c>
       <c r="P161" s="18" t="s">
-        <v>636</v>
+        <v>601</v>
       </c>
       <c r="Q161" s="18" t="s">
-        <v>637</v>
+        <v>602</v>
       </c>
     </row>
     <row r="162" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A162" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B162" s="16">
         <v>2013</v>
@@ -11827,13 +11770,13 @@
         <v>16</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H162" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I162" s="19" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="J162" s="20"/>
       <c r="K162" s="20">
@@ -11841,24 +11784,24 @@
       </c>
       <c r="L162" s="20"/>
       <c r="M162" s="31" t="s">
-        <v>639</v>
+        <v>604</v>
       </c>
       <c r="N162" s="18" t="s">
-        <v>640</v>
+        <v>605</v>
       </c>
       <c r="O162" s="18" t="s">
-        <v>641</v>
+        <v>606</v>
       </c>
       <c r="P162" s="18" t="s">
-        <v>642</v>
+        <v>607</v>
       </c>
       <c r="Q162" s="18" t="s">
-        <v>643</v>
+        <v>608</v>
       </c>
     </row>
     <row r="163" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A163" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B163" s="16">
         <v>2013</v>
@@ -11878,7 +11821,7 @@
       <c r="G163" s="18"/>
       <c r="H163" s="44"/>
       <c r="I163" s="19" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="J163" s="20"/>
       <c r="K163" s="20">
@@ -11886,24 +11829,24 @@
       </c>
       <c r="L163" s="20"/>
       <c r="M163" s="31" t="s">
-        <v>644</v>
+        <v>609</v>
       </c>
       <c r="N163" s="18" t="s">
-        <v>645</v>
+        <v>610</v>
       </c>
       <c r="O163" s="18" t="s">
-        <v>646</v>
+        <v>611</v>
       </c>
       <c r="P163" s="18" t="s">
-        <v>647</v>
+        <v>612</v>
       </c>
       <c r="Q163" s="18" t="s">
-        <v>648</v>
+        <v>613</v>
       </c>
     </row>
     <row r="164" spans="1:17" ht="185" x14ac:dyDescent="0.2">
       <c r="A164" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B164" s="16">
         <v>2013</v>
@@ -11921,13 +11864,13 @@
         <v>19</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H164" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I164" s="43" t="s">
-        <v>649</v>
+        <v>614</v>
       </c>
       <c r="J164" s="20"/>
       <c r="K164" s="20">
@@ -11935,24 +11878,24 @@
       </c>
       <c r="L164" s="20"/>
       <c r="M164" s="31" t="s">
-        <v>650</v>
+        <v>615</v>
       </c>
       <c r="N164" s="18" t="s">
-        <v>651</v>
+        <v>616</v>
       </c>
       <c r="O164" s="18" t="s">
-        <v>652</v>
+        <v>617</v>
       </c>
       <c r="P164" s="18" t="s">
-        <v>653</v>
+        <v>618</v>
       </c>
       <c r="Q164" s="18" t="s">
-        <v>654</v>
+        <v>619</v>
       </c>
     </row>
     <row r="165" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A165" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B165" s="16">
         <v>2013</v>
@@ -11970,13 +11913,13 @@
         <v>19</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H165" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I165" s="19" t="s">
-        <v>655</v>
+        <v>620</v>
       </c>
       <c r="J165" s="20"/>
       <c r="K165" s="20">
@@ -11984,24 +11927,24 @@
       </c>
       <c r="L165" s="20"/>
       <c r="M165" s="31" t="s">
-        <v>656</v>
+        <v>621</v>
       </c>
       <c r="N165" s="18" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="O165" s="18" t="s">
-        <v>657</v>
+        <v>622</v>
       </c>
       <c r="P165" s="18" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="Q165" s="18" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
     </row>
     <row r="166" spans="1:17" ht="183" x14ac:dyDescent="0.2">
       <c r="A166" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B166" s="16">
         <v>2013</v>
@@ -12019,13 +11962,13 @@
         <v>16</v>
       </c>
       <c r="G166" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H166" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I166" s="19" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="J166" s="20"/>
       <c r="K166" s="20">
@@ -12033,7 +11976,7 @@
       </c>
       <c r="L166" s="20"/>
       <c r="M166" s="31" t="s">
-        <v>658</v>
+        <v>623</v>
       </c>
       <c r="N166" s="18">
         <v>50</v>
@@ -12050,7 +11993,7 @@
     </row>
     <row r="167" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A167" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B167" s="16">
         <v>2013</v>
@@ -12068,13 +12011,13 @@
         <v>16</v>
       </c>
       <c r="G167" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H167" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I167" s="19" t="s">
-        <v>659</v>
+        <v>624</v>
       </c>
       <c r="J167" s="20"/>
       <c r="K167" s="20">
@@ -12082,7 +12025,7 @@
       </c>
       <c r="L167" s="20"/>
       <c r="M167" s="31" t="s">
-        <v>660</v>
+        <v>625</v>
       </c>
       <c r="N167" s="18">
         <v>40</v>
@@ -12099,7 +12042,7 @@
     </row>
     <row r="168" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A168" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B168" s="16">
         <v>2013</v>
@@ -12117,13 +12060,13 @@
         <v>19</v>
       </c>
       <c r="G168" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H168" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I168" s="19" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="J168" s="20"/>
       <c r="K168" s="20">
@@ -12131,7 +12074,7 @@
       </c>
       <c r="L168" s="20"/>
       <c r="M168" s="31" t="s">
-        <v>661</v>
+        <v>626</v>
       </c>
       <c r="N168" s="32">
         <v>100</v>
@@ -12148,7 +12091,7 @@
     </row>
     <row r="169" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A169" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B169" s="16">
         <v>2013</v>
@@ -12163,16 +12106,16 @@
         <v>12</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H169" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I169" s="19" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="J169" s="20"/>
       <c r="K169" s="20">
@@ -12180,7 +12123,7 @@
       </c>
       <c r="L169" s="20"/>
       <c r="M169" s="31" t="s">
-        <v>662</v>
+        <v>627</v>
       </c>
       <c r="N169" s="18">
         <v>2</v>
@@ -12197,7 +12140,7 @@
     </row>
     <row r="170" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A170" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B170" s="16">
         <v>2013</v>
@@ -12218,10 +12161,10 @@
         <v>28</v>
       </c>
       <c r="H170" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I170" s="19" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="J170" s="20"/>
       <c r="K170" s="20">
@@ -12229,24 +12172,24 @@
       </c>
       <c r="L170" s="20"/>
       <c r="M170" s="31" t="s">
-        <v>663</v>
+        <v>628</v>
       </c>
       <c r="N170" s="18" t="s">
-        <v>664</v>
+        <v>629</v>
       </c>
       <c r="O170" s="18" t="s">
-        <v>665</v>
+        <v>630</v>
       </c>
       <c r="P170" s="18" t="s">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="Q170" s="18" t="s">
-        <v>667</v>
+        <v>632</v>
       </c>
     </row>
     <row r="171" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A171" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B171" s="16">
         <v>2013</v>
@@ -12261,16 +12204,16 @@
         <v>12</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G171" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H171" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I171" s="19" t="s">
-        <v>668</v>
+        <v>633</v>
       </c>
       <c r="J171" s="20"/>
       <c r="K171" s="20">
@@ -12278,24 +12221,24 @@
       </c>
       <c r="L171" s="20"/>
       <c r="M171" s="31" t="s">
-        <v>669</v>
+        <v>634</v>
       </c>
       <c r="N171" s="18" t="s">
-        <v>670</v>
+        <v>635</v>
       </c>
       <c r="O171" s="18" t="s">
-        <v>671</v>
+        <v>636</v>
       </c>
       <c r="P171" s="18" t="s">
-        <v>672</v>
+        <v>637</v>
       </c>
       <c r="Q171" s="18" t="s">
-        <v>673</v>
+        <v>638</v>
       </c>
     </row>
     <row r="172" spans="1:17" ht="183" x14ac:dyDescent="0.2">
       <c r="A172" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B172" s="16">
         <v>2013</v>
@@ -12313,13 +12256,13 @@
         <v>16</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H172" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I172" s="19" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="J172" s="20"/>
       <c r="K172" s="20">
@@ -12327,24 +12270,24 @@
       </c>
       <c r="L172" s="20"/>
       <c r="M172" s="31" t="s">
-        <v>674</v>
+        <v>639</v>
       </c>
       <c r="N172" s="18" t="s">
-        <v>675</v>
+        <v>640</v>
       </c>
       <c r="O172" s="18" t="s">
-        <v>676</v>
+        <v>641</v>
       </c>
       <c r="P172" s="19" t="s">
-        <v>677</v>
+        <v>642</v>
       </c>
       <c r="Q172" s="19" t="s">
-        <v>678</v>
+        <v>643</v>
       </c>
     </row>
     <row r="173" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A173" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B173" s="16">
         <v>2013</v>
@@ -12359,16 +12302,16 @@
         <v>12</v>
       </c>
       <c r="F173" s="18" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>942</v>
+        <v>907</v>
       </c>
       <c r="H173" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I173" s="19" t="s">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="J173" s="20"/>
       <c r="K173" s="20">
@@ -12376,24 +12319,24 @@
       </c>
       <c r="L173" s="20"/>
       <c r="M173" s="31" t="s">
-        <v>679</v>
+        <v>644</v>
       </c>
       <c r="N173" s="18" t="s">
-        <v>680</v>
+        <v>645</v>
       </c>
       <c r="O173" s="18" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="P173" s="18" t="s">
-        <v>682</v>
+        <v>647</v>
       </c>
       <c r="Q173" s="18" t="s">
-        <v>683</v>
+        <v>648</v>
       </c>
     </row>
     <row r="174" spans="1:17" ht="235" x14ac:dyDescent="0.2">
       <c r="A174" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B174" s="16">
         <v>2013</v>
@@ -12411,13 +12354,13 @@
         <v>16</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H174" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I174" s="19" t="s">
-        <v>684</v>
+        <v>649</v>
       </c>
       <c r="J174" s="20"/>
       <c r="K174" s="20">
@@ -12425,7 +12368,7 @@
       </c>
       <c r="L174" s="20"/>
       <c r="M174" s="31" t="s">
-        <v>685</v>
+        <v>650</v>
       </c>
       <c r="N174" s="29">
         <v>10000</v>
@@ -12442,7 +12385,7 @@
     </row>
     <row r="175" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A175" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B175" s="16">
         <v>2013</v>
@@ -12457,16 +12400,16 @@
         <v>12</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H175" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I175" s="19" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="J175" s="20"/>
       <c r="K175" s="20">
@@ -12474,24 +12417,24 @@
       </c>
       <c r="L175" s="20"/>
       <c r="M175" s="31" t="s">
-        <v>686</v>
+        <v>651</v>
       </c>
       <c r="N175" s="18" t="s">
-        <v>687</v>
+        <v>652</v>
       </c>
       <c r="O175" s="18" t="s">
-        <v>688</v>
+        <v>653</v>
       </c>
       <c r="P175" s="18" t="s">
-        <v>689</v>
+        <v>654</v>
       </c>
       <c r="Q175" s="18" t="s">
-        <v>690</v>
+        <v>655</v>
       </c>
     </row>
     <row r="176" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A176" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B176" s="16">
         <v>2013</v>
@@ -12509,13 +12452,13 @@
         <v>16</v>
       </c>
       <c r="G176" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H176" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I176" s="19" t="s">
-        <v>691</v>
+        <v>656</v>
       </c>
       <c r="J176" s="20"/>
       <c r="K176" s="20">
@@ -12523,24 +12466,24 @@
       </c>
       <c r="L176" s="20"/>
       <c r="M176" s="31" t="s">
-        <v>692</v>
+        <v>657</v>
       </c>
       <c r="N176" s="18" t="s">
-        <v>693</v>
+        <v>658</v>
       </c>
       <c r="O176" s="18" t="s">
-        <v>694</v>
+        <v>659</v>
       </c>
       <c r="P176" s="18" t="s">
-        <v>695</v>
+        <v>660</v>
       </c>
       <c r="Q176" s="18" t="s">
-        <v>696</v>
+        <v>661</v>
       </c>
     </row>
     <row r="177" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A177" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B177" s="16">
         <v>2013</v>
@@ -12555,12 +12498,12 @@
         <v>4</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G177" s="18"/>
       <c r="H177" s="44"/>
       <c r="I177" s="19" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="J177" s="20"/>
       <c r="K177" s="20">
@@ -12568,24 +12511,24 @@
       </c>
       <c r="L177" s="20"/>
       <c r="M177" s="31" t="s">
-        <v>697</v>
+        <v>662</v>
       </c>
       <c r="N177" s="18" t="s">
-        <v>698</v>
+        <v>663</v>
       </c>
       <c r="O177" s="18" t="s">
-        <v>699</v>
+        <v>664</v>
       </c>
       <c r="P177" s="18" t="s">
-        <v>700</v>
+        <v>665</v>
       </c>
       <c r="Q177" s="18" t="s">
-        <v>701</v>
+        <v>666</v>
       </c>
     </row>
     <row r="178" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A178" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B178" s="16">
         <v>2013</v>
@@ -12600,16 +12543,16 @@
         <v>1</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H178" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I178" s="19" t="s">
-        <v>702</v>
+        <v>667</v>
       </c>
       <c r="J178" s="20"/>
       <c r="K178" s="20">
@@ -12617,24 +12560,24 @@
       </c>
       <c r="L178" s="20"/>
       <c r="M178" s="31" t="s">
-        <v>703</v>
+        <v>668</v>
       </c>
       <c r="N178" s="18">
         <v>-1</v>
       </c>
       <c r="O178" s="18" t="s">
-        <v>704</v>
+        <v>669</v>
       </c>
       <c r="P178" s="18" t="s">
-        <v>705</v>
+        <v>670</v>
       </c>
       <c r="Q178" s="18" t="s">
-        <v>706</v>
+        <v>671</v>
       </c>
     </row>
     <row r="179" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A179" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B179" s="16">
         <v>2013</v>
@@ -12649,16 +12592,16 @@
         <v>14</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G179" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H179" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I179" s="19" t="s">
-        <v>707</v>
+        <v>672</v>
       </c>
       <c r="J179" s="20"/>
       <c r="K179" s="20">
@@ -12666,24 +12609,24 @@
       </c>
       <c r="L179" s="20"/>
       <c r="M179" s="31" t="s">
-        <v>708</v>
+        <v>673</v>
       </c>
       <c r="N179" s="18" t="s">
-        <v>709</v>
+        <v>674</v>
       </c>
       <c r="O179" s="18" t="s">
-        <v>710</v>
+        <v>675</v>
       </c>
       <c r="P179" s="18" t="s">
-        <v>711</v>
+        <v>676</v>
       </c>
       <c r="Q179" s="18" t="s">
-        <v>712</v>
+        <v>677</v>
       </c>
     </row>
     <row r="180" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A180" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B180" s="16">
         <v>2013</v>
@@ -12704,10 +12647,10 @@
         <v>28</v>
       </c>
       <c r="H180" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I180" s="19" t="s">
-        <v>713</v>
+        <v>678</v>
       </c>
       <c r="J180" s="20"/>
       <c r="K180" s="20">
@@ -12715,24 +12658,24 @@
       </c>
       <c r="L180" s="20"/>
       <c r="M180" s="31" t="s">
-        <v>714</v>
+        <v>679</v>
       </c>
       <c r="N180" s="18" t="s">
-        <v>715</v>
+        <v>680</v>
       </c>
       <c r="O180" s="18" t="s">
-        <v>716</v>
+        <v>681</v>
       </c>
       <c r="P180" s="18" t="s">
-        <v>717</v>
+        <v>682</v>
       </c>
       <c r="Q180" s="18" t="s">
-        <v>718</v>
+        <v>683</v>
       </c>
     </row>
     <row r="181" spans="1:17" ht="183" x14ac:dyDescent="0.2">
       <c r="A181" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B181" s="16">
         <v>2013</v>
@@ -12750,13 +12693,13 @@
         <v>16</v>
       </c>
       <c r="G181" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H181" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I181" s="19" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="J181" s="20"/>
       <c r="K181" s="20">
@@ -12764,24 +12707,24 @@
       </c>
       <c r="L181" s="20"/>
       <c r="M181" s="31" t="s">
-        <v>719</v>
+        <v>684</v>
       </c>
       <c r="N181" s="18" t="s">
-        <v>720</v>
+        <v>685</v>
       </c>
       <c r="O181" s="18" t="s">
-        <v>721</v>
+        <v>686</v>
       </c>
       <c r="P181" s="18" t="s">
-        <v>722</v>
+        <v>687</v>
       </c>
       <c r="Q181" s="18" t="s">
-        <v>723</v>
+        <v>688</v>
       </c>
     </row>
     <row r="182" spans="1:17" ht="163" x14ac:dyDescent="0.2">
       <c r="A182" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B182" s="16">
         <v>2012</v>
@@ -12801,7 +12744,7 @@
       <c r="G182" s="18"/>
       <c r="H182" s="44"/>
       <c r="I182" s="43" t="s">
-        <v>724</v>
+        <v>689</v>
       </c>
       <c r="J182" s="20"/>
       <c r="K182" s="20">
@@ -12809,24 +12752,24 @@
       </c>
       <c r="L182" s="20"/>
       <c r="M182" s="31" t="s">
-        <v>725</v>
+        <v>690</v>
       </c>
       <c r="N182" s="18" t="s">
-        <v>726</v>
+        <v>691</v>
       </c>
       <c r="O182" s="18" t="s">
-        <v>727</v>
+        <v>692</v>
       </c>
       <c r="P182" s="18" t="s">
-        <v>728</v>
+        <v>693</v>
       </c>
       <c r="Q182" s="18" t="s">
-        <v>729</v>
+        <v>694</v>
       </c>
     </row>
     <row r="183" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A183" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B183" s="16">
         <v>2012</v>
@@ -12844,13 +12787,13 @@
         <v>16</v>
       </c>
       <c r="G183" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H183" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I183" s="43" t="s">
-        <v>730</v>
+        <v>695</v>
       </c>
       <c r="J183" s="20"/>
       <c r="K183" s="20">
@@ -12858,7 +12801,7 @@
       </c>
       <c r="L183" s="20"/>
       <c r="M183" s="31" t="s">
-        <v>731</v>
+        <v>696</v>
       </c>
       <c r="N183" s="18">
         <v>18</v>
@@ -12875,7 +12818,7 @@
     </row>
     <row r="184" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A184" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B184" s="16">
         <v>2012</v>
@@ -12890,16 +12833,16 @@
         <v>12</v>
       </c>
       <c r="F184" s="18" t="s">
-        <v>732</v>
+        <v>697</v>
       </c>
       <c r="G184" s="11" t="s">
-        <v>942</v>
+        <v>907</v>
       </c>
       <c r="H184" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I184" s="43" t="s">
-        <v>733</v>
+        <v>698</v>
       </c>
       <c r="J184" s="20"/>
       <c r="K184" s="20">
@@ -12907,24 +12850,24 @@
       </c>
       <c r="L184" s="20"/>
       <c r="M184" s="31" t="s">
-        <v>734</v>
+        <v>699</v>
       </c>
       <c r="N184" s="18" t="s">
-        <v>735</v>
+        <v>700</v>
       </c>
       <c r="O184" s="18" t="s">
-        <v>736</v>
+        <v>701</v>
       </c>
       <c r="P184" s="18" t="s">
-        <v>735</v>
+        <v>700</v>
       </c>
       <c r="Q184" s="18" t="s">
-        <v>737</v>
+        <v>702</v>
       </c>
     </row>
     <row r="185" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A185" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B185" s="16">
         <v>2012</v>
@@ -12942,13 +12885,13 @@
         <v>19</v>
       </c>
       <c r="G185" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H185" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I185" s="43" t="s">
-        <v>738</v>
+        <v>703</v>
       </c>
       <c r="J185" s="20"/>
       <c r="K185" s="20">
@@ -12956,7 +12899,7 @@
       </c>
       <c r="L185" s="20"/>
       <c r="M185" s="31" t="s">
-        <v>739</v>
+        <v>704</v>
       </c>
       <c r="N185" s="32">
         <v>100</v>
@@ -12973,7 +12916,7 @@
     </row>
     <row r="186" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A186" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B186" s="16">
         <v>2012</v>
@@ -12991,13 +12934,13 @@
         <v>19</v>
       </c>
       <c r="G186" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H186" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I186" s="43" t="s">
-        <v>740</v>
+        <v>705</v>
       </c>
       <c r="J186" s="20"/>
       <c r="K186" s="20">
@@ -13005,7 +12948,7 @@
       </c>
       <c r="L186" s="20"/>
       <c r="M186" s="31" t="s">
-        <v>741</v>
+        <v>706</v>
       </c>
       <c r="N186" s="18">
         <v>10</v>
@@ -13022,7 +12965,7 @@
     </row>
     <row r="187" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A187" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B187" s="16">
         <v>2012</v>
@@ -13037,16 +12980,16 @@
         <v>12</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>732</v>
+        <v>697</v>
       </c>
       <c r="G187" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H187" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I187" s="43" t="s">
-        <v>742</v>
+        <v>707</v>
       </c>
       <c r="J187" s="20"/>
       <c r="K187" s="20">
@@ -13054,24 +12997,24 @@
       </c>
       <c r="L187" s="20"/>
       <c r="M187" s="31" t="s">
-        <v>743</v>
+        <v>708</v>
       </c>
       <c r="N187" s="18" t="s">
-        <v>744</v>
+        <v>709</v>
       </c>
       <c r="O187" s="18" t="s">
-        <v>745</v>
+        <v>710</v>
       </c>
       <c r="P187" s="18" t="s">
-        <v>746</v>
+        <v>711</v>
       </c>
       <c r="Q187" s="18" t="s">
-        <v>747</v>
+        <v>712</v>
       </c>
     </row>
     <row r="188" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A188" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B188" s="16">
         <v>2012</v>
@@ -13089,13 +13032,13 @@
         <v>16</v>
       </c>
       <c r="G188" s="11" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="H188" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I188" s="43" t="s">
-        <v>748</v>
+        <v>713</v>
       </c>
       <c r="J188" s="20"/>
       <c r="K188" s="20">
@@ -13103,24 +13046,24 @@
       </c>
       <c r="L188" s="20"/>
       <c r="M188" s="31" t="s">
-        <v>749</v>
+        <v>714</v>
       </c>
       <c r="N188" s="18" t="s">
-        <v>750</v>
+        <v>715</v>
       </c>
       <c r="O188" s="18" t="s">
-        <v>751</v>
+        <v>716</v>
       </c>
       <c r="P188" s="18" t="s">
-        <v>752</v>
+        <v>717</v>
       </c>
       <c r="Q188" s="18" t="s">
-        <v>753</v>
+        <v>718</v>
       </c>
     </row>
     <row r="189" spans="1:17" ht="105" x14ac:dyDescent="0.2">
       <c r="A189" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B189" s="16">
         <v>2012</v>
@@ -13135,12 +13078,12 @@
         <v>4</v>
       </c>
       <c r="F189" s="18" t="s">
-        <v>732</v>
+        <v>697</v>
       </c>
       <c r="G189" s="18"/>
       <c r="H189" s="44"/>
       <c r="I189" s="43" t="s">
-        <v>754</v>
+        <v>719</v>
       </c>
       <c r="J189" s="20"/>
       <c r="K189" s="20">
@@ -13148,24 +13091,24 @@
       </c>
       <c r="L189" s="20"/>
       <c r="M189" s="31" t="s">
-        <v>755</v>
+        <v>720</v>
       </c>
       <c r="N189" s="18" t="s">
-        <v>756</v>
+        <v>721</v>
       </c>
       <c r="O189" s="18" t="s">
-        <v>757</v>
+        <v>722</v>
       </c>
       <c r="P189" s="18" t="s">
-        <v>758</v>
+        <v>723</v>
       </c>
       <c r="Q189" s="18" t="s">
-        <v>759</v>
+        <v>724</v>
       </c>
     </row>
     <row r="190" spans="1:17" ht="68" x14ac:dyDescent="0.2">
       <c r="A190" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B190" s="16">
         <v>2012</v>
@@ -13183,13 +13126,13 @@
         <v>19</v>
       </c>
       <c r="G190" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H190" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I190" s="43" t="s">
-        <v>760</v>
+        <v>725</v>
       </c>
       <c r="J190" s="20"/>
       <c r="K190" s="20">
@@ -13197,7 +13140,7 @@
       </c>
       <c r="L190" s="20"/>
       <c r="M190" s="31" t="s">
-        <v>761</v>
+        <v>726</v>
       </c>
       <c r="N190" s="18">
         <v>6.4</v>
@@ -13214,7 +13157,7 @@
     </row>
     <row r="191" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A191" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B191" s="16">
         <v>2012</v>
@@ -13232,13 +13175,13 @@
         <v>19</v>
       </c>
       <c r="G191" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H191" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I191" s="43" t="s">
-        <v>738</v>
+        <v>703</v>
       </c>
       <c r="J191" s="20"/>
       <c r="K191" s="20">
@@ -13246,7 +13189,7 @@
       </c>
       <c r="L191" s="20"/>
       <c r="M191" s="31" t="s">
-        <v>762</v>
+        <v>727</v>
       </c>
       <c r="N191" s="18">
         <v>20</v>
@@ -13263,7 +13206,7 @@
     </row>
     <row r="192" spans="1:17" ht="92" x14ac:dyDescent="0.2">
       <c r="A192" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B192" s="16">
         <v>2012</v>
@@ -13278,16 +13221,16 @@
         <v>14</v>
       </c>
       <c r="F192" s="18" t="s">
-        <v>732</v>
+        <v>697</v>
       </c>
       <c r="G192" s="11" t="s">
-        <v>942</v>
+        <v>907</v>
       </c>
       <c r="H192" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I192" s="43" t="s">
-        <v>763</v>
+        <v>728</v>
       </c>
       <c r="J192" s="20"/>
       <c r="K192" s="20">
@@ -13295,24 +13238,24 @@
       </c>
       <c r="L192" s="20"/>
       <c r="M192" s="31" t="s">
-        <v>764</v>
+        <v>729</v>
       </c>
       <c r="N192" s="18" t="s">
-        <v>765</v>
+        <v>730</v>
       </c>
       <c r="O192" s="18" t="s">
-        <v>766</v>
+        <v>731</v>
       </c>
       <c r="P192" s="18" t="s">
-        <v>767</v>
+        <v>732</v>
       </c>
       <c r="Q192" s="18" t="s">
-        <v>768</v>
+        <v>733</v>
       </c>
     </row>
     <row r="193" spans="1:17" ht="163" x14ac:dyDescent="0.2">
       <c r="A193" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B193" s="16">
         <v>2012</v>
@@ -13330,13 +13273,13 @@
         <v>19</v>
       </c>
       <c r="G193" s="11" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="H193" s="50" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="I193" s="43" t="s">
-        <v>724</v>
+        <v>689</v>
       </c>
       <c r="J193" s="20"/>
       <c r="K193" s="20">
@@ -13344,16 +13287,16 @@
       </c>
       <c r="L193" s="20"/>
       <c r="M193" s="31" t="s">
-        <v>769</v>
+        <v>734</v>
       </c>
       <c r="N193" s="18" t="s">
-        <v>770</v>
+        <v>735</v>
       </c>
       <c r="O193" s="18">
         <v>8</v>
       </c>
       <c r="P193" s="18" t="s">
-        <v>771</v>
+        <v>736</v>
       </c>
       <c r="Q193" s="18">
         <v>4</v>
@@ -13361,7 +13304,7 @@
     </row>
     <row r="194" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A194" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B194" s="16">
         <v>2012</v>
@@ -13376,16 +13319,16 @@
         <v>1</v>
       </c>
       <c r="F194" s="18" t="s">
-        <v>732</v>
+        <v>697</v>
       </c>
       <c r="G194" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H194" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I194" s="43" t="s">
-        <v>772</v>
+        <v>737</v>
       </c>
       <c r="J194" s="20"/>
       <c r="K194" s="20">
@@ -13393,24 +13336,24 @@
       </c>
       <c r="L194" s="20"/>
       <c r="M194" s="31" t="s">
-        <v>773</v>
+        <v>738</v>
       </c>
       <c r="N194" s="18" t="s">
-        <v>774</v>
+        <v>739</v>
       </c>
       <c r="O194" s="18" t="s">
-        <v>775</v>
+        <v>740</v>
       </c>
       <c r="P194" s="18" t="s">
-        <v>776</v>
+        <v>741</v>
       </c>
       <c r="Q194" s="18" t="s">
-        <v>777</v>
+        <v>742</v>
       </c>
     </row>
     <row r="195" spans="1:17" ht="137" x14ac:dyDescent="0.2">
       <c r="A195" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B195" s="16">
         <v>2012</v>
@@ -13425,16 +13368,16 @@
         <v>1</v>
       </c>
       <c r="F195" s="18" t="s">
-        <v>732</v>
+        <v>697</v>
       </c>
       <c r="G195" s="11" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="H195" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I195" s="43" t="s">
-        <v>778</v>
+        <v>743</v>
       </c>
       <c r="J195" s="20"/>
       <c r="K195" s="20">
@@ -13442,24 +13385,24 @@
       </c>
       <c r="L195" s="20"/>
       <c r="M195" s="31" t="s">
-        <v>779</v>
+        <v>744</v>
       </c>
       <c r="N195" s="18" t="s">
-        <v>780</v>
+        <v>745</v>
       </c>
       <c r="O195" s="18" t="s">
-        <v>781</v>
+        <v>746</v>
       </c>
       <c r="P195" s="18" t="s">
-        <v>782</v>
+        <v>747</v>
       </c>
       <c r="Q195" s="18" t="s">
-        <v>783</v>
+        <v>748</v>
       </c>
     </row>
     <row r="196" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A196" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B196" s="16">
         <v>2012</v>
@@ -13480,10 +13423,10 @@
         <v>28</v>
       </c>
       <c r="H196" s="50" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="I196" s="43" t="s">
-        <v>784</v>
+        <v>749</v>
       </c>
       <c r="J196" s="20"/>
       <c r="K196" s="20">
@@ -13491,24 +13434,24 @@
       </c>
       <c r="L196" s="20"/>
       <c r="M196" s="31" t="s">
-        <v>785</v>
+        <v>750</v>
       </c>
       <c r="N196" s="18" t="s">
-        <v>786</v>
+        <v>751</v>
       </c>
       <c r="O196" s="18" t="s">
-        <v>787</v>
+        <v>752</v>
       </c>
       <c r="P196" s="18" t="s">
-        <v>788</v>
+        <v>753</v>
       </c>
       <c r="Q196" s="18" t="s">
-        <v>789</v>
+        <v>754</v>
       </c>
     </row>
     <row r="197" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A197" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B197" s="16">
         <v>2012</v>
@@ -13529,10 +13472,10 @@
         <v>28</v>
       </c>
       <c r="H197" s="50" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="I197" s="43" t="s">
-        <v>790</v>
+        <v>755</v>
       </c>
       <c r="J197" s="20"/>
       <c r="K197" s="20">
@@ -13540,24 +13483,24 @@
       </c>
       <c r="L197" s="20"/>
       <c r="M197" s="31" t="s">
-        <v>791</v>
+        <v>756</v>
       </c>
       <c r="N197" s="18" t="s">
-        <v>792</v>
+        <v>757</v>
       </c>
       <c r="O197" s="18" t="s">
-        <v>793</v>
+        <v>758</v>
       </c>
       <c r="P197" s="18" t="s">
-        <v>794</v>
+        <v>759</v>
       </c>
       <c r="Q197" s="18" t="s">
-        <v>795</v>
+        <v>760</v>
       </c>
     </row>
     <row r="198" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A198" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B198" s="16">
         <v>2012</v>
@@ -13577,7 +13520,7 @@
       <c r="G198" s="18"/>
       <c r="H198" s="44"/>
       <c r="I198" s="43" t="s">
-        <v>784</v>
+        <v>749</v>
       </c>
       <c r="J198" s="20"/>
       <c r="K198" s="20">
@@ -13585,24 +13528,24 @@
       </c>
       <c r="L198" s="20"/>
       <c r="M198" s="31" t="s">
-        <v>796</v>
+        <v>761</v>
       </c>
       <c r="N198" s="18" t="s">
-        <v>797</v>
+        <v>762</v>
       </c>
       <c r="O198" s="18" t="s">
-        <v>798</v>
+        <v>763</v>
       </c>
       <c r="P198" s="18" t="s">
-        <v>799</v>
+        <v>764</v>
       </c>
       <c r="Q198" s="18" t="s">
-        <v>800</v>
+        <v>765</v>
       </c>
     </row>
     <row r="199" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A199" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B199" s="16">
         <v>2012</v>
@@ -13622,7 +13565,7 @@
       <c r="G199" s="18"/>
       <c r="H199" s="44"/>
       <c r="I199" s="43" t="s">
-        <v>730</v>
+        <v>695</v>
       </c>
       <c r="J199" s="20"/>
       <c r="K199" s="20">
@@ -13630,7 +13573,7 @@
       </c>
       <c r="L199" s="20"/>
       <c r="M199" s="31" t="s">
-        <v>801</v>
+        <v>766</v>
       </c>
       <c r="N199" s="18">
         <v>40</v>
@@ -13647,7 +13590,7 @@
     </row>
     <row r="200" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A200" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B200" s="16">
         <v>2012</v>
@@ -13667,7 +13610,7 @@
       <c r="G200" s="18"/>
       <c r="H200" s="44"/>
       <c r="I200" s="43" t="s">
-        <v>802</v>
+        <v>767</v>
       </c>
       <c r="J200" s="20"/>
       <c r="K200" s="20">
@@ -13675,24 +13618,24 @@
       </c>
       <c r="L200" s="20"/>
       <c r="M200" s="31" t="s">
-        <v>803</v>
+        <v>768</v>
       </c>
       <c r="N200" s="18" t="s">
-        <v>804</v>
+        <v>769</v>
       </c>
       <c r="O200" s="18" t="s">
-        <v>805</v>
+        <v>770</v>
       </c>
       <c r="P200" s="18" t="s">
-        <v>806</v>
+        <v>771</v>
       </c>
       <c r="Q200" s="18" t="s">
-        <v>807</v>
+        <v>772</v>
       </c>
     </row>
     <row r="201" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A201" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B201" s="16">
         <v>2012</v>
@@ -13712,7 +13655,7 @@
       <c r="G201" s="18"/>
       <c r="H201" s="44"/>
       <c r="I201" s="43" t="s">
-        <v>808</v>
+        <v>773</v>
       </c>
       <c r="J201" s="20"/>
       <c r="K201" s="20">
@@ -13720,24 +13663,24 @@
       </c>
       <c r="L201" s="20"/>
       <c r="M201" s="31" t="s">
-        <v>809</v>
+        <v>774</v>
       </c>
       <c r="N201" s="18" t="s">
-        <v>810</v>
+        <v>775</v>
       </c>
       <c r="O201" s="18" t="s">
-        <v>811</v>
+        <v>776</v>
       </c>
       <c r="P201" s="18" t="s">
-        <v>812</v>
+        <v>777</v>
       </c>
       <c r="Q201" s="18" t="s">
-        <v>813</v>
+        <v>778</v>
       </c>
     </row>
     <row r="202" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A202" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B202" s="16">
         <v>2012</v>
@@ -13757,7 +13700,7 @@
       <c r="G202" s="18"/>
       <c r="H202" s="44"/>
       <c r="I202" s="43" t="s">
-        <v>808</v>
+        <v>773</v>
       </c>
       <c r="J202" s="20"/>
       <c r="K202" s="20">
@@ -13765,24 +13708,24 @@
       </c>
       <c r="L202" s="20"/>
       <c r="M202" s="31" t="s">
-        <v>814</v>
+        <v>779</v>
       </c>
       <c r="N202" s="18" t="s">
-        <v>815</v>
+        <v>780</v>
       </c>
       <c r="O202" s="18" t="s">
-        <v>816</v>
+        <v>781</v>
       </c>
       <c r="P202" s="18" t="s">
-        <v>817</v>
+        <v>782</v>
       </c>
       <c r="Q202" s="18" t="s">
-        <v>818</v>
+        <v>783</v>
       </c>
     </row>
     <row r="203" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A203" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B203" s="16">
         <v>2012</v>
@@ -13797,12 +13740,12 @@
         <v>12</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>732</v>
+        <v>697</v>
       </c>
       <c r="G203" s="18"/>
       <c r="H203" s="44"/>
       <c r="I203" s="43" t="s">
-        <v>772</v>
+        <v>737</v>
       </c>
       <c r="J203" s="20"/>
       <c r="K203" s="20">
@@ -13810,24 +13753,24 @@
       </c>
       <c r="L203" s="20"/>
       <c r="M203" s="31" t="s">
-        <v>819</v>
+        <v>784</v>
       </c>
       <c r="N203" s="18" t="s">
-        <v>820</v>
+        <v>785</v>
       </c>
       <c r="O203" s="18" t="s">
-        <v>821</v>
+        <v>786</v>
       </c>
       <c r="P203" s="18" t="s">
-        <v>822</v>
+        <v>787</v>
       </c>
       <c r="Q203" s="18" t="s">
-        <v>823</v>
+        <v>788</v>
       </c>
     </row>
     <row r="204" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A204" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B204" s="16">
         <v>2012</v>
@@ -13847,7 +13790,7 @@
       <c r="G204" s="18"/>
       <c r="H204" s="44"/>
       <c r="I204" s="43" t="s">
-        <v>824</v>
+        <v>789</v>
       </c>
       <c r="J204" s="20"/>
       <c r="K204" s="20">
@@ -13855,24 +13798,24 @@
       </c>
       <c r="L204" s="20"/>
       <c r="M204" s="31" t="s">
-        <v>825</v>
+        <v>790</v>
       </c>
       <c r="N204" s="18" t="s">
-        <v>826</v>
+        <v>791</v>
       </c>
       <c r="O204" s="18" t="s">
-        <v>827</v>
+        <v>792</v>
       </c>
       <c r="P204" s="18" t="s">
-        <v>828</v>
+        <v>793</v>
       </c>
       <c r="Q204" s="18" t="s">
-        <v>829</v>
+        <v>794</v>
       </c>
     </row>
     <row r="205" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A205" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B205" s="16">
         <v>2012</v>
@@ -13892,7 +13835,7 @@
       <c r="G205" s="18"/>
       <c r="H205" s="44"/>
       <c r="I205" s="43" t="s">
-        <v>830</v>
+        <v>795</v>
       </c>
       <c r="J205" s="20"/>
       <c r="K205" s="20">
@@ -13900,7 +13843,7 @@
       </c>
       <c r="L205" s="20"/>
       <c r="M205" s="31" t="s">
-        <v>831</v>
+        <v>796</v>
       </c>
       <c r="N205" s="18">
         <v>1</v>
@@ -13917,7 +13860,7 @@
     </row>
     <row r="206" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A206" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B206" s="16">
         <v>2012</v>
@@ -13937,7 +13880,7 @@
       <c r="G206" s="18"/>
       <c r="H206" s="44"/>
       <c r="I206" s="43" t="s">
-        <v>802</v>
+        <v>767</v>
       </c>
       <c r="J206" s="20"/>
       <c r="K206" s="20">
@@ -13945,24 +13888,24 @@
       </c>
       <c r="L206" s="20"/>
       <c r="M206" s="31" t="s">
-        <v>832</v>
+        <v>797</v>
       </c>
       <c r="N206" s="18" t="s">
-        <v>833</v>
+        <v>798</v>
       </c>
       <c r="O206" s="18" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="P206" s="18" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="Q206" s="18" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="207" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A207" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B207" s="16">
         <v>2012</v>
@@ -13982,7 +13925,7 @@
       <c r="G207" s="18"/>
       <c r="H207" s="44"/>
       <c r="I207" s="43" t="s">
-        <v>837</v>
+        <v>802</v>
       </c>
       <c r="J207" s="20"/>
       <c r="K207" s="20">
@@ -13990,24 +13933,24 @@
       </c>
       <c r="L207" s="20"/>
       <c r="M207" s="31" t="s">
-        <v>838</v>
+        <v>803</v>
       </c>
       <c r="N207" s="18" t="s">
-        <v>839</v>
+        <v>804</v>
       </c>
       <c r="O207" s="18" t="s">
-        <v>840</v>
+        <v>805</v>
       </c>
       <c r="P207" s="18" t="s">
-        <v>841</v>
+        <v>806</v>
       </c>
       <c r="Q207" s="18" t="s">
-        <v>842</v>
+        <v>807</v>
       </c>
     </row>
     <row r="208" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A208" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B208" s="16">
         <v>2011</v>
@@ -14027,7 +13970,7 @@
       <c r="G208" s="18"/>
       <c r="H208" s="44"/>
       <c r="I208" s="43" t="s">
-        <v>790</v>
+        <v>755</v>
       </c>
       <c r="J208" s="20"/>
       <c r="K208" s="20">
@@ -14035,24 +13978,24 @@
       </c>
       <c r="L208" s="20"/>
       <c r="M208" s="31" t="s">
-        <v>843</v>
+        <v>808</v>
       </c>
       <c r="N208" s="18" t="s">
-        <v>844</v>
+        <v>809</v>
       </c>
       <c r="O208" s="18" t="s">
-        <v>845</v>
+        <v>810</v>
       </c>
       <c r="P208" s="18" t="s">
-        <v>846</v>
+        <v>811</v>
       </c>
       <c r="Q208" s="18" t="s">
-        <v>847</v>
+        <v>812</v>
       </c>
     </row>
     <row r="209" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A209" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B209" s="16">
         <v>2011</v>
@@ -14072,7 +14015,7 @@
       <c r="G209" s="18"/>
       <c r="H209" s="44"/>
       <c r="I209" s="43" t="s">
-        <v>808</v>
+        <v>773</v>
       </c>
       <c r="J209" s="20"/>
       <c r="K209" s="20">
@@ -14080,24 +14023,24 @@
       </c>
       <c r="L209" s="20"/>
       <c r="M209" s="31" t="s">
-        <v>848</v>
+        <v>813</v>
       </c>
       <c r="N209" s="18" t="s">
-        <v>849</v>
+        <v>814</v>
       </c>
       <c r="O209" s="18" t="s">
-        <v>850</v>
+        <v>815</v>
       </c>
       <c r="P209" s="18" t="s">
-        <v>851</v>
+        <v>816</v>
       </c>
       <c r="Q209" s="18" t="s">
-        <v>852</v>
+        <v>817</v>
       </c>
     </row>
     <row r="210" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A210" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B210" s="16">
         <v>2011</v>
@@ -14117,7 +14060,7 @@
       <c r="G210" s="18"/>
       <c r="H210" s="44"/>
       <c r="I210" s="43" t="s">
-        <v>748</v>
+        <v>713</v>
       </c>
       <c r="J210" s="20"/>
       <c r="K210" s="20">
@@ -14125,24 +14068,24 @@
       </c>
       <c r="L210" s="20"/>
       <c r="M210" s="31" t="s">
-        <v>853</v>
+        <v>818</v>
       </c>
       <c r="N210" s="18" t="s">
-        <v>854</v>
+        <v>819</v>
       </c>
       <c r="O210" s="18" t="s">
-        <v>855</v>
+        <v>820</v>
       </c>
       <c r="P210" s="18" t="s">
-        <v>856</v>
+        <v>821</v>
       </c>
       <c r="Q210" s="18" t="s">
-        <v>857</v>
+        <v>822</v>
       </c>
     </row>
     <row r="211" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A211" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B211" s="16">
         <v>2011</v>
@@ -14162,7 +14105,7 @@
       <c r="G211" s="18"/>
       <c r="H211" s="44"/>
       <c r="I211" s="43" t="s">
-        <v>730</v>
+        <v>695</v>
       </c>
       <c r="J211" s="20"/>
       <c r="K211" s="20">
@@ -14170,7 +14113,7 @@
       </c>
       <c r="L211" s="20"/>
       <c r="M211" s="31" t="s">
-        <v>858</v>
+        <v>823</v>
       </c>
       <c r="N211" s="32">
         <v>875</v>
@@ -14187,7 +14130,7 @@
     </row>
     <row r="212" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A212" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B212" s="16">
         <v>2011</v>
@@ -14207,7 +14150,7 @@
       <c r="G212" s="18"/>
       <c r="H212" s="44"/>
       <c r="I212" s="43" t="s">
-        <v>740</v>
+        <v>705</v>
       </c>
       <c r="J212" s="20"/>
       <c r="K212" s="20">
@@ -14215,24 +14158,24 @@
       </c>
       <c r="L212" s="20"/>
       <c r="M212" s="31" t="s">
-        <v>859</v>
+        <v>824</v>
       </c>
       <c r="N212" s="18" t="s">
-        <v>860</v>
+        <v>825</v>
       </c>
       <c r="O212" s="18" t="s">
-        <v>861</v>
+        <v>826</v>
       </c>
       <c r="P212" s="18" t="s">
-        <v>862</v>
+        <v>827</v>
       </c>
       <c r="Q212" s="18" t="s">
-        <v>863</v>
+        <v>828</v>
       </c>
     </row>
     <row r="213" spans="1:17" ht="137" x14ac:dyDescent="0.2">
       <c r="A213" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B213" s="16">
         <v>2011</v>
@@ -14247,12 +14190,12 @@
         <v>14</v>
       </c>
       <c r="F213" s="18" t="s">
-        <v>732</v>
+        <v>697</v>
       </c>
       <c r="G213" s="18"/>
       <c r="H213" s="44"/>
       <c r="I213" s="43" t="s">
-        <v>778</v>
+        <v>743</v>
       </c>
       <c r="J213" s="20"/>
       <c r="K213" s="20">
@@ -14260,24 +14203,24 @@
       </c>
       <c r="L213" s="20"/>
       <c r="M213" s="31" t="s">
-        <v>864</v>
+        <v>829</v>
       </c>
       <c r="N213" s="18" t="s">
-        <v>865</v>
+        <v>830</v>
       </c>
       <c r="O213" s="18" t="s">
-        <v>866</v>
+        <v>831</v>
       </c>
       <c r="P213" s="18" t="s">
-        <v>867</v>
+        <v>832</v>
       </c>
       <c r="Q213" s="18" t="s">
-        <v>868</v>
+        <v>833</v>
       </c>
     </row>
     <row r="214" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A214" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B214" s="16">
         <v>2011</v>
@@ -14297,7 +14240,7 @@
       <c r="G214" s="18"/>
       <c r="H214" s="44"/>
       <c r="I214" s="43" t="s">
-        <v>730</v>
+        <v>695</v>
       </c>
       <c r="J214" s="20"/>
       <c r="K214" s="20">
@@ -14305,7 +14248,7 @@
       </c>
       <c r="L214" s="20"/>
       <c r="M214" s="31" t="s">
-        <v>869</v>
+        <v>834</v>
       </c>
       <c r="N214" s="32">
         <v>900</v>
@@ -14322,7 +14265,7 @@
     </row>
     <row r="215" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A215" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B215" s="16">
         <v>2011</v>
@@ -14342,7 +14285,7 @@
       <c r="G215" s="18"/>
       <c r="H215" s="44"/>
       <c r="I215" s="43" t="s">
-        <v>738</v>
+        <v>703</v>
       </c>
       <c r="J215" s="20"/>
       <c r="K215" s="20">
@@ -14350,7 +14293,7 @@
       </c>
       <c r="L215" s="20"/>
       <c r="M215" s="31" t="s">
-        <v>870</v>
+        <v>835</v>
       </c>
       <c r="N215" s="18">
         <v>100</v>
@@ -14367,7 +14310,7 @@
     </row>
     <row r="216" spans="1:17" ht="92" x14ac:dyDescent="0.2">
       <c r="A216" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B216" s="16">
         <v>2011</v>
@@ -14382,12 +14325,12 @@
         <v>12</v>
       </c>
       <c r="F216" s="18" t="s">
-        <v>732</v>
+        <v>697</v>
       </c>
       <c r="G216" s="18"/>
       <c r="H216" s="44"/>
       <c r="I216" s="43" t="s">
-        <v>763</v>
+        <v>728</v>
       </c>
       <c r="J216" s="20"/>
       <c r="K216" s="20">
@@ -14395,7 +14338,7 @@
       </c>
       <c r="L216" s="20"/>
       <c r="M216" s="31" t="s">
-        <v>871</v>
+        <v>836</v>
       </c>
       <c r="N216" s="18">
         <v>-192</v>
@@ -14412,7 +14355,7 @@
     </row>
     <row r="217" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A217" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B217" s="16">
         <v>2011</v>
@@ -14432,7 +14375,7 @@
       <c r="G217" s="18"/>
       <c r="H217" s="44"/>
       <c r="I217" s="43" t="s">
-        <v>740</v>
+        <v>705</v>
       </c>
       <c r="J217" s="20"/>
       <c r="K217" s="20">
@@ -14440,7 +14383,7 @@
       </c>
       <c r="L217" s="20"/>
       <c r="M217" s="31" t="s">
-        <v>872</v>
+        <v>837</v>
       </c>
       <c r="N217" s="18">
         <v>-14</v>
@@ -14457,7 +14400,7 @@
     </row>
     <row r="218" spans="1:17" ht="68" x14ac:dyDescent="0.2">
       <c r="A218" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B218" s="16">
         <v>2011</v>
@@ -14477,7 +14420,7 @@
       <c r="G218" s="18"/>
       <c r="H218" s="44"/>
       <c r="I218" s="43" t="s">
-        <v>760</v>
+        <v>725</v>
       </c>
       <c r="J218" s="20"/>
       <c r="K218" s="20">
@@ -14485,24 +14428,24 @@
       </c>
       <c r="L218" s="20"/>
       <c r="M218" s="31" t="s">
-        <v>873</v>
+        <v>838</v>
       </c>
       <c r="N218" s="18" t="s">
-        <v>874</v>
+        <v>839</v>
       </c>
       <c r="O218" s="18" t="s">
-        <v>875</v>
+        <v>840</v>
       </c>
       <c r="P218" s="18" t="s">
-        <v>876</v>
+        <v>841</v>
       </c>
       <c r="Q218" s="18" t="s">
-        <v>877</v>
+        <v>842</v>
       </c>
     </row>
     <row r="219" spans="1:17" ht="163" x14ac:dyDescent="0.2">
       <c r="A219" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B219" s="16">
         <v>2011</v>
@@ -14522,7 +14465,7 @@
       <c r="G219" s="18"/>
       <c r="H219" s="44"/>
       <c r="I219" s="43" t="s">
-        <v>724</v>
+        <v>689</v>
       </c>
       <c r="J219" s="20"/>
       <c r="K219" s="20">
@@ -14530,7 +14473,7 @@
       </c>
       <c r="L219" s="20"/>
       <c r="M219" s="31" t="s">
-        <v>878</v>
+        <v>843</v>
       </c>
       <c r="N219" s="18">
         <v>3</v>
@@ -14547,7 +14490,7 @@
     </row>
     <row r="220" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A220" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B220" s="16">
         <v>2011</v>
@@ -14567,7 +14510,7 @@
       <c r="G220" s="18"/>
       <c r="H220" s="44"/>
       <c r="I220" s="43" t="s">
-        <v>879</v>
+        <v>844</v>
       </c>
       <c r="J220" s="20"/>
       <c r="K220" s="20">
@@ -14575,24 +14518,24 @@
       </c>
       <c r="L220" s="20"/>
       <c r="M220" s="31" t="s">
-        <v>880</v>
+        <v>845</v>
       </c>
       <c r="N220" s="18" t="s">
-        <v>881</v>
+        <v>846</v>
       </c>
       <c r="O220" s="18" t="s">
-        <v>882</v>
+        <v>847</v>
       </c>
       <c r="P220" s="18" t="s">
-        <v>883</v>
+        <v>848</v>
       </c>
       <c r="Q220" s="18" t="s">
-        <v>884</v>
+        <v>849</v>
       </c>
     </row>
     <row r="221" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A221" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B221" s="16">
         <v>2011</v>
@@ -14612,7 +14555,7 @@
       <c r="G221" s="18"/>
       <c r="H221" s="44"/>
       <c r="I221" s="43" t="s">
-        <v>730</v>
+        <v>695</v>
       </c>
       <c r="J221" s="20"/>
       <c r="K221" s="20">
@@ -14620,7 +14563,7 @@
       </c>
       <c r="L221" s="20"/>
       <c r="M221" s="31" t="s">
-        <v>885</v>
+        <v>850</v>
       </c>
       <c r="N221" s="32">
         <v>300</v>
@@ -14637,7 +14580,7 @@
     </row>
     <row r="222" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A222" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B222" s="16">
         <v>2011</v>
@@ -14652,12 +14595,12 @@
         <v>14</v>
       </c>
       <c r="F222" s="18" t="s">
-        <v>732</v>
+        <v>697</v>
       </c>
       <c r="G222" s="18"/>
       <c r="H222" s="44"/>
       <c r="I222" s="43" t="s">
-        <v>886</v>
+        <v>851</v>
       </c>
       <c r="J222" s="20"/>
       <c r="K222" s="20">
@@ -14665,24 +14608,24 @@
       </c>
       <c r="L222" s="20"/>
       <c r="M222" s="31" t="s">
-        <v>887</v>
+        <v>852</v>
       </c>
       <c r="N222" s="18" t="s">
-        <v>888</v>
+        <v>853</v>
       </c>
       <c r="O222" s="18" t="s">
-        <v>889</v>
+        <v>854</v>
       </c>
       <c r="P222" s="18" t="s">
-        <v>890</v>
+        <v>855</v>
       </c>
       <c r="Q222" s="18" t="s">
-        <v>891</v>
+        <v>856</v>
       </c>
     </row>
     <row r="223" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A223" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B223" s="16">
         <v>2011</v>
@@ -14697,12 +14640,12 @@
         <v>12</v>
       </c>
       <c r="F223" s="18" t="s">
-        <v>732</v>
+        <v>697</v>
       </c>
       <c r="G223" s="18"/>
       <c r="H223" s="44"/>
       <c r="I223" s="43" t="s">
-        <v>733</v>
+        <v>698</v>
       </c>
       <c r="J223" s="20"/>
       <c r="K223" s="20">
@@ -14710,24 +14653,24 @@
       </c>
       <c r="L223" s="20"/>
       <c r="M223" s="31" t="s">
-        <v>892</v>
+        <v>857</v>
       </c>
       <c r="N223" s="18" t="s">
-        <v>893</v>
+        <v>858</v>
       </c>
       <c r="O223" s="18" t="s">
-        <v>894</v>
+        <v>859</v>
       </c>
       <c r="P223" s="18" t="s">
-        <v>895</v>
+        <v>860</v>
       </c>
       <c r="Q223" s="18" t="s">
-        <v>896</v>
+        <v>861</v>
       </c>
     </row>
     <row r="224" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A224" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B224" s="16">
         <v>2011</v>
@@ -14747,7 +14690,7 @@
       <c r="G224" s="18"/>
       <c r="H224" s="44"/>
       <c r="I224" s="43" t="s">
-        <v>824</v>
+        <v>789</v>
       </c>
       <c r="J224" s="20"/>
       <c r="K224" s="20">
@@ -14755,7 +14698,7 @@
       </c>
       <c r="L224" s="20"/>
       <c r="M224" s="31" t="s">
-        <v>897</v>
+        <v>862</v>
       </c>
       <c r="N224" s="18">
         <v>3</v>
@@ -14772,7 +14715,7 @@
     </row>
     <row r="225" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A225" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B225" s="16">
         <v>2011</v>
@@ -14792,7 +14735,7 @@
       <c r="G225" s="18"/>
       <c r="H225" s="44"/>
       <c r="I225" s="43" t="s">
-        <v>730</v>
+        <v>695</v>
       </c>
       <c r="J225" s="20"/>
       <c r="K225" s="20">
@@ -14800,24 +14743,24 @@
       </c>
       <c r="L225" s="20"/>
       <c r="M225" s="31" t="s">
-        <v>898</v>
+        <v>863</v>
       </c>
       <c r="N225" s="18" t="s">
-        <v>899</v>
+        <v>864</v>
       </c>
       <c r="O225" s="18" t="s">
-        <v>900</v>
+        <v>865</v>
       </c>
       <c r="P225" s="18" t="s">
-        <v>901</v>
+        <v>866</v>
       </c>
       <c r="Q225" s="19" t="s">
-        <v>902</v>
+        <v>867</v>
       </c>
     </row>
     <row r="226" spans="1:17" ht="105" x14ac:dyDescent="0.2">
       <c r="A226" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B226" s="16">
         <v>2011</v>
@@ -14837,7 +14780,7 @@
       <c r="G226" s="18"/>
       <c r="H226" s="44"/>
       <c r="I226" s="43" t="s">
-        <v>808</v>
+        <v>773</v>
       </c>
       <c r="J226" s="20"/>
       <c r="K226" s="20">
@@ -14845,24 +14788,24 @@
       </c>
       <c r="L226" s="20"/>
       <c r="M226" s="31" t="s">
-        <v>903</v>
+        <v>868</v>
       </c>
       <c r="N226" s="18" t="s">
-        <v>904</v>
+        <v>869</v>
       </c>
       <c r="O226" s="18" t="s">
-        <v>905</v>
+        <v>870</v>
       </c>
       <c r="P226" s="18" t="s">
-        <v>906</v>
+        <v>871</v>
       </c>
       <c r="Q226" s="18" t="s">
-        <v>907</v>
+        <v>872</v>
       </c>
     </row>
     <row r="227" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A227" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B227" s="16">
         <v>2011</v>
@@ -14877,12 +14820,12 @@
         <v>14</v>
       </c>
       <c r="F227" s="18" t="s">
-        <v>732</v>
+        <v>697</v>
       </c>
       <c r="G227" s="18"/>
       <c r="H227" s="44"/>
       <c r="I227" s="43" t="s">
-        <v>886</v>
+        <v>851</v>
       </c>
       <c r="J227" s="20"/>
       <c r="K227" s="20">
@@ -14890,24 +14833,24 @@
       </c>
       <c r="L227" s="20"/>
       <c r="M227" s="31" t="s">
-        <v>908</v>
+        <v>873</v>
       </c>
       <c r="N227" s="18" t="s">
-        <v>909</v>
+        <v>874</v>
       </c>
       <c r="O227" s="18" t="s">
-        <v>910</v>
+        <v>875</v>
       </c>
       <c r="P227" s="18" t="s">
-        <v>911</v>
+        <v>876</v>
       </c>
       <c r="Q227" s="18" t="s">
-        <v>912</v>
+        <v>877</v>
       </c>
     </row>
     <row r="228" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A228" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B228" s="16">
         <v>2011</v>
@@ -14927,7 +14870,7 @@
       <c r="G228" s="18"/>
       <c r="H228" s="44"/>
       <c r="I228" s="43" t="s">
-        <v>913</v>
+        <v>878</v>
       </c>
       <c r="J228" s="20"/>
       <c r="K228" s="20">
@@ -14935,7 +14878,7 @@
       </c>
       <c r="L228" s="20"/>
       <c r="M228" s="31" t="s">
-        <v>914</v>
+        <v>879</v>
       </c>
       <c r="N228" s="18">
         <v>98</v>
@@ -14952,7 +14895,7 @@
     </row>
     <row r="229" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A229" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B229" s="16">
         <v>2011</v>
@@ -14972,7 +14915,7 @@
       <c r="G229" s="18"/>
       <c r="H229" s="44"/>
       <c r="I229" s="43" t="s">
-        <v>802</v>
+        <v>767</v>
       </c>
       <c r="J229" s="20"/>
       <c r="K229" s="20">
@@ -14980,24 +14923,24 @@
       </c>
       <c r="L229" s="20"/>
       <c r="M229" s="31" t="s">
-        <v>915</v>
+        <v>880</v>
       </c>
       <c r="N229" s="18" t="s">
-        <v>916</v>
+        <v>881</v>
       </c>
       <c r="O229" s="18" t="s">
-        <v>917</v>
+        <v>882</v>
       </c>
       <c r="P229" s="18" t="s">
-        <v>918</v>
+        <v>883</v>
       </c>
       <c r="Q229" s="18" t="s">
-        <v>919</v>
+        <v>884</v>
       </c>
     </row>
     <row r="230" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A230" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B230" s="16">
         <v>2011</v>
@@ -15017,7 +14960,7 @@
       <c r="G230" s="18"/>
       <c r="H230" s="44"/>
       <c r="I230" s="43" t="s">
-        <v>730</v>
+        <v>695</v>
       </c>
       <c r="J230" s="20"/>
       <c r="K230" s="20">
@@ -15025,7 +14968,7 @@
       </c>
       <c r="L230" s="20"/>
       <c r="M230" s="31" t="s">
-        <v>920</v>
+        <v>885</v>
       </c>
       <c r="N230" s="18">
         <v>22</v>
@@ -15042,7 +14985,7 @@
     </row>
     <row r="231" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A231" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B231" s="16">
         <v>2011</v>
@@ -15057,12 +15000,12 @@
         <v>4</v>
       </c>
       <c r="F231" s="18" t="s">
-        <v>732</v>
+        <v>697</v>
       </c>
       <c r="G231" s="18"/>
       <c r="H231" s="44"/>
       <c r="I231" s="43" t="s">
-        <v>772</v>
+        <v>737</v>
       </c>
       <c r="J231" s="20"/>
       <c r="K231" s="20">
@@ -15070,7 +15013,7 @@
       </c>
       <c r="L231" s="20"/>
       <c r="M231" s="31" t="s">
-        <v>921</v>
+        <v>886</v>
       </c>
       <c r="N231" s="18">
         <v>2</v>
@@ -15087,7 +15030,7 @@
     </row>
     <row r="232" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A232" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B232" s="16">
         <v>2011</v>
@@ -15107,7 +15050,7 @@
       <c r="G232" s="18"/>
       <c r="H232" s="44"/>
       <c r="I232" s="43" t="s">
-        <v>808</v>
+        <v>773</v>
       </c>
       <c r="J232" s="20"/>
       <c r="K232" s="20">
@@ -15115,24 +15058,24 @@
       </c>
       <c r="L232" s="20"/>
       <c r="M232" s="31" t="s">
-        <v>922</v>
+        <v>887</v>
       </c>
       <c r="N232" s="18" t="s">
-        <v>923</v>
+        <v>888</v>
       </c>
       <c r="O232" s="18" t="s">
-        <v>924</v>
+        <v>889</v>
       </c>
       <c r="P232" s="18" t="s">
-        <v>925</v>
+        <v>890</v>
       </c>
       <c r="Q232" s="18" t="s">
-        <v>926</v>
+        <v>891</v>
       </c>
     </row>
     <row r="233" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A233" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B233" s="16">
         <v>2011</v>
@@ -15147,12 +15090,12 @@
         <v>12</v>
       </c>
       <c r="F233" s="18" t="s">
-        <v>732</v>
+        <v>697</v>
       </c>
       <c r="G233" s="18"/>
       <c r="H233" s="44"/>
       <c r="I233" s="43" t="s">
-        <v>772</v>
+        <v>737</v>
       </c>
       <c r="J233" s="20"/>
       <c r="K233" s="20">
@@ -15160,24 +15103,24 @@
       </c>
       <c r="L233" s="20"/>
       <c r="M233" s="31" t="s">
-        <v>927</v>
+        <v>892</v>
       </c>
       <c r="N233" s="18" t="s">
-        <v>928</v>
+        <v>893</v>
       </c>
       <c r="O233" s="18" t="s">
-        <v>929</v>
+        <v>894</v>
       </c>
       <c r="P233" s="18" t="s">
-        <v>930</v>
+        <v>895</v>
       </c>
       <c r="Q233" s="18" t="s">
-        <v>931</v>
+        <v>896</v>
       </c>
     </row>
     <row r="234" spans="1:17" ht="105" x14ac:dyDescent="0.2">
       <c r="A234" s="16" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B234" s="16">
         <v>2011</v>
@@ -15192,12 +15135,12 @@
         <v>1</v>
       </c>
       <c r="F234" s="18" t="s">
-        <v>732</v>
+        <v>697</v>
       </c>
       <c r="G234" s="18"/>
       <c r="H234" s="44"/>
       <c r="I234" s="43" t="s">
-        <v>754</v>
+        <v>719</v>
       </c>
       <c r="J234" s="20"/>
       <c r="K234" s="20">
@@ -15205,19 +15148,19 @@
       </c>
       <c r="L234" s="20"/>
       <c r="M234" s="31" t="s">
-        <v>932</v>
+        <v>897</v>
       </c>
       <c r="N234" s="19" t="s">
-        <v>933</v>
+        <v>898</v>
       </c>
       <c r="O234" s="19" t="s">
-        <v>934</v>
+        <v>899</v>
       </c>
       <c r="P234" s="19" t="s">
-        <v>935</v>
+        <v>900</v>
       </c>
       <c r="Q234" s="19" t="s">
-        <v>936</v>
+        <v>901</v>
       </c>
     </row>
   </sheetData>

--- a/mathematics/MathItems.xlsx
+++ b/mathematics/MathItems.xlsx
@@ -126,18 +126,6 @@
   </si>
   <si>
     <t>wider and open upward</t>
-  </si>
-  <si>
-    <t>&lt;img src='NY-2015-06-02-A.png'&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src='NY-2015-06-02-B.png'&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src='NY-2015-06-02-C.png'&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src='NY-2015-06-02-D.png'&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The local deli charges a fee for delivery. On Monday, they delivered two dozen bagels to an office at a total cost of $8. On Tuesday, three dozen bagels were delivered at a total cost of $11. Which system of equations could be used to find the cost of a dozen bagels, &lt;i&gt;b&lt;/i&gt;, if the delivery fee is &lt;i&gt;f&lt;/i&gt;? </t>
@@ -2340,15 +2328,6 @@
     <t>&lt;i&gt;x&lt;/i&gt; = 3</t>
   </si>
   <si>
-    <t>\( 14.70 + 0.25&lt;i&gt;q&lt;/i&gt; = 72 \)</t>
-  </si>
-  <si>
-    <t>\( 0.10(72 - &lt;i&gt;q&lt;/i&gt;) + 0.25&lt;i&gt;q&lt;/i&gt; = 14.70 \)</t>
-  </si>
-  <si>
-    <t>\( 0.10&lt;i&gt;q&lt;/i&gt; + 0.25(72 - &lt;i&gt;q&lt;/i&gt;) = 14.70 \)</t>
-  </si>
-  <si>
     <t>\( 3x^{2} - 7x + 19 \)</t>
   </si>
   <si>
@@ -2371,9 +2350,6 @@
   </si>
   <si>
     <t>\( -4x^{3}y^{2} \)</t>
-  </si>
-  <si>
-    <t>(\ -2y = -3x + 6 \)</t>
   </si>
   <si>
     <t>The expression \( \frac{ 24x^{6} y^{3}}{ -6x^{3} y} \) is equivalent to</t>
@@ -2560,9 +2536,6 @@
     <t>Giselle surveyed 10 students at random about the number of people in their household and the number of times laundry is washed in their household each week. The results of her survey are shown in the table below. &lt;br/&gt;&lt;img src='MA-2015-06-04.png'&gt;&lt;br/&gt;  Which of the following scatterplots best represents the data in the table?</t>
   </si>
   <si>
-    <t xml:space="preserve">What is the value of the expression below?  \( (5+4) ^{2} - (5+4 ^{2} \)   </t>
-  </si>
-  <si>
     <t>What are the solutions of the equation below? \( (x-2)  (x+9)=0 \)</t>
   </si>
   <si>
@@ -2727,10 +2700,6 @@
   </si>
   <si>
     <t>The scatterplot below shows the relationship between the temperature, in degrees Fahrenheit, at a football game and the number of cups of hot chocolate sold during the game. &lt;br/&gt;&lt;img src='MA-2014-06-40.png'&gt;</t>
-  </si>
-  <si>
-    <t>Which of the following is equivalent to the expression below?&lt;br/&gt;
-$$ ( x^{6} )( \bullet ) (x^{2} ) $$</t>
   </si>
   <si>
     <t>Which point on the number line below is closest to the value of \( \sqrt{152} \)?&lt;br/&gt;
@@ -3225,9 +3194,6 @@
     <t>\( y  \geq  \frac{4}{3}x + 3 \)</t>
   </si>
   <si>
-    <t>( \-3y = 2x + 6 \)</t>
-  </si>
-  <si>
     <t>\( y = 3x - 1 \)</t>
   </si>
   <si>
@@ -3391,13 +3357,7 @@
     <t xml:space="preserve">\( 2 \frac{3}{4} \) </t>
   </si>
   <si>
-    <t>(\ 3y = -2x + 6 \)</t>
-  </si>
-  <si>
     <t>\( y = 4x + 2 \)</t>
-  </si>
-  <si>
-    <t>\( 280 + 0.05&lt;i&gt;n&lt;/i&gt; \)</t>
   </si>
   <si>
     <t>\( y=(- \frac{1}{2} x) + 8 \)</t>
@@ -3533,13 +3493,7 @@
     <t>\( y  \geq  \frac{4}{3}x - 4\)</t>
   </si>
   <si>
-    <t>(\ 3y = 2x + 6 \)</t>
-  </si>
-  <si>
     <t>\( y = 4x - 2 \)</t>
-  </si>
-  <si>
-    <t>\( 280 + 5n| \)</t>
   </si>
   <si>
     <t>\( y=(- \frac{1}{2} x) + 6 \)</t>
@@ -3885,16 +3839,6 @@
 What were the coordinates of point &lt;i&gt;R&lt;/i&gt; before the translation?</t>
   </si>
   <si>
-    <t>The diagram below shows \( \triangle WXY \). Point R lies on \( \overline{WY} \).&lt;br/&gt;
-&lt;img src='MA-2013-06-32.png'&gt;&lt;br/&gt;
-Based on the angle measures in the diagram, what is \( m \angleWXR \)?</t>
-  </si>
-  <si>
-    <t>Triangles &lt;i&gt;GHJ&lt;/i&gt; and &lt;i&gt;KLM&lt;/i&gt; are congruent. The triangles and some of their angle measures are shown in the diagram below.&lt;br/&gt;
-&lt;img src='MA-2013-06-36.png'&gt;&lt;br/&gt;
-Based on the angle measures in the diagram, what is \( m \angleJGH \)?</t>
-  </si>
-  <si>
     <t>Square &lt;i&gt;WXYZ&lt;/i&gt; is inscribed in circle &lt;i&gt;O&lt;/i&gt;, which has a radius of 8 feet, as shown below.&lt;br/&gt;
 &lt;img src='MA-2013-06-40.png'&gt;&lt;br/&gt;
 Which of the following is closest to the length of  \( \overline{WZ} \)?</t>
@@ -4010,6 +3954,62 @@
   </si>
   <si>
     <t>\( 147\pi \)</t>
+  </si>
+  <si>
+    <t>\( 14.70 + 0.25q = 72 \)</t>
+  </si>
+  <si>
+    <t>\( 0.10(72 - q) + 0.25q = 14.70 \)</t>
+  </si>
+  <si>
+    <t>\( 0.10q + 0.25(72 - q) = 14.70 \)</t>
+  </si>
+  <si>
+    <t>\( 280 + 0.05n \)</t>
+  </si>
+  <si>
+    <t>\( 280 + 5n \)</t>
+  </si>
+  <si>
+    <t>&lt;img src='NY-2015-06-03-A.png'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src='NY-2015-06-03-B.png'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src='NY-2015-06-03-C.png'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src='NY-2015-06-03-D.png'&gt;</t>
+  </si>
+  <si>
+    <t>\( -2y = -3x + 6 \)</t>
+  </si>
+  <si>
+    <t>\( -3y = 2x + 6 \)</t>
+  </si>
+  <si>
+    <t>\( 3y = -2x + 6 \)</t>
+  </si>
+  <si>
+    <t>\( 3y = 2x + 6 \)</t>
+  </si>
+  <si>
+    <t>Which of the following is equivalent to the expression below?&lt;br/&gt;
+$$ ( x^{6} ) \bullet (x^{2} ) $$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the value of the expression below?  \( (5+4) ^{2} - (5+4 ^{2}) \)   </t>
+  </si>
+  <si>
+    <t>The diagram below shows \( \triangle WXY \). Point R lies on \( \overline{WY} \).&lt;br/&gt;
+&lt;img src='MA-2013-06-32.png'&gt;&lt;br/&gt;
+Based on the angle measures in the diagram, what is \( m \angle WXR \)?</t>
+  </si>
+  <si>
+    <t>Triangles &lt;i&gt;GHJ&lt;/i&gt; and &lt;i&gt;KLM&lt;/i&gt; are congruent. The triangles and some of their angle measures are shown in the diagram below.&lt;br/&gt;
+&lt;img src='MA-2013-06-36.png'&gt;&lt;br/&gt;
+Based on the angle measures in the diagram, what is \( m \angle JGH \)?</t>
   </si>
 </sst>
 </file>
@@ -4574,10 +4574,10 @@
   <dimension ref="A1:R256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G143" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="H127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J81" sqref="J81"/>
+      <selection pane="bottomRight" activeCell="M130" sqref="M130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4604,43 +4604,43 @@
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>940</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="M1" s="38" t="s">
         <v>111</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>115</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>13</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="2" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B2" s="12">
         <v>2011</v>
@@ -4677,7 +4677,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="29"/>
       <c r="I2" s="28" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="16">
@@ -4685,24 +4685,24 @@
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="15" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B3" s="12">
         <v>2011</v>
@@ -4722,7 +4722,7 @@
       <c r="G3" s="14"/>
       <c r="H3" s="29"/>
       <c r="I3" s="28" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16">
@@ -4730,24 +4730,24 @@
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="15" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B4" s="12">
         <v>2011</v>
@@ -4767,7 +4767,7 @@
       <c r="G4" s="14"/>
       <c r="H4" s="29"/>
       <c r="I4" s="28" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16">
@@ -4775,24 +4775,24 @@
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="15" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B5" s="12">
         <v>2011</v>
@@ -4812,7 +4812,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="29"/>
       <c r="I5" s="28" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="15" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="N5" s="25">
         <v>875</v>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="6" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B6" s="12">
         <v>2011</v>
@@ -4857,7 +4857,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="29"/>
       <c r="I6" s="28" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16">
@@ -4865,24 +4865,24 @@
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="15" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="137" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B7" s="12">
         <v>2011</v>
@@ -4897,12 +4897,12 @@
         <v>13</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="29"/>
       <c r="I7" s="28" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16">
@@ -4910,24 +4910,24 @@
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="15" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B8" s="12">
         <v>2011</v>
@@ -4947,7 +4947,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="29"/>
       <c r="I8" s="28" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="15" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="N8" s="25">
         <v>900</v>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="9" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B9" s="12">
         <v>2011</v>
@@ -4992,7 +4992,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="29"/>
       <c r="I9" s="28" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="15" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="N9" s="14">
         <v>100</v>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="10" spans="1:17" ht="92" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B10" s="12">
         <v>2011</v>
@@ -5032,12 +5032,12 @@
         <v>11</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="29"/>
       <c r="I10" s="28" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16">
@@ -5045,7 +5045,7 @@
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="15" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="N10" s="14">
         <v>-192</v>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="11" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B11" s="12">
         <v>2011</v>
@@ -5082,7 +5082,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="29"/>
       <c r="I11" s="28" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="16">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="15" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="N11" s="14">
         <v>-14</v>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="12" spans="1:17" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B12" s="12">
         <v>2011</v>
@@ -5127,7 +5127,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="29"/>
       <c r="I12" s="28" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="16">
@@ -5135,24 +5135,24 @@
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q12" s="14" t="s">
         <v>505</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="163" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B13" s="12">
         <v>2011</v>
@@ -5172,7 +5172,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="29"/>
       <c r="I13" s="28" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="16">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="15" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="N13" s="14">
         <v>3</v>
@@ -5197,7 +5197,7 @@
     </row>
     <row r="14" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B14" s="12">
         <v>2011</v>
@@ -5217,7 +5217,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="29"/>
       <c r="I14" s="28" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="16">
@@ -5225,24 +5225,24 @@
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="15" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="Q14" s="14" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B15" s="12">
         <v>2011</v>
@@ -5262,7 +5262,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="29"/>
       <c r="I15" s="28" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="16">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="15" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="N15" s="25">
         <v>300</v>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="16" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B16" s="12">
         <v>2011</v>
@@ -5302,12 +5302,12 @@
         <v>13</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="29"/>
       <c r="I16" s="28" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="J16" s="16"/>
       <c r="K16" s="16">
@@ -5315,24 +5315,24 @@
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="15" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="Q16" s="14" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B17" s="12">
         <v>2011</v>
@@ -5347,12 +5347,12 @@
         <v>11</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="29"/>
       <c r="I17" s="28" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="J17" s="16"/>
       <c r="K17" s="16">
@@ -5360,24 +5360,24 @@
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="15" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="Q17" s="14" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B18" s="12">
         <v>2011</v>
@@ -5397,7 +5397,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="29"/>
       <c r="I18" s="28" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="J18" s="16"/>
       <c r="K18" s="16">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="15" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="N18" s="14">
         <v>3</v>
@@ -5422,7 +5422,7 @@
     </row>
     <row r="19" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B19" s="12">
         <v>2011</v>
@@ -5442,7 +5442,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="29"/>
       <c r="I19" s="28" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16">
@@ -5450,24 +5450,24 @@
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="15" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="168" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B20" s="12">
         <v>2011</v>
@@ -5485,13 +5485,13 @@
         <v>27</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I20" s="58" t="s">
-        <v>978</v>
+        <v>963</v>
       </c>
       <c r="J20" s="59">
         <v>0.77</v>
@@ -5499,24 +5499,24 @@
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="52" t="s">
-        <v>1006</v>
+        <v>991</v>
       </c>
       <c r="N20" s="53" t="s">
-        <v>979</v>
+        <v>964</v>
       </c>
       <c r="O20" s="53" t="s">
-        <v>980</v>
+        <v>965</v>
       </c>
       <c r="P20" s="53" t="s">
-        <v>981</v>
+        <v>966</v>
       </c>
       <c r="Q20" s="53" t="s">
-        <v>982</v>
+        <v>967</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="92" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B21" s="12">
         <v>2011</v>
@@ -5536,7 +5536,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="29"/>
       <c r="I21" s="28" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="16">
@@ -5544,24 +5544,24 @@
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="15" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="Q21" s="14" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B22" s="12">
         <v>2011</v>
@@ -5576,12 +5576,12 @@
         <v>13</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="29"/>
       <c r="I22" s="28" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="J22" s="16"/>
       <c r="K22" s="16">
@@ -5589,24 +5589,24 @@
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="15" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="Q22" s="14" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B23" s="12">
         <v>2011</v>
@@ -5626,7 +5626,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="29"/>
       <c r="I23" s="28" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="16">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="15" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="N23" s="14">
         <v>98</v>
@@ -5651,7 +5651,7 @@
     </row>
     <row r="24" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B24" s="12">
         <v>2011</v>
@@ -5671,7 +5671,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="29"/>
       <c r="I24" s="28" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="16">
@@ -5679,24 +5679,24 @@
       </c>
       <c r="L24" s="16"/>
       <c r="M24" s="15" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="Q24" s="14" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B25" s="12">
         <v>2011</v>
@@ -5716,7 +5716,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="29"/>
       <c r="I25" s="28" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J25" s="16"/>
       <c r="K25" s="16">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="15" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="N25" s="14">
         <v>22</v>
@@ -5741,7 +5741,7 @@
     </row>
     <row r="26" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B26" s="12">
         <v>2011</v>
@@ -5756,16 +5756,16 @@
         <v>4</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J26" s="16"/>
       <c r="K26" s="16">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="L26" s="16"/>
       <c r="M26" s="15" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="N26" s="14">
         <v>2</v>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="27" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B27" s="12">
         <v>2011</v>
@@ -5810,7 +5810,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="29"/>
       <c r="I27" s="28" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J27" s="16"/>
       <c r="K27" s="16">
@@ -5818,24 +5818,24 @@
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="15" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="Q27" s="14" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B28" s="12">
         <v>2011</v>
@@ -5850,12 +5850,12 @@
         <v>11</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="29"/>
       <c r="I28" s="28" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J28" s="16"/>
       <c r="K28" s="16">
@@ -5863,24 +5863,24 @@
       </c>
       <c r="L28" s="16"/>
       <c r="M28" s="15" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="Q28" s="14" t="s">
-        <v>936</v>
+        <v>921</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="105" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B29" s="12">
         <v>2011</v>
@@ -5895,16 +5895,16 @@
         <v>1</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J29" s="16"/>
       <c r="K29" s="16">
@@ -5912,24 +5912,24 @@
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="15" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="Q29" s="15" t="s">
-        <v>937</v>
+        <v>922</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="163" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B30" s="12">
         <v>2012</v>
@@ -5949,7 +5949,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="29"/>
       <c r="I30" s="28" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J30" s="16"/>
       <c r="K30" s="16">
@@ -5957,24 +5957,24 @@
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="15" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="Q30" s="14" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B31" s="12">
         <v>2012</v>
@@ -5992,10 +5992,10 @@
         <v>15</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J31" s="16"/>
       <c r="K31" s="16">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="L31" s="16"/>
       <c r="M31" s="15" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="N31" s="14">
         <v>18</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="32" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B32" s="12">
         <v>2012</v>
@@ -6035,16 +6035,16 @@
         <v>11</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="J32" s="16"/>
       <c r="K32" s="16">
@@ -6052,24 +6052,24 @@
       </c>
       <c r="L32" s="16"/>
       <c r="M32" s="15" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="P32" s="14" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="Q32" s="14" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B33" s="12">
         <v>2012</v>
@@ -6087,10 +6087,10 @@
         <v>18</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J33" s="16"/>
       <c r="K33" s="16">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="15" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="N33" s="25">
         <v>100</v>
@@ -6115,7 +6115,7 @@
     </row>
     <row r="34" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B34" s="12">
         <v>2012</v>
@@ -6133,10 +6133,10 @@
         <v>18</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="J34" s="16"/>
       <c r="K34" s="16">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="L34" s="16"/>
       <c r="M34" s="15" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="N34" s="14">
         <v>10</v>
@@ -6161,7 +6161,7 @@
     </row>
     <row r="35" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B35" s="12">
         <v>2012</v>
@@ -6176,13 +6176,13 @@
         <v>11</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J35" s="16"/>
       <c r="K35" s="16">
@@ -6190,24 +6190,24 @@
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="15" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="N35" s="14" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="O35" s="14" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="P35" s="14" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="Q35" s="14" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B36" s="12">
         <v>2012</v>
@@ -6225,10 +6225,10 @@
         <v>15</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J36" s="16"/>
       <c r="K36" s="16">
@@ -6236,24 +6236,24 @@
       </c>
       <c r="L36" s="16"/>
       <c r="M36" s="15" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="N36" s="14" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="P36" s="14" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="Q36" s="14" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="105" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B37" s="12">
         <v>2012</v>
@@ -6268,12 +6268,12 @@
         <v>4</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="29"/>
       <c r="I37" s="28" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J37" s="16"/>
       <c r="K37" s="16">
@@ -6281,24 +6281,24 @@
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="15" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="P37" s="14" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="Q37" s="14" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B38" s="12">
         <v>2012</v>
@@ -6316,10 +6316,10 @@
         <v>18</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J38" s="16"/>
       <c r="K38" s="16">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="L38" s="16"/>
       <c r="M38" s="15" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="N38" s="14">
         <v>6.4</v>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="39" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B39" s="12">
         <v>2012</v>
@@ -6362,10 +6362,10 @@
         <v>18</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J39" s="16"/>
       <c r="K39" s="16">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="L39" s="16"/>
       <c r="M39" s="15" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="N39" s="14">
         <v>20</v>
@@ -6390,7 +6390,7 @@
     </row>
     <row r="40" spans="1:17" ht="92" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B40" s="12">
         <v>2012</v>
@@ -6405,16 +6405,16 @@
         <v>13</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="J40" s="16"/>
       <c r="K40" s="16">
@@ -6422,24 +6422,24 @@
       </c>
       <c r="L40" s="16"/>
       <c r="M40" s="15" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="N40" s="14" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O40" s="14" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="P40" s="14" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="Q40" s="14" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="163" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B41" s="12">
         <v>2012</v>
@@ -6457,10 +6457,10 @@
         <v>18</v>
       </c>
       <c r="H41" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J41" s="16"/>
       <c r="K41" s="16">
@@ -6468,16 +6468,16 @@
       </c>
       <c r="L41" s="16"/>
       <c r="M41" s="15" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="O41" s="14">
         <v>8</v>
       </c>
       <c r="P41" s="14" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="Q41" s="14">
         <v>4</v>
@@ -6485,7 +6485,7 @@
     </row>
     <row r="42" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B42" s="12">
         <v>2012</v>
@@ -6500,13 +6500,13 @@
         <v>1</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I42" s="28" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J42" s="16"/>
       <c r="K42" s="16">
@@ -6514,24 +6514,24 @@
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="15" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="N42" s="14" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="P42" s="14" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="Q42" s="14" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="137" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B43" s="12">
         <v>2012</v>
@@ -6546,13 +6546,13 @@
         <v>1</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="J43" s="16"/>
       <c r="K43" s="16">
@@ -6560,24 +6560,24 @@
       </c>
       <c r="L43" s="16"/>
       <c r="M43" s="15" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="N43" s="14" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="P43" s="14" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="Q43" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B44" s="12">
         <v>2012</v>
@@ -6595,10 +6595,10 @@
         <v>9</v>
       </c>
       <c r="H44" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="J44" s="16"/>
       <c r="K44" s="16">
@@ -6606,24 +6606,24 @@
       </c>
       <c r="L44" s="16"/>
       <c r="M44" s="15" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="N44" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P44" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="Q44" s="14" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B45" s="12">
         <v>2012</v>
@@ -6641,10 +6641,10 @@
         <v>27</v>
       </c>
       <c r="H45" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J45" s="16"/>
       <c r="K45" s="16">
@@ -6652,24 +6652,24 @@
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="15" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="N45" s="14" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="O45" s="14" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P45" s="14" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="Q45" s="14" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B46" s="12">
         <v>2012</v>
@@ -6689,7 +6689,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="29"/>
       <c r="I46" s="28" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="J46" s="16"/>
       <c r="K46" s="16">
@@ -6697,24 +6697,24 @@
       </c>
       <c r="L46" s="16"/>
       <c r="M46" s="15" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="N46" s="14" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="P46" s="14" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="Q46" s="14" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B47" s="12">
         <v>2012</v>
@@ -6734,7 +6734,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="29"/>
       <c r="I47" s="28" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J47" s="16"/>
       <c r="K47" s="16">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="15" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="N47" s="14">
         <v>40</v>
@@ -6759,7 +6759,7 @@
     </row>
     <row r="48" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B48" s="12">
         <v>2012</v>
@@ -6779,7 +6779,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="29"/>
       <c r="I48" s="28" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="J48" s="16"/>
       <c r="K48" s="16">
@@ -6787,24 +6787,24 @@
       </c>
       <c r="L48" s="16"/>
       <c r="M48" s="15" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="N48" s="14" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="O48" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="P48" s="14" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="Q48" s="14" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B49" s="12">
         <v>2012</v>
@@ -6824,7 +6824,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="29"/>
       <c r="I49" s="28" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J49" s="16"/>
       <c r="K49" s="16">
@@ -6832,24 +6832,24 @@
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="15" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="N49" s="14" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="O49" s="14" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="P49" s="14" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="Q49" s="14" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B50" s="12">
         <v>2012</v>
@@ -6869,7 +6869,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="29"/>
       <c r="I50" s="28" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J50" s="16"/>
       <c r="K50" s="16">
@@ -6877,24 +6877,24 @@
       </c>
       <c r="L50" s="16"/>
       <c r="M50" s="15" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="N50" s="14" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="P50" s="14" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="Q50" s="14" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B51" s="12">
         <v>2012</v>
@@ -6909,12 +6909,12 @@
         <v>11</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="29"/>
       <c r="I51" s="28" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J51" s="16"/>
       <c r="K51" s="16">
@@ -6922,24 +6922,24 @@
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="15" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="N51" s="14" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="P51" s="14" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="Q51" s="14" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B52" s="12">
         <v>2012</v>
@@ -6959,7 +6959,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="29"/>
       <c r="I52" s="28" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="J52" s="16"/>
       <c r="K52" s="16">
@@ -6967,24 +6967,24 @@
       </c>
       <c r="L52" s="16"/>
       <c r="M52" s="15" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="N52" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="P52" s="14" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="Q52" s="14" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B53" s="12">
         <v>2012</v>
@@ -7004,7 +7004,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="29"/>
       <c r="I53" s="28" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J53" s="16"/>
       <c r="K53" s="16">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="L53" s="16"/>
       <c r="M53" s="15" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="N53" s="14">
         <v>1</v>
@@ -7029,7 +7029,7 @@
     </row>
     <row r="54" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B54" s="12">
         <v>2012</v>
@@ -7049,7 +7049,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="29"/>
       <c r="I54" s="28" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="J54" s="16"/>
       <c r="K54" s="16">
@@ -7057,24 +7057,24 @@
       </c>
       <c r="L54" s="16"/>
       <c r="M54" s="15" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="N54" s="14" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="O54" s="14" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="P54" s="14" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="Q54" s="14" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B55" s="12">
         <v>2012</v>
@@ -7094,7 +7094,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="29"/>
       <c r="I55" s="28" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="J55" s="16"/>
       <c r="K55" s="16">
@@ -7102,24 +7102,24 @@
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="15" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="N55" s="14" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="P55" s="14" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="Q55" s="14" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="202" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B56" s="12">
         <v>2013</v>
@@ -7134,16 +7134,16 @@
         <v>1</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H56" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I56" s="28" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="J56" s="16"/>
       <c r="K56" s="16">
@@ -7151,24 +7151,24 @@
       </c>
       <c r="L56" s="16"/>
       <c r="M56" s="15" t="s">
-        <v>669</v>
+        <v>1044</v>
       </c>
       <c r="N56" s="14" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="P56" s="14" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="Q56" s="14" t="s">
-        <v>918</v>
+        <v>903</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="224" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B57" s="12">
         <v>2013</v>
@@ -7186,13 +7186,13 @@
         <v>18</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H57" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I57" s="28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="J57" s="16"/>
       <c r="K57" s="16">
@@ -7200,24 +7200,24 @@
       </c>
       <c r="L57" s="16"/>
       <c r="M57" s="15" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="N57" s="14" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="O57" s="14" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P57" s="14" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Q57" s="14" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="367" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B58" s="12">
         <v>2013</v>
@@ -7235,13 +7235,13 @@
         <v>18</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H58" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I58" s="28" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="J58" s="16"/>
       <c r="K58" s="16">
@@ -7249,7 +7249,7 @@
       </c>
       <c r="L58" s="16"/>
       <c r="M58" s="15" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="N58" s="14">
         <v>38</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="59" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B59" s="12">
         <v>2013</v>
@@ -7281,16 +7281,16 @@
         <v>11</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H59" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J59" s="16"/>
       <c r="K59" s="16">
@@ -7298,7 +7298,7 @@
       </c>
       <c r="L59" s="16"/>
       <c r="M59" s="15" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="N59" s="14">
         <v>2</v>
@@ -7315,7 +7315,7 @@
     </row>
     <row r="60" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B60" s="12">
         <v>2013</v>
@@ -7333,13 +7333,13 @@
         <v>15</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H60" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J60" s="16"/>
       <c r="K60" s="16">
@@ -7347,24 +7347,24 @@
       </c>
       <c r="L60" s="16"/>
       <c r="M60" s="15" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="N60" s="14" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="O60" s="14" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="P60" s="14" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q60" s="14" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B61" s="12">
         <v>2013</v>
@@ -7382,13 +7382,13 @@
         <v>15</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H61" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="J61" s="16"/>
       <c r="K61" s="16">
@@ -7396,24 +7396,24 @@
       </c>
       <c r="L61" s="16"/>
       <c r="M61" s="15" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="N61" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="O61" s="14" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P61" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="Q61" s="14" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B62" s="12">
         <v>2013</v>
@@ -7433,7 +7433,7 @@
       <c r="G62" s="14"/>
       <c r="H62" s="29"/>
       <c r="I62" s="15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J62" s="16"/>
       <c r="K62" s="16">
@@ -7441,24 +7441,24 @@
       </c>
       <c r="L62" s="16"/>
       <c r="M62" s="15" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="N62" s="14" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O62" s="14" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="P62" s="14" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Q62" s="14" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="185" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B63" s="12">
         <v>2013</v>
@@ -7476,13 +7476,13 @@
         <v>18</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H63" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I63" s="28" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J63" s="16"/>
       <c r="K63" s="16">
@@ -7490,24 +7490,24 @@
       </c>
       <c r="L63" s="16"/>
       <c r="M63" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="N63" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="O63" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="P63" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q63" s="14" t="s">
         <v>388</v>
-      </c>
-      <c r="N63" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="O63" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="P63" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q63" s="14" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B64" s="12">
         <v>2013</v>
@@ -7525,13 +7525,13 @@
         <v>18</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H64" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J64" s="16"/>
       <c r="K64" s="16">
@@ -7539,24 +7539,24 @@
       </c>
       <c r="L64" s="16"/>
       <c r="M64" s="15" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="N64" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O64" s="14" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="P64" s="14" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q64" s="14" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="183" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B65" s="12">
         <v>2013</v>
@@ -7574,13 +7574,13 @@
         <v>15</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I65" s="15" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J65" s="16"/>
       <c r="K65" s="16">
@@ -7588,7 +7588,7 @@
       </c>
       <c r="L65" s="16"/>
       <c r="M65" s="15" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="N65" s="14">
         <v>50</v>
@@ -7605,7 +7605,7 @@
     </row>
     <row r="66" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B66" s="12">
         <v>2013</v>
@@ -7623,13 +7623,13 @@
         <v>15</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H66" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I66" s="15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J66" s="16"/>
       <c r="K66" s="16">
@@ -7637,7 +7637,7 @@
       </c>
       <c r="L66" s="16"/>
       <c r="M66" s="15" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="N66" s="14">
         <v>40</v>
@@ -7654,7 +7654,7 @@
     </row>
     <row r="67" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B67" s="12">
         <v>2013</v>
@@ -7672,13 +7672,13 @@
         <v>18</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H67" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I67" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J67" s="16"/>
       <c r="K67" s="16">
@@ -7686,7 +7686,7 @@
       </c>
       <c r="L67" s="16"/>
       <c r="M67" s="15" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="N67" s="25">
         <v>100</v>
@@ -7703,7 +7703,7 @@
     </row>
     <row r="68" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B68" s="12">
         <v>2013</v>
@@ -7718,16 +7718,16 @@
         <v>11</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H68" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J68" s="16"/>
       <c r="K68" s="16">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="L68" s="16"/>
       <c r="M68" s="15" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="N68" s="14">
         <v>2</v>
@@ -7752,7 +7752,7 @@
     </row>
     <row r="69" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B69" s="12">
         <v>2013</v>
@@ -7773,10 +7773,10 @@
         <v>27</v>
       </c>
       <c r="H69" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J69" s="16"/>
       <c r="K69" s="16">
@@ -7784,24 +7784,24 @@
       </c>
       <c r="L69" s="16"/>
       <c r="M69" s="15" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="N69" s="14" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="P69" s="14" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="Q69" s="14" t="s">
-        <v>919</v>
+        <v>904</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B70" s="12">
         <v>2013</v>
@@ -7816,16 +7816,16 @@
         <v>11</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H70" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="J70" s="16"/>
       <c r="K70" s="16">
@@ -7833,24 +7833,24 @@
       </c>
       <c r="L70" s="16"/>
       <c r="M70" s="15" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="N70" s="14" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="P70" s="14" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="Q70" s="14" t="s">
-        <v>920</v>
+        <v>905</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="183" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B71" s="12">
         <v>2013</v>
@@ -7868,13 +7868,13 @@
         <v>15</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H71" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J71" s="16"/>
       <c r="K71" s="16">
@@ -7882,24 +7882,24 @@
       </c>
       <c r="L71" s="16"/>
       <c r="M71" s="15" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="N71" s="14" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="O71" s="14" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="P71" s="15" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="Q71" s="15" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B72" s="12">
         <v>2013</v>
@@ -7914,16 +7914,16 @@
         <v>11</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H72" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J72" s="16"/>
       <c r="K72" s="16">
@@ -7931,24 +7931,24 @@
       </c>
       <c r="L72" s="16"/>
       <c r="M72" s="15" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="N72" s="14" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="O72" s="14" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="P72" s="14" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q72" s="14" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B73" s="12">
         <v>2013</v>
@@ -7969,10 +7969,10 @@
         <v>27</v>
       </c>
       <c r="H73" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I73" s="58" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J73" s="59">
         <v>0.73</v>
@@ -7980,24 +7980,24 @@
       <c r="K73" s="16"/>
       <c r="L73" s="16"/>
       <c r="M73" s="60" t="s">
-        <v>1007</v>
+        <v>992</v>
       </c>
       <c r="N73" s="53" t="s">
-        <v>974</v>
+        <v>959</v>
       </c>
       <c r="O73" s="53" t="s">
-        <v>975</v>
+        <v>960</v>
       </c>
       <c r="P73" s="53" t="s">
-        <v>976</v>
+        <v>961</v>
       </c>
       <c r="Q73" s="53" t="s">
-        <v>977</v>
+        <v>962</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="235" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B74" s="12">
         <v>2013</v>
@@ -8015,13 +8015,13 @@
         <v>15</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H74" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I74" s="15" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="J74" s="16"/>
       <c r="K74" s="16">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="L74" s="16"/>
       <c r="M74" s="15" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="N74" s="23">
         <v>10000</v>
@@ -8046,7 +8046,7 @@
     </row>
     <row r="75" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B75" s="12">
         <v>2013</v>
@@ -8061,16 +8061,16 @@
         <v>11</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H75" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J75" s="16"/>
       <c r="K75" s="16">
@@ -8078,24 +8078,24 @@
       </c>
       <c r="L75" s="16"/>
       <c r="M75" s="15" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="N75" s="14" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="O75" s="14" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="P75" s="14" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="Q75" s="14" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B76" s="12">
         <v>2013</v>
@@ -8113,13 +8113,13 @@
         <v>15</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H76" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I76" s="15" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J76" s="16"/>
       <c r="K76" s="16">
@@ -8127,24 +8127,24 @@
       </c>
       <c r="L76" s="16"/>
       <c r="M76" s="15" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="N76" s="14" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="O76" s="14" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P76" s="14" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q76" s="14" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B77" s="12">
         <v>2013</v>
@@ -8165,10 +8165,10 @@
         <v>27</v>
       </c>
       <c r="H77" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I77" s="58" t="s">
-        <v>983</v>
+        <v>968</v>
       </c>
       <c r="J77" s="59">
         <v>0.7</v>
@@ -8176,24 +8176,24 @@
       <c r="K77" s="16"/>
       <c r="L77" s="16"/>
       <c r="M77" s="52" t="s">
-        <v>1008</v>
+        <v>1046</v>
       </c>
       <c r="N77" s="53" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="O77" s="53" t="s">
-        <v>1021</v>
+        <v>1004</v>
       </c>
       <c r="P77" s="53" t="s">
-        <v>1030</v>
+        <v>1013</v>
       </c>
       <c r="Q77" s="53" t="s">
-        <v>1039</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="126" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B78" s="12">
         <v>2013</v>
@@ -8213,7 +8213,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="29"/>
       <c r="I78" s="58" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J78" s="16"/>
       <c r="K78" s="16">
@@ -8221,24 +8221,24 @@
       </c>
       <c r="L78" s="16"/>
       <c r="M78" s="15" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="N78" s="14" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="O78" s="14" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="P78" s="14" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="Q78" s="14" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="112" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B79" s="12">
         <v>2013</v>
@@ -8256,13 +8256,13 @@
         <v>27</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H79" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I79" s="58" t="s">
-        <v>984</v>
+        <v>969</v>
       </c>
       <c r="J79" s="16"/>
       <c r="K79" s="16">
@@ -8270,24 +8270,24 @@
       </c>
       <c r="L79" s="16"/>
       <c r="M79" s="15" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="N79" s="14">
         <v>-1</v>
       </c>
       <c r="O79" s="14" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="P79" s="14" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="Q79" s="14" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="126" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B80" s="12">
         <v>2013</v>
@@ -8308,10 +8308,10 @@
         <v>27</v>
       </c>
       <c r="H80" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I80" s="58" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J80" s="61">
         <v>0.7</v>
@@ -8319,24 +8319,24 @@
       <c r="K80" s="16"/>
       <c r="L80" s="16"/>
       <c r="M80" s="52" t="s">
-        <v>1009</v>
+        <v>1047</v>
       </c>
       <c r="N80" s="53" t="s">
-        <v>1013</v>
+        <v>996</v>
       </c>
       <c r="O80" s="53" t="s">
-        <v>1022</v>
+        <v>1005</v>
       </c>
       <c r="P80" s="53" t="s">
-        <v>1031</v>
+        <v>1014</v>
       </c>
       <c r="Q80" s="53" t="s">
-        <v>1040</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B81" s="12">
         <v>2013</v>
@@ -8351,16 +8351,16 @@
         <v>13</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H81" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I81" s="15" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="J81" s="63"/>
       <c r="K81" s="16">
@@ -8368,24 +8368,24 @@
       </c>
       <c r="L81" s="16"/>
       <c r="M81" s="15" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="N81" s="14" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="O81" s="14" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="P81" s="14" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="Q81" s="14" t="s">
-        <v>923</v>
+        <v>908</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B82" s="12">
         <v>2013</v>
@@ -8406,10 +8406,10 @@
         <v>27</v>
       </c>
       <c r="H82" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I82" s="15" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="J82" s="16"/>
       <c r="K82" s="16">
@@ -8417,24 +8417,24 @@
       </c>
       <c r="L82" s="16"/>
       <c r="M82" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="N82" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="O82" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="P82" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q82" s="14" t="s">
         <v>416</v>
-      </c>
-      <c r="N82" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="O82" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="P82" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q82" s="14" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="183" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B83" s="12">
         <v>2013</v>
@@ -8452,13 +8452,13 @@
         <v>15</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H83" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I83" s="15" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J83" s="16"/>
       <c r="K83" s="16">
@@ -8466,24 +8466,24 @@
       </c>
       <c r="L83" s="16"/>
       <c r="M83" s="15" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="N83" s="14" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="O83" s="14" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="P83" s="14" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="Q83" s="14" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="112" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B84" s="12">
         <v>2013</v>
@@ -8504,10 +8504,10 @@
         <v>27</v>
       </c>
       <c r="H84" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I84" s="58" t="s">
-        <v>984</v>
+        <v>969</v>
       </c>
       <c r="J84" s="59">
         <v>0.74</v>
@@ -8515,24 +8515,24 @@
       <c r="K84" s="16"/>
       <c r="L84" s="16"/>
       <c r="M84" s="52" t="s">
-        <v>1010</v>
+        <v>993</v>
       </c>
       <c r="N84" s="53" t="s">
-        <v>985</v>
+        <v>970</v>
       </c>
       <c r="O84" s="53" t="s">
-        <v>986</v>
+        <v>971</v>
       </c>
       <c r="P84" s="53" t="s">
-        <v>987</v>
+        <v>972</v>
       </c>
       <c r="Q84" s="53" t="s">
-        <v>988</v>
+        <v>973</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B85" s="12">
         <v>2014</v>
@@ -8550,13 +8550,13 @@
         <v>18</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H85" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I85" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J85" s="16"/>
       <c r="K85" s="16">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="L85" s="16"/>
       <c r="M85" s="15" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="N85" s="23">
         <v>3000</v>
@@ -8581,7 +8581,7 @@
     </row>
     <row r="86" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B86" s="12">
         <v>2014</v>
@@ -8599,13 +8599,13 @@
         <v>18</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H86" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I86" s="15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J86" s="16"/>
       <c r="K86" s="16">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="L86" s="16"/>
       <c r="M86" s="15" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="N86" s="14">
         <v>-7</v>
@@ -8630,7 +8630,7 @@
     </row>
     <row r="87" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B87" s="12">
         <v>2014</v>
@@ -8645,16 +8645,16 @@
         <v>4</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H87" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I87" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J87" s="16"/>
       <c r="K87" s="16">
@@ -8662,24 +8662,24 @@
       </c>
       <c r="L87" s="16"/>
       <c r="M87" s="15" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="N87" s="14" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="O87" s="14" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="P87" s="14" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="Q87" s="14" t="s">
-        <v>913</v>
+        <v>898</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B88" s="12">
         <v>2014</v>
@@ -8694,16 +8694,16 @@
         <v>13</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H88" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="J88" s="16"/>
       <c r="K88" s="16">
@@ -8711,24 +8711,24 @@
       </c>
       <c r="L88" s="16"/>
       <c r="M88" s="15" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="N88" s="14" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="O88" s="14" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P88" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q88" s="14" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B89" s="12">
         <v>2014</v>
@@ -8746,13 +8746,13 @@
         <v>18</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H89" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I89" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J89" s="16"/>
       <c r="K89" s="16">
@@ -8760,7 +8760,7 @@
       </c>
       <c r="L89" s="16"/>
       <c r="M89" s="15" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="N89" s="14">
         <v>2</v>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="90" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B90" s="12">
         <v>2014</v>
@@ -8795,13 +8795,13 @@
         <v>15</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H90" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J90" s="16"/>
       <c r="K90" s="16">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="L90" s="16"/>
       <c r="M90" s="15" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="N90" s="14">
         <v>2</v>
@@ -8826,7 +8826,7 @@
     </row>
     <row r="91" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B91" s="12">
         <v>2014</v>
@@ -8841,16 +8841,16 @@
         <v>4</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H91" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I91" s="15" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J91" s="16"/>
       <c r="K91" s="16">
@@ -8858,24 +8858,24 @@
       </c>
       <c r="L91" s="16"/>
       <c r="M91" s="15" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="N91" s="14" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="O91" s="14" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="P91" s="14" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="Q91" s="14" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B92" s="12">
         <v>2014</v>
@@ -8896,10 +8896,10 @@
         <v>27</v>
       </c>
       <c r="H92" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J92" s="16"/>
       <c r="K92" s="16">
@@ -8907,24 +8907,24 @@
       </c>
       <c r="L92" s="16"/>
       <c r="M92" s="15" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="N92" s="14" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="O92" s="14" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P92" s="14" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Q92" s="14" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B93" s="12">
         <v>2014</v>
@@ -8942,13 +8942,13 @@
         <v>15</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H93" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I93" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="J93" s="16"/>
       <c r="K93" s="16">
@@ -8956,24 +8956,24 @@
       </c>
       <c r="L93" s="16"/>
       <c r="M93" s="15" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="N93" s="14" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="O93" s="15" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P93" s="26" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Q93" s="26" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B94" s="12">
         <v>2014</v>
@@ -8988,16 +8988,16 @@
         <v>1</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H94" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I94" s="15" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J94" s="16"/>
       <c r="K94" s="16">
@@ -9005,24 +9005,24 @@
       </c>
       <c r="L94" s="16"/>
       <c r="M94" s="15" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="N94" s="14" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="O94" s="14" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="P94" s="14" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="Q94" s="14" t="s">
-        <v>914</v>
+        <v>899</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B95" s="12">
         <v>2014</v>
@@ -9040,13 +9040,13 @@
         <v>18</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H95" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I95" s="15" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J95" s="16"/>
       <c r="K95" s="16">
@@ -9054,24 +9054,24 @@
       </c>
       <c r="L95" s="16"/>
       <c r="M95" s="26" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="N95" s="14" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="O95" s="14" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="P95" s="14" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="Q95" s="14" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B96" s="12">
         <v>2014</v>
@@ -9092,10 +9092,10 @@
         <v>27</v>
       </c>
       <c r="H96" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I96" s="15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J96" s="16"/>
       <c r="K96" s="16">
@@ -9103,24 +9103,24 @@
       </c>
       <c r="L96" s="16"/>
       <c r="M96" s="15" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="N96" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O96" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P96" s="14" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Q96" s="14" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B97" s="12">
         <v>2014</v>
@@ -9139,10 +9139,10 @@
       </c>
       <c r="G97" s="34"/>
       <c r="H97" s="37" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I97" s="15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J97" s="16"/>
       <c r="K97" s="16">
@@ -9150,24 +9150,24 @@
       </c>
       <c r="L97" s="16"/>
       <c r="M97" s="15" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="N97" s="14" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="O97" s="14" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P97" s="14" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="Q97" s="14" t="s">
-        <v>916</v>
+        <v>901</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B98" s="12">
         <v>2014</v>
@@ -9185,13 +9185,13 @@
         <v>18</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H98" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I98" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J98" s="16"/>
       <c r="K98" s="16">
@@ -9199,7 +9199,7 @@
       </c>
       <c r="L98" s="16"/>
       <c r="M98" s="15" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="N98" s="25">
         <v>1200</v>
@@ -9216,7 +9216,7 @@
     </row>
     <row r="99" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B99" s="12">
         <v>2014</v>
@@ -9231,16 +9231,16 @@
         <v>13</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H99" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I99" s="15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J99" s="16"/>
       <c r="K99" s="16">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="L99" s="16"/>
       <c r="M99" s="15" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="N99" s="14">
         <v>15</v>
@@ -9265,7 +9265,7 @@
     </row>
     <row r="100" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B100" s="12">
         <v>2014</v>
@@ -9286,10 +9286,10 @@
         <v>27</v>
       </c>
       <c r="H100" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I100" s="15" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J100" s="16"/>
       <c r="K100" s="16">
@@ -9297,24 +9297,24 @@
       </c>
       <c r="L100" s="16"/>
       <c r="M100" s="15" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="N100" s="14" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="O100" s="14" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P100" s="14" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="Q100" s="14" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="183" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B101" s="12">
         <v>2014</v>
@@ -9332,13 +9332,13 @@
         <v>15</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H101" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I101" s="15" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J101" s="16"/>
       <c r="K101" s="16">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="L101" s="16"/>
       <c r="M101" s="15" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="N101" s="25">
         <v>140</v>
@@ -9363,7 +9363,7 @@
     </row>
     <row r="102" spans="1:17" ht="390" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B102" s="12">
         <v>2014</v>
@@ -9378,16 +9378,16 @@
         <v>13</v>
       </c>
       <c r="F102" s="55" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H102" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I102" s="62" t="s">
-        <v>989</v>
+        <v>974</v>
       </c>
       <c r="J102" s="59">
         <v>0.79</v>
@@ -9395,24 +9395,24 @@
       <c r="K102" s="16"/>
       <c r="L102" s="16"/>
       <c r="M102" s="60" t="s">
-        <v>990</v>
+        <v>975</v>
       </c>
       <c r="N102" s="53" t="s">
-        <v>991</v>
+        <v>976</v>
       </c>
       <c r="O102" s="53" t="s">
-        <v>992</v>
+        <v>977</v>
       </c>
       <c r="P102" s="53" t="s">
-        <v>993</v>
+        <v>978</v>
       </c>
       <c r="Q102" s="53" t="s">
-        <v>994</v>
+        <v>979</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B103" s="12">
         <v>2014</v>
@@ -9430,13 +9430,13 @@
         <v>15</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H103" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I103" s="15" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J103" s="16"/>
       <c r="K103" s="16">
@@ -9444,24 +9444,24 @@
       </c>
       <c r="L103" s="16"/>
       <c r="M103" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="N103" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="O103" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="P103" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q103" s="14" t="s">
         <v>335</v>
-      </c>
-      <c r="N103" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="O103" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="P103" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q103" s="14" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B104" s="12">
         <v>2014</v>
@@ -9482,10 +9482,10 @@
         <v>27</v>
       </c>
       <c r="H104" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I104" s="15" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J104" s="16"/>
       <c r="K104" s="16">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="L104" s="16"/>
       <c r="M104" s="15" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="N104" s="14">
         <v>8</v>
@@ -9510,7 +9510,7 @@
     </row>
     <row r="105" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B105" s="12">
         <v>2014</v>
@@ -9531,10 +9531,10 @@
         <v>27</v>
       </c>
       <c r="H105" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I105" s="15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J105" s="16"/>
       <c r="K105" s="16">
@@ -9542,24 +9542,24 @@
       </c>
       <c r="L105" s="16"/>
       <c r="M105" s="15" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="N105" s="14" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="O105" s="14" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P105" s="14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q105" s="14" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B106" s="12">
         <v>2014</v>
@@ -9580,10 +9580,10 @@
         <v>27</v>
       </c>
       <c r="H106" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I106" s="15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J106" s="16"/>
       <c r="K106" s="16">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="L106" s="16"/>
       <c r="M106" s="15" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="N106" s="14">
         <v>8</v>
@@ -9608,7 +9608,7 @@
     </row>
     <row r="107" spans="1:17" ht="224" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B107" s="12">
         <v>2014</v>
@@ -9626,13 +9626,13 @@
         <v>15</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H107" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I107" s="58" t="s">
-        <v>995</v>
+        <v>980</v>
       </c>
       <c r="J107" s="59">
         <v>0.77</v>
@@ -9640,24 +9640,24 @@
       <c r="K107" s="16"/>
       <c r="L107" s="16"/>
       <c r="M107" s="60" t="s">
-        <v>996</v>
+        <v>981</v>
       </c>
       <c r="N107" s="53" t="s">
-        <v>997</v>
+        <v>982</v>
       </c>
       <c r="O107" s="53" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="P107" s="53" t="s">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="Q107" s="53" t="s">
-        <v>1000</v>
+        <v>985</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B108" s="12">
         <v>2014</v>
@@ -9678,10 +9678,10 @@
         <v>27</v>
       </c>
       <c r="H108" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I108" s="15" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J108" s="16"/>
       <c r="K108" s="16">
@@ -9689,24 +9689,24 @@
       </c>
       <c r="L108" s="16"/>
       <c r="M108" s="15" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="N108" s="14" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="O108" s="14" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P108" s="14" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q108" s="14" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B109" s="12">
         <v>2014</v>
@@ -9724,10 +9724,10 @@
         <v>15</v>
       </c>
       <c r="H109" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I109" s="15" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J109" s="16"/>
       <c r="K109" s="16">
@@ -9735,24 +9735,24 @@
       </c>
       <c r="L109" s="16"/>
       <c r="M109" s="15" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="N109" s="14" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="O109" s="14" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P109" s="14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q109" s="14" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B110" s="12">
         <v>2014</v>
@@ -9767,16 +9767,16 @@
         <v>11</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H110" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I110" s="15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J110" s="16"/>
       <c r="K110" s="16">
@@ -9784,24 +9784,24 @@
       </c>
       <c r="L110" s="16"/>
       <c r="M110" s="15" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="N110" s="14" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="O110" s="14" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P110" s="14" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q110" s="14" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B111" s="12">
         <v>2014</v>
@@ -9819,10 +9819,10 @@
         <v>27</v>
       </c>
       <c r="H111" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I111" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J111" s="16"/>
       <c r="K111" s="16">
@@ -9830,24 +9830,24 @@
       </c>
       <c r="L111" s="16"/>
       <c r="M111" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="N111" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="O111" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="P111" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q111" s="14" t="s">
         <v>358</v>
-      </c>
-      <c r="N111" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="O111" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="P111" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q111" s="14" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B112" s="12">
         <v>2014</v>
@@ -9865,13 +9865,13 @@
         <v>15</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H112" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I112" s="15" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J112" s="16"/>
       <c r="K112" s="16">
@@ -9879,24 +9879,24 @@
       </c>
       <c r="L112" s="16"/>
       <c r="M112" s="15" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="N112" s="14" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O112" s="14" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P112" s="14" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q112" s="14" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B113" s="12">
         <v>2015</v>
@@ -9911,12 +9911,12 @@
         <v>1</v>
       </c>
       <c r="F113" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G113" s="33"/>
       <c r="H113" s="30"/>
       <c r="I113" s="15" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J113" s="16"/>
       <c r="K113" s="16">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="L113" s="16"/>
       <c r="M113" s="15" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="N113" s="14">
         <v>432</v>
@@ -9941,7 +9941,7 @@
     </row>
     <row r="114" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B114" s="12">
         <v>2015</v>
@@ -9956,16 +9956,16 @@
         <v>13</v>
       </c>
       <c r="F114" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H114" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I114" s="15" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J114" s="16"/>
       <c r="K114" s="16">
@@ -9973,24 +9973,24 @@
       </c>
       <c r="L114" s="16"/>
       <c r="M114" s="15" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="N114" s="14" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="O114" s="14" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="P114" s="14" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="Q114" s="14" t="s">
-        <v>908</v>
+        <v>893</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B115" s="12">
         <v>2015</v>
@@ -10008,13 +10008,13 @@
         <v>18</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H115" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I115" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J115" s="16"/>
       <c r="K115" s="16">
@@ -10022,7 +10022,7 @@
       </c>
       <c r="L115" s="16"/>
       <c r="M115" s="15" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="N115" s="14">
         <v>8.3000000000000007</v>
@@ -10039,7 +10039,7 @@
     </row>
     <row r="116" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B116" s="12">
         <v>2015</v>
@@ -10057,13 +10057,13 @@
         <v>15</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H116" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I116" s="15" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J116" s="16"/>
       <c r="K116" s="16">
@@ -10071,24 +10071,24 @@
       </c>
       <c r="L116" s="16"/>
       <c r="M116" s="15" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="N116" s="14" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O116" s="14" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P116" s="14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q116" s="14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="117" spans="1:17" ht="365" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B117" s="12">
         <v>2015</v>
@@ -10106,13 +10106,13 @@
         <v>18</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H117" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I117" s="15" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J117" s="16"/>
       <c r="K117" s="16">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="L117" s="16"/>
       <c r="M117" s="15" t="s">
-        <v>621</v>
+        <v>1045</v>
       </c>
       <c r="N117" s="14">
         <v>20</v>
@@ -10137,7 +10137,7 @@
     </row>
     <row r="118" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B118" s="12">
         <v>2015</v>
@@ -10152,16 +10152,16 @@
         <v>1</v>
       </c>
       <c r="F118" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H118" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I118" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J118" s="16"/>
       <c r="K118" s="16">
@@ -10169,24 +10169,24 @@
       </c>
       <c r="L118" s="16"/>
       <c r="M118" s="15" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="N118" s="14" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="O118" s="14" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="P118" s="14" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="Q118" s="14" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B119" s="12">
         <v>2015</v>
@@ -10204,13 +10204,13 @@
         <v>15</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H119" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I119" s="15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J119" s="16"/>
       <c r="K119" s="16">
@@ -10218,7 +10218,7 @@
       </c>
       <c r="L119" s="16"/>
       <c r="M119" s="15" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="N119" s="14">
         <v>32</v>
@@ -10235,7 +10235,7 @@
     </row>
     <row r="120" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B120" s="12">
         <v>2015</v>
@@ -10253,13 +10253,13 @@
         <v>27</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H120" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I120" s="15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J120" s="16"/>
       <c r="K120" s="16">
@@ -10267,24 +10267,24 @@
       </c>
       <c r="L120" s="16"/>
       <c r="M120" s="15" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="N120" s="14" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="O120" s="14" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="P120" s="14" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="Q120" s="14" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B121" s="12">
         <v>2015</v>
@@ -10302,13 +10302,13 @@
         <v>18</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H121" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I121" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J121" s="16"/>
       <c r="K121" s="16">
@@ -10316,24 +10316,24 @@
       </c>
       <c r="L121" s="16"/>
       <c r="M121" s="15" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="N121" s="14" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="O121" s="14" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="P121" s="14" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="Q121" s="14" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="365" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B122" s="12">
         <v>2015</v>
@@ -10351,13 +10351,13 @@
         <v>18</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H122" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I122" s="15" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J122" s="16"/>
       <c r="K122" s="16">
@@ -10365,24 +10365,24 @@
       </c>
       <c r="L122" s="16"/>
       <c r="M122" s="15" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="N122" s="14" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="O122" s="14" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="P122" s="14" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="Q122" s="14" t="s">
-        <v>910</v>
+        <v>895</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B123" s="12">
         <v>2015</v>
@@ -10400,13 +10400,13 @@
         <v>15</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H123" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I123" s="15" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J123" s="16"/>
       <c r="K123" s="16">
@@ -10414,7 +10414,7 @@
       </c>
       <c r="L123" s="16"/>
       <c r="M123" s="15" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="N123" s="25">
         <v>1500</v>
@@ -10431,7 +10431,7 @@
     </row>
     <row r="124" spans="1:17" ht="235" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B124" s="12">
         <v>2015</v>
@@ -10451,7 +10451,7 @@
       <c r="G124" s="14"/>
       <c r="H124" s="29"/>
       <c r="I124" s="15" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J124" s="16"/>
       <c r="K124" s="16">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="L124" s="16"/>
       <c r="M124" s="15" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="N124" s="14">
         <v>0</v>
@@ -10476,7 +10476,7 @@
     </row>
     <row r="125" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B125" s="12">
         <v>2015</v>
@@ -10494,13 +10494,13 @@
         <v>18</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H125" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I125" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J125" s="16"/>
       <c r="K125" s="16">
@@ -10508,7 +10508,7 @@
       </c>
       <c r="L125" s="16"/>
       <c r="M125" s="15" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="N125" s="27">
         <v>0.15</v>
@@ -10525,7 +10525,7 @@
     </row>
     <row r="126" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B126" s="12">
         <v>2015</v>
@@ -10540,16 +10540,16 @@
         <v>4</v>
       </c>
       <c r="F126" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H126" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I126" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J126" s="16"/>
       <c r="K126" s="16">
@@ -10557,24 +10557,24 @@
       </c>
       <c r="L126" s="16"/>
       <c r="M126" s="15" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="N126" s="14" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="O126" s="14" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="P126" s="14" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="Q126" s="14" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B127" s="12">
         <v>2015</v>
@@ -10592,13 +10592,13 @@
         <v>18</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H127" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I127" s="15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J127" s="16"/>
       <c r="K127" s="16">
@@ -10606,24 +10606,24 @@
       </c>
       <c r="L127" s="16"/>
       <c r="M127" s="15" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="N127" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="O127" s="14" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P127" s="14" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q127" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="128" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B128" s="12">
         <v>2015</v>
@@ -10643,7 +10643,7 @@
       <c r="G128" s="14"/>
       <c r="H128" s="29"/>
       <c r="I128" s="15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J128" s="16"/>
       <c r="K128" s="16">
@@ -10651,7 +10651,7 @@
       </c>
       <c r="L128" s="16"/>
       <c r="M128" s="15" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="N128" s="14">
         <v>1</v>
@@ -10668,7 +10668,7 @@
     </row>
     <row r="129" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B129" s="12">
         <v>2015</v>
@@ -10686,13 +10686,13 @@
         <v>15</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H129" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I129" s="15" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J129" s="16"/>
       <c r="K129" s="16">
@@ -10700,24 +10700,24 @@
       </c>
       <c r="L129" s="16"/>
       <c r="M129" s="15" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="N129" s="14" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O129" s="14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P129" s="14" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q129" s="14" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="130" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B130" s="12">
         <v>2015</v>
@@ -10738,10 +10738,10 @@
         <v>27</v>
       </c>
       <c r="H130" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I130" s="15" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J130" s="16"/>
       <c r="K130" s="16">
@@ -10749,24 +10749,24 @@
       </c>
       <c r="L130" s="16"/>
       <c r="M130" s="15" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="N130" s="14" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="O130" s="14" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="P130" s="14" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="Q130" s="14" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
     </row>
     <row r="131" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B131" s="12">
         <v>2015</v>
@@ -10784,13 +10784,13 @@
         <v>15</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H131" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I131" s="15" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J131" s="16"/>
       <c r="K131" s="16">
@@ -10798,24 +10798,24 @@
       </c>
       <c r="L131" s="16"/>
       <c r="M131" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="N131" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="O131" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="P131" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q131" s="14" t="s">
         <v>281</v>
-      </c>
-      <c r="N131" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="O131" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="P131" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q131" s="14" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="132" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A132" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B132" s="12">
         <v>2015</v>
@@ -10830,16 +10830,16 @@
         <v>13</v>
       </c>
       <c r="F132" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H132" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I132" s="15" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J132" s="16"/>
       <c r="K132" s="16">
@@ -10847,7 +10847,7 @@
       </c>
       <c r="L132" s="16"/>
       <c r="M132" s="15" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="N132" s="25">
         <v>2</v>
@@ -10864,7 +10864,7 @@
     </row>
     <row r="133" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B133" s="12">
         <v>2015</v>
@@ -10879,12 +10879,12 @@
         <v>13</v>
       </c>
       <c r="F133" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G133" s="33"/>
       <c r="H133" s="30"/>
       <c r="I133" s="15" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J133" s="16"/>
       <c r="K133" s="16">
@@ -10892,24 +10892,24 @@
       </c>
       <c r="L133" s="16"/>
       <c r="M133" s="15" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="N133" s="14" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O133" s="14" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P133" s="15" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q133" s="15" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="134" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B134" s="12">
         <v>2015</v>
@@ -10924,16 +10924,16 @@
         <v>4</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H134" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I134" s="15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J134" s="16"/>
       <c r="K134" s="16">
@@ -10941,7 +10941,7 @@
       </c>
       <c r="L134" s="16"/>
       <c r="M134" s="15" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="N134" s="14">
         <v>3</v>
@@ -10958,7 +10958,7 @@
     </row>
     <row r="135" spans="1:17" s="49" customFormat="1" ht="131" x14ac:dyDescent="0.2">
       <c r="A135" s="42" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B135" s="42">
         <v>2015</v>
@@ -10979,10 +10979,10 @@
         <v>27</v>
       </c>
       <c r="H135" s="36" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I135" s="45" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J135" s="46"/>
       <c r="K135" s="46">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="L135" s="46"/>
       <c r="M135" s="45" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="N135" s="47">
         <v>1.1256944444444443</v>
@@ -11007,7 +11007,7 @@
     </row>
     <row r="136" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B136" s="12">
         <v>2015</v>
@@ -11028,10 +11028,10 @@
         <v>27</v>
       </c>
       <c r="H136" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I136" s="15" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J136" s="16"/>
       <c r="K136" s="16">
@@ -11039,24 +11039,24 @@
       </c>
       <c r="L136" s="16"/>
       <c r="M136" s="15" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="N136" s="14" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O136" s="14" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P136" s="14" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q136" s="14" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="137" spans="1:17" ht="326" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B137" s="12">
         <v>2015</v>
@@ -11071,16 +11071,16 @@
         <v>11</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H137" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I137" s="15" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J137" s="16"/>
       <c r="K137" s="16">
@@ -11088,13 +11088,13 @@
       </c>
       <c r="L137" s="16"/>
       <c r="M137" s="15" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="N137" s="14" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="O137" s="14" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="P137" s="14">
         <v>4</v>
@@ -11105,7 +11105,7 @@
     </row>
     <row r="138" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B138" s="12">
         <v>2015</v>
@@ -11126,10 +11126,10 @@
         <v>27</v>
       </c>
       <c r="H138" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I138" s="15" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J138" s="16"/>
       <c r="K138" s="16">
@@ -11137,7 +11137,7 @@
       </c>
       <c r="L138" s="16"/>
       <c r="M138" s="15" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="N138" s="14">
         <v>3</v>
@@ -11154,7 +11154,7 @@
     </row>
     <row r="139" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B139" s="12">
         <v>2015</v>
@@ -11175,10 +11175,10 @@
         <v>27</v>
       </c>
       <c r="H139" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I139" s="15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J139" s="16"/>
       <c r="K139" s="16">
@@ -11186,7 +11186,7 @@
       </c>
       <c r="L139" s="16"/>
       <c r="M139" s="15" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="N139" s="14">
         <v>10</v>
@@ -11203,7 +11203,7 @@
     </row>
     <row r="140" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B140" s="12">
         <v>2015</v>
@@ -11224,10 +11224,10 @@
         <v>27</v>
       </c>
       <c r="H140" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I140" s="15" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J140" s="16"/>
       <c r="K140" s="16">
@@ -11235,24 +11235,24 @@
       </c>
       <c r="L140" s="16"/>
       <c r="M140" s="15" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="N140" s="14" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O140" s="14" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P140" s="14" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q140" s="14" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="141" spans="1:17" ht="183" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B141" s="12">
         <v>2015</v>
@@ -11267,16 +11267,16 @@
         <v>1</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H141" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I141" s="15" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J141" s="16"/>
       <c r="K141" s="16">
@@ -11284,24 +11284,24 @@
       </c>
       <c r="L141" s="16"/>
       <c r="M141" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="N141" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="O141" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="P141" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q141" s="15" t="s">
         <v>303</v>
-      </c>
-      <c r="N141" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="O141" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="P141" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q141" s="15" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="142" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B142" s="12">
         <v>2015</v>
@@ -11322,10 +11322,10 @@
         <v>27</v>
       </c>
       <c r="H142" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I142" s="15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J142" s="16"/>
       <c r="K142" s="16">
@@ -11333,24 +11333,24 @@
       </c>
       <c r="L142" s="16"/>
       <c r="M142" s="15" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="N142" s="14" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="O142" s="14" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P142" s="14" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q142" s="14" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="143" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B143" s="12">
         <v>2016</v>
@@ -11368,13 +11368,13 @@
         <v>18</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H143" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I143" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J143" s="16"/>
       <c r="K143" s="16">
@@ -11382,24 +11382,24 @@
       </c>
       <c r="L143" s="16"/>
       <c r="M143" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="N143" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="O143" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="P143" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q143" s="14" t="s">
         <v>192</v>
-      </c>
-      <c r="N143" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="O143" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="P143" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q143" s="14" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="144" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B144" s="12">
         <v>2016</v>
@@ -11414,16 +11414,16 @@
         <v>13</v>
       </c>
       <c r="F144" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H144" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I144" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J144" s="16"/>
       <c r="K144" s="16">
@@ -11431,24 +11431,24 @@
       </c>
       <c r="L144" s="16"/>
       <c r="M144" s="26" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="N144" s="14" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="O144" s="14" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="P144" s="14" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="Q144" s="14" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="145" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A145" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B145" s="18">
         <v>2016</v>
@@ -11468,7 +11468,7 @@
       <c r="G145" s="20"/>
       <c r="H145" s="31"/>
       <c r="I145" s="21" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J145" s="22"/>
       <c r="K145" s="22">
@@ -11476,24 +11476,24 @@
       </c>
       <c r="L145" s="22"/>
       <c r="M145" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="N145" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="O145" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="P145" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q145" s="20" t="s">
         <v>200</v>
-      </c>
-      <c r="N145" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="O145" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="P145" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q145" s="20" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="146" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B146" s="12">
         <v>2016</v>
@@ -11508,16 +11508,16 @@
         <v>11</v>
       </c>
       <c r="F146" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H146" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I146" s="15" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J146" s="16"/>
       <c r="K146" s="16">
@@ -11525,24 +11525,24 @@
       </c>
       <c r="L146" s="16"/>
       <c r="M146" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="N146" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="O146" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="P146" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q146" s="14" t="s">
         <v>549</v>
-      </c>
-      <c r="N146" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="O146" s="14" t="s">
-        <v>551</v>
-      </c>
-      <c r="P146" s="14" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q146" s="14" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="147" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B147" s="12">
         <v>2016</v>
@@ -11560,10 +11560,10 @@
         <v>18</v>
       </c>
       <c r="H147" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I147" s="15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J147" s="16"/>
       <c r="K147" s="16">
@@ -11571,24 +11571,24 @@
       </c>
       <c r="L147" s="16"/>
       <c r="M147" s="26" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="N147" s="14" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="O147" s="14" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="P147" s="14" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="Q147" s="14" t="s">
-        <v>899</v>
+        <v>884</v>
       </c>
     </row>
     <row r="148" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A148" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B148" s="12">
         <v>2016</v>
@@ -11606,13 +11606,13 @@
         <v>18</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H148" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I148" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J148" s="16"/>
       <c r="K148" s="16">
@@ -11620,7 +11620,7 @@
       </c>
       <c r="L148" s="16"/>
       <c r="M148" s="26" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="N148" s="23">
         <v>21000</v>
@@ -11637,7 +11637,7 @@
     </row>
     <row r="149" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A149" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B149" s="12">
         <v>2016</v>
@@ -11652,16 +11652,16 @@
         <v>13</v>
       </c>
       <c r="F149" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H149" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I149" s="15" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J149" s="16"/>
       <c r="K149" s="16">
@@ -11669,24 +11669,24 @@
       </c>
       <c r="L149" s="16"/>
       <c r="M149" s="24" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="N149" s="14" t="s">
-        <v>902</v>
+        <v>887</v>
       </c>
       <c r="O149" s="14" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="P149" s="14" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
       <c r="Q149" s="14" t="s">
-        <v>900</v>
+        <v>885</v>
       </c>
     </row>
     <row r="150" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B150" s="12">
         <v>2016</v>
@@ -11704,13 +11704,13 @@
         <v>18</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H150" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I150" s="15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J150" s="16"/>
       <c r="K150" s="16">
@@ -11718,7 +11718,7 @@
       </c>
       <c r="L150" s="16"/>
       <c r="M150" s="26" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="N150" s="14">
         <v>-8</v>
@@ -11735,7 +11735,7 @@
     </row>
     <row r="151" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B151" s="12">
         <v>2016</v>
@@ -11756,10 +11756,10 @@
         <v>27</v>
       </c>
       <c r="H151" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I151" s="15" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J151" s="16"/>
       <c r="K151" s="16">
@@ -11767,7 +11767,7 @@
       </c>
       <c r="L151" s="16"/>
       <c r="M151" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N151" s="14">
         <v>2</v>
@@ -11784,7 +11784,7 @@
     </row>
     <row r="152" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B152" s="12">
         <v>2016</v>
@@ -11802,13 +11802,13 @@
         <v>18</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H152" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I152" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J152" s="16"/>
       <c r="K152" s="16">
@@ -11816,7 +11816,7 @@
       </c>
       <c r="L152" s="16"/>
       <c r="M152" s="15" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="N152" s="14">
         <v>150</v>
@@ -11833,7 +11833,7 @@
     </row>
     <row r="153" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B153" s="12">
         <v>2016</v>
@@ -11851,13 +11851,13 @@
         <v>18</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H153" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I153" s="15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J153" s="16"/>
       <c r="K153" s="16">
@@ -11865,24 +11865,24 @@
       </c>
       <c r="L153" s="16"/>
       <c r="M153" s="15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N153" s="14" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="O153" s="14" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="P153" s="14" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="Q153" s="14" t="s">
-        <v>903</v>
+        <v>888</v>
       </c>
     </row>
     <row r="154" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B154" s="12">
         <v>2016</v>
@@ -11897,16 +11897,16 @@
         <v>13</v>
       </c>
       <c r="F154" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H154" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I154" s="15" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J154" s="16"/>
       <c r="K154" s="16">
@@ -11914,24 +11914,24 @@
       </c>
       <c r="L154" s="16"/>
       <c r="M154" s="15" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="N154" s="14" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="O154" s="14" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="P154" s="14" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="Q154" s="14" t="s">
-        <v>904</v>
+        <v>889</v>
       </c>
     </row>
     <row r="155" spans="1:17" ht="235" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B155" s="12">
         <v>2016</v>
@@ -11946,13 +11946,13 @@
         <v>11</v>
       </c>
       <c r="F155" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H155" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I155" s="15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J155" s="16"/>
       <c r="K155" s="16">
@@ -11960,24 +11960,24 @@
       </c>
       <c r="L155" s="16"/>
       <c r="M155" s="15" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="N155" s="14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O155" s="14" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P155" s="14" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q155" s="14" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="156" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B156" s="12">
         <v>2016</v>
@@ -11998,10 +11998,10 @@
         <v>27</v>
       </c>
       <c r="H156" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I156" s="15" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J156" s="16"/>
       <c r="K156" s="16">
@@ -12009,24 +12009,24 @@
       </c>
       <c r="L156" s="16"/>
       <c r="M156" s="26" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="N156" s="14" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="O156" s="14" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="P156" s="14" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="Q156" s="14" t="s">
-        <v>905</v>
+        <v>890</v>
       </c>
     </row>
     <row r="157" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B157" s="12">
         <v>2016</v>
@@ -12041,16 +12041,16 @@
         <v>11</v>
       </c>
       <c r="F157" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H157" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I157" s="15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J157" s="16"/>
       <c r="K157" s="16">
@@ -12058,24 +12058,24 @@
       </c>
       <c r="L157" s="16"/>
       <c r="M157" s="15" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="N157" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O157" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P157" s="14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q157" s="14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="158" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B158" s="12">
         <v>2016</v>
@@ -12090,12 +12090,12 @@
         <v>1</v>
       </c>
       <c r="F158" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G158" s="33"/>
       <c r="H158" s="30"/>
       <c r="I158" s="15" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J158" s="16"/>
       <c r="K158" s="16">
@@ -12103,16 +12103,16 @@
       </c>
       <c r="L158" s="16"/>
       <c r="M158" s="15" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="N158" s="14">
         <v>0</v>
       </c>
       <c r="O158" s="14" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="P158" s="14" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="Q158" s="14">
         <v>1</v>
@@ -12120,7 +12120,7 @@
     </row>
     <row r="159" spans="1:17" ht="150" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B159" s="12">
         <v>2016</v>
@@ -12141,10 +12141,10 @@
         <v>27</v>
       </c>
       <c r="H159" s="30" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I159" s="62" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J159" s="59">
         <v>0.73</v>
@@ -12152,24 +12152,24 @@
       <c r="K159" s="16"/>
       <c r="L159" s="16"/>
       <c r="M159" s="52" t="s">
-        <v>1001</v>
+        <v>986</v>
       </c>
       <c r="N159" s="55" t="s">
-        <v>1002</v>
+        <v>987</v>
       </c>
       <c r="O159" s="53" t="s">
-        <v>1003</v>
+        <v>988</v>
       </c>
       <c r="P159" s="55" t="s">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="Q159" s="55" t="s">
-        <v>1005</v>
+        <v>990</v>
       </c>
     </row>
     <row r="160" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B160" s="12">
         <v>2016</v>
@@ -12187,13 +12187,13 @@
         <v>15</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H160" s="29" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I160" s="15" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J160" s="16"/>
       <c r="K160" s="16">
@@ -12201,7 +12201,7 @@
       </c>
       <c r="L160" s="16"/>
       <c r="M160" s="15" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="N160" s="14">
         <v>10</v>
@@ -12218,7 +12218,7 @@
     </row>
     <row r="161" spans="1:18" ht="131" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B161" s="12">
         <v>2016</v>
@@ -12239,10 +12239,10 @@
         <v>27</v>
       </c>
       <c r="H161" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I161" s="15" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J161" s="16"/>
       <c r="K161" s="16">
@@ -12250,24 +12250,24 @@
       </c>
       <c r="L161" s="16"/>
       <c r="M161" s="15" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="N161" s="14" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="O161" s="14" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="P161" s="14" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="Q161" s="15" t="s">
-        <v>906</v>
+        <v>891</v>
       </c>
     </row>
     <row r="162" spans="1:18" ht="170" x14ac:dyDescent="0.2">
       <c r="A162" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B162" s="12">
         <v>2016</v>
@@ -12282,16 +12282,16 @@
         <v>1</v>
       </c>
       <c r="F162" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H162" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I162" s="15" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J162" s="16"/>
       <c r="K162" s="16">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="L162" s="16"/>
       <c r="M162" s="15" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="N162" s="25">
         <v>108</v>
@@ -12316,7 +12316,7 @@
     </row>
     <row r="163" spans="1:18" ht="196" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B163" s="12">
         <v>2016</v>
@@ -12334,13 +12334,13 @@
         <v>15</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H163" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I163" s="15" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J163" s="16"/>
       <c r="K163" s="16">
@@ -12348,24 +12348,24 @@
       </c>
       <c r="L163" s="16"/>
       <c r="M163" s="15" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="N163" s="14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O163" s="14" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P163" s="14" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q163" s="14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="164" spans="1:18" ht="183" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B164" s="12">
         <v>2016</v>
@@ -12383,13 +12383,13 @@
         <v>15</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H164" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I164" s="15" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J164" s="16"/>
       <c r="K164" s="16">
@@ -12397,7 +12397,7 @@
       </c>
       <c r="L164" s="16"/>
       <c r="M164" s="15" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="N164" s="14">
         <v>254</v>
@@ -12414,7 +12414,7 @@
     </row>
     <row r="165" spans="1:18" ht="144" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B165" s="12">
         <v>2016</v>
@@ -12435,10 +12435,10 @@
         <v>27</v>
       </c>
       <c r="H165" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I165" s="15" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J165" s="16"/>
       <c r="K165" s="16">
@@ -12446,24 +12446,24 @@
       </c>
       <c r="L165" s="16"/>
       <c r="M165" s="15" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="N165" s="14" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O165" s="14" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P165" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q165" s="14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="166" spans="1:18" ht="118" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B166" s="12">
         <v>2016</v>
@@ -12481,13 +12481,13 @@
         <v>18</v>
       </c>
       <c r="G166" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H166" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I166" s="15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J166" s="16"/>
       <c r="K166" s="16">
@@ -12495,24 +12495,24 @@
       </c>
       <c r="L166" s="16"/>
       <c r="M166" s="15" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="N166" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="O166" s="26" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P166" s="15" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q166" s="15" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="167" spans="1:18" ht="118" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B167" s="12">
         <v>2016</v>
@@ -12530,13 +12530,13 @@
         <v>15</v>
       </c>
       <c r="G167" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H167" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I167" s="15" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J167" s="16"/>
       <c r="K167" s="16">
@@ -12544,24 +12544,24 @@
       </c>
       <c r="L167" s="16"/>
       <c r="M167" s="15" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="N167" s="14" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O167" s="14" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P167" s="14" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q167" s="14" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="168" spans="1:18" ht="118" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B168" s="12">
         <v>2016</v>
@@ -12579,13 +12579,13 @@
         <v>15</v>
       </c>
       <c r="G168" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H168" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I168" s="15" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J168" s="16"/>
       <c r="K168" s="16">
@@ -12593,24 +12593,24 @@
       </c>
       <c r="L168" s="16"/>
       <c r="M168" s="15" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="N168" s="14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O168" s="14" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P168" s="14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q168" s="14" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="169" spans="1:18" ht="196" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B169" s="12">
         <v>2016</v>
@@ -12628,13 +12628,13 @@
         <v>15</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H169" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I169" s="15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J169" s="16"/>
       <c r="K169" s="16">
@@ -12642,24 +12642,24 @@
       </c>
       <c r="L169" s="16"/>
       <c r="M169" s="15" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="N169" s="14" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O169" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P169" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q169" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="170" spans="1:18" ht="131" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B170" s="12">
         <v>2016</v>
@@ -12680,10 +12680,10 @@
         <v>27</v>
       </c>
       <c r="H170" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I170" s="15" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J170" s="16"/>
       <c r="K170" s="16">
@@ -12691,24 +12691,24 @@
       </c>
       <c r="L170" s="16"/>
       <c r="M170" s="26" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="N170" s="14" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="O170" s="14" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="P170" s="14" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="Q170" s="14" t="s">
-        <v>907</v>
+        <v>892</v>
       </c>
     </row>
     <row r="171" spans="1:18" ht="287" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B171" s="12">
         <v>2016</v>
@@ -12723,16 +12723,16 @@
         <v>11</v>
       </c>
       <c r="F171" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H171" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I171" s="15" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J171" s="16"/>
       <c r="K171" s="16">
@@ -12740,19 +12740,19 @@
       </c>
       <c r="L171" s="16"/>
       <c r="M171" s="26" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="N171" s="14" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="O171" s="14" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P171" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q171" s="14" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.2">
@@ -12775,29 +12775,29 @@
         <v>2</v>
       </c>
       <c r="G172" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H172" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I172" s="15"/>
       <c r="J172" s="16"/>
       <c r="K172" s="16"/>
       <c r="L172" s="16"/>
       <c r="M172" s="51" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="N172" s="51" t="s">
-        <v>1014</v>
+        <v>997</v>
       </c>
       <c r="O172" s="51" t="s">
-        <v>1023</v>
+        <v>1006</v>
       </c>
       <c r="P172" s="51" t="s">
-        <v>1032</v>
+        <v>1015</v>
       </c>
       <c r="Q172" s="51" t="s">
-        <v>1041</v>
+        <v>1024</v>
       </c>
       <c r="R172" s="51"/>
     </row>
@@ -12821,29 +12821,29 @@
         <v>27</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H173" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I173" s="15"/>
       <c r="J173" s="16"/>
       <c r="K173" s="16"/>
       <c r="L173" s="16"/>
       <c r="M173" s="52" t="s">
-        <v>1011</v>
+        <v>994</v>
       </c>
       <c r="N173" s="50" t="s">
-        <v>1015</v>
+        <v>998</v>
       </c>
       <c r="O173" s="50" t="s">
-        <v>1024</v>
+        <v>1007</v>
       </c>
       <c r="P173" s="50" t="s">
-        <v>1033</v>
+        <v>1016</v>
       </c>
       <c r="Q173" s="50" t="s">
-        <v>1042</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.2">
@@ -12866,29 +12866,29 @@
         <v>2</v>
       </c>
       <c r="G174" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H174" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I174" s="15"/>
       <c r="J174" s="16"/>
       <c r="K174" s="16"/>
       <c r="L174" s="16"/>
       <c r="M174" s="53" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="N174" s="50" t="s">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="O174" s="50" t="s">
-        <v>1025</v>
+        <v>1008</v>
       </c>
       <c r="P174" s="50" t="s">
-        <v>1034</v>
+        <v>1017</v>
       </c>
       <c r="Q174" s="50" t="s">
-        <v>1043</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.2">
@@ -12911,29 +12911,29 @@
         <v>9</v>
       </c>
       <c r="G175" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H175" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I175" s="15"/>
       <c r="J175" s="16"/>
       <c r="K175" s="16"/>
       <c r="L175" s="16"/>
       <c r="M175" s="53" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
       <c r="N175" s="50" t="s">
-        <v>944</v>
+        <v>929</v>
       </c>
       <c r="O175" s="50" t="s">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="P175" s="50" t="s">
-        <v>946</v>
+        <v>931</v>
       </c>
       <c r="Q175" s="50" t="s">
-        <v>947</v>
+        <v>932</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.2">
@@ -12956,29 +12956,29 @@
         <v>2</v>
       </c>
       <c r="G176" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H176" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I176" s="15"/>
       <c r="J176" s="16"/>
       <c r="K176" s="16"/>
       <c r="L176" s="16"/>
       <c r="M176" s="54" t="s">
-        <v>948</v>
+        <v>933</v>
       </c>
       <c r="N176" s="54" t="s">
-        <v>1017</v>
+        <v>1000</v>
       </c>
       <c r="O176" s="54" t="s">
-        <v>1026</v>
+        <v>1009</v>
       </c>
       <c r="P176" s="54" t="s">
-        <v>1035</v>
+        <v>1018</v>
       </c>
       <c r="Q176" s="54" t="s">
-        <v>1044</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.2">
@@ -13001,29 +13001,29 @@
         <v>2</v>
       </c>
       <c r="G177" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H177" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I177" s="15"/>
       <c r="J177" s="16"/>
       <c r="K177" s="16"/>
       <c r="L177" s="16"/>
       <c r="M177" s="52" t="s">
-        <v>949</v>
+        <v>934</v>
       </c>
       <c r="N177" s="50" t="s">
-        <v>950</v>
+        <v>935</v>
       </c>
       <c r="O177" s="50" t="s">
-        <v>951</v>
+        <v>936</v>
       </c>
       <c r="P177" s="50" t="s">
-        <v>952</v>
+        <v>937</v>
       </c>
       <c r="Q177" s="50" t="s">
-        <v>953</v>
+        <v>938</v>
       </c>
     </row>
     <row r="178" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -13046,29 +13046,29 @@
         <v>2</v>
       </c>
       <c r="G178" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H178" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I178" s="15"/>
       <c r="J178" s="16"/>
       <c r="K178" s="16"/>
       <c r="L178" s="16"/>
       <c r="M178" s="52" t="s">
-        <v>954</v>
+        <v>939</v>
       </c>
       <c r="N178" s="53" t="s">
-        <v>1018</v>
+        <v>1001</v>
       </c>
       <c r="O178" s="53" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="P178" s="53" t="s">
-        <v>1036</v>
+        <v>1019</v>
       </c>
       <c r="Q178" s="53" t="s">
-        <v>1045</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.2">
@@ -13091,29 +13091,29 @@
         <v>27</v>
       </c>
       <c r="G179" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H179" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I179" s="15"/>
       <c r="J179" s="16"/>
       <c r="K179" s="16"/>
       <c r="L179" s="16"/>
       <c r="M179" s="52" t="s">
-        <v>955</v>
+        <v>940</v>
       </c>
       <c r="N179" s="55" t="s">
-        <v>956</v>
+        <v>941</v>
       </c>
       <c r="O179" s="55" t="s">
-        <v>957</v>
+        <v>942</v>
       </c>
       <c r="P179" s="55" t="s">
-        <v>958</v>
+        <v>943</v>
       </c>
       <c r="Q179" s="55" t="s">
-        <v>959</v>
+        <v>944</v>
       </c>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.2">
@@ -13136,29 +13136,29 @@
         <v>27</v>
       </c>
       <c r="G180" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H180" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I180" s="15"/>
       <c r="J180" s="16"/>
       <c r="K180" s="16"/>
       <c r="L180" s="16"/>
       <c r="M180" s="53" t="s">
-        <v>960</v>
+        <v>945</v>
       </c>
       <c r="N180" s="55" t="s">
-        <v>961</v>
+        <v>946</v>
       </c>
       <c r="O180" s="55" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
       <c r="P180" s="55" t="s">
-        <v>963</v>
+        <v>948</v>
       </c>
       <c r="Q180" s="55" t="s">
-        <v>964</v>
+        <v>949</v>
       </c>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.2">
@@ -13181,29 +13181,29 @@
         <v>2</v>
       </c>
       <c r="G181" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H181" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I181" s="15"/>
       <c r="J181" s="16"/>
       <c r="K181" s="16"/>
       <c r="L181" s="16"/>
       <c r="M181" s="53" t="s">
-        <v>965</v>
+        <v>950</v>
       </c>
       <c r="N181" s="53" t="s">
-        <v>966</v>
+        <v>951</v>
       </c>
       <c r="O181" s="53" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="P181" s="53" t="s">
-        <v>967</v>
+        <v>952</v>
       </c>
       <c r="Q181" s="53" t="s">
-        <v>968</v>
+        <v>953</v>
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
@@ -13226,29 +13226,29 @@
         <v>2</v>
       </c>
       <c r="G182" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H182" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I182" s="15"/>
       <c r="J182" s="16"/>
       <c r="K182" s="16"/>
       <c r="L182" s="16"/>
       <c r="M182" s="53" t="s">
-        <v>969</v>
+        <v>954</v>
       </c>
       <c r="N182" s="53" t="s">
-        <v>970</v>
+        <v>955</v>
       </c>
       <c r="O182" s="53" t="s">
-        <v>971</v>
+        <v>956</v>
       </c>
       <c r="P182" s="53" t="s">
-        <v>972</v>
+        <v>957</v>
       </c>
       <c r="Q182" s="53" t="s">
-        <v>972</v>
+        <v>957</v>
       </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.2">
@@ -13271,29 +13271,29 @@
         <v>2</v>
       </c>
       <c r="G183" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H183" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I183" s="15"/>
       <c r="J183" s="16"/>
       <c r="K183" s="16"/>
       <c r="L183" s="16"/>
       <c r="M183" s="53" t="s">
-        <v>1012</v>
+        <v>995</v>
       </c>
       <c r="N183" s="53" t="s">
-        <v>1019</v>
+        <v>1002</v>
       </c>
       <c r="O183" s="53" t="s">
-        <v>1028</v>
+        <v>1011</v>
       </c>
       <c r="P183" s="53" t="s">
-        <v>1037</v>
+        <v>1020</v>
       </c>
       <c r="Q183" s="53" t="s">
-        <v>1046</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
@@ -13316,29 +13316,29 @@
         <v>2</v>
       </c>
       <c r="G184" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H184" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I184" s="10"/>
       <c r="J184" s="11"/>
       <c r="K184" s="11"/>
       <c r="L184" s="11"/>
       <c r="M184" s="39" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N184" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O184" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P184" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q184" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.2">
@@ -13361,17 +13361,17 @@
         <v>18</v>
       </c>
       <c r="G185" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H185" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I185" s="10"/>
       <c r="J185" s="11"/>
       <c r="K185" s="11"/>
       <c r="L185" s="11"/>
       <c r="M185" s="39" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N185" s="10">
         <v>26</v>
@@ -13406,14 +13406,14 @@
         <v>2</v>
       </c>
       <c r="H186" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I186" s="10"/>
       <c r="J186" s="11"/>
       <c r="K186" s="11"/>
       <c r="L186" s="11"/>
       <c r="M186" s="39" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="N186" s="10">
         <v>50</v>
@@ -13448,29 +13448,29 @@
         <v>2</v>
       </c>
       <c r="G187" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H187" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I187" s="10"/>
       <c r="J187" s="11"/>
       <c r="K187" s="11"/>
       <c r="L187" s="11"/>
       <c r="M187" s="39" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N187" s="10" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="O187" s="10" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="P187" s="10" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="Q187" s="10" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
     </row>
     <row r="188" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -13493,29 +13493,29 @@
         <v>27</v>
       </c>
       <c r="G188" s="32" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H188" s="36" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I188" s="10"/>
       <c r="J188" s="11"/>
       <c r="K188" s="11"/>
       <c r="L188" s="11"/>
       <c r="M188" s="39" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N188" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O188" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P188" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q188" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.2">
@@ -13538,29 +13538,29 @@
         <v>2</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H189" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I189" s="10"/>
       <c r="J189" s="11"/>
       <c r="K189" s="11"/>
       <c r="L189" s="11"/>
       <c r="M189" s="39" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="N189" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O189" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P189" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q189" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="190" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -13583,29 +13583,29 @@
         <v>2</v>
       </c>
       <c r="G190" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H190" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I190" s="10"/>
       <c r="J190" s="11"/>
       <c r="K190" s="11"/>
       <c r="L190" s="11"/>
       <c r="M190" s="39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N190" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O190" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P190" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q190" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.2">
@@ -13628,29 +13628,29 @@
         <v>2</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H191" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I191" s="10"/>
       <c r="J191" s="11"/>
       <c r="K191" s="11"/>
       <c r="L191" s="11"/>
       <c r="M191" s="39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N191" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O191" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P191" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q191" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.2">
@@ -13678,19 +13678,19 @@
       <c r="K192" s="11"/>
       <c r="L192" s="11"/>
       <c r="M192" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="N192" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="O192" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="P192" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q192" s="39" t="s">
         <v>75</v>
-      </c>
-      <c r="N192" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="O192" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="P192" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q192" s="39" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="193" spans="1:17" ht="128" x14ac:dyDescent="0.2">
@@ -13713,14 +13713,14 @@
         <v>15</v>
       </c>
       <c r="H193" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I193" s="10"/>
       <c r="J193" s="11"/>
       <c r="K193" s="11"/>
       <c r="L193" s="11"/>
       <c r="M193" s="39" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N193" s="10">
         <v>27</v>
@@ -13755,26 +13755,26 @@
         <v>27</v>
       </c>
       <c r="H194" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I194" s="10"/>
       <c r="J194" s="11"/>
       <c r="K194" s="11"/>
       <c r="L194" s="11"/>
       <c r="M194" s="39" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="N194" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O194" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P194" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q194" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="195" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -13797,17 +13797,17 @@
         <v>9</v>
       </c>
       <c r="G195" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H195" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I195" s="10"/>
       <c r="J195" s="11"/>
       <c r="K195" s="11"/>
       <c r="L195" s="11"/>
       <c r="M195" s="39" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N195" s="10">
         <v>300</v>
@@ -13842,17 +13842,17 @@
         <v>2</v>
       </c>
       <c r="G196" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H196" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I196" s="10"/>
       <c r="J196" s="11"/>
       <c r="K196" s="11"/>
       <c r="L196" s="11"/>
       <c r="M196" s="39" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N196" s="10">
         <v>1</v>
@@ -13887,29 +13887,29 @@
         <v>2</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H197" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I197" s="10"/>
       <c r="J197" s="11"/>
       <c r="K197" s="11"/>
       <c r="L197" s="11"/>
       <c r="M197" s="39" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="N197" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O197" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P197" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q197" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="198" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -13936,19 +13936,19 @@
       <c r="K198" s="11"/>
       <c r="L198" s="11"/>
       <c r="M198" s="39" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="N198" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O198" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P198" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q198" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="199" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -13975,19 +13975,19 @@
       <c r="K199" s="11"/>
       <c r="L199" s="11"/>
       <c r="M199" s="39" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="N199" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O199" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P199" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q199" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="200" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -14010,29 +14010,29 @@
         <v>15</v>
       </c>
       <c r="G200" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H200" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I200" s="10"/>
       <c r="J200" s="11"/>
       <c r="K200" s="11"/>
       <c r="L200" s="11"/>
       <c r="M200" s="39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N200" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O200" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P200" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q200" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="201" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -14055,17 +14055,17 @@
         <v>2</v>
       </c>
       <c r="G201" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H201" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I201" s="10"/>
       <c r="J201" s="11"/>
       <c r="K201" s="11"/>
       <c r="L201" s="11"/>
       <c r="M201" s="39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N201" s="40">
         <v>87600</v>
@@ -14100,29 +14100,29 @@
         <v>2</v>
       </c>
       <c r="G202" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H202" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I202" s="10"/>
       <c r="J202" s="11"/>
       <c r="K202" s="11"/>
       <c r="L202" s="11"/>
       <c r="M202" s="39" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N202" s="10" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="O202" s="10" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="P202" s="10" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="Q202" s="10" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="203" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -14145,29 +14145,29 @@
         <v>2</v>
       </c>
       <c r="G203" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H203" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I203" s="10"/>
       <c r="J203" s="11"/>
       <c r="K203" s="11"/>
       <c r="L203" s="11"/>
       <c r="M203" s="39" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="N203" s="10" t="s">
-        <v>562</v>
+        <v>1031</v>
       </c>
       <c r="O203" s="39" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="P203" s="39" t="s">
-        <v>563</v>
+        <v>1032</v>
       </c>
       <c r="Q203" s="10" t="s">
-        <v>564</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
@@ -14190,29 +14190,29 @@
         <v>27</v>
       </c>
       <c r="G204" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H204" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I204" s="10"/>
       <c r="J204" s="11"/>
       <c r="K204" s="11"/>
       <c r="L204" s="11"/>
       <c r="M204" s="39" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N204" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O204" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P204" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q204" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
@@ -14235,29 +14235,29 @@
         <v>2</v>
       </c>
       <c r="G205" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H205" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I205" s="10"/>
       <c r="J205" s="11"/>
       <c r="K205" s="11"/>
       <c r="L205" s="11"/>
       <c r="M205" s="39" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="N205" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O205" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P205" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q205" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
@@ -14280,29 +14280,29 @@
         <v>2</v>
       </c>
       <c r="G206" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H206" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I206" s="10"/>
       <c r="J206" s="11"/>
       <c r="K206" s="11"/>
       <c r="L206" s="11"/>
       <c r="M206" s="39" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N206" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O206" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P206" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q206" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
@@ -14325,29 +14325,29 @@
         <v>2</v>
       </c>
       <c r="G207" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H207" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I207" s="10"/>
       <c r="J207" s="11"/>
       <c r="K207" s="11"/>
       <c r="L207" s="11"/>
       <c r="M207" s="39" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="N207" s="10" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="O207" s="10" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="P207" s="10" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="Q207" s="10" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.2">
@@ -14370,29 +14370,29 @@
         <v>2</v>
       </c>
       <c r="G208" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H208" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I208" s="10"/>
       <c r="J208" s="11"/>
       <c r="K208" s="11"/>
       <c r="L208" s="11"/>
       <c r="M208" s="39" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N208" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O208" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P208" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q208" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.2">
@@ -14415,10 +14415,10 @@
         <v>2</v>
       </c>
       <c r="G209" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H209" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I209" s="10"/>
       <c r="J209" s="11"/>
@@ -14460,29 +14460,29 @@
         <v>2</v>
       </c>
       <c r="G210" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H210" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I210" s="10"/>
       <c r="J210" s="11"/>
       <c r="K210" s="11"/>
       <c r="L210" s="11"/>
       <c r="M210" s="39" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="N210" s="10" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="O210" s="10" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="P210" s="10" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="Q210" s="10" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="211" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -14508,26 +14508,26 @@
         <v>27</v>
       </c>
       <c r="H211" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I211" s="10"/>
       <c r="J211" s="11"/>
       <c r="K211" s="11"/>
       <c r="L211" s="11"/>
       <c r="M211" s="56" t="s">
-        <v>973</v>
+        <v>958</v>
       </c>
       <c r="N211" s="54" t="s">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="O211" s="54" t="s">
-        <v>1029</v>
+        <v>1012</v>
       </c>
       <c r="P211" s="54" t="s">
-        <v>1038</v>
+        <v>1021</v>
       </c>
       <c r="Q211" s="54" t="s">
-        <v>1047</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.2">
@@ -14546,10 +14546,10 @@
       <c r="E212" s="9"/>
       <c r="F212" s="10"/>
       <c r="G212" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H212" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I212" s="10"/>
       <c r="J212" s="11"/>
@@ -14577,10 +14577,10 @@
         <v>2</v>
       </c>
       <c r="G213" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H213" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I213" s="10"/>
       <c r="J213" s="11"/>
@@ -14590,7 +14590,7 @@
         <v>5</v>
       </c>
       <c r="N213" s="10" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="O213" s="10" t="s">
         <v>6</v>
@@ -14622,10 +14622,10 @@
         <v>9</v>
       </c>
       <c r="G214" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H214" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I214" s="10"/>
       <c r="J214" s="11"/>
@@ -14667,10 +14667,10 @@
         <v>2</v>
       </c>
       <c r="G215" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H215" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I215" s="10"/>
       <c r="J215" s="11"/>
@@ -14680,16 +14680,16 @@
         <v>12</v>
       </c>
       <c r="N215" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O215" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P215" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q215" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.2">
@@ -14712,29 +14712,29 @@
         <v>2</v>
       </c>
       <c r="G216" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H216" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I216" s="10"/>
       <c r="J216" s="11"/>
       <c r="K216" s="11"/>
       <c r="L216" s="11"/>
       <c r="M216" s="39" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="N216" s="10" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="O216" s="10" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="P216" s="10" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="Q216" s="10" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
     </row>
     <row r="217" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -14757,10 +14757,10 @@
         <v>2</v>
       </c>
       <c r="G217" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H217" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I217" s="10"/>
       <c r="J217" s="11"/>
@@ -14770,16 +14770,16 @@
         <v>14</v>
       </c>
       <c r="N217" s="10" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="O217" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P217" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q217" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="218" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -14802,10 +14802,10 @@
         <v>15</v>
       </c>
       <c r="G218" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H218" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I218" s="10"/>
       <c r="J218" s="11"/>
@@ -14847,10 +14847,10 @@
         <v>2</v>
       </c>
       <c r="G219" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H219" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I219" s="10"/>
       <c r="J219" s="11"/>
@@ -14860,16 +14860,16 @@
         <v>17</v>
       </c>
       <c r="N219" s="10" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="O219" s="10" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="P219" s="10" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="Q219" s="10" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.2">
@@ -14892,29 +14892,29 @@
         <v>18</v>
       </c>
       <c r="G220" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H220" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I220" s="10"/>
       <c r="J220" s="11"/>
       <c r="K220" s="11"/>
       <c r="L220" s="11"/>
       <c r="M220" s="39" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N220" s="10" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="O220" s="10" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="P220" s="10" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="Q220" s="10" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
     </row>
     <row r="221" spans="1:17" ht="96" x14ac:dyDescent="0.2">
@@ -14941,19 +14941,19 @@
       <c r="K221" s="11"/>
       <c r="L221" s="11"/>
       <c r="M221" s="39" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="N221" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O221" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P221" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q221" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="222" spans="1:17" ht="64" x14ac:dyDescent="0.2">
@@ -14976,10 +14976,10 @@
         <v>2</v>
       </c>
       <c r="G222" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H222" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I222" s="10"/>
       <c r="J222" s="11"/>
@@ -15021,17 +15021,17 @@
         <v>2</v>
       </c>
       <c r="G223" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H223" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I223" s="10"/>
       <c r="J223" s="11"/>
       <c r="K223" s="11"/>
       <c r="L223" s="11"/>
       <c r="M223" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N223" s="10">
         <v>0</v>
@@ -15040,10 +15040,10 @@
         <v>-2</v>
       </c>
       <c r="P223" s="10" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="Q223" s="10" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
     </row>
     <row r="224" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -15066,10 +15066,10 @@
         <v>9</v>
       </c>
       <c r="G224" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H224" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I224" s="10"/>
       <c r="J224" s="11"/>
@@ -15111,17 +15111,17 @@
         <v>2</v>
       </c>
       <c r="G225" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H225" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I225" s="10"/>
       <c r="J225" s="11"/>
       <c r="K225" s="11"/>
       <c r="L225" s="11"/>
       <c r="M225" s="39" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="N225" s="10">
         <v>1</v>
@@ -15160,7 +15160,7 @@
       <c r="K226" s="11"/>
       <c r="L226" s="11"/>
       <c r="M226" s="39" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N226" s="10">
         <v>27.8</v>
@@ -15195,7 +15195,7 @@
         <v>2</v>
       </c>
       <c r="H227" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I227" s="10"/>
       <c r="J227" s="11"/>
@@ -15237,10 +15237,10 @@
         <v>18</v>
       </c>
       <c r="G228" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H228" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I228" s="10"/>
       <c r="J228" s="11"/>
@@ -15282,17 +15282,17 @@
         <v>15</v>
       </c>
       <c r="G229" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H229" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I229" s="10"/>
       <c r="J229" s="11"/>
       <c r="K229" s="11"/>
       <c r="L229" s="11"/>
       <c r="M229" s="39" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N229" s="10">
         <v>25</v>
@@ -15327,17 +15327,17 @@
         <v>27</v>
       </c>
       <c r="G230" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H230" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I230" s="10"/>
       <c r="J230" s="11"/>
       <c r="K230" s="11"/>
       <c r="L230" s="11"/>
       <c r="M230" s="39" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="N230" s="10" t="s">
         <v>28</v>
@@ -15372,26 +15372,26 @@
         <v>15</v>
       </c>
       <c r="H231" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I231" s="10"/>
       <c r="J231" s="11"/>
       <c r="K231" s="11"/>
       <c r="L231" s="11"/>
       <c r="M231" s="39" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N231" s="10" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="O231" s="10" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="P231" s="10" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="Q231" s="10" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
     </row>
     <row r="232" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -15414,29 +15414,29 @@
         <v>27</v>
       </c>
       <c r="G232" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H232" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I232" s="10"/>
       <c r="J232" s="11"/>
       <c r="K232" s="11"/>
       <c r="L232" s="11"/>
       <c r="M232" s="39" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="N232" s="10" t="s">
-        <v>32</v>
+        <v>1036</v>
       </c>
       <c r="O232" s="10" t="s">
-        <v>33</v>
+        <v>1037</v>
       </c>
       <c r="P232" s="10" t="s">
-        <v>34</v>
+        <v>1038</v>
       </c>
       <c r="Q232" s="10" t="s">
-        <v>35</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="233" spans="1:17" ht="64" x14ac:dyDescent="0.2">
@@ -15459,29 +15459,29 @@
         <v>2</v>
       </c>
       <c r="G233" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H233" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I233" s="10"/>
       <c r="J233" s="11"/>
       <c r="K233" s="11"/>
       <c r="L233" s="11"/>
       <c r="M233" s="39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N233" s="39" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="O233" s="39" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="P233" s="39" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="Q233" s="39" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
     </row>
     <row r="234" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -15504,29 +15504,29 @@
         <v>2</v>
       </c>
       <c r="G234" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H234" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I234" s="10"/>
       <c r="J234" s="11"/>
       <c r="K234" s="11"/>
       <c r="L234" s="11"/>
       <c r="M234" s="39" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N234" s="10" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="O234" s="10" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="P234" s="10" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="Q234" s="10" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.2">
@@ -15549,29 +15549,29 @@
         <v>2</v>
       </c>
       <c r="G235" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H235" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I235" s="10"/>
       <c r="J235" s="11"/>
       <c r="K235" s="11"/>
       <c r="L235" s="11"/>
       <c r="M235" s="39" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="N235" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O235" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P235" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q235" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.2">
@@ -15594,26 +15594,26 @@
         <v>2</v>
       </c>
       <c r="G236" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H236" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I236" s="10"/>
       <c r="J236" s="11"/>
       <c r="K236" s="11"/>
       <c r="L236" s="11"/>
       <c r="M236" s="39" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="N236" s="10" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="O236" s="10">
         <v>-15</v>
       </c>
       <c r="P236" s="10" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="Q236" s="10">
         <v>15</v>
@@ -15639,29 +15639,29 @@
         <v>2</v>
       </c>
       <c r="G237" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H237" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I237" s="10"/>
       <c r="J237" s="11"/>
       <c r="K237" s="11"/>
       <c r="L237" s="11"/>
       <c r="M237" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="N237" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O237" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P237" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q237" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="N237" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O237" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P237" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q237" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.2">
@@ -15684,29 +15684,29 @@
         <v>2</v>
       </c>
       <c r="G238" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H238" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I238" s="10"/>
       <c r="J238" s="11"/>
       <c r="K238" s="11"/>
       <c r="L238" s="11"/>
       <c r="M238" s="39" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="N238" s="10" t="s">
-        <v>573</v>
+        <v>1040</v>
       </c>
       <c r="O238" s="10" t="s">
-        <v>794</v>
+        <v>1041</v>
       </c>
       <c r="P238" s="10" t="s">
-        <v>848</v>
+        <v>1042</v>
       </c>
       <c r="Q238" s="10" t="s">
-        <v>895</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="239" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -15729,26 +15729,26 @@
         <v>2</v>
       </c>
       <c r="H239" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I239" s="10"/>
       <c r="J239" s="11"/>
       <c r="K239" s="11"/>
       <c r="L239" s="11"/>
       <c r="M239" s="39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N239" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O239" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P239" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q239" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="240" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -15771,29 +15771,29 @@
         <v>15</v>
       </c>
       <c r="G240" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H240" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I240" s="10"/>
       <c r="J240" s="11"/>
       <c r="K240" s="11"/>
       <c r="L240" s="11"/>
       <c r="M240" s="39" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="N240" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O240" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P240" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q240" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.2">
@@ -15816,29 +15816,29 @@
         <v>2</v>
       </c>
       <c r="G241" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H241" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I241" s="10"/>
       <c r="J241" s="11"/>
       <c r="K241" s="11"/>
       <c r="L241" s="11"/>
       <c r="M241" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="N241" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O241" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P241" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q241" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="N241" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O241" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="P241" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q241" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="242" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -15864,14 +15864,14 @@
         <v>27</v>
       </c>
       <c r="H242" s="36" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I242" s="10"/>
       <c r="J242" s="11"/>
       <c r="K242" s="11"/>
       <c r="L242" s="11"/>
       <c r="M242" s="39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N242" s="10">
         <v>157</v>
@@ -15906,29 +15906,29 @@
         <v>2</v>
       </c>
       <c r="G243" s="10" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="H243" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I243" s="10"/>
       <c r="J243" s="11"/>
       <c r="K243" s="11"/>
       <c r="L243" s="11"/>
       <c r="M243" s="39" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N243" s="10" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="O243" s="10" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="P243" s="10" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="Q243" s="10" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
     </row>
     <row r="244" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -15955,7 +15955,7 @@
       <c r="K244" s="11"/>
       <c r="L244" s="11"/>
       <c r="M244" s="39" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="N244" s="10">
         <v>46</v>
@@ -15990,14 +15990,14 @@
         <v>2</v>
       </c>
       <c r="H245" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I245" s="10"/>
       <c r="J245" s="11"/>
       <c r="K245" s="11"/>
       <c r="L245" s="11"/>
       <c r="M245" s="39" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N245" s="10">
         <v>13</v>
@@ -16032,17 +16032,17 @@
         <v>2</v>
       </c>
       <c r="G246" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H246" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I246" s="10"/>
       <c r="J246" s="11"/>
       <c r="K246" s="11"/>
       <c r="L246" s="11"/>
       <c r="M246" s="39" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N246" s="10">
         <v>6</v>
@@ -16077,29 +16077,29 @@
         <v>2</v>
       </c>
       <c r="G247" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H247" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I247" s="10"/>
       <c r="J247" s="11"/>
       <c r="K247" s="11"/>
       <c r="L247" s="11"/>
       <c r="M247" s="39" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N247" s="10" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="O247" s="10" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="P247" s="10" t="s">
-        <v>850</v>
+        <v>1034</v>
       </c>
       <c r="Q247" s="10" t="s">
-        <v>897</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.2">
@@ -16122,14 +16122,14 @@
         <v>2</v>
       </c>
       <c r="H248" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I248" s="10"/>
       <c r="J248" s="11"/>
       <c r="K248" s="11"/>
       <c r="L248" s="11"/>
       <c r="M248" s="39" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="N248" s="10">
         <v>-9</v>
@@ -16164,17 +16164,17 @@
         <v>9</v>
       </c>
       <c r="G249" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H249" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I249" s="10"/>
       <c r="J249" s="11"/>
       <c r="K249" s="11"/>
       <c r="L249" s="11"/>
       <c r="M249" s="39" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N249" s="10">
         <v>21</v>
@@ -16213,7 +16213,7 @@
       <c r="K250" s="11"/>
       <c r="L250" s="11"/>
       <c r="M250" s="39" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="N250" s="10">
         <v>61</v>
@@ -16248,29 +16248,29 @@
         <v>9</v>
       </c>
       <c r="G251" s="10" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="H251" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I251" s="10"/>
       <c r="J251" s="11"/>
       <c r="K251" s="11"/>
       <c r="L251" s="11"/>
       <c r="M251" s="39" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="N251" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O251" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P251" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q251" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="252" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -16293,29 +16293,29 @@
         <v>15</v>
       </c>
       <c r="G252" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H252" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I252" s="10"/>
       <c r="J252" s="11"/>
       <c r="K252" s="11"/>
       <c r="L252" s="11"/>
       <c r="M252" s="39" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="N252" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O252" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P252" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q252" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="253" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -16342,19 +16342,19 @@
       <c r="K253" s="11"/>
       <c r="L253" s="11"/>
       <c r="M253" s="39" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="N253" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O253" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P253" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q253" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.2">
@@ -16377,17 +16377,17 @@
         <v>18</v>
       </c>
       <c r="G254" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H254" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I254" s="10"/>
       <c r="J254" s="11"/>
       <c r="K254" s="11"/>
       <c r="L254" s="11"/>
       <c r="M254" s="39" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="N254" s="10">
         <v>6</v>
@@ -16422,29 +16422,29 @@
         <v>18</v>
       </c>
       <c r="G255" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H255" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I255" s="10"/>
       <c r="J255" s="11"/>
       <c r="K255" s="11"/>
       <c r="L255" s="11"/>
       <c r="M255" s="39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N255" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O255" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P255" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q255" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="256" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -16470,14 +16470,14 @@
         <v>27</v>
       </c>
       <c r="H256" s="35" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I256" s="10"/>
       <c r="J256" s="11"/>
       <c r="K256" s="11"/>
       <c r="L256" s="11"/>
       <c r="M256" s="39" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="N256" s="10">
         <v>60</v>

--- a/mathematics/MathItems.xlsx
+++ b/mathematics/MathItems.xlsx
@@ -2742,11 +2742,6 @@
 A new school for 1600 students will be built in the district. Based on the line of best fit for the scatterplot, which of the following is closest to the number of teachers that will work at the new school?</t>
   </si>
   <si>
-    <t>Mr. Thurman’s lawn is rectangular and has a width of 92 feet and a length of 147 feet. He is going to cover his entire lawn with grass seed.&lt;br/&gt;
-One bag of grass seed costs $53.47. The grass seed in one bag will cover an area of approximately 5000 square feet.&lt;br/&gt;
-Which of the following estimates is closest to the total cost of the bags of grass seed Mr. Thurman will need to cover his lawn?</t>
-  </si>
-  <si>
     <t>What is the value of x in the solution of the system of equations below?&lt;br/&gt;
 $$ 3x - 2y = 6 $$
 $$ x + 2y = 10 $$</t>
@@ -3833,12 +3828,6 @@
 Based on the dimensions in the diagram, which of the following is closest to the lateral surface area of the outside of the tube?</t>
   </si>
   <si>
-    <t>Triangle &lt;i&gt;R′S′T′&lt;/i&gt; is shown on the coordinate grid below.&lt;br/&gt;
-&lt;img src='MA-2013-06-26.png'&gt;&lt;br/&gt;
-Triangle &lt;i&gt;R′S′T′&lt;/i&gt; is the image of triangle &lt;i&gt;RST&lt;/i&gt; after triangle &lt;i&gt;RST&lt;/i&gt; was translated 3 units to the right and 4 units up.&lt;br/&gt;
-What were the coordinates of point &lt;i&gt;R&lt;/i&gt; before the translation?</t>
-  </si>
-  <si>
     <t>Square &lt;i&gt;WXYZ&lt;/i&gt; is inscribed in circle &lt;i&gt;O&lt;/i&gt;, which has a radius of 8 feet, as shown below.&lt;br/&gt;
 &lt;img src='MA-2013-06-40.png'&gt;&lt;br/&gt;
 Which of the following is closest to the length of  \( \overline{WZ} \)?</t>
@@ -4010,6 +3999,17 @@
     <t>Triangles &lt;i&gt;GHJ&lt;/i&gt; and &lt;i&gt;KLM&lt;/i&gt; are congruent. The triangles and some of their angle measures are shown in the diagram below.&lt;br/&gt;
 &lt;img src='MA-2013-06-36.png'&gt;&lt;br/&gt;
 Based on the angle measures in the diagram, what is \( m \angle JGH \)?</t>
+  </si>
+  <si>
+    <t>Mr. Thurman's lawn is rectangular and has a width of 92 feet and a length of 147 feet. He is going to cover his entire lawn with grass seed.&lt;br/&gt;
+One bag of grass seed costs $53.47. The grass seed in one bag will cover an area of approximately 5000 square feet.&lt;br/&gt;
+Which of the following estimates is closest to the total cost of the bags of grass seed Mr. Thurman will need to cover his lawn?</t>
+  </si>
+  <si>
+    <t>Triangle &lt;i&gt;R'S'T'&lt;/i&gt; is shown on the coordinate grid below.&lt;br/&gt;
+&lt;img src='MA-2013-06-26.png'&gt;&lt;br/&gt;
+Triangle &lt;i&gt;R'S'T'&lt;/i&gt; is the image of triangle &lt;i&gt;RST&lt;/i&gt; after triangle &lt;i&gt;RST&lt;/i&gt; was translated 3 units to the right and 4 units up.&lt;br/&gt;
+What were the coordinates of point &lt;i&gt;R&lt;/i&gt; before the translation?</t>
   </si>
 </sst>
 </file>
@@ -4574,10 +4574,10 @@
   <dimension ref="A1:R256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="H127" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="H69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M130" sqref="M130"/>
+      <selection pane="bottomRight" activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4625,7 +4625,7 @@
         <v>106</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>107</v>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>492</v>
@@ -4733,16 +4733,16 @@
         <v>496</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="53" x14ac:dyDescent="0.2">
@@ -4775,19 +4775,19 @@
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="15" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="144" x14ac:dyDescent="0.2">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="15" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="N5" s="25">
         <v>875</v>
@@ -4865,19 +4865,19 @@
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="15" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="137" x14ac:dyDescent="0.2">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="15" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>497</v>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="15" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N8" s="25">
         <v>900</v>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N9" s="14">
         <v>100</v>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="15" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="N10" s="14">
         <v>-192</v>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="15" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N11" s="14">
         <v>-14</v>
@@ -5180,7 +5180,7 @@
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N13" s="14">
         <v>3</v>
@@ -5225,19 +5225,19 @@
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="15" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="Q14" s="14" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="144" x14ac:dyDescent="0.2">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="15" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="N15" s="25">
         <v>300</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="N16" s="14" t="s">
         <v>508</v>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="15" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="N17" s="14" t="s">
         <v>512</v>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="15" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N18" s="14">
         <v>3</v>
@@ -5450,7 +5450,7 @@
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="15" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="N19" s="14" t="s">
         <v>516</v>
@@ -5491,7 +5491,7 @@
         <v>533</v>
       </c>
       <c r="I20" s="58" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J20" s="59">
         <v>0.77</v>
@@ -5499,19 +5499,19 @@
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="52" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="N20" s="53" t="s">
+        <v>963</v>
+      </c>
+      <c r="O20" s="53" t="s">
         <v>964</v>
       </c>
-      <c r="O20" s="53" t="s">
+      <c r="P20" s="53" t="s">
         <v>965</v>
       </c>
-      <c r="P20" s="53" t="s">
+      <c r="Q20" s="53" t="s">
         <v>966</v>
-      </c>
-      <c r="Q20" s="53" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="92" x14ac:dyDescent="0.2">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="15" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="N21" s="14" t="s">
         <v>520</v>
@@ -5589,19 +5589,19 @@
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="15" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q22" s="14" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="53" x14ac:dyDescent="0.2">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="N23" s="14">
         <v>98</v>
@@ -5679,19 +5679,19 @@
       </c>
       <c r="L24" s="16"/>
       <c r="M24" s="15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="Q24" s="14" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="144" x14ac:dyDescent="0.2">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="15" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="N25" s="14">
         <v>22</v>
@@ -5773,7 +5773,7 @@
       </c>
       <c r="L26" s="16"/>
       <c r="M26" s="15" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N26" s="14">
         <v>2</v>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="15" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N27" s="14" t="s">
         <v>525</v>
@@ -5863,19 +5863,19 @@
       </c>
       <c r="L28" s="16"/>
       <c r="M28" s="15" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Q28" s="14" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="105" x14ac:dyDescent="0.2">
@@ -5912,19 +5912,19 @@
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="15" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="Q29" s="15" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="163" x14ac:dyDescent="0.2">
@@ -5957,19 +5957,19 @@
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="15" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N30" s="14" t="s">
         <v>422</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Q30" s="14" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="144" x14ac:dyDescent="0.2">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="L31" s="16"/>
       <c r="M31" s="15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N31" s="14">
         <v>18</v>
@@ -6038,7 +6038,7 @@
         <v>424</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H32" s="35" t="s">
         <v>533</v>
@@ -6055,16 +6055,16 @@
         <v>426</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="P32" s="14" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="Q32" s="14" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="66" x14ac:dyDescent="0.2">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="N33" s="25">
         <v>100</v>
@@ -6144,7 +6144,7 @@
       </c>
       <c r="L34" s="16"/>
       <c r="M34" s="15" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N34" s="14">
         <v>10</v>
@@ -6190,7 +6190,7 @@
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N35" s="14" t="s">
         <v>430</v>
@@ -6236,19 +6236,19 @@
       </c>
       <c r="L36" s="16"/>
       <c r="M36" s="15" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="N36" s="14" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="P36" s="14" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Q36" s="14" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="105" x14ac:dyDescent="0.2">
@@ -6281,7 +6281,7 @@
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="15" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N37" s="14" t="s">
         <v>436</v>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="L38" s="16"/>
       <c r="M38" s="15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N38" s="14">
         <v>6.4</v>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="L39" s="16"/>
       <c r="M39" s="15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N39" s="14">
         <v>20</v>
@@ -6408,7 +6408,7 @@
         <v>424</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H40" s="35" t="s">
         <v>532</v>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="L40" s="16"/>
       <c r="M40" s="15" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N40" s="14" t="s">
         <v>442</v>
@@ -6468,16 +6468,16 @@
       </c>
       <c r="L41" s="16"/>
       <c r="M41" s="15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O41" s="14">
         <v>8</v>
       </c>
       <c r="P41" s="14" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q41" s="14">
         <v>4</v>
@@ -6514,7 +6514,7 @@
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N42" s="14" t="s">
         <v>447</v>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="L43" s="16"/>
       <c r="M43" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N43" s="14" t="s">
         <v>452</v>
@@ -6606,7 +6606,7 @@
       </c>
       <c r="L44" s="16"/>
       <c r="M44" s="15" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N44" s="14" t="s">
         <v>457</v>
@@ -6652,7 +6652,7 @@
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="15" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N45" s="14" t="s">
         <v>462</v>
@@ -6697,19 +6697,19 @@
       </c>
       <c r="L46" s="16"/>
       <c r="M46" s="15" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N46" s="14" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="P46" s="14" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="Q46" s="14" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="144" x14ac:dyDescent="0.2">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="15" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="N47" s="14">
         <v>40</v>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="L48" s="16"/>
       <c r="M48" s="15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="N48" s="14" t="s">
         <v>467</v>
@@ -6832,7 +6832,7 @@
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N49" s="14" t="s">
         <v>472</v>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="L50" s="16"/>
       <c r="M50" s="15" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="N50" s="14" t="s">
         <v>476</v>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="15" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N51" s="14" t="s">
         <v>480</v>
@@ -6967,19 +6967,19 @@
       </c>
       <c r="L52" s="16"/>
       <c r="M52" s="15" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N52" s="14" t="s">
         <v>154</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="P52" s="14" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q52" s="14" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="53" x14ac:dyDescent="0.2">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="L54" s="16"/>
       <c r="M54" s="15" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N54" s="14" t="s">
         <v>487</v>
@@ -7102,19 +7102,19 @@
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="15" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N55" s="14" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="P55" s="14" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Q55" s="14" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="202" x14ac:dyDescent="0.2">
@@ -7137,7 +7137,7 @@
         <v>193</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H56" s="35" t="s">
         <v>530</v>
@@ -7151,19 +7151,19 @@
       </c>
       <c r="L56" s="16"/>
       <c r="M56" s="15" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="N56" s="14" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="P56" s="14" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="Q56" s="14" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="224" x14ac:dyDescent="0.2">
@@ -7284,7 +7284,7 @@
         <v>193</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H59" s="35" t="s">
         <v>532</v>
@@ -7686,7 +7686,7 @@
       </c>
       <c r="L67" s="16"/>
       <c r="M67" s="15" t="s">
-        <v>669</v>
+        <v>1046</v>
       </c>
       <c r="N67" s="25">
         <v>100</v>
@@ -7721,7 +7721,7 @@
         <v>193</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H68" s="35" t="s">
         <v>533</v>
@@ -7735,7 +7735,7 @@
       </c>
       <c r="L68" s="16"/>
       <c r="M68" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N68" s="14">
         <v>2</v>
@@ -7784,19 +7784,19 @@
       </c>
       <c r="L69" s="16"/>
       <c r="M69" s="15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N69" s="14" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="P69" s="14" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="Q69" s="14" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="157" x14ac:dyDescent="0.2">
@@ -7819,7 +7819,7 @@
         <v>193</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H70" s="35" t="s">
         <v>530</v>
@@ -7833,19 +7833,19 @@
       </c>
       <c r="L70" s="16"/>
       <c r="M70" s="15" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="N70" s="14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P70" s="14" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="Q70" s="14" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="183" x14ac:dyDescent="0.2">
@@ -7882,7 +7882,7 @@
       </c>
       <c r="L71" s="16"/>
       <c r="M71" s="15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N71" s="14" t="s">
         <v>393</v>
@@ -7891,7 +7891,7 @@
         <v>394</v>
       </c>
       <c r="P71" s="15" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Q71" s="15" t="s">
         <v>395</v>
@@ -7917,7 +7917,7 @@
         <v>193</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H72" s="35" t="s">
         <v>532</v>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="L72" s="16"/>
       <c r="M72" s="15" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="N72" s="14" t="s">
         <v>396</v>
@@ -7980,19 +7980,19 @@
       <c r="K73" s="16"/>
       <c r="L73" s="16"/>
       <c r="M73" s="60" t="s">
-        <v>992</v>
+        <v>1047</v>
       </c>
       <c r="N73" s="53" t="s">
+        <v>958</v>
+      </c>
+      <c r="O73" s="53" t="s">
         <v>959</v>
       </c>
-      <c r="O73" s="53" t="s">
+      <c r="P73" s="53" t="s">
         <v>960</v>
       </c>
-      <c r="P73" s="53" t="s">
+      <c r="Q73" s="53" t="s">
         <v>961</v>
-      </c>
-      <c r="Q73" s="53" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="235" x14ac:dyDescent="0.2">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="L74" s="16"/>
       <c r="M74" s="15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="N74" s="23">
         <v>10000</v>
@@ -8078,7 +8078,7 @@
       </c>
       <c r="L75" s="16"/>
       <c r="M75" s="15" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="N75" s="14" t="s">
         <v>401</v>
@@ -8127,7 +8127,7 @@
       </c>
       <c r="L76" s="16"/>
       <c r="M76" s="15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="N76" s="14" t="s">
         <v>406</v>
@@ -8168,7 +8168,7 @@
         <v>530</v>
       </c>
       <c r="I77" s="58" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="J77" s="59">
         <v>0.7</v>
@@ -8176,19 +8176,19 @@
       <c r="K77" s="16"/>
       <c r="L77" s="16"/>
       <c r="M77" s="52" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="N77" s="53" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="O77" s="53" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="P77" s="53" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="Q77" s="53" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="126" x14ac:dyDescent="0.2">
@@ -8221,19 +8221,19 @@
       </c>
       <c r="L78" s="16"/>
       <c r="M78" s="15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N78" s="14" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O78" s="14" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="P78" s="14" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="Q78" s="14" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="112" x14ac:dyDescent="0.2">
@@ -8256,13 +8256,13 @@
         <v>27</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H79" s="35" t="s">
         <v>533</v>
       </c>
       <c r="I79" s="58" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J79" s="16"/>
       <c r="K79" s="16">
@@ -8270,19 +8270,19 @@
       </c>
       <c r="L79" s="16"/>
       <c r="M79" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N79" s="14">
         <v>-1</v>
       </c>
       <c r="O79" s="14" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="P79" s="14" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="Q79" s="14" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="126" x14ac:dyDescent="0.2">
@@ -8319,19 +8319,19 @@
       <c r="K80" s="16"/>
       <c r="L80" s="16"/>
       <c r="M80" s="52" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="N80" s="53" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="O80" s="53" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="P80" s="53" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="Q80" s="53" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="196" x14ac:dyDescent="0.2">
@@ -8368,19 +8368,19 @@
       </c>
       <c r="L81" s="16"/>
       <c r="M81" s="15" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N81" s="14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="O81" s="14" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="P81" s="14" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Q81" s="14" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="131" x14ac:dyDescent="0.2">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="L83" s="16"/>
       <c r="M83" s="15" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N83" s="14" t="s">
         <v>417</v>
@@ -8507,7 +8507,7 @@
         <v>533</v>
       </c>
       <c r="I84" s="58" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J84" s="59">
         <v>0.74</v>
@@ -8515,19 +8515,19 @@
       <c r="K84" s="16"/>
       <c r="L84" s="16"/>
       <c r="M84" s="52" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="N84" s="53" t="s">
+        <v>969</v>
+      </c>
+      <c r="O84" s="53" t="s">
         <v>970</v>
       </c>
-      <c r="O84" s="53" t="s">
+      <c r="P84" s="53" t="s">
         <v>971</v>
       </c>
-      <c r="P84" s="53" t="s">
+      <c r="Q84" s="53" t="s">
         <v>972</v>
-      </c>
-      <c r="Q84" s="53" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="352" x14ac:dyDescent="0.2">
@@ -8648,7 +8648,7 @@
         <v>193</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H87" s="35" t="s">
         <v>530</v>
@@ -8665,16 +8665,16 @@
         <v>638</v>
       </c>
       <c r="N87" s="14" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O87" s="14" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P87" s="14" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="Q87" s="14" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="222" x14ac:dyDescent="0.2">
@@ -8697,7 +8697,7 @@
         <v>193</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H88" s="35" t="s">
         <v>533</v>
@@ -8844,7 +8844,7 @@
         <v>193</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H91" s="35" t="s">
         <v>532</v>
@@ -8991,7 +8991,7 @@
         <v>193</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H94" s="35" t="s">
         <v>532</v>
@@ -9008,16 +9008,16 @@
         <v>645</v>
       </c>
       <c r="N94" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="O94" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="P94" s="14" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="Q94" s="14" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="196" x14ac:dyDescent="0.2">
@@ -9040,7 +9040,7 @@
         <v>18</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H95" s="35" t="s">
         <v>530</v>
@@ -9057,16 +9057,16 @@
         <v>646</v>
       </c>
       <c r="N95" s="14" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="O95" s="14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="P95" s="14" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="Q95" s="14" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="157" x14ac:dyDescent="0.2">
@@ -9153,16 +9153,16 @@
         <v>648</v>
       </c>
       <c r="N97" s="14" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="O97" s="14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P97" s="14" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="Q97" s="14" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="352" x14ac:dyDescent="0.2">
@@ -9300,16 +9300,16 @@
         <v>651</v>
       </c>
       <c r="N100" s="14" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="O100" s="14" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="P100" s="14" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Q100" s="14" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="183" x14ac:dyDescent="0.2">
@@ -9381,13 +9381,13 @@
         <v>193</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H102" s="35" t="s">
         <v>530</v>
       </c>
       <c r="I102" s="62" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J102" s="59">
         <v>0.79</v>
@@ -9395,19 +9395,19 @@
       <c r="K102" s="16"/>
       <c r="L102" s="16"/>
       <c r="M102" s="60" t="s">
+        <v>974</v>
+      </c>
+      <c r="N102" s="53" t="s">
         <v>975</v>
       </c>
-      <c r="N102" s="53" t="s">
+      <c r="O102" s="53" t="s">
         <v>976</v>
       </c>
-      <c r="O102" s="53" t="s">
+      <c r="P102" s="53" t="s">
         <v>977</v>
       </c>
-      <c r="P102" s="53" t="s">
+      <c r="Q102" s="53" t="s">
         <v>978</v>
-      </c>
-      <c r="Q102" s="53" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="118" x14ac:dyDescent="0.2">
@@ -9632,7 +9632,7 @@
         <v>533</v>
       </c>
       <c r="I107" s="58" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J107" s="59">
         <v>0.77</v>
@@ -9640,19 +9640,19 @@
       <c r="K107" s="16"/>
       <c r="L107" s="16"/>
       <c r="M107" s="60" t="s">
+        <v>980</v>
+      </c>
+      <c r="N107" s="53" t="s">
         <v>981</v>
       </c>
-      <c r="N107" s="53" t="s">
+      <c r="O107" s="53" t="s">
         <v>982</v>
       </c>
-      <c r="O107" s="53" t="s">
+      <c r="P107" s="53" t="s">
         <v>983</v>
       </c>
-      <c r="P107" s="53" t="s">
+      <c r="Q107" s="53" t="s">
         <v>984</v>
-      </c>
-      <c r="Q107" s="53" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="144" x14ac:dyDescent="0.2">
@@ -9959,7 +9959,7 @@
         <v>193</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H114" s="35" t="s">
         <v>532</v>
@@ -9976,16 +9976,16 @@
         <v>610</v>
       </c>
       <c r="N114" s="14" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O114" s="14" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="P114" s="14" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="Q114" s="14" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="222" x14ac:dyDescent="0.2">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="L117" s="16"/>
       <c r="M117" s="15" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="N117" s="14">
         <v>20</v>
@@ -10155,7 +10155,7 @@
         <v>193</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H118" s="35" t="s">
         <v>532</v>
@@ -10253,7 +10253,7 @@
         <v>27</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H120" s="35" t="s">
         <v>530</v>
@@ -10270,16 +10270,16 @@
         <v>615</v>
       </c>
       <c r="N120" s="14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O120" s="14" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="P120" s="14" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="Q120" s="14" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="352" x14ac:dyDescent="0.2">
@@ -10319,16 +10319,16 @@
         <v>616</v>
       </c>
       <c r="N121" s="14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O121" s="14" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="P121" s="14" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="Q121" s="14" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="365" x14ac:dyDescent="0.2">
@@ -10368,16 +10368,16 @@
         <v>617</v>
       </c>
       <c r="N122" s="14" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="O122" s="14" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="P122" s="14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="Q122" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="118" x14ac:dyDescent="0.2">
@@ -10543,7 +10543,7 @@
         <v>193</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H126" s="35" t="s">
         <v>532</v>
@@ -10560,16 +10560,16 @@
         <v>621</v>
       </c>
       <c r="N126" s="14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O126" s="14" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P126" s="14" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="Q126" s="14" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="118" x14ac:dyDescent="0.2">
@@ -10752,16 +10752,16 @@
         <v>625</v>
       </c>
       <c r="N130" s="14" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O130" s="14" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="P130" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="Q130" s="14" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="131" spans="1:17" ht="118" x14ac:dyDescent="0.2">
@@ -11074,7 +11074,7 @@
         <v>193</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H137" s="35" t="s">
         <v>530</v>
@@ -11091,10 +11091,10 @@
         <v>631</v>
       </c>
       <c r="N137" s="14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="O137" s="14" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P137" s="14">
         <v>4</v>
@@ -11270,7 +11270,7 @@
         <v>193</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H141" s="35" t="s">
         <v>533</v>
@@ -11417,7 +11417,7 @@
         <v>193</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H144" s="35" t="s">
         <v>530</v>
@@ -11511,7 +11511,7 @@
         <v>193</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H146" s="35" t="s">
         <v>533</v>
@@ -11574,16 +11574,16 @@
         <v>589</v>
       </c>
       <c r="N147" s="14" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="O147" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P147" s="14" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="Q147" s="14" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="148" spans="1:17" ht="352" x14ac:dyDescent="0.2">
@@ -11672,16 +11672,16 @@
         <v>206</v>
       </c>
       <c r="N149" s="14" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="O149" s="14" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="P149" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="Q149" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="150" spans="1:17" ht="170" x14ac:dyDescent="0.2">
@@ -11868,16 +11868,16 @@
         <v>210</v>
       </c>
       <c r="N153" s="14" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O153" s="14" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="P153" s="14" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="Q153" s="14" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="154" spans="1:17" ht="222" x14ac:dyDescent="0.2">
@@ -11900,7 +11900,7 @@
         <v>193</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H154" s="35" t="s">
         <v>532</v>
@@ -11917,16 +11917,16 @@
         <v>592</v>
       </c>
       <c r="N154" s="14" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O154" s="14" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="P154" s="14" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="Q154" s="14" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="155" spans="1:17" ht="235" x14ac:dyDescent="0.2">
@@ -12012,16 +12012,16 @@
         <v>594</v>
       </c>
       <c r="N156" s="14" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="O156" s="14" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="P156" s="14" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="Q156" s="14" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="157" spans="1:17" ht="209" x14ac:dyDescent="0.2">
@@ -12109,10 +12109,10 @@
         <v>0</v>
       </c>
       <c r="O158" s="14" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="P158" s="14" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="Q158" s="14">
         <v>1</v>
@@ -12152,19 +12152,19 @@
       <c r="K159" s="16"/>
       <c r="L159" s="16"/>
       <c r="M159" s="52" t="s">
+        <v>985</v>
+      </c>
+      <c r="N159" s="55" t="s">
         <v>986</v>
       </c>
-      <c r="N159" s="55" t="s">
+      <c r="O159" s="53" t="s">
         <v>987</v>
       </c>
-      <c r="O159" s="53" t="s">
+      <c r="P159" s="55" t="s">
         <v>988</v>
       </c>
-      <c r="P159" s="55" t="s">
+      <c r="Q159" s="55" t="s">
         <v>989</v>
-      </c>
-      <c r="Q159" s="55" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="160" spans="1:17" ht="209" x14ac:dyDescent="0.2">
@@ -12253,16 +12253,16 @@
         <v>598</v>
       </c>
       <c r="N161" s="14" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="O161" s="14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="P161" s="14" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="Q161" s="15" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="162" spans="1:18" ht="170" x14ac:dyDescent="0.2">
@@ -12694,16 +12694,16 @@
         <v>607</v>
       </c>
       <c r="N170" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="O170" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="P170" s="14" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="Q170" s="14" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="171" spans="1:18" ht="287" x14ac:dyDescent="0.2">
@@ -12726,7 +12726,7 @@
         <v>193</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H171" s="35" t="s">
         <v>530</v>
@@ -12785,19 +12785,19 @@
       <c r="K172" s="16"/>
       <c r="L172" s="16"/>
       <c r="M172" s="51" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="N172" s="51" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="O172" s="51" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="P172" s="51" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="Q172" s="51" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="R172" s="51"/>
     </row>
@@ -12821,7 +12821,7 @@
         <v>27</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H173" s="35" t="s">
         <v>533</v>
@@ -12831,19 +12831,19 @@
       <c r="K173" s="16"/>
       <c r="L173" s="16"/>
       <c r="M173" s="52" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="N173" s="50" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="O173" s="50" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="P173" s="50" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="Q173" s="50" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.2">
@@ -12876,19 +12876,19 @@
       <c r="K174" s="16"/>
       <c r="L174" s="16"/>
       <c r="M174" s="53" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="N174" s="50" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="O174" s="50" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="P174" s="50" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="Q174" s="50" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.2">
@@ -12921,19 +12921,19 @@
       <c r="K175" s="16"/>
       <c r="L175" s="16"/>
       <c r="M175" s="53" t="s">
+        <v>927</v>
+      </c>
+      <c r="N175" s="50" t="s">
         <v>928</v>
       </c>
-      <c r="N175" s="50" t="s">
+      <c r="O175" s="50" t="s">
         <v>929</v>
       </c>
-      <c r="O175" s="50" t="s">
+      <c r="P175" s="50" t="s">
         <v>930</v>
       </c>
-      <c r="P175" s="50" t="s">
+      <c r="Q175" s="50" t="s">
         <v>931</v>
-      </c>
-      <c r="Q175" s="50" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.2">
@@ -12966,19 +12966,19 @@
       <c r="K176" s="16"/>
       <c r="L176" s="16"/>
       <c r="M176" s="54" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="N176" s="54" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="O176" s="54" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="P176" s="54" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="Q176" s="54" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.2">
@@ -13001,7 +13001,7 @@
         <v>2</v>
       </c>
       <c r="G177" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H177" s="35" t="s">
         <v>532</v>
@@ -13011,19 +13011,19 @@
       <c r="K177" s="16"/>
       <c r="L177" s="16"/>
       <c r="M177" s="52" t="s">
+        <v>933</v>
+      </c>
+      <c r="N177" s="50" t="s">
         <v>934</v>
       </c>
-      <c r="N177" s="50" t="s">
+      <c r="O177" s="50" t="s">
         <v>935</v>
       </c>
-      <c r="O177" s="50" t="s">
+      <c r="P177" s="50" t="s">
         <v>936</v>
       </c>
-      <c r="P177" s="50" t="s">
+      <c r="Q177" s="50" t="s">
         <v>937</v>
-      </c>
-      <c r="Q177" s="50" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="178" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -13056,19 +13056,19 @@
       <c r="K178" s="16"/>
       <c r="L178" s="16"/>
       <c r="M178" s="52" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="N178" s="53" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O178" s="53" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="P178" s="53" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="Q178" s="53" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.2">
@@ -13091,7 +13091,7 @@
         <v>27</v>
       </c>
       <c r="G179" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H179" s="35" t="s">
         <v>533</v>
@@ -13101,19 +13101,19 @@
       <c r="K179" s="16"/>
       <c r="L179" s="16"/>
       <c r="M179" s="52" t="s">
+        <v>939</v>
+      </c>
+      <c r="N179" s="55" t="s">
         <v>940</v>
       </c>
-      <c r="N179" s="55" t="s">
+      <c r="O179" s="55" t="s">
         <v>941</v>
       </c>
-      <c r="O179" s="55" t="s">
+      <c r="P179" s="55" t="s">
         <v>942</v>
       </c>
-      <c r="P179" s="55" t="s">
+      <c r="Q179" s="55" t="s">
         <v>943</v>
-      </c>
-      <c r="Q179" s="55" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.2">
@@ -13136,7 +13136,7 @@
         <v>27</v>
       </c>
       <c r="G180" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H180" s="35" t="s">
         <v>533</v>
@@ -13146,19 +13146,19 @@
       <c r="K180" s="16"/>
       <c r="L180" s="16"/>
       <c r="M180" s="53" t="s">
+        <v>944</v>
+      </c>
+      <c r="N180" s="55" t="s">
         <v>945</v>
       </c>
-      <c r="N180" s="55" t="s">
+      <c r="O180" s="55" t="s">
         <v>946</v>
       </c>
-      <c r="O180" s="55" t="s">
+      <c r="P180" s="55" t="s">
         <v>947</v>
       </c>
-      <c r="P180" s="55" t="s">
+      <c r="Q180" s="55" t="s">
         <v>948</v>
-      </c>
-      <c r="Q180" s="55" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.2">
@@ -13191,19 +13191,19 @@
       <c r="K181" s="16"/>
       <c r="L181" s="16"/>
       <c r="M181" s="53" t="s">
+        <v>949</v>
+      </c>
+      <c r="N181" s="53" t="s">
         <v>950</v>
-      </c>
-      <c r="N181" s="53" t="s">
-        <v>951</v>
       </c>
       <c r="O181" s="53" t="s">
         <v>453</v>
       </c>
       <c r="P181" s="53" t="s">
+        <v>951</v>
+      </c>
+      <c r="Q181" s="53" t="s">
         <v>952</v>
-      </c>
-      <c r="Q181" s="53" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
@@ -13236,19 +13236,19 @@
       <c r="K182" s="16"/>
       <c r="L182" s="16"/>
       <c r="M182" s="53" t="s">
+        <v>953</v>
+      </c>
+      <c r="N182" s="53" t="s">
         <v>954</v>
       </c>
-      <c r="N182" s="53" t="s">
+      <c r="O182" s="53" t="s">
         <v>955</v>
       </c>
-      <c r="O182" s="53" t="s">
+      <c r="P182" s="53" t="s">
         <v>956</v>
       </c>
-      <c r="P182" s="53" t="s">
-        <v>957</v>
-      </c>
       <c r="Q182" s="53" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.2">
@@ -13271,7 +13271,7 @@
         <v>2</v>
       </c>
       <c r="G183" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H183" s="35" t="s">
         <v>532</v>
@@ -13281,19 +13281,19 @@
       <c r="K183" s="16"/>
       <c r="L183" s="16"/>
       <c r="M183" s="53" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="N183" s="53" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="O183" s="53" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="P183" s="53" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="Q183" s="53" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
@@ -13316,7 +13316,7 @@
         <v>2</v>
       </c>
       <c r="G184" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H184" s="35" t="s">
         <v>530</v>
@@ -13448,7 +13448,7 @@
         <v>2</v>
       </c>
       <c r="G187" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H187" s="35" t="s">
         <v>532</v>
@@ -13461,16 +13461,16 @@
         <v>64</v>
       </c>
       <c r="N187" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="O187" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="P187" s="10" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="Q187" s="10" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="188" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -13493,7 +13493,7 @@
         <v>27</v>
       </c>
       <c r="G188" s="32" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H188" s="36" t="s">
         <v>530</v>
@@ -13538,7 +13538,7 @@
         <v>2</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H189" s="35" t="s">
         <v>530</v>
@@ -13628,7 +13628,7 @@
         <v>2</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H191" s="35" t="s">
         <v>530</v>
@@ -13842,7 +13842,7 @@
         <v>2</v>
       </c>
       <c r="G196" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H196" s="35" t="s">
         <v>533</v>
@@ -13887,7 +13887,7 @@
         <v>2</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H197" s="35" t="s">
         <v>533</v>
@@ -14100,7 +14100,7 @@
         <v>2</v>
       </c>
       <c r="G202" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H202" s="35" t="s">
         <v>530</v>
@@ -14158,16 +14158,16 @@
         <v>536</v>
       </c>
       <c r="N203" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O203" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="P203" s="39" t="s">
+        <v>1030</v>
+      </c>
+      <c r="Q203" s="10" t="s">
         <v>1031</v>
-      </c>
-      <c r="O203" s="39" t="s">
-        <v>787</v>
-      </c>
-      <c r="P203" s="39" t="s">
-        <v>1032</v>
-      </c>
-      <c r="Q203" s="10" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
@@ -14190,7 +14190,7 @@
         <v>27</v>
       </c>
       <c r="G204" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H204" s="35" t="s">
         <v>533</v>
@@ -14235,7 +14235,7 @@
         <v>2</v>
       </c>
       <c r="G205" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H205" s="35" t="s">
         <v>533</v>
@@ -14280,7 +14280,7 @@
         <v>2</v>
       </c>
       <c r="G206" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H206" s="35" t="s">
         <v>530</v>
@@ -14325,7 +14325,7 @@
         <v>2</v>
       </c>
       <c r="G207" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H207" s="35" t="s">
         <v>530</v>
@@ -14370,7 +14370,7 @@
         <v>2</v>
       </c>
       <c r="G208" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H208" s="35" t="s">
         <v>533</v>
@@ -14415,7 +14415,7 @@
         <v>2</v>
       </c>
       <c r="G209" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H209" s="35" t="s">
         <v>530</v>
@@ -14460,7 +14460,7 @@
         <v>2</v>
       </c>
       <c r="G210" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H210" s="35" t="s">
         <v>530</v>
@@ -14515,19 +14515,19 @@
       <c r="K211" s="11"/>
       <c r="L211" s="11"/>
       <c r="M211" s="56" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="N211" s="54" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="O211" s="54" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="P211" s="54" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="Q211" s="54" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.2">
@@ -14546,7 +14546,7 @@
       <c r="E212" s="9"/>
       <c r="F212" s="10"/>
       <c r="G212" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H212" s="35" t="s">
         <v>532</v>
@@ -14590,7 +14590,7 @@
         <v>5</v>
       </c>
       <c r="N213" s="10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="O213" s="10" t="s">
         <v>6</v>
@@ -14667,7 +14667,7 @@
         <v>2</v>
       </c>
       <c r="G215" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H215" s="35" t="s">
         <v>532</v>
@@ -14712,7 +14712,7 @@
         <v>2</v>
       </c>
       <c r="G216" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H216" s="35" t="s">
         <v>533</v>
@@ -14725,16 +14725,16 @@
         <v>112</v>
       </c>
       <c r="N216" s="10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="O216" s="10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P216" s="10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="Q216" s="10" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="217" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -14770,7 +14770,7 @@
         <v>14</v>
       </c>
       <c r="N217" s="10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="O217" s="10" t="s">
         <v>179</v>
@@ -14847,7 +14847,7 @@
         <v>2</v>
       </c>
       <c r="G219" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H219" s="35" t="s">
         <v>532</v>
@@ -14860,16 +14860,16 @@
         <v>17</v>
       </c>
       <c r="N219" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="O219" s="10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="P219" s="10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Q219" s="10" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.2">
@@ -14905,16 +14905,16 @@
         <v>113</v>
       </c>
       <c r="N220" s="10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="O220" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="P220" s="10" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="Q220" s="10" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="221" spans="1:17" ht="96" x14ac:dyDescent="0.2">
@@ -15021,7 +15021,7 @@
         <v>2</v>
       </c>
       <c r="G223" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H223" s="35" t="s">
         <v>532</v>
@@ -15040,10 +15040,10 @@
         <v>-2</v>
       </c>
       <c r="P223" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="Q223" s="10" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="224" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -15111,7 +15111,7 @@
         <v>2</v>
       </c>
       <c r="G225" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H225" s="35" t="s">
         <v>533</v>
@@ -15327,7 +15327,7 @@
         <v>27</v>
       </c>
       <c r="G230" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H230" s="35" t="s">
         <v>533</v>
@@ -15382,16 +15382,16 @@
         <v>121</v>
       </c>
       <c r="N231" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="O231" s="10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="P231" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="Q231" s="10" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="232" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -15414,7 +15414,7 @@
         <v>27</v>
       </c>
       <c r="G232" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H232" s="35" t="s">
         <v>532</v>
@@ -15427,16 +15427,16 @@
         <v>570</v>
       </c>
       <c r="N232" s="10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="O232" s="10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="P232" s="10" t="s">
         <v>1036</v>
       </c>
-      <c r="O232" s="10" t="s">
+      <c r="Q232" s="10" t="s">
         <v>1037</v>
-      </c>
-      <c r="P232" s="10" t="s">
-        <v>1038</v>
-      </c>
-      <c r="Q232" s="10" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="233" spans="1:17" ht="64" x14ac:dyDescent="0.2">
@@ -15472,16 +15472,16 @@
         <v>32</v>
       </c>
       <c r="N233" s="39" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="O233" s="39" t="s">
+        <v>832</v>
+      </c>
+      <c r="P233" s="39" t="s">
+        <v>831</v>
+      </c>
+      <c r="Q233" s="39" t="s">
         <v>833</v>
-      </c>
-      <c r="P233" s="39" t="s">
-        <v>832</v>
-      </c>
-      <c r="Q233" s="39" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="234" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -15504,7 +15504,7 @@
         <v>2</v>
       </c>
       <c r="G234" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H234" s="35" t="s">
         <v>532</v>
@@ -15517,16 +15517,16 @@
         <v>122</v>
       </c>
       <c r="N234" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O234" s="10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="P234" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="Q234" s="10" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.2">
@@ -15549,7 +15549,7 @@
         <v>2</v>
       </c>
       <c r="G235" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H235" s="35" t="s">
         <v>532</v>
@@ -15594,7 +15594,7 @@
         <v>2</v>
       </c>
       <c r="G236" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H236" s="35" t="s">
         <v>533</v>
@@ -15607,13 +15607,13 @@
         <v>572</v>
       </c>
       <c r="N236" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="O236" s="10">
         <v>-15</v>
       </c>
       <c r="P236" s="10" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="Q236" s="10">
         <v>15</v>
@@ -15684,7 +15684,7 @@
         <v>2</v>
       </c>
       <c r="G238" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H238" s="35" t="s">
         <v>530</v>
@@ -15697,16 +15697,16 @@
         <v>573</v>
       </c>
       <c r="N238" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="O238" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="P238" s="10" t="s">
         <v>1040</v>
       </c>
-      <c r="O238" s="10" t="s">
+      <c r="Q238" s="10" t="s">
         <v>1041</v>
-      </c>
-      <c r="P238" s="10" t="s">
-        <v>1042</v>
-      </c>
-      <c r="Q238" s="10" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="239" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -15816,7 +15816,7 @@
         <v>2</v>
       </c>
       <c r="G241" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H241" s="35" t="s">
         <v>530</v>
@@ -15906,7 +15906,7 @@
         <v>2</v>
       </c>
       <c r="G243" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H243" s="35" t="s">
         <v>532</v>
@@ -15919,16 +15919,16 @@
         <v>56</v>
       </c>
       <c r="N243" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="O243" s="10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P243" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="Q243" s="10" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="244" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -16090,16 +16090,16 @@
         <v>59</v>
       </c>
       <c r="N247" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="O247" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="P247" s="10" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="Q247" s="10" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.2">
@@ -16248,7 +16248,7 @@
         <v>9</v>
       </c>
       <c r="G251" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H251" s="35" t="s">
         <v>533</v>

--- a/mathematics/MathItems.xlsx
+++ b/mathematics/MathItems.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28240" tabRatio="500"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="1048">
   <si>
     <t>NY</t>
   </si>
@@ -3823,11 +3823,6 @@
     <t>36.62 cubic centimeters</t>
   </si>
   <si>
-    <t>The diagram below shows a piece of paper that has been rolled to form a right circular tube.&lt;br/&gt;
-&lt;img src='MA-2013-06-28.png'&gt;&lt;br/&gt;
-Based on the dimensions in the diagram, which of the following is closest to the lateral surface area of the outside of the tube?</t>
-  </si>
-  <si>
     <t>Square &lt;i&gt;WXYZ&lt;/i&gt; is inscribed in circle &lt;i&gt;O&lt;/i&gt;, which has a radius of 8 feet, as shown below.&lt;br/&gt;
 &lt;img src='MA-2013-06-40.png'&gt;&lt;br/&gt;
 Which of the following is closest to the length of  \( \overline{WZ} \)?</t>
@@ -4010,6 +4005,11 @@
 &lt;img src='MA-2013-06-26.png'&gt;&lt;br/&gt;
 Triangle &lt;i&gt;R'S'T'&lt;/i&gt; is the image of triangle &lt;i&gt;RST&lt;/i&gt; after triangle &lt;i&gt;RST&lt;/i&gt; was translated 3 units to the right and 4 units up.&lt;br/&gt;
 What were the coordinates of point &lt;i&gt;R&lt;/i&gt; before the translation?</t>
+  </si>
+  <si>
+    <t>The diagram below shows a piece of paper that has been rolled to form a right circular tube.&lt;br/&gt;
+&lt;img src='MA-2011-06-28.png'&gt;&lt;br/&gt;
+Based on the dimensions in the diagram, which of the following is closest to the lateral surface area of the outside of the tube?</t>
   </si>
 </sst>
 </file>
@@ -4574,10 +4574,10 @@
   <dimension ref="A1:R256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="H69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M73" sqref="M73"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5484,9 +5484,7 @@
       <c r="F20" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>535</v>
-      </c>
+      <c r="G20" s="14"/>
       <c r="H20" s="29" t="s">
         <v>533</v>
       </c>
@@ -5499,7 +5497,7 @@
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="52" t="s">
-        <v>990</v>
+        <v>1047</v>
       </c>
       <c r="N20" s="53" t="s">
         <v>963</v>
@@ -7151,7 +7149,7 @@
       </c>
       <c r="L56" s="16"/>
       <c r="M56" s="15" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="N56" s="14" t="s">
         <v>760</v>
@@ -7686,7 +7684,7 @@
       </c>
       <c r="L67" s="16"/>
       <c r="M67" s="15" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N67" s="25">
         <v>100</v>
@@ -7980,7 +7978,7 @@
       <c r="K73" s="16"/>
       <c r="L73" s="16"/>
       <c r="M73" s="60" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N73" s="53" t="s">
         <v>958</v>
@@ -8176,19 +8174,19 @@
       <c r="K77" s="16"/>
       <c r="L77" s="16"/>
       <c r="M77" s="52" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="N77" s="53" t="s">
         <v>824</v>
       </c>
       <c r="O77" s="53" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="P77" s="53" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="Q77" s="53" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="126" x14ac:dyDescent="0.2">
@@ -8319,19 +8317,19 @@
       <c r="K80" s="16"/>
       <c r="L80" s="16"/>
       <c r="M80" s="52" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="N80" s="53" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="O80" s="53" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="P80" s="53" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="Q80" s="53" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="196" x14ac:dyDescent="0.2">
@@ -8515,7 +8513,7 @@
       <c r="K84" s="16"/>
       <c r="L84" s="16"/>
       <c r="M84" s="52" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="N84" s="53" t="s">
         <v>969</v>
@@ -10120,7 +10118,7 @@
       </c>
       <c r="L117" s="16"/>
       <c r="M117" s="15" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="N117" s="14">
         <v>20</v>
@@ -12788,16 +12786,16 @@
         <v>925</v>
       </c>
       <c r="N172" s="51" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O172" s="51" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="P172" s="51" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="Q172" s="51" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="R172" s="51"/>
     </row>
@@ -12831,19 +12829,19 @@
       <c r="K173" s="16"/>
       <c r="L173" s="16"/>
       <c r="M173" s="52" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="N173" s="50" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="O173" s="50" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="P173" s="50" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="Q173" s="50" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.2">
@@ -12879,16 +12877,16 @@
         <v>926</v>
       </c>
       <c r="N174" s="50" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="O174" s="50" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="P174" s="50" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Q174" s="50" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.2">
@@ -12969,16 +12967,16 @@
         <v>932</v>
       </c>
       <c r="N176" s="54" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="O176" s="54" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="P176" s="54" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="Q176" s="54" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.2">
@@ -13059,16 +13057,16 @@
         <v>938</v>
       </c>
       <c r="N178" s="53" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O178" s="53" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="P178" s="53" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="Q178" s="53" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.2">
@@ -13281,19 +13279,19 @@
       <c r="K183" s="16"/>
       <c r="L183" s="16"/>
       <c r="M183" s="53" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="N183" s="53" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O183" s="53" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="P183" s="53" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="Q183" s="53" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
@@ -14158,16 +14156,16 @@
         <v>536</v>
       </c>
       <c r="N203" s="10" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="O203" s="39" t="s">
         <v>786</v>
       </c>
       <c r="P203" s="39" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Q203" s="10" t="s">
         <v>1030</v>
-      </c>
-      <c r="Q203" s="10" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
@@ -14518,16 +14516,16 @@
         <v>957</v>
       </c>
       <c r="N211" s="54" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="O211" s="54" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="P211" s="54" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Q211" s="54" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.2">
@@ -15427,16 +15425,16 @@
         <v>570</v>
       </c>
       <c r="N232" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="O232" s="10" t="s">
         <v>1034</v>
       </c>
-      <c r="O232" s="10" t="s">
+      <c r="P232" s="10" t="s">
         <v>1035</v>
       </c>
-      <c r="P232" s="10" t="s">
+      <c r="Q232" s="10" t="s">
         <v>1036</v>
-      </c>
-      <c r="Q232" s="10" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="233" spans="1:17" ht="64" x14ac:dyDescent="0.2">
@@ -15697,16 +15695,16 @@
         <v>573</v>
       </c>
       <c r="N238" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="O238" s="10" t="s">
         <v>1038</v>
       </c>
-      <c r="O238" s="10" t="s">
+      <c r="P238" s="10" t="s">
         <v>1039</v>
       </c>
-      <c r="P238" s="10" t="s">
+      <c r="Q238" s="10" t="s">
         <v>1040</v>
-      </c>
-      <c r="Q238" s="10" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="239" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -16096,10 +16094,10 @@
         <v>784</v>
       </c>
       <c r="P247" s="10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="Q247" s="10" t="s">
         <v>1032</v>
-      </c>
-      <c r="Q247" s="10" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.2">

--- a/mathematics/MathItems.xlsx
+++ b/mathematics/MathItems.xlsx
@@ -676,10 +676,6 @@
   <si>
     <t>Standard: 10.P.6 - Solve equations and inequalities including those involving absolute value of linear expressions (e.g., |x - 2| &gt; 5) and apply to the solution of problems.  (AI.P.10) 
 Standard: CCSS.Math.Content.HSA-CED.A.3 - Represent constraints by equations or inequalities, and by systems of equations and/or inequalities, and interpret solutions as viable or non-viable options in a modeling context. For example, represent inequalities describing nutritional and cost constraints on combinations of different foods.*</t>
-  </si>
-  <si>
-    <t>The sum of the lengths of any two sides of a triangle must be greater than the length of the remaining side.
-The lengths of two sides of a triangle are 8 inches and 13 inches. Which of the following represents x, the possible length in inches of the remaining side of the triangle?</t>
   </si>
   <si>
     <t>Standard: 10.N.2 - Simplify numerical expressions, including those involving positive integer exponents or the absolute value, e.g., 3(24 - 1) = 45, 4|3 - 5| + 6 = 14; apply such simplifications in the solution of problems. (AI.N.2) 
@@ -2468,12 +2464,6 @@
     </r>
   </si>
   <si>
-    <t>Wyatt owns a food truck. He offers a selection of 8 types of sandwiches and 4 types of tacos.&lt;br/&gt;
-He will increase his selection of sandwiches by 1 per month.&lt;br/&gt;
-He will increase his selection of tacos by 2 per month.&lt;br/&gt;
-In how many months will Wyatt offer an equal number of sandwich and taco selections?</t>
-  </si>
-  <si>
     <t>A geometric sequence with its first term missing is shown below.&lt;br/&gt;
   ? ,    2,    8,    32, . . .&lt;br/&gt;
 What is the first term in the sequence?</t>
@@ -2485,12 +2475,6 @@
     <t>In the diagram below, \( \triangle PQR \simeq   \triangle STU \). &lt;br/&gt;&lt;img src='MA-2016-06-27.png'&gt;&lt;br/&gt;  Which of the following equations must be true?</t>
   </si>
   <si>
-    <t>Nancy, Bryan, and Jamie combined their money to purchase a laptop. Together they paid a total of $490 for the laptop, including tax.&lt;br/&gt;
-Nancy paid $50 more than Bryan paid.&lt;br/&gt;
-Bryan paid twice as much as Jamie paid.&lt;br/&gt;
-How much did Nancy pay?</t>
-  </si>
-  <si>
     <t>Grace wants to estimate the percentage of students at her school who like yogurt. She will survey a random sample of 30 students from the school’s population of 500 students.&lt;br/&gt;
 Which of the following actions would best improve the validity of Grace’s estimate?</t>
   </si>
@@ -2581,22 +2565,10 @@
     <t>A water tank in the shape of a right circular cylinder has a height of 40 feet and a radius of 15 feet, as shown in the diagram below. &lt;br/&gt;&lt;img src='MA-2015-06-25.png'&gt;&lt;br/&gt; Based on the diagram, what is the volume, in cubic feet, of the water tank?</t>
   </si>
   <si>
-    <t>Two families buy refreshments at a concession stand.&lt;br/&gt;
-Each drink costs &lt;i&gt;d&lt;/i&gt; dollars.&lt;br/&gt;
-Each snack costs &lt;i&gt;s&lt;/i&gt; dollars.&lt;br/&gt;
-The Blake family buys 3 drinks and 2 snacks for $12.&lt;br/&gt;
-The Reese family buys 2 drinks and 4 snacks for $16.&lt;br/&gt;
-What is the cost of one drink at the concession stand?</t>
-  </si>
-  <si>
     <t>The first term in a sequence is 24. Each term in the sequence after the first term is equal to half the previous term, plus 4.&lt;br/&gt;
 Which of the following statements best describes the terms in the sequence as it progresses?</t>
   </si>
   <si>
-    <t>Brandon plans to rent a truck. The cost to rent the truck is $30 for the first four hours plus $10 for each additional hour. He can spend no more than $60.&lt;br/&gt;
-What is the maximum number of hours for which Brandon can rent the truck?</t>
-  </si>
-  <si>
     <t>A green can and a silver can are each in the shape of a right circular cylinder. The cans have the same radius, but the height of the green can is 3 times the height of the silver can.&lt;br/&gt;
 What is the ratio of the volume of the green can to the volume of the silver can?</t>
   </si>
@@ -2666,10 +2638,6 @@
 Which of the following estimates is closest to the amount of sales tax Jaya will pay for the car?</t>
   </si>
   <si>
-    <t>Hooke’s law states that the force needed to stretch a spring varies directly with the length the spring is stretched.&lt;br/&gt;
-A force of 20 newtons will stretch a spring 5 centimeters. What is the total number of centimeters that a force of 60 newtons will stretch the same spring?</t>
-  </si>
-  <si>
     <t>A right circular cone and some of its measurements are shown in the diagram below.&lt;br/&gt; &lt;img src='MA-2014-06-23.png'&gt;&lt;br/&gt; Based on the diagram, which of the following is closest to the volume of the cone?</t>
   </si>
   <si>
@@ -2693,10 +2661,6 @@
   <si>
     <t>Tomás made a scatterplot of data he collected. He determined that the y-intercept of the line of best fit for the scatterplot is negative.&lt;br/&gt;
 Which of the following could be the scatterplot Tomás made?</t>
-  </si>
-  <si>
-    <t>A student is knitting sweaters to give as gifts. The time it takes the student to knit each sweater is 10% less than the time it took the student to knit each previous sweater. It took the student 14 hours to knit the first sweater.&lt;br/&gt;
-Which of the following is closest to the time it will take the student to knit the third sweater?</t>
   </si>
   <si>
     <t>The scatterplot below shows the relationship between the temperature, in degrees Fahrenheit, at a football game and the number of cups of hot chocolate sold during the game. &lt;br/&gt;&lt;img src='MA-2014-06-40.png'&gt;</t>
@@ -2771,10 +2735,6 @@
 Which of the following is the greatest possible median number of miles driven between oil changes?</t>
   </si>
   <si>
-    <t>Brooke rides her bicycle each day. On Monday, she rode the length of Maple Street in 0.4 hour at a constant speed of 15 miles per hour.&lt;br/&gt;
-What is Brooke’s constant speed if she rides the length of Maple Street on Tuesday in 0.3 hour?</t>
-  </si>
-  <si>
     <t>Suzanna surveyed some students to find out if they would attend the homecoming game. The table below shows the students’ responses.&lt;br/&gt;
  &lt;img src='MA-2013-06-30.png'&gt;&lt;br/&gt;
 Which of the following circle graphs &lt;b&gt;best&lt;/b&gt; represents the information in the table?</t>
@@ -2787,10 +2747,6 @@
   <si>
     <t>Which of the following is equivalent to the expression below for all positive values of &lt;i&gt;x&lt;/i&gt;?
 $$ \frac{( x^{2} + x -6)}{(x^{2} + 5x +6)} $$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The distance traveled by a student walking at a constant rate varies directly with the amount of time the student walks. The student walked \( 1 \frac{2}{3} \) miles in \( \frac{2}{3} \) hour.&lt;br/&gt;
-Which of the following represents the relationship between d, the distance in miles walked by the student, and t, the amount of time in hours the student walked? </t>
   </si>
   <si>
     <t>The table below shows the distances jumped by 6 Olympic gold medalists.&lt;br/&gt;
@@ -3007,10 +2963,6 @@
 What is the greatest number of bleacher seat tickets that can be bought for the cost of 12 lower deck seat tickets?</t>
   </si>
   <si>
-    <t>The amount of time it takes mail carriers to deliver the mail in one town is inversely proportional to the number of mail carriers delivering the mail. With 8 mail carriers, it takes 6 hours to deliver the town’s mail.&lt;br/&gt;
-What is the number of hours it would take 4 mail carriers to deliver the town’s mail?</t>
-  </si>
-  <si>
     <t>A stage floor is composed of a rectangle and an isosceles trapezoid. The diagram below shows the stage floor and some of its dimensions.&lt;br/&gt;
 &lt;img src='MA-2011-06-36.png'&gt;&lt;br/&gt;
 What is the perimeter of the stage floor?</t>
@@ -3021,13 +2973,6 @@
 Which of the following proportions can be used to find x, the height in yards of the actual skyscraper?</t>
   </si>
   <si>
-    <t>Ken and Jerome went to the same electronics store. &lt;br/&gt;
-* Ken bought 2 video games and 1 DVD for a total of $105.&lt;br/&gt;
-* Jerome bought 1 video game and 4 DVDs for a total of $105.&lt;br/&gt;
-Each video game cost v dollars and each DVD cost d dollars.&lt;br/&gt;
-Which system of equations can be used to find the cost, in dollars, of each video game and each DVD at the store?</t>
-  </si>
-  <si>
     <t>\( m - 50 \)</t>
   </si>
   <si>
@@ -3658,9 +3603,6 @@
   </si>
   <si>
     <t>y = 3x + 22</t>
-  </si>
-  <si>
-    <t>The width of a rectangle is 4 less than half the length. If  \varphi represents the length, which equation could be used to find the width,  \omega?</t>
   </si>
   <si>
     <t>Which graph represents the solution of 2y + 6 &gt; 4x?</t>
@@ -3994,11 +3936,6 @@
     <t>Triangles &lt;i&gt;GHJ&lt;/i&gt; and &lt;i&gt;KLM&lt;/i&gt; are congruent. The triangles and some of their angle measures are shown in the diagram below.&lt;br/&gt;
 &lt;img src='MA-2013-06-36.png'&gt;&lt;br/&gt;
 Based on the angle measures in the diagram, what is \( m \angle JGH \)?</t>
-  </si>
-  <si>
-    <t>Mr. Thurman's lawn is rectangular and has a width of 92 feet and a length of 147 feet. He is going to cover his entire lawn with grass seed.&lt;br/&gt;
-One bag of grass seed costs $53.47. The grass seed in one bag will cover an area of approximately 5000 square feet.&lt;br/&gt;
-Which of the following estimates is closest to the total cost of the bags of grass seed Mr. Thurman will need to cover his lawn?</t>
   </si>
   <si>
     <t>Triangle &lt;i&gt;R'S'T'&lt;/i&gt; is shown on the coordinate grid below.&lt;br/&gt;
@@ -4010,6 +3947,45 @@
     <t>The diagram below shows a piece of paper that has been rolled to form a right circular tube.&lt;br/&gt;
 &lt;img src='MA-2011-06-28.png'&gt;&lt;br/&gt;
 Based on the dimensions in the diagram, which of the following is closest to the lateral surface area of the outside of the tube?</t>
+  </si>
+  <si>
+    <t>The amount of time it takes mail carriers to deliver the mail in one town is inversely proportional to the number of mail carriers delivering the mail. With 8 mail carriers, it takes 6 hours to deliver the town’s mail. What is the number of hours it would take 4 mail carriers to deliver the town’s mail?</t>
+  </si>
+  <si>
+    <t>Ken and Jerome went to the same electronics store. Ken bought 2 video games and 1 DVD for a total of $105. Jerome bought 1 video game and 4 DVDs for a total of $105. Each video game cost v dollars and each DVD cost d dollars. Which system of equations can be used to find the cost, in dollars, of each video game and each DVD at the store?</t>
+  </si>
+  <si>
+    <t>Mr. Thurman's lawn is rectangular and has a width of 92 feet and a length of 147 feet. He is going to cover his entire lawn with grass seed. One bag of grass seed costs $53.47. The grass seed in one bag will cover an area of approximately 5000 square feet. Which of the following estimates is closest to the total cost of the bags of grass seed Mr. Thurman will need to cover his lawn?</t>
+  </si>
+  <si>
+    <t>Brooke rides her bicycle each day. On Monday, she rode the length of Maple Street in 0.4 hour at a constant speed of 15 miles per hour. What is Brooke’s constant speed if she rides the length of Maple Street on Tuesday in 0.3 hour?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The distance traveled by a student walking at a constant rate varies directly with the amount of time the student walks. The student walked \( 1 \frac{2}{3} \) miles in \( \frac{2}{3} \) hour. Which of the following represents the relationship between d, the distance in miles walked by the student, and t, the amount of time in hours the student walked? </t>
+  </si>
+  <si>
+    <t>Hooke’s law states that the force needed to stretch a spring varies directly with the length the spring is stretched. A force of 20 newtons will stretch a spring 5 centimeters. What is the total number of centimeters that a force of 60 newtons will stretch the same spring?</t>
+  </si>
+  <si>
+    <t>A student is knitting sweaters to give as gifts. The time it takes the student to knit each sweater is 10% less than the time it took the student to knit each previous sweater. It took the student 14 hours to knit the first sweater. Which of the following is closest to the time it will take the student to knit the third sweater?</t>
+  </si>
+  <si>
+    <t>Two families buy refreshments at a concession stand. Each drink costs &lt;i&gt;d&lt;/i&gt; dollars. Each snack costs &lt;i&gt;s&lt;/i&gt; dollars. The Blake family buys 3 drinks and 2 snacks for $12. The Reese family buys 2 drinks and 4 snacks for $16. What is the cost of one drink at the concession stand?</t>
+  </si>
+  <si>
+    <t>Brandon plans to rent a truck. The cost to rent the truck is $30 for the first four hours plus $10 for each additional hour. He can spend no more than $60. What is the maximum number of hours for which Brandon can rent the truck?</t>
+  </si>
+  <si>
+    <t>The sum of the lengths of any two sides of a triangle must be greater than the length of the remaining side. The lengths of two sides of a triangle are 8 inches and 13 inches. Which of the following represents x, the possible length in inches of the remaining side of the triangle?</t>
+  </si>
+  <si>
+    <t>Wyatt owns a food truck. He offers a selection of 8 types of sandwiches and 4 types of tacos. He will increase his selection of sandwiches by 1 per month. He will increase his selection of tacos by 2 per month. In how many months will Wyatt offer an equal number of sandwich and taco selections?</t>
+  </si>
+  <si>
+    <t>Nancy, Bryan, and Jamie combined their money to purchase a laptop. Together they paid a total of $490 for the laptop, including tax. Nancy paid $50 more than Bryan paid. Bryan paid twice as much as Jamie paid. How much did Nancy pay?</t>
+  </si>
+  <si>
+    <t>The width of a rectangle is 4 less than half the length. If  \varphi represents the length, which equation could be used to find the width, \( \omega \)?</t>
   </si>
 </sst>
 </file>
@@ -4571,13 +4547,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:R256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="K157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="M181" sqref="M181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4619,13 +4596,13 @@
         <v>105</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>106</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>107</v>
@@ -4655,7 +4632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="79" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>186</v>
       </c>
@@ -4677,7 +4654,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="29"/>
       <c r="I2" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="16">
@@ -4685,22 +4662,22 @@
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="15" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="N2" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="66" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>186</v>
       </c>
@@ -4722,7 +4699,7 @@
       <c r="G3" s="14"/>
       <c r="H3" s="29"/>
       <c r="I3" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16">
@@ -4730,22 +4707,22 @@
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="53" x14ac:dyDescent="0.2">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>186</v>
       </c>
@@ -4767,7 +4744,7 @@
       <c r="G4" s="14"/>
       <c r="H4" s="29"/>
       <c r="I4" s="28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16">
@@ -4775,22 +4752,22 @@
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="15" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="144" x14ac:dyDescent="0.2">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>186</v>
       </c>
@@ -4812,7 +4789,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="29"/>
       <c r="I5" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16">
@@ -4820,7 +4797,7 @@
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="15" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="N5" s="25">
         <v>875</v>
@@ -4835,7 +4812,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>186</v>
       </c>
@@ -4857,7 +4834,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="29"/>
       <c r="I6" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16">
@@ -4865,22 +4842,22 @@
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="15" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="137" x14ac:dyDescent="0.2">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="137" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>186</v>
       </c>
@@ -4897,12 +4874,12 @@
         <v>13</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="29"/>
       <c r="I7" s="28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16">
@@ -4910,22 +4887,22 @@
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="15" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="N7" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="O7" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="P7" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="Q7" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="Q7" s="14" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="144" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>186</v>
       </c>
@@ -4947,7 +4924,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="29"/>
       <c r="I8" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16">
@@ -4955,7 +4932,7 @@
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="15" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="N8" s="25">
         <v>900</v>
@@ -4970,7 +4947,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="66" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>186</v>
       </c>
@@ -4992,7 +4969,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="29"/>
       <c r="I9" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16">
@@ -5000,7 +4977,7 @@
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="15" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="N9" s="14">
         <v>100</v>
@@ -5015,7 +4992,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="92" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>186</v>
       </c>
@@ -5032,12 +5009,12 @@
         <v>11</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="29"/>
       <c r="I10" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16">
@@ -5045,7 +5022,7 @@
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="15" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="N10" s="14">
         <v>-192</v>
@@ -5060,7 +5037,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>186</v>
       </c>
@@ -5082,7 +5059,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="29"/>
       <c r="I11" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="16">
@@ -5090,7 +5067,7 @@
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="15" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="N11" s="14">
         <v>-14</v>
@@ -5105,7 +5082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>186</v>
       </c>
@@ -5127,7 +5104,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="29"/>
       <c r="I12" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="16">
@@ -5135,22 +5112,22 @@
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="N12" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="O12" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="P12" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="Q12" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="Q12" s="14" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="163" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:17" ht="163" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>186</v>
       </c>
@@ -5172,7 +5149,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="29"/>
       <c r="I13" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="16">
@@ -5180,7 +5157,7 @@
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="15" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="N13" s="14">
         <v>3</v>
@@ -5195,7 +5172,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>186</v>
       </c>
@@ -5217,7 +5194,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="29"/>
       <c r="I14" s="28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="16">
@@ -5225,22 +5202,22 @@
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="15" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="Q14" s="14" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="144" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>186</v>
       </c>
@@ -5262,7 +5239,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="29"/>
       <c r="I15" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="16">
@@ -5270,7 +5247,7 @@
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="15" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="N15" s="25">
         <v>300</v>
@@ -5285,7 +5262,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="66" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>186</v>
       </c>
@@ -5302,12 +5279,12 @@
         <v>13</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="29"/>
       <c r="I16" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J16" s="16"/>
       <c r="K16" s="16">
@@ -5315,22 +5292,22 @@
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="15" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="N16" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="O16" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="O16" s="14" t="s">
+      <c r="P16" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="P16" s="14" t="s">
+      <c r="Q16" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="Q16" s="14" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>186</v>
       </c>
@@ -5347,12 +5324,12 @@
         <v>11</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="29"/>
       <c r="I17" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J17" s="16"/>
       <c r="K17" s="16">
@@ -5360,22 +5337,22 @@
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="15" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="N17" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="O17" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="O17" s="14" t="s">
+      <c r="P17" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="P17" s="14" t="s">
+      <c r="Q17" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="Q17" s="14" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="79" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>186</v>
       </c>
@@ -5397,7 +5374,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="29"/>
       <c r="I18" s="28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J18" s="16"/>
       <c r="K18" s="16">
@@ -5405,7 +5382,7 @@
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="15" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="N18" s="14">
         <v>3</v>
@@ -5420,7 +5397,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="144" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>186</v>
       </c>
@@ -5442,7 +5419,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="29"/>
       <c r="I19" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16">
@@ -5450,22 +5427,22 @@
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="15" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="N19" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="O19" s="14" t="s">
         <v>516</v>
       </c>
-      <c r="O19" s="14" t="s">
+      <c r="P19" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="P19" s="14" t="s">
+      <c r="Q19" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="Q19" s="15" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="168" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:17" ht="168" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>186</v>
       </c>
@@ -5486,10 +5463,10 @@
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I20" s="58" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="J20" s="59">
         <v>0.77</v>
@@ -5497,22 +5474,22 @@
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="52" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="N20" s="53" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="O20" s="53" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="P20" s="53" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="Q20" s="53" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="92" x14ac:dyDescent="0.2">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>186</v>
       </c>
@@ -5534,7 +5511,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="29"/>
       <c r="I21" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="16">
@@ -5542,22 +5519,22 @@
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="15" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="N21" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="O21" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="P21" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="P21" s="14" t="s">
+      <c r="Q21" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="Q21" s="14" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="66" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>186</v>
       </c>
@@ -5574,12 +5551,12 @@
         <v>13</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="29"/>
       <c r="I22" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J22" s="16"/>
       <c r="K22" s="16">
@@ -5587,22 +5564,22 @@
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="15" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="Q22" s="14" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="53" x14ac:dyDescent="0.2">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>186</v>
       </c>
@@ -5624,7 +5601,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="29"/>
       <c r="I23" s="28" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="16">
@@ -5632,7 +5609,7 @@
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="15" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="N23" s="14">
         <v>98</v>
@@ -5647,7 +5624,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="53" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>186</v>
       </c>
@@ -5669,7 +5646,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="29"/>
       <c r="I24" s="28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="16">
@@ -5677,22 +5654,22 @@
       </c>
       <c r="L24" s="16"/>
       <c r="M24" s="15" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="Q24" s="14" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="144" x14ac:dyDescent="0.2">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>186</v>
       </c>
@@ -5714,7 +5691,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="29"/>
       <c r="I25" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J25" s="16"/>
       <c r="K25" s="16">
@@ -5722,7 +5699,7 @@
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="15" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="N25" s="14">
         <v>22</v>
@@ -5754,16 +5731,16 @@
         <v>4</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J26" s="16"/>
       <c r="K26" s="16">
@@ -5771,7 +5748,7 @@
       </c>
       <c r="L26" s="16"/>
       <c r="M26" s="15" t="s">
-        <v>726</v>
+        <v>1035</v>
       </c>
       <c r="N26" s="14">
         <v>2</v>
@@ -5786,7 +5763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="66" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>186</v>
       </c>
@@ -5808,7 +5785,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="29"/>
       <c r="I27" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J27" s="16"/>
       <c r="K27" s="16">
@@ -5816,22 +5793,22 @@
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="15" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="N27" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="O27" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="O27" s="14" t="s">
+      <c r="P27" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="P27" s="14" t="s">
+      <c r="Q27" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="Q27" s="14" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>186</v>
       </c>
@@ -5848,12 +5825,12 @@
         <v>11</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="29"/>
       <c r="I28" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J28" s="16"/>
       <c r="K28" s="16">
@@ -5861,19 +5838,19 @@
       </c>
       <c r="L28" s="16"/>
       <c r="M28" s="15" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="Q28" s="14" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="105" x14ac:dyDescent="0.2">
@@ -5893,16 +5870,16 @@
         <v>1</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J29" s="16"/>
       <c r="K29" s="16">
@@ -5910,22 +5887,22 @@
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="15" t="s">
-        <v>729</v>
+        <v>1036</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="Q29" s="15" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="163" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="163" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>186</v>
       </c>
@@ -5947,7 +5924,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="29"/>
       <c r="I30" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J30" s="16"/>
       <c r="K30" s="16">
@@ -5955,22 +5932,22 @@
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="15" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="Q30" s="14" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="144" x14ac:dyDescent="0.2">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>186</v>
       </c>
@@ -5990,10 +5967,10 @@
         <v>15</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J31" s="16"/>
       <c r="K31" s="16">
@@ -6001,7 +5978,7 @@
       </c>
       <c r="L31" s="16"/>
       <c r="M31" s="15" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="N31" s="14">
         <v>18</v>
@@ -6016,7 +5993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>186</v>
       </c>
@@ -6033,16 +6010,16 @@
         <v>11</v>
       </c>
       <c r="F32" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>911</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="I32" s="28" t="s">
         <v>424</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>922</v>
-      </c>
-      <c r="H32" s="35" t="s">
-        <v>533</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>425</v>
       </c>
       <c r="J32" s="16"/>
       <c r="K32" s="16">
@@ -6050,22 +6027,22 @@
       </c>
       <c r="L32" s="16"/>
       <c r="M32" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="P32" s="14" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="Q32" s="14" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="66" x14ac:dyDescent="0.2">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>186</v>
       </c>
@@ -6085,10 +6062,10 @@
         <v>18</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J33" s="16"/>
       <c r="K33" s="16">
@@ -6096,7 +6073,7 @@
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="15" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="N33" s="25">
         <v>100</v>
@@ -6111,7 +6088,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>186</v>
       </c>
@@ -6131,10 +6108,10 @@
         <v>18</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J34" s="16"/>
       <c r="K34" s="16">
@@ -6142,7 +6119,7 @@
       </c>
       <c r="L34" s="16"/>
       <c r="M34" s="15" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="N34" s="14">
         <v>10</v>
@@ -6157,7 +6134,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="79" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>186</v>
       </c>
@@ -6174,13 +6151,13 @@
         <v>11</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J35" s="16"/>
       <c r="K35" s="16">
@@ -6188,22 +6165,22 @@
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="15" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N35" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="O35" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="O35" s="14" t="s">
+      <c r="P35" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="P35" s="14" t="s">
+      <c r="Q35" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="Q35" s="14" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="53" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>186</v>
       </c>
@@ -6223,10 +6200,10 @@
         <v>15</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J36" s="16"/>
       <c r="K36" s="16">
@@ -6234,22 +6211,22 @@
       </c>
       <c r="L36" s="16"/>
       <c r="M36" s="15" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="N36" s="14" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="P36" s="14" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="Q36" s="14" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="105" x14ac:dyDescent="0.2">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>186</v>
       </c>
@@ -6266,12 +6243,12 @@
         <v>4</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="29"/>
       <c r="I37" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J37" s="16"/>
       <c r="K37" s="16">
@@ -6279,22 +6256,22 @@
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="15" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="N37" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="O37" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="O37" s="14" t="s">
+      <c r="P37" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="P37" s="14" t="s">
+      <c r="Q37" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="Q37" s="14" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>186</v>
       </c>
@@ -6314,10 +6291,10 @@
         <v>18</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J38" s="16"/>
       <c r="K38" s="16">
@@ -6325,7 +6302,7 @@
       </c>
       <c r="L38" s="16"/>
       <c r="M38" s="15" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="N38" s="14">
         <v>6.4</v>
@@ -6340,7 +6317,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="66" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>186</v>
       </c>
@@ -6360,10 +6337,10 @@
         <v>18</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J39" s="16"/>
       <c r="K39" s="16">
@@ -6371,7 +6348,7 @@
       </c>
       <c r="L39" s="16"/>
       <c r="M39" s="15" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N39" s="14">
         <v>20</v>
@@ -6386,7 +6363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="92" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>186</v>
       </c>
@@ -6403,16 +6380,16 @@
         <v>13</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J40" s="16"/>
       <c r="K40" s="16">
@@ -6420,22 +6397,22 @@
       </c>
       <c r="L40" s="16"/>
       <c r="M40" s="15" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N40" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="O40" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="O40" s="14" t="s">
+      <c r="P40" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="P40" s="14" t="s">
+      <c r="Q40" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="Q40" s="14" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="163" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:17" ht="163" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>186</v>
       </c>
@@ -6455,10 +6432,10 @@
         <v>18</v>
       </c>
       <c r="H41" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J41" s="16"/>
       <c r="K41" s="16">
@@ -6466,22 +6443,22 @@
       </c>
       <c r="L41" s="16"/>
       <c r="M41" s="15" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="O41" s="14">
         <v>8</v>
       </c>
       <c r="P41" s="14" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="Q41" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>186</v>
       </c>
@@ -6498,13 +6475,13 @@
         <v>1</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I42" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J42" s="16"/>
       <c r="K42" s="16">
@@ -6512,22 +6489,22 @@
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="15" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="N42" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="O42" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="O42" s="14" t="s">
+      <c r="P42" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="P42" s="14" t="s">
+      <c r="Q42" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="Q42" s="14" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="137" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:17" ht="137" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>186</v>
       </c>
@@ -6544,13 +6521,13 @@
         <v>1</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J43" s="16"/>
       <c r="K43" s="16">
@@ -6558,22 +6535,22 @@
       </c>
       <c r="L43" s="16"/>
       <c r="M43" s="15" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="N43" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="O43" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="O43" s="14" t="s">
+      <c r="P43" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="P43" s="14" t="s">
+      <c r="Q43" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="Q43" s="14" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="79" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>186</v>
       </c>
@@ -6593,10 +6570,10 @@
         <v>9</v>
       </c>
       <c r="H44" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J44" s="16"/>
       <c r="K44" s="16">
@@ -6604,22 +6581,22 @@
       </c>
       <c r="L44" s="16"/>
       <c r="M44" s="15" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="N44" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="O44" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="O44" s="14" t="s">
+      <c r="P44" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="P44" s="14" t="s">
+      <c r="Q44" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="Q44" s="14" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="79" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>186</v>
       </c>
@@ -6639,10 +6616,10 @@
         <v>27</v>
       </c>
       <c r="H45" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J45" s="16"/>
       <c r="K45" s="16">
@@ -6650,22 +6627,22 @@
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="15" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="N45" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="O45" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="O45" s="14" t="s">
+      <c r="P45" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="P45" s="14" t="s">
+      <c r="Q45" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="Q45" s="14" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="79" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>186</v>
       </c>
@@ -6687,7 +6664,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="29"/>
       <c r="I46" s="28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J46" s="16"/>
       <c r="K46" s="16">
@@ -6695,22 +6672,22 @@
       </c>
       <c r="L46" s="16"/>
       <c r="M46" s="15" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="N46" s="14" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="P46" s="14" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="Q46" s="14" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="144" x14ac:dyDescent="0.2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>186</v>
       </c>
@@ -6732,7 +6709,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="29"/>
       <c r="I47" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J47" s="16"/>
       <c r="K47" s="16">
@@ -6740,7 +6717,7 @@
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="15" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="N47" s="14">
         <v>40</v>
@@ -6755,7 +6732,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="53" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>186</v>
       </c>
@@ -6777,7 +6754,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="29"/>
       <c r="I48" s="28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J48" s="16"/>
       <c r="K48" s="16">
@@ -6785,22 +6762,22 @@
       </c>
       <c r="L48" s="16"/>
       <c r="M48" s="15" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="N48" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="O48" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="O48" s="14" t="s">
+      <c r="P48" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="P48" s="14" t="s">
+      <c r="Q48" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="Q48" s="14" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="66" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>186</v>
       </c>
@@ -6822,7 +6799,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="29"/>
       <c r="I49" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J49" s="16"/>
       <c r="K49" s="16">
@@ -6830,22 +6807,22 @@
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="15" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="N49" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="O49" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="O49" s="14" t="s">
+      <c r="P49" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="P49" s="14" t="s">
+      <c r="Q49" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="Q49" s="14" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="66" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>186</v>
       </c>
@@ -6867,7 +6844,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="29"/>
       <c r="I50" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J50" s="16"/>
       <c r="K50" s="16">
@@ -6875,22 +6852,22 @@
       </c>
       <c r="L50" s="16"/>
       <c r="M50" s="15" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="N50" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="O50" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="O50" s="14" t="s">
+      <c r="P50" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="P50" s="14" t="s">
+      <c r="Q50" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="Q50" s="14" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>186</v>
       </c>
@@ -6907,12 +6884,12 @@
         <v>11</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="29"/>
       <c r="I51" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J51" s="16"/>
       <c r="K51" s="16">
@@ -6920,22 +6897,22 @@
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="15" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N51" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="O51" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="O51" s="14" t="s">
+      <c r="P51" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="P51" s="14" t="s">
+      <c r="Q51" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="Q51" s="14" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="79" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
         <v>186</v>
       </c>
@@ -6957,7 +6934,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="29"/>
       <c r="I52" s="28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J52" s="16"/>
       <c r="K52" s="16">
@@ -6965,22 +6942,22 @@
       </c>
       <c r="L52" s="16"/>
       <c r="M52" s="15" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="N52" s="14" t="s">
         <v>154</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P52" s="14" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="Q52" s="14" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="53" x14ac:dyDescent="0.2">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>186</v>
       </c>
@@ -7002,7 +6979,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="29"/>
       <c r="I53" s="28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J53" s="16"/>
       <c r="K53" s="16">
@@ -7010,7 +6987,7 @@
       </c>
       <c r="L53" s="16"/>
       <c r="M53" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N53" s="14">
         <v>1</v>
@@ -7025,7 +7002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="53" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>186</v>
       </c>
@@ -7047,7 +7024,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="29"/>
       <c r="I54" s="28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J54" s="16"/>
       <c r="K54" s="16">
@@ -7055,22 +7032,22 @@
       </c>
       <c r="L54" s="16"/>
       <c r="M54" s="15" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="N54" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="O54" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="O54" s="14" t="s">
+      <c r="P54" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="P54" s="14" t="s">
+      <c r="Q54" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="Q54" s="14" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="53" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>186</v>
       </c>
@@ -7092,7 +7069,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="29"/>
       <c r="I55" s="28" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J55" s="16"/>
       <c r="K55" s="16">
@@ -7100,22 +7077,22 @@
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="15" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="N55" s="14" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P55" s="14" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="Q55" s="14" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="202" x14ac:dyDescent="0.2">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="202" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
         <v>186</v>
       </c>
@@ -7135,13 +7112,13 @@
         <v>193</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H56" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I56" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J56" s="16"/>
       <c r="K56" s="16">
@@ -7149,22 +7126,22 @@
       </c>
       <c r="L56" s="16"/>
       <c r="M56" s="15" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="N56" s="14" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="P56" s="14" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="Q56" s="14" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="224" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>186</v>
       </c>
@@ -7184,13 +7161,13 @@
         <v>18</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H57" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I57" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J57" s="16"/>
       <c r="K57" s="16">
@@ -7198,22 +7175,22 @@
       </c>
       <c r="L57" s="16"/>
       <c r="M57" s="15" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="N57" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="O57" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="O57" s="14" t="s">
+      <c r="P57" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="P57" s="14" t="s">
+      <c r="Q57" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="Q57" s="14" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="367" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:17" ht="367" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>186</v>
       </c>
@@ -7233,13 +7210,13 @@
         <v>18</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H58" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I58" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J58" s="16"/>
       <c r="K58" s="16">
@@ -7247,7 +7224,7 @@
       </c>
       <c r="L58" s="16"/>
       <c r="M58" s="15" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="N58" s="14">
         <v>38</v>
@@ -7262,7 +7239,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>186</v>
       </c>
@@ -7282,13 +7259,13 @@
         <v>193</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H59" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J59" s="16"/>
       <c r="K59" s="16">
@@ -7296,7 +7273,7 @@
       </c>
       <c r="L59" s="16"/>
       <c r="M59" s="15" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="N59" s="14">
         <v>2</v>
@@ -7311,7 +7288,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>186</v>
       </c>
@@ -7331,10 +7308,10 @@
         <v>15</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H60" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I60" s="15" t="s">
         <v>195</v>
@@ -7345,22 +7322,22 @@
       </c>
       <c r="L60" s="16"/>
       <c r="M60" s="15" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="N60" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="O60" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="O60" s="14" t="s">
+      <c r="P60" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="P60" s="14" t="s">
+      <c r="Q60" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="Q60" s="14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="209" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:17" ht="209" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>186</v>
       </c>
@@ -7380,13 +7357,13 @@
         <v>15</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H61" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J61" s="16"/>
       <c r="K61" s="16">
@@ -7394,22 +7371,22 @@
       </c>
       <c r="L61" s="16"/>
       <c r="M61" s="15" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="N61" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="O61" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="O61" s="14" t="s">
+      <c r="P61" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="P61" s="14" t="s">
+      <c r="Q61" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="Q61" s="14" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:17" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
         <v>186</v>
       </c>
@@ -7439,22 +7416,22 @@
       </c>
       <c r="L62" s="16"/>
       <c r="M62" s="15" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="N62" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="O62" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="O62" s="14" t="s">
+      <c r="P62" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="P62" s="14" t="s">
+      <c r="Q62" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="Q62" s="14" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="185" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:17" ht="185" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
         <v>186</v>
       </c>
@@ -7474,13 +7451,13 @@
         <v>18</v>
       </c>
       <c r="G63" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="H63" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="H63" s="35" t="s">
-        <v>532</v>
-      </c>
       <c r="I63" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J63" s="16"/>
       <c r="K63" s="16">
@@ -7488,22 +7465,22 @@
       </c>
       <c r="L63" s="16"/>
       <c r="M63" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="N63" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="N63" s="14" t="s">
+      <c r="O63" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="O63" s="14" t="s">
+      <c r="P63" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="P63" s="14" t="s">
+      <c r="Q63" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="Q63" s="14" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="222" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
         <v>186</v>
       </c>
@@ -7523,13 +7500,13 @@
         <v>18</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H64" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J64" s="16"/>
       <c r="K64" s="16">
@@ -7537,22 +7514,22 @@
       </c>
       <c r="L64" s="16"/>
       <c r="M64" s="15" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="N64" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O64" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P64" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q64" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="183" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="183" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
         <v>186</v>
       </c>
@@ -7572,13 +7549,13 @@
         <v>15</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I65" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J65" s="16"/>
       <c r="K65" s="16">
@@ -7586,7 +7563,7 @@
       </c>
       <c r="L65" s="16"/>
       <c r="M65" s="15" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="N65" s="14">
         <v>50</v>
@@ -7601,7 +7578,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="144" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
         <v>186</v>
       </c>
@@ -7621,13 +7598,13 @@
         <v>15</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H66" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I66" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J66" s="16"/>
       <c r="K66" s="16">
@@ -7635,7 +7612,7 @@
       </c>
       <c r="L66" s="16"/>
       <c r="M66" s="15" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="N66" s="14">
         <v>40</v>
@@ -7670,10 +7647,10 @@
         <v>18</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H67" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I67" s="15" t="s">
         <v>203</v>
@@ -7684,7 +7661,7 @@
       </c>
       <c r="L67" s="16"/>
       <c r="M67" s="15" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="N67" s="25">
         <v>100</v>
@@ -7699,7 +7676,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
         <v>186</v>
       </c>
@@ -7719,10 +7696,10 @@
         <v>193</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H68" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I68" s="15" t="s">
         <v>201</v>
@@ -7733,7 +7710,7 @@
       </c>
       <c r="L68" s="16"/>
       <c r="M68" s="15" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="N68" s="14">
         <v>2</v>
@@ -7748,7 +7725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="157" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
         <v>186</v>
       </c>
@@ -7771,10 +7748,10 @@
         <v>27</v>
       </c>
       <c r="H69" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J69" s="16"/>
       <c r="K69" s="16">
@@ -7782,22 +7759,22 @@
       </c>
       <c r="L69" s="16"/>
       <c r="M69" s="15" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="N69" s="14" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="P69" s="14" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="Q69" s="14" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" ht="157" x14ac:dyDescent="0.2">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
         <v>186</v>
       </c>
@@ -7817,13 +7794,13 @@
         <v>193</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H70" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J70" s="16"/>
       <c r="K70" s="16">
@@ -7831,22 +7808,22 @@
       </c>
       <c r="L70" s="16"/>
       <c r="M70" s="15" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="N70" s="14" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="P70" s="14" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="Q70" s="14" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" ht="183" x14ac:dyDescent="0.2">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="183" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
         <v>186</v>
       </c>
@@ -7866,13 +7843,13 @@
         <v>15</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H71" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J71" s="16"/>
       <c r="K71" s="16">
@@ -7880,22 +7857,22 @@
       </c>
       <c r="L71" s="16"/>
       <c r="M71" s="15" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="N71" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="O71" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="O71" s="14" t="s">
+      <c r="P71" s="15" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q71" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="P71" s="15" t="s">
-        <v>858</v>
-      </c>
-      <c r="Q71" s="15" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
         <v>186</v>
       </c>
@@ -7915,13 +7892,13 @@
         <v>193</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H72" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J72" s="16"/>
       <c r="K72" s="16">
@@ -7929,22 +7906,22 @@
       </c>
       <c r="L72" s="16"/>
       <c r="M72" s="15" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="N72" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="O72" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="O72" s="14" t="s">
+      <c r="P72" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="P72" s="14" t="s">
+      <c r="Q72" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="Q72" s="14" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" ht="196" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>186</v>
       </c>
@@ -7967,10 +7944,10 @@
         <v>27</v>
       </c>
       <c r="H73" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I73" s="58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J73" s="59">
         <v>0.73</v>
@@ -7978,22 +7955,22 @@
       <c r="K73" s="16"/>
       <c r="L73" s="16"/>
       <c r="M73" s="60" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="N73" s="53" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="O73" s="53" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="P73" s="53" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="Q73" s="53" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" ht="235" x14ac:dyDescent="0.2">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="235" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
         <v>186</v>
       </c>
@@ -8013,13 +7990,13 @@
         <v>15</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H74" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I74" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J74" s="16"/>
       <c r="K74" s="16">
@@ -8027,7 +8004,7 @@
       </c>
       <c r="L74" s="16"/>
       <c r="M74" s="15" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="N74" s="23">
         <v>10000</v>
@@ -8062,13 +8039,13 @@
         <v>193</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H75" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J75" s="16"/>
       <c r="K75" s="16">
@@ -8076,22 +8053,22 @@
       </c>
       <c r="L75" s="16"/>
       <c r="M75" s="15" t="s">
-        <v>675</v>
+        <v>1038</v>
       </c>
       <c r="N75" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="O75" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="O75" s="14" t="s">
+      <c r="P75" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="P75" s="14" t="s">
+      <c r="Q75" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="Q75" s="14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" ht="196" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
         <v>186</v>
       </c>
@@ -8111,13 +8088,13 @@
         <v>15</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H76" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I76" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J76" s="16"/>
       <c r="K76" s="16">
@@ -8125,22 +8102,22 @@
       </c>
       <c r="L76" s="16"/>
       <c r="M76" s="15" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="N76" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="O76" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="O76" s="14" t="s">
+      <c r="P76" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="P76" s="14" t="s">
+      <c r="Q76" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="Q76" s="14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" ht="196" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>186</v>
       </c>
@@ -8163,10 +8140,10 @@
         <v>27</v>
       </c>
       <c r="H77" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I77" s="58" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="J77" s="59">
         <v>0.7</v>
@@ -8174,22 +8151,22 @@
       <c r="K77" s="16"/>
       <c r="L77" s="16"/>
       <c r="M77" s="52" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="N77" s="53" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="O77" s="53" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="P77" s="53" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="Q77" s="53" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" ht="126" x14ac:dyDescent="0.2">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="126" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>186</v>
       </c>
@@ -8211,7 +8188,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="29"/>
       <c r="I78" s="58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J78" s="16"/>
       <c r="K78" s="16">
@@ -8219,22 +8196,22 @@
       </c>
       <c r="L78" s="16"/>
       <c r="M78" s="15" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="N78" s="14" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="O78" s="14" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="P78" s="14" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="Q78" s="14" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" ht="112" x14ac:dyDescent="0.2">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
         <v>186</v>
       </c>
@@ -8254,13 +8231,13 @@
         <v>27</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H79" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I79" s="58" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="J79" s="16"/>
       <c r="K79" s="16">
@@ -8268,22 +8245,22 @@
       </c>
       <c r="L79" s="16"/>
       <c r="M79" s="15" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="N79" s="14">
         <v>-1</v>
       </c>
       <c r="O79" s="14" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="P79" s="14" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="Q79" s="14" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" ht="126" x14ac:dyDescent="0.2">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="126" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
         <v>186</v>
       </c>
@@ -8306,10 +8283,10 @@
         <v>27</v>
       </c>
       <c r="H80" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I80" s="58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J80" s="61">
         <v>0.7</v>
@@ -8317,19 +8294,19 @@
       <c r="K80" s="16"/>
       <c r="L80" s="16"/>
       <c r="M80" s="52" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="N80" s="53" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="O80" s="53" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="P80" s="53" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="Q80" s="53" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="196" x14ac:dyDescent="0.2">
@@ -8352,13 +8329,13 @@
         <v>193</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H81" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I81" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J81" s="63"/>
       <c r="K81" s="16">
@@ -8366,22 +8343,22 @@
       </c>
       <c r="L81" s="16"/>
       <c r="M81" s="15" t="s">
-        <v>679</v>
+        <v>1039</v>
       </c>
       <c r="N81" s="14" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="O81" s="14" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="P81" s="14" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="Q81" s="14" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
         <v>186</v>
       </c>
@@ -8404,10 +8381,10 @@
         <v>27</v>
       </c>
       <c r="H82" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I82" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J82" s="16"/>
       <c r="K82" s="16">
@@ -8415,22 +8392,22 @@
       </c>
       <c r="L82" s="16"/>
       <c r="M82" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="N82" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="N82" s="14" t="s">
+      <c r="O82" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="O82" s="14" t="s">
+      <c r="P82" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="P82" s="14" t="s">
+      <c r="Q82" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="Q82" s="14" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" ht="183" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:17" ht="183" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
         <v>186</v>
       </c>
@@ -8450,13 +8427,13 @@
         <v>15</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H83" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I83" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J83" s="16"/>
       <c r="K83" s="16">
@@ -8464,22 +8441,22 @@
       </c>
       <c r="L83" s="16"/>
       <c r="M83" s="15" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="N83" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="O83" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="O83" s="14" t="s">
+      <c r="P83" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="P83" s="14" t="s">
+      <c r="Q83" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="Q83" s="14" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" ht="112" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:17" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
         <v>186</v>
       </c>
@@ -8502,10 +8479,10 @@
         <v>27</v>
       </c>
       <c r="H84" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I84" s="58" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="J84" s="59">
         <v>0.74</v>
@@ -8513,22 +8490,22 @@
       <c r="K84" s="16"/>
       <c r="L84" s="16"/>
       <c r="M84" s="52" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="N84" s="53" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="O84" s="53" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="P84" s="53" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="Q84" s="53" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" ht="352" x14ac:dyDescent="0.2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
         <v>186</v>
       </c>
@@ -8548,10 +8525,10 @@
         <v>18</v>
       </c>
       <c r="G85" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="H85" s="35" t="s">
         <v>531</v>
-      </c>
-      <c r="H85" s="35" t="s">
-        <v>532</v>
       </c>
       <c r="I85" s="15" t="s">
         <v>203</v>
@@ -8562,7 +8539,7 @@
       </c>
       <c r="L85" s="16"/>
       <c r="M85" s="15" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="N85" s="23">
         <v>3000</v>
@@ -8577,7 +8554,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
         <v>186</v>
       </c>
@@ -8597,13 +8574,13 @@
         <v>18</v>
       </c>
       <c r="G86" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="H86" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="H86" s="35" t="s">
-        <v>532</v>
-      </c>
       <c r="I86" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J86" s="16"/>
       <c r="K86" s="16">
@@ -8611,7 +8588,7 @@
       </c>
       <c r="L86" s="16"/>
       <c r="M86" s="15" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="N86" s="14">
         <v>-7</v>
@@ -8626,7 +8603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>186</v>
       </c>
@@ -8646,10 +8623,10 @@
         <v>193</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H87" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I87" s="15" t="s">
         <v>194</v>
@@ -8660,22 +8637,22 @@
       </c>
       <c r="L87" s="16"/>
       <c r="M87" s="15" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="N87" s="14" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="O87" s="14" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="P87" s="14" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="Q87" s="14" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" ht="222" x14ac:dyDescent="0.2">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
         <v>186</v>
       </c>
@@ -8695,13 +8672,13 @@
         <v>193</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H88" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J88" s="16"/>
       <c r="K88" s="16">
@@ -8709,22 +8686,22 @@
       </c>
       <c r="L88" s="16"/>
       <c r="M88" s="15" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="N88" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="O88" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="O88" s="14" t="s">
+      <c r="P88" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="P88" s="14" t="s">
+      <c r="Q88" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="Q88" s="14" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" ht="222" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
         <v>186</v>
       </c>
@@ -8744,10 +8721,10 @@
         <v>18</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H89" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I89" s="15" t="s">
         <v>187</v>
@@ -8758,7 +8735,7 @@
       </c>
       <c r="L89" s="16"/>
       <c r="M89" s="15" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="N89" s="14">
         <v>2</v>
@@ -8773,7 +8750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="196" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
         <v>186</v>
       </c>
@@ -8793,13 +8770,13 @@
         <v>15</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H90" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J90" s="16"/>
       <c r="K90" s="16">
@@ -8807,7 +8784,7 @@
       </c>
       <c r="L90" s="16"/>
       <c r="M90" s="15" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="N90" s="14">
         <v>2</v>
@@ -8822,7 +8799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
         <v>186</v>
       </c>
@@ -8842,13 +8819,13 @@
         <v>193</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H91" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I91" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J91" s="16"/>
       <c r="K91" s="16">
@@ -8856,22 +8833,22 @@
       </c>
       <c r="L91" s="16"/>
       <c r="M91" s="15" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="N91" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="O91" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="O91" s="14" t="s">
+      <c r="P91" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="P91" s="14" t="s">
+      <c r="Q91" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="Q91" s="14" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" ht="144" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>186</v>
       </c>
@@ -8894,10 +8871,10 @@
         <v>27</v>
       </c>
       <c r="H92" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J92" s="16"/>
       <c r="K92" s="16">
@@ -8905,22 +8882,22 @@
       </c>
       <c r="L92" s="16"/>
       <c r="M92" s="15" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="N92" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="O92" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="O92" s="14" t="s">
+      <c r="P92" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="P92" s="14" t="s">
+      <c r="Q92" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="Q92" s="14" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" ht="209" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:17" ht="209" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
         <v>186</v>
       </c>
@@ -8940,13 +8917,13 @@
         <v>15</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H93" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I93" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J93" s="16"/>
       <c r="K93" s="16">
@@ -8954,22 +8931,22 @@
       </c>
       <c r="L93" s="16"/>
       <c r="M93" s="15" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="N93" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="O93" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="O93" s="15" t="s">
+      <c r="P93" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="P93" s="26" t="s">
+      <c r="Q93" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="Q93" s="26" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
         <v>186</v>
       </c>
@@ -8989,13 +8966,13 @@
         <v>193</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H94" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I94" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J94" s="16"/>
       <c r="K94" s="16">
@@ -9003,22 +8980,22 @@
       </c>
       <c r="L94" s="16"/>
       <c r="M94" s="15" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="N94" s="14" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="O94" s="14" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="P94" s="14" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="Q94" s="14" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" ht="196" x14ac:dyDescent="0.2">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
         <v>186</v>
       </c>
@@ -9038,13 +9015,13 @@
         <v>18</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H95" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I95" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J95" s="16"/>
       <c r="K95" s="16">
@@ -9052,22 +9029,22 @@
       </c>
       <c r="L95" s="16"/>
       <c r="M95" s="26" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="N95" s="14" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="O95" s="14" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="P95" s="14" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="Q95" s="14" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" ht="157" x14ac:dyDescent="0.2">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>186</v>
       </c>
@@ -9090,10 +9067,10 @@
         <v>27</v>
       </c>
       <c r="H96" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I96" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J96" s="16"/>
       <c r="K96" s="16">
@@ -9101,22 +9078,22 @@
       </c>
       <c r="L96" s="16"/>
       <c r="M96" s="15" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="N96" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="O96" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="O96" s="14" t="s">
+      <c r="P96" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="P96" s="14" t="s">
+      <c r="Q96" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="Q96" s="14" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:17" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
         <v>186</v>
       </c>
@@ -9137,7 +9114,7 @@
       </c>
       <c r="G97" s="34"/>
       <c r="H97" s="37" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I97" s="15" t="s">
         <v>202</v>
@@ -9148,22 +9125,22 @@
       </c>
       <c r="L97" s="16"/>
       <c r="M97" s="15" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="N97" s="14" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="O97" s="14" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="P97" s="14" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="Q97" s="14" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" ht="352" x14ac:dyDescent="0.2">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>186</v>
       </c>
@@ -9183,10 +9160,10 @@
         <v>18</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H98" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I98" s="15" t="s">
         <v>203</v>
@@ -9197,7 +9174,7 @@
       </c>
       <c r="L98" s="16"/>
       <c r="M98" s="15" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="N98" s="25">
         <v>1200</v>
@@ -9232,13 +9209,13 @@
         <v>193</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H99" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I99" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J99" s="16"/>
       <c r="K99" s="16">
@@ -9246,7 +9223,7 @@
       </c>
       <c r="L99" s="16"/>
       <c r="M99" s="15" t="s">
-        <v>650</v>
+        <v>1040</v>
       </c>
       <c r="N99" s="14">
         <v>15</v>
@@ -9261,7 +9238,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
         <v>186</v>
       </c>
@@ -9284,10 +9261,10 @@
         <v>27</v>
       </c>
       <c r="H100" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I100" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J100" s="16"/>
       <c r="K100" s="16">
@@ -9295,22 +9272,22 @@
       </c>
       <c r="L100" s="16"/>
       <c r="M100" s="15" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="N100" s="14" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="O100" s="14" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="P100" s="14" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="Q100" s="14" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" ht="183" x14ac:dyDescent="0.2">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="183" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
         <v>186</v>
       </c>
@@ -9330,13 +9307,13 @@
         <v>15</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H101" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I101" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J101" s="16"/>
       <c r="K101" s="16">
@@ -9344,7 +9321,7 @@
       </c>
       <c r="L101" s="16"/>
       <c r="M101" s="15" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="N101" s="25">
         <v>140</v>
@@ -9359,7 +9336,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="390" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" ht="390" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
         <v>186</v>
       </c>
@@ -9379,13 +9356,13 @@
         <v>193</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H102" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I102" s="62" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="J102" s="59">
         <v>0.79</v>
@@ -9393,22 +9370,22 @@
       <c r="K102" s="16"/>
       <c r="L102" s="16"/>
       <c r="M102" s="60" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="N102" s="53" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="O102" s="53" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
       <c r="P102" s="53" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="Q102" s="53" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
         <v>186</v>
       </c>
@@ -9428,13 +9405,13 @@
         <v>15</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H103" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I103" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J103" s="16"/>
       <c r="K103" s="16">
@@ -9442,22 +9419,22 @@
       </c>
       <c r="L103" s="16"/>
       <c r="M103" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="N103" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="N103" s="14" t="s">
+      <c r="O103" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="O103" s="14" t="s">
+      <c r="P103" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="P103" s="14" t="s">
+      <c r="Q103" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="Q103" s="14" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
         <v>186</v>
       </c>
@@ -9480,10 +9457,10 @@
         <v>27</v>
       </c>
       <c r="H104" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I104" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J104" s="16"/>
       <c r="K104" s="16">
@@ -9491,7 +9468,7 @@
       </c>
       <c r="L104" s="16"/>
       <c r="M104" s="15" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="N104" s="14">
         <v>8</v>
@@ -9506,7 +9483,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="196" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
         <v>186</v>
       </c>
@@ -9529,10 +9506,10 @@
         <v>27</v>
       </c>
       <c r="H105" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I105" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J105" s="16"/>
       <c r="K105" s="16">
@@ -9540,22 +9517,22 @@
       </c>
       <c r="L105" s="16"/>
       <c r="M105" s="15" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="N105" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="O105" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="O105" s="14" t="s">
+      <c r="P105" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="P105" s="14" t="s">
+      <c r="Q105" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="Q105" s="14" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
         <v>186</v>
       </c>
@@ -9578,10 +9555,10 @@
         <v>27</v>
       </c>
       <c r="H106" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I106" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J106" s="16"/>
       <c r="K106" s="16">
@@ -9589,7 +9566,7 @@
       </c>
       <c r="L106" s="16"/>
       <c r="M106" s="15" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="N106" s="14">
         <v>8</v>
@@ -9604,7 +9581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="224" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
         <v>186</v>
       </c>
@@ -9624,13 +9601,13 @@
         <v>15</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H107" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I107" s="58" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="J107" s="59">
         <v>0.77</v>
@@ -9638,22 +9615,22 @@
       <c r="K107" s="16"/>
       <c r="L107" s="16"/>
       <c r="M107" s="60" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="N107" s="53" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="O107" s="53" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="P107" s="53" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="Q107" s="53" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" ht="144" x14ac:dyDescent="0.2">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
         <v>186</v>
       </c>
@@ -9676,10 +9653,10 @@
         <v>27</v>
       </c>
       <c r="H108" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I108" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J108" s="16"/>
       <c r="K108" s="16">
@@ -9687,22 +9664,22 @@
       </c>
       <c r="L108" s="16"/>
       <c r="M108" s="15" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="N108" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="O108" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="O108" s="14" t="s">
+      <c r="P108" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="P108" s="14" t="s">
+      <c r="Q108" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="Q108" s="14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
         <v>186</v>
       </c>
@@ -9722,7 +9699,7 @@
         <v>15</v>
       </c>
       <c r="H109" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I109" s="15" t="s">
         <v>195</v>
@@ -9733,19 +9710,19 @@
       </c>
       <c r="L109" s="16"/>
       <c r="M109" s="15" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="N109" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="O109" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="O109" s="14" t="s">
+      <c r="P109" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="P109" s="14" t="s">
+      <c r="Q109" s="14" t="s">
         <v>347</v>
-      </c>
-      <c r="Q109" s="14" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="209" x14ac:dyDescent="0.2">
@@ -9768,13 +9745,13 @@
         <v>193</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H110" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I110" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J110" s="16"/>
       <c r="K110" s="16">
@@ -9782,22 +9759,22 @@
       </c>
       <c r="L110" s="16"/>
       <c r="M110" s="15" t="s">
-        <v>658</v>
+        <v>1041</v>
       </c>
       <c r="N110" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="O110" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="O110" s="14" t="s">
+      <c r="P110" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="P110" s="14" t="s">
+      <c r="Q110" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="Q110" s="14" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" ht="157" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
         <v>186</v>
       </c>
@@ -9817,10 +9794,10 @@
         <v>27</v>
       </c>
       <c r="H111" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I111" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J111" s="16"/>
       <c r="K111" s="16">
@@ -9828,22 +9805,22 @@
       </c>
       <c r="L111" s="16"/>
       <c r="M111" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="N111" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="N111" s="14" t="s">
+      <c r="O111" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="O111" s="14" t="s">
+      <c r="P111" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="P111" s="14" t="s">
+      <c r="Q111" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="Q111" s="14" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
         <v>186</v>
       </c>
@@ -9863,10 +9840,10 @@
         <v>15</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H112" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I112" s="15" t="s">
         <v>195</v>
@@ -9877,22 +9854,22 @@
       </c>
       <c r="L112" s="16"/>
       <c r="M112" s="15" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="N112" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="O112" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="O112" s="14" t="s">
+      <c r="P112" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="P112" s="14" t="s">
+      <c r="Q112" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="Q112" s="14" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
         <v>186</v>
       </c>
@@ -9914,7 +9891,7 @@
       <c r="G113" s="33"/>
       <c r="H113" s="30"/>
       <c r="I113" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J113" s="16"/>
       <c r="K113" s="16">
@@ -9922,7 +9899,7 @@
       </c>
       <c r="L113" s="16"/>
       <c r="M113" s="15" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="N113" s="14">
         <v>432</v>
@@ -9937,7 +9914,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="222" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
         <v>186</v>
       </c>
@@ -9957,13 +9934,13 @@
         <v>193</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H114" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I114" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J114" s="16"/>
       <c r="K114" s="16">
@@ -9971,22 +9948,22 @@
       </c>
       <c r="L114" s="16"/>
       <c r="M114" s="15" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="N114" s="14" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="O114" s="14" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="P114" s="14" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="Q114" s="14" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" ht="222" x14ac:dyDescent="0.2">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
         <v>186</v>
       </c>
@@ -10006,10 +9983,10 @@
         <v>18</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H115" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I115" s="15" t="s">
         <v>187</v>
@@ -10020,7 +9997,7 @@
       </c>
       <c r="L115" s="16"/>
       <c r="M115" s="15" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="N115" s="14">
         <v>8.3000000000000007</v>
@@ -10035,7 +10012,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="209" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" ht="209" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
         <v>186</v>
       </c>
@@ -10055,13 +10032,13 @@
         <v>15</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H116" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I116" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J116" s="16"/>
       <c r="K116" s="16">
@@ -10069,22 +10046,22 @@
       </c>
       <c r="L116" s="16"/>
       <c r="M116" s="15" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N116" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="O116" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="O116" s="14" t="s">
+      <c r="P116" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="P116" s="14" t="s">
+      <c r="Q116" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="Q116" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" ht="365" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:17" ht="365" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
         <v>186</v>
       </c>
@@ -10104,13 +10081,13 @@
         <v>18</v>
       </c>
       <c r="G117" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="H117" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="H117" s="35" t="s">
-        <v>532</v>
-      </c>
       <c r="I117" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J117" s="16"/>
       <c r="K117" s="16">
@@ -10118,7 +10095,7 @@
       </c>
       <c r="L117" s="16"/>
       <c r="M117" s="15" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="N117" s="14">
         <v>20</v>
@@ -10133,7 +10110,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
         <v>186</v>
       </c>
@@ -10153,13 +10130,13 @@
         <v>193</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H118" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I118" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J118" s="16"/>
       <c r="K118" s="16">
@@ -10167,22 +10144,22 @@
       </c>
       <c r="L118" s="16"/>
       <c r="M118" s="15" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="N118" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="O118" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="O118" s="14" t="s">
+      <c r="P118" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="P118" s="14" t="s">
+      <c r="Q118" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="Q118" s="14" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" ht="196" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
         <v>186</v>
       </c>
@@ -10202,13 +10179,13 @@
         <v>15</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H119" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I119" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J119" s="16"/>
       <c r="K119" s="16">
@@ -10216,7 +10193,7 @@
       </c>
       <c r="L119" s="16"/>
       <c r="M119" s="15" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="N119" s="14">
         <v>32</v>
@@ -10231,7 +10208,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="157" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
         <v>186</v>
       </c>
@@ -10251,13 +10228,13 @@
         <v>27</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H120" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I120" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J120" s="16"/>
       <c r="K120" s="16">
@@ -10265,22 +10242,22 @@
       </c>
       <c r="L120" s="16"/>
       <c r="M120" s="15" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="N120" s="14" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="O120" s="14" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="P120" s="14" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="Q120" s="14" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" ht="352" x14ac:dyDescent="0.2">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
         <v>186</v>
       </c>
@@ -10300,10 +10277,10 @@
         <v>18</v>
       </c>
       <c r="G121" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="H121" s="35" t="s">
         <v>531</v>
-      </c>
-      <c r="H121" s="35" t="s">
-        <v>532</v>
       </c>
       <c r="I121" s="15" t="s">
         <v>203</v>
@@ -10314,22 +10291,22 @@
       </c>
       <c r="L121" s="16"/>
       <c r="M121" s="15" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="N121" s="14" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="O121" s="14" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="P121" s="14" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="Q121" s="14" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" ht="365" x14ac:dyDescent="0.2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="365" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
         <v>186</v>
       </c>
@@ -10349,13 +10326,13 @@
         <v>18</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H122" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I122" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J122" s="16"/>
       <c r="K122" s="16">
@@ -10363,22 +10340,22 @@
       </c>
       <c r="L122" s="16"/>
       <c r="M122" s="15" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="N122" s="14" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="O122" s="14" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="P122" s="14" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="Q122" s="14" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
         <v>186</v>
       </c>
@@ -10398,10 +10375,10 @@
         <v>15</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H123" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I123" s="15" t="s">
         <v>195</v>
@@ -10412,7 +10389,7 @@
       </c>
       <c r="L123" s="16"/>
       <c r="M123" s="15" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="N123" s="25">
         <v>1500</v>
@@ -10427,7 +10404,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="235" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" ht="235" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
         <v>186</v>
       </c>
@@ -10449,7 +10426,7 @@
       <c r="G124" s="14"/>
       <c r="H124" s="29"/>
       <c r="I124" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J124" s="16"/>
       <c r="K124" s="16">
@@ -10457,7 +10434,7 @@
       </c>
       <c r="L124" s="16"/>
       <c r="M124" s="15" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N124" s="14">
         <v>0</v>
@@ -10472,7 +10449,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="352" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
         <v>186</v>
       </c>
@@ -10492,10 +10469,10 @@
         <v>18</v>
       </c>
       <c r="G125" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="H125" s="35" t="s">
         <v>531</v>
-      </c>
-      <c r="H125" s="35" t="s">
-        <v>532</v>
       </c>
       <c r="I125" s="15" t="s">
         <v>203</v>
@@ -10506,7 +10483,7 @@
       </c>
       <c r="L125" s="16"/>
       <c r="M125" s="15" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="N125" s="27">
         <v>0.15</v>
@@ -10521,7 +10498,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
         <v>186</v>
       </c>
@@ -10541,10 +10518,10 @@
         <v>193</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H126" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I126" s="15" t="s">
         <v>194</v>
@@ -10555,22 +10532,22 @@
       </c>
       <c r="L126" s="16"/>
       <c r="M126" s="15" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="N126" s="14" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="O126" s="14" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="P126" s="14" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="Q126" s="14" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
         <v>186</v>
       </c>
@@ -10590,13 +10567,13 @@
         <v>18</v>
       </c>
       <c r="G127" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="H127" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="H127" s="35" t="s">
-        <v>532</v>
-      </c>
       <c r="I127" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J127" s="16"/>
       <c r="K127" s="16">
@@ -10604,22 +10581,22 @@
       </c>
       <c r="L127" s="16"/>
       <c r="M127" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N127" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="O127" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="O127" s="14" t="s">
+      <c r="P127" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="P127" s="14" t="s">
+      <c r="Q127" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="Q127" s="14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:17" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
         <v>186</v>
       </c>
@@ -10649,7 +10626,7 @@
       </c>
       <c r="L128" s="16"/>
       <c r="M128" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="N128" s="14">
         <v>1</v>
@@ -10664,7 +10641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="209" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" ht="209" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
         <v>186</v>
       </c>
@@ -10684,13 +10661,13 @@
         <v>15</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H129" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I129" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J129" s="16"/>
       <c r="K129" s="16">
@@ -10698,22 +10675,22 @@
       </c>
       <c r="L129" s="16"/>
       <c r="M129" s="15" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="N129" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="O129" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="O129" s="14" t="s">
+      <c r="P129" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="P129" s="14" t="s">
+      <c r="Q129" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="Q129" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
         <v>186</v>
       </c>
@@ -10736,10 +10713,10 @@
         <v>27</v>
       </c>
       <c r="H130" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I130" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J130" s="16"/>
       <c r="K130" s="16">
@@ -10747,22 +10724,22 @@
       </c>
       <c r="L130" s="16"/>
       <c r="M130" s="15" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="N130" s="14" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="O130" s="14" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="P130" s="14" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="Q130" s="14" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
         <v>186</v>
       </c>
@@ -10782,10 +10759,10 @@
         <v>15</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H131" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I131" s="15" t="s">
         <v>195</v>
@@ -10796,19 +10773,19 @@
       </c>
       <c r="L131" s="16"/>
       <c r="M131" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="N131" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="N131" s="14" t="s">
+      <c r="O131" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="O131" s="14" t="s">
+      <c r="P131" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="P131" s="14" t="s">
+      <c r="Q131" s="14" t="s">
         <v>280</v>
-      </c>
-      <c r="Q131" s="14" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="132" spans="1:17" ht="170" x14ac:dyDescent="0.2">
@@ -10831,10 +10808,10 @@
         <v>193</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H132" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I132" s="15" t="s">
         <v>201</v>
@@ -10845,7 +10822,7 @@
       </c>
       <c r="L132" s="16"/>
       <c r="M132" s="15" t="s">
-        <v>626</v>
+        <v>1042</v>
       </c>
       <c r="N132" s="25">
         <v>2</v>
@@ -10860,7 +10837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
         <v>186</v>
       </c>
@@ -10882,7 +10859,7 @@
       <c r="G133" s="33"/>
       <c r="H133" s="30"/>
       <c r="I133" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J133" s="16"/>
       <c r="K133" s="16">
@@ -10890,19 +10867,19 @@
       </c>
       <c r="L133" s="16"/>
       <c r="M133" s="15" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="N133" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="O133" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="O133" s="14" t="s">
+      <c r="P133" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="P133" s="15" t="s">
+      <c r="Q133" s="15" t="s">
         <v>285</v>
-      </c>
-      <c r="Q133" s="15" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="134" spans="1:17" ht="209" x14ac:dyDescent="0.2">
@@ -10925,13 +10902,13 @@
         <v>193</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H134" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I134" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J134" s="16"/>
       <c r="K134" s="16">
@@ -10939,7 +10916,7 @@
       </c>
       <c r="L134" s="16"/>
       <c r="M134" s="15" t="s">
-        <v>628</v>
+        <v>1043</v>
       </c>
       <c r="N134" s="14">
         <v>3</v>
@@ -10954,7 +10931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:17" s="49" customFormat="1" ht="131" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" s="49" customFormat="1" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="42" t="s">
         <v>186</v>
       </c>
@@ -10977,10 +10954,10 @@
         <v>27</v>
       </c>
       <c r="H135" s="36" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I135" s="45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J135" s="46"/>
       <c r="K135" s="46">
@@ -10988,7 +10965,7 @@
       </c>
       <c r="L135" s="46"/>
       <c r="M135" s="45" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="N135" s="47">
         <v>1.1256944444444443</v>
@@ -11003,7 +10980,7 @@
         <v>0.12569444444444444</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="144" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
         <v>186</v>
       </c>
@@ -11026,10 +11003,10 @@
         <v>27</v>
       </c>
       <c r="H136" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I136" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J136" s="16"/>
       <c r="K136" s="16">
@@ -11037,22 +11014,22 @@
       </c>
       <c r="L136" s="16"/>
       <c r="M136" s="15" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="N136" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="O136" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="O136" s="14" t="s">
+      <c r="P136" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="P136" s="14" t="s">
+      <c r="Q136" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="Q136" s="14" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" ht="326" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:17" ht="326" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
         <v>186</v>
       </c>
@@ -11072,13 +11049,13 @@
         <v>193</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H137" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I137" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J137" s="16"/>
       <c r="K137" s="16">
@@ -11086,13 +11063,13 @@
       </c>
       <c r="L137" s="16"/>
       <c r="M137" s="15" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="N137" s="14" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="O137" s="14" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="P137" s="14">
         <v>4</v>
@@ -11101,7 +11078,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
         <v>186</v>
       </c>
@@ -11124,10 +11101,10 @@
         <v>27</v>
       </c>
       <c r="H138" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I138" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J138" s="16"/>
       <c r="K138" s="16">
@@ -11135,7 +11112,7 @@
       </c>
       <c r="L138" s="16"/>
       <c r="M138" s="15" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="N138" s="14">
         <v>3</v>
@@ -11150,7 +11127,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="157" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
         <v>186</v>
       </c>
@@ -11173,10 +11150,10 @@
         <v>27</v>
       </c>
       <c r="H139" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I139" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J139" s="16"/>
       <c r="K139" s="16">
@@ -11184,7 +11161,7 @@
       </c>
       <c r="L139" s="16"/>
       <c r="M139" s="15" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="N139" s="14">
         <v>10</v>
@@ -11199,7 +11176,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
         <v>186</v>
       </c>
@@ -11222,10 +11199,10 @@
         <v>27</v>
       </c>
       <c r="H140" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I140" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J140" s="16"/>
       <c r="K140" s="16">
@@ -11233,22 +11210,22 @@
       </c>
       <c r="L140" s="16"/>
       <c r="M140" s="15" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N140" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="O140" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="O140" s="14" t="s">
+      <c r="P140" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="P140" s="14" t="s">
+      <c r="Q140" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="Q140" s="14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" ht="183" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:17" ht="183" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
         <v>186</v>
       </c>
@@ -11268,13 +11245,13 @@
         <v>193</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H141" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I141" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J141" s="16"/>
       <c r="K141" s="16">
@@ -11282,22 +11259,22 @@
       </c>
       <c r="L141" s="16"/>
       <c r="M141" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="N141" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="N141" s="15" t="s">
+      <c r="O141" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="O141" s="15" t="s">
+      <c r="P141" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="P141" s="15" t="s">
+      <c r="Q141" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="Q141" s="15" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" ht="196" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
         <v>186</v>
       </c>
@@ -11320,10 +11297,10 @@
         <v>27</v>
       </c>
       <c r="H142" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I142" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J142" s="16"/>
       <c r="K142" s="16">
@@ -11331,22 +11308,22 @@
       </c>
       <c r="L142" s="16"/>
       <c r="M142" s="15" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="N142" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="O142" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="O142" s="14" t="s">
+      <c r="P142" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="P142" s="14" t="s">
+      <c r="Q142" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="Q142" s="14" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" ht="222" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
         <v>186</v>
       </c>
@@ -11366,10 +11343,10 @@
         <v>18</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H143" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I143" s="15" t="s">
         <v>187</v>
@@ -11395,7 +11372,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
         <v>186</v>
       </c>
@@ -11415,10 +11392,10 @@
         <v>193</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H144" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I144" s="15" t="s">
         <v>194</v>
@@ -11429,22 +11406,22 @@
       </c>
       <c r="L144" s="16"/>
       <c r="M144" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="N144" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="N144" s="14" t="s">
+      <c r="O144" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="O144" s="14" t="s">
+      <c r="P144" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="P144" s="14" t="s">
+      <c r="Q144" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="Q144" s="14" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="18" t="s">
         <v>186</v>
       </c>
@@ -11489,7 +11466,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
         <v>186</v>
       </c>
@@ -11509,10 +11486,10 @@
         <v>193</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H146" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I146" s="15" t="s">
         <v>201</v>
@@ -11523,22 +11500,22 @@
       </c>
       <c r="L146" s="16"/>
       <c r="M146" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="N146" s="14" t="s">
         <v>545</v>
       </c>
-      <c r="N146" s="14" t="s">
+      <c r="O146" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="O146" s="14" t="s">
+      <c r="P146" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="P146" s="14" t="s">
+      <c r="Q146" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="Q146" s="14" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:17" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
         <v>186</v>
       </c>
@@ -11558,7 +11535,7 @@
         <v>18</v>
       </c>
       <c r="H147" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I147" s="15" t="s">
         <v>202</v>
@@ -11569,22 +11546,22 @@
       </c>
       <c r="L147" s="16"/>
       <c r="M147" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N147" s="14" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="O147" s="14" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="P147" s="14" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="Q147" s="14" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" ht="352" x14ac:dyDescent="0.2">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="12" t="s">
         <v>186</v>
       </c>
@@ -11604,10 +11581,10 @@
         <v>18</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H148" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I148" s="15" t="s">
         <v>203</v>
@@ -11653,10 +11630,10 @@
         <v>193</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H149" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I149" s="15" t="s">
         <v>205</v>
@@ -11667,22 +11644,22 @@
       </c>
       <c r="L149" s="16"/>
       <c r="M149" s="24" t="s">
-        <v>206</v>
+        <v>1044</v>
       </c>
       <c r="N149" s="14" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="O149" s="14" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="P149" s="14" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="Q149" s="14" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
         <v>186</v>
       </c>
@@ -11702,13 +11679,13 @@
         <v>18</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H150" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I150" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J150" s="16"/>
       <c r="K150" s="16">
@@ -11716,7 +11693,7 @@
       </c>
       <c r="L150" s="16"/>
       <c r="M150" s="26" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N150" s="14">
         <v>-8</v>
@@ -11731,7 +11708,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
         <v>186</v>
       </c>
@@ -11754,10 +11731,10 @@
         <v>27</v>
       </c>
       <c r="H151" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I151" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J151" s="16"/>
       <c r="K151" s="16">
@@ -11765,7 +11742,7 @@
       </c>
       <c r="L151" s="16"/>
       <c r="M151" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N151" s="14">
         <v>2</v>
@@ -11780,7 +11757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="352" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="s">
         <v>186</v>
       </c>
@@ -11800,10 +11777,10 @@
         <v>18</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H152" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I152" s="15" t="s">
         <v>203</v>
@@ -11814,7 +11791,7 @@
       </c>
       <c r="L152" s="16"/>
       <c r="M152" s="15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N152" s="14">
         <v>150</v>
@@ -11829,7 +11806,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
         <v>186</v>
       </c>
@@ -11849,13 +11826,13 @@
         <v>18</v>
       </c>
       <c r="G153" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="H153" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="H153" s="35" t="s">
-        <v>532</v>
-      </c>
       <c r="I153" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J153" s="16"/>
       <c r="K153" s="16">
@@ -11863,22 +11840,22 @@
       </c>
       <c r="L153" s="16"/>
       <c r="M153" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N153" s="14" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="O153" s="14" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="P153" s="14" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="Q153" s="14" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17" ht="222" x14ac:dyDescent="0.2">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
         <v>186</v>
       </c>
@@ -11898,13 +11875,13 @@
         <v>193</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H154" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I154" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J154" s="16"/>
       <c r="K154" s="16">
@@ -11912,22 +11889,22 @@
       </c>
       <c r="L154" s="16"/>
       <c r="M154" s="15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N154" s="14" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="O154" s="14" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="P154" s="14" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="Q154" s="14" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" ht="235" x14ac:dyDescent="0.2">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" ht="235" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
         <v>186</v>
       </c>
@@ -11947,10 +11924,10 @@
         <v>193</v>
       </c>
       <c r="H155" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I155" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J155" s="16"/>
       <c r="K155" s="16">
@@ -11958,22 +11935,22 @@
       </c>
       <c r="L155" s="16"/>
       <c r="M155" s="15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N155" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="O155" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="O155" s="14" t="s">
+      <c r="P155" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="P155" s="14" t="s">
+      <c r="Q155" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="Q155" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17" ht="222" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
         <v>186</v>
       </c>
@@ -11996,10 +11973,10 @@
         <v>27</v>
       </c>
       <c r="H156" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I156" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J156" s="16"/>
       <c r="K156" s="16">
@@ -12007,19 +11984,19 @@
       </c>
       <c r="L156" s="16"/>
       <c r="M156" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N156" s="14" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="O156" s="14" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="P156" s="14" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="Q156" s="14" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
     </row>
     <row r="157" spans="1:17" ht="209" x14ac:dyDescent="0.2">
@@ -12042,13 +12019,13 @@
         <v>193</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H157" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I157" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J157" s="16"/>
       <c r="K157" s="16">
@@ -12056,22 +12033,22 @@
       </c>
       <c r="L157" s="16"/>
       <c r="M157" s="15" t="s">
-        <v>595</v>
+        <v>1045</v>
       </c>
       <c r="N157" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="O157" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="O157" s="14" t="s">
+      <c r="P157" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="P157" s="14" t="s">
+      <c r="Q157" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="Q157" s="14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
         <v>186</v>
       </c>
@@ -12093,7 +12070,7 @@
       <c r="G158" s="33"/>
       <c r="H158" s="30"/>
       <c r="I158" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J158" s="16"/>
       <c r="K158" s="16">
@@ -12101,22 +12078,22 @@
       </c>
       <c r="L158" s="16"/>
       <c r="M158" s="15" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="N158" s="14">
         <v>0</v>
       </c>
       <c r="O158" s="14" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="P158" s="14" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="Q158" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="150" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" ht="150" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
         <v>186</v>
       </c>
@@ -12139,10 +12116,10 @@
         <v>27</v>
       </c>
       <c r="H159" s="30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I159" s="62" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J159" s="59">
         <v>0.73</v>
@@ -12150,22 +12127,22 @@
       <c r="K159" s="16"/>
       <c r="L159" s="16"/>
       <c r="M159" s="52" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="N159" s="55" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="O159" s="53" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="P159" s="55" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="Q159" s="55" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17" ht="209" x14ac:dyDescent="0.2">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" ht="209" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
         <v>186</v>
       </c>
@@ -12185,13 +12162,13 @@
         <v>15</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H160" s="29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I160" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J160" s="16"/>
       <c r="K160" s="16">
@@ -12199,7 +12176,7 @@
       </c>
       <c r="L160" s="16"/>
       <c r="M160" s="15" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="N160" s="14">
         <v>10</v>
@@ -12214,7 +12191,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="131" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
         <v>186</v>
       </c>
@@ -12237,10 +12214,10 @@
         <v>27</v>
       </c>
       <c r="H161" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I161" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J161" s="16"/>
       <c r="K161" s="16">
@@ -12248,19 +12225,19 @@
       </c>
       <c r="L161" s="16"/>
       <c r="M161" s="15" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="N161" s="14" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="O161" s="14" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="P161" s="14" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="Q161" s="15" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
     </row>
     <row r="162" spans="1:18" ht="170" x14ac:dyDescent="0.2">
@@ -12283,10 +12260,10 @@
         <v>193</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H162" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I162" s="15" t="s">
         <v>201</v>
@@ -12297,7 +12274,7 @@
       </c>
       <c r="L162" s="16"/>
       <c r="M162" s="15" t="s">
-        <v>599</v>
+        <v>1046</v>
       </c>
       <c r="N162" s="25">
         <v>108</v>
@@ -12312,7 +12289,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="196" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18" ht="196" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="s">
         <v>186</v>
       </c>
@@ -12332,13 +12309,13 @@
         <v>15</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H163" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I163" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J163" s="16"/>
       <c r="K163" s="16">
@@ -12346,22 +12323,22 @@
       </c>
       <c r="L163" s="16"/>
       <c r="M163" s="15" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="N163" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="O163" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="O163" s="14" t="s">
+      <c r="P163" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="P163" s="14" t="s">
+      <c r="Q163" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="Q163" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" ht="183" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:18" ht="183" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="s">
         <v>186</v>
       </c>
@@ -12381,13 +12358,13 @@
         <v>15</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H164" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I164" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J164" s="16"/>
       <c r="K164" s="16">
@@ -12395,7 +12372,7 @@
       </c>
       <c r="L164" s="16"/>
       <c r="M164" s="15" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="N164" s="14">
         <v>254</v>
@@ -12410,7 +12387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="144" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
         <v>186</v>
       </c>
@@ -12433,10 +12410,10 @@
         <v>27</v>
       </c>
       <c r="H165" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I165" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J165" s="16"/>
       <c r="K165" s="16">
@@ -12444,22 +12421,22 @@
       </c>
       <c r="L165" s="16"/>
       <c r="M165" s="15" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="N165" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="O165" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="O165" s="14" t="s">
+      <c r="P165" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="P165" s="14" t="s">
+      <c r="Q165" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="Q165" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" ht="118" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:18" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
         <v>186</v>
       </c>
@@ -12479,13 +12456,13 @@
         <v>18</v>
       </c>
       <c r="G166" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="H166" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="H166" s="35" t="s">
-        <v>532</v>
-      </c>
       <c r="I166" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J166" s="16"/>
       <c r="K166" s="16">
@@ -12493,22 +12470,22 @@
       </c>
       <c r="L166" s="16"/>
       <c r="M166" s="15" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="N166" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="O166" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="O166" s="26" t="s">
+      <c r="P166" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="P166" s="15" t="s">
+      <c r="Q166" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="Q166" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" ht="118" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:18" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
         <v>186</v>
       </c>
@@ -12528,10 +12505,10 @@
         <v>15</v>
       </c>
       <c r="G167" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H167" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I167" s="15" t="s">
         <v>195</v>
@@ -12542,22 +12519,22 @@
       </c>
       <c r="L167" s="16"/>
       <c r="M167" s="15" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="N167" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="O167" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="P167" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="O167" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="P167" s="14" t="s">
+      <c r="Q167" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="Q167" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" ht="118" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:18" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
         <v>186</v>
       </c>
@@ -12577,10 +12554,10 @@
         <v>15</v>
       </c>
       <c r="G168" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H168" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I168" s="15" t="s">
         <v>195</v>
@@ -12591,22 +12568,22 @@
       </c>
       <c r="L168" s="16"/>
       <c r="M168" s="15" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="N168" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="O168" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="O168" s="14" t="s">
+      <c r="P168" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="P168" s="14" t="s">
+      <c r="Q168" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="Q168" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" ht="196" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:18" ht="196" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
         <v>186</v>
       </c>
@@ -12626,13 +12603,13 @@
         <v>15</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H169" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I169" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J169" s="16"/>
       <c r="K169" s="16">
@@ -12640,22 +12617,22 @@
       </c>
       <c r="L169" s="16"/>
       <c r="M169" s="15" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="N169" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="O169" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="O169" s="14" t="s">
+      <c r="P169" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="P169" s="14" t="s">
+      <c r="Q169" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="Q169" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" ht="131" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:18" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
         <v>186</v>
       </c>
@@ -12678,10 +12655,10 @@
         <v>27</v>
       </c>
       <c r="H170" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I170" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J170" s="16"/>
       <c r="K170" s="16">
@@ -12689,22 +12666,22 @@
       </c>
       <c r="L170" s="16"/>
       <c r="M170" s="26" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="N170" s="14" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="O170" s="14" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="P170" s="14" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="Q170" s="14" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" ht="287" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" ht="287" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
         <v>186</v>
       </c>
@@ -12724,13 +12701,13 @@
         <v>193</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H171" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I171" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J171" s="16"/>
       <c r="K171" s="16">
@@ -12738,19 +12715,19 @@
       </c>
       <c r="L171" s="16"/>
       <c r="M171" s="26" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="N171" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="O171" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="O171" s="14" t="s">
+      <c r="P171" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="P171" s="14" t="s">
+      <c r="Q171" s="14" t="s">
         <v>258</v>
-      </c>
-      <c r="Q171" s="14" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.2">
@@ -12773,33 +12750,33 @@
         <v>2</v>
       </c>
       <c r="G172" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H172" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I172" s="15"/>
       <c r="J172" s="16"/>
       <c r="K172" s="16"/>
       <c r="L172" s="16"/>
       <c r="M172" s="51" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="N172" s="51" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="O172" s="51" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="P172" s="51" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="Q172" s="51" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="R172" s="51"/>
     </row>
-    <row r="173" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
         <v>0</v>
       </c>
@@ -12819,29 +12796,29 @@
         <v>27</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H173" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I173" s="15"/>
       <c r="J173" s="16"/>
       <c r="K173" s="16"/>
       <c r="L173" s="16"/>
       <c r="M173" s="52" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="N173" s="50" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="O173" s="50" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="P173" s="50" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="Q173" s="50" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.2">
@@ -12864,29 +12841,29 @@
         <v>2</v>
       </c>
       <c r="G174" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H174" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I174" s="15"/>
       <c r="J174" s="16"/>
       <c r="K174" s="16"/>
       <c r="L174" s="16"/>
       <c r="M174" s="53" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="N174" s="50" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="O174" s="50" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="P174" s="50" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="Q174" s="50" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.2">
@@ -12909,29 +12886,29 @@
         <v>9</v>
       </c>
       <c r="G175" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H175" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I175" s="15"/>
       <c r="J175" s="16"/>
       <c r="K175" s="16"/>
       <c r="L175" s="16"/>
       <c r="M175" s="53" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="N175" s="50" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="O175" s="50" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="P175" s="50" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="Q175" s="50" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.2">
@@ -12954,32 +12931,32 @@
         <v>2</v>
       </c>
       <c r="G176" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H176" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I176" s="15"/>
       <c r="J176" s="16"/>
       <c r="K176" s="16"/>
       <c r="L176" s="16"/>
       <c r="M176" s="54" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="N176" s="54" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="O176" s="54" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="P176" s="54" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="Q176" s="54" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
         <v>0</v>
       </c>
@@ -12999,29 +12976,29 @@
         <v>2</v>
       </c>
       <c r="G177" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H177" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I177" s="15"/>
       <c r="J177" s="16"/>
       <c r="K177" s="16"/>
       <c r="L177" s="16"/>
       <c r="M177" s="52" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="N177" s="50" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="O177" s="50" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="P177" s="50" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="Q177" s="50" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
     </row>
     <row r="178" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -13044,32 +13021,32 @@
         <v>2</v>
       </c>
       <c r="G178" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H178" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I178" s="15"/>
       <c r="J178" s="16"/>
       <c r="K178" s="16"/>
       <c r="L178" s="16"/>
       <c r="M178" s="52" t="s">
-        <v>938</v>
+        <v>1047</v>
       </c>
       <c r="N178" s="53" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="O178" s="53" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="P178" s="53" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="Q178" s="53" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
         <v>0</v>
       </c>
@@ -13089,32 +13066,32 @@
         <v>27</v>
       </c>
       <c r="G179" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H179" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I179" s="15"/>
       <c r="J179" s="16"/>
       <c r="K179" s="16"/>
       <c r="L179" s="16"/>
       <c r="M179" s="52" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="N179" s="55" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="O179" s="55" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="P179" s="55" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="Q179" s="55" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
         <v>0</v>
       </c>
@@ -13134,29 +13111,29 @@
         <v>27</v>
       </c>
       <c r="G180" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H180" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I180" s="15"/>
       <c r="J180" s="16"/>
       <c r="K180" s="16"/>
       <c r="L180" s="16"/>
       <c r="M180" s="53" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="N180" s="55" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="O180" s="55" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="P180" s="55" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="Q180" s="55" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.2">
@@ -13179,29 +13156,29 @@
         <v>2</v>
       </c>
       <c r="G181" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H181" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I181" s="15"/>
       <c r="J181" s="16"/>
       <c r="K181" s="16"/>
       <c r="L181" s="16"/>
       <c r="M181" s="53" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="N181" s="53" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="O181" s="53" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P181" s="53" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="Q181" s="53" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
@@ -13224,32 +13201,32 @@
         <v>2</v>
       </c>
       <c r="G182" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H182" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I182" s="15"/>
       <c r="J182" s="16"/>
       <c r="K182" s="16"/>
       <c r="L182" s="16"/>
       <c r="M182" s="53" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="N182" s="53" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="O182" s="53" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="P182" s="53" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="Q182" s="53" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="12" t="s">
         <v>0</v>
       </c>
@@ -13269,32 +13246,32 @@
         <v>2</v>
       </c>
       <c r="G183" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H183" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I183" s="15"/>
       <c r="J183" s="16"/>
       <c r="K183" s="16"/>
       <c r="L183" s="16"/>
       <c r="M183" s="53" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="N183" s="53" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="O183" s="53" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="P183" s="53" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="Q183" s="53" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
         <v>0</v>
       </c>
@@ -13314,10 +13291,10 @@
         <v>2</v>
       </c>
       <c r="G184" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H184" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I184" s="10"/>
       <c r="J184" s="11"/>
@@ -13339,7 +13316,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="s">
         <v>0</v>
       </c>
@@ -13359,10 +13336,10 @@
         <v>18</v>
       </c>
       <c r="G185" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H185" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I185" s="10"/>
       <c r="J185" s="11"/>
@@ -13384,7 +13361,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
         <v>0</v>
       </c>
@@ -13404,14 +13381,14 @@
         <v>2</v>
       </c>
       <c r="H186" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I186" s="10"/>
       <c r="J186" s="11"/>
       <c r="K186" s="11"/>
       <c r="L186" s="11"/>
       <c r="M186" s="39" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N186" s="10">
         <v>50</v>
@@ -13426,7 +13403,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
         <v>0</v>
       </c>
@@ -13446,10 +13423,10 @@
         <v>2</v>
       </c>
       <c r="G187" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H187" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I187" s="10"/>
       <c r="J187" s="11"/>
@@ -13459,19 +13436,19 @@
         <v>64</v>
       </c>
       <c r="N187" s="10" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="O187" s="10" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="P187" s="10" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="Q187" s="10" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="188" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="s">
         <v>0</v>
       </c>
@@ -13491,10 +13468,10 @@
         <v>27</v>
       </c>
       <c r="G188" s="32" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H188" s="36" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I188" s="10"/>
       <c r="J188" s="11"/>
@@ -13516,7 +13493,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="s">
         <v>0</v>
       </c>
@@ -13536,17 +13513,17 @@
         <v>2</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H189" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I189" s="10"/>
       <c r="J189" s="11"/>
       <c r="K189" s="11"/>
       <c r="L189" s="11"/>
       <c r="M189" s="39" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N189" s="10" t="s">
         <v>160</v>
@@ -13581,10 +13558,10 @@
         <v>2</v>
       </c>
       <c r="G190" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H190" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I190" s="10"/>
       <c r="J190" s="11"/>
@@ -13606,7 +13583,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="s">
         <v>0</v>
       </c>
@@ -13626,10 +13603,10 @@
         <v>2</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H191" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I191" s="10"/>
       <c r="J191" s="11"/>
@@ -13651,7 +13628,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
         <v>0</v>
       </c>
@@ -13691,7 +13668,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="128" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
         <v>0</v>
       </c>
@@ -13711,7 +13688,7 @@
         <v>15</v>
       </c>
       <c r="H193" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I193" s="10"/>
       <c r="J193" s="11"/>
@@ -13733,7 +13710,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
         <v>0</v>
       </c>
@@ -13753,7 +13730,7 @@
         <v>27</v>
       </c>
       <c r="H194" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I194" s="10"/>
       <c r="J194" s="11"/>
@@ -13775,7 +13752,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
         <v>0</v>
       </c>
@@ -13795,10 +13772,10 @@
         <v>9</v>
       </c>
       <c r="G195" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H195" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I195" s="10"/>
       <c r="J195" s="11"/>
@@ -13820,7 +13797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
         <v>0</v>
       </c>
@@ -13840,10 +13817,10 @@
         <v>2</v>
       </c>
       <c r="G196" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H196" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I196" s="10"/>
       <c r="J196" s="11"/>
@@ -13865,7 +13842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
         <v>0</v>
       </c>
@@ -13885,17 +13862,17 @@
         <v>2</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H197" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I197" s="10"/>
       <c r="J197" s="11"/>
       <c r="K197" s="11"/>
       <c r="L197" s="11"/>
       <c r="M197" s="39" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N197" s="10" t="s">
         <v>80</v>
@@ -13910,7 +13887,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="8" t="s">
         <v>0</v>
       </c>
@@ -13934,7 +13911,7 @@
       <c r="K198" s="11"/>
       <c r="L198" s="11"/>
       <c r="M198" s="39" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N198" s="10" t="s">
         <v>147</v>
@@ -13949,7 +13926,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
         <v>0</v>
       </c>
@@ -13973,7 +13950,7 @@
       <c r="K199" s="11"/>
       <c r="L199" s="11"/>
       <c r="M199" s="39" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N199" s="10" t="s">
         <v>84</v>
@@ -13988,7 +13965,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="s">
         <v>0</v>
       </c>
@@ -14008,10 +13985,10 @@
         <v>15</v>
       </c>
       <c r="G200" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H200" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I200" s="10"/>
       <c r="J200" s="11"/>
@@ -14033,7 +14010,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
         <v>0</v>
       </c>
@@ -14053,10 +14030,10 @@
         <v>2</v>
       </c>
       <c r="G201" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H201" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I201" s="10"/>
       <c r="J201" s="11"/>
@@ -14078,7 +14055,7 @@
         <v>1483444463</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="s">
         <v>0</v>
       </c>
@@ -14098,10 +14075,10 @@
         <v>2</v>
       </c>
       <c r="G202" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H202" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I202" s="10"/>
       <c r="J202" s="11"/>
@@ -14111,16 +14088,16 @@
         <v>89</v>
       </c>
       <c r="N202" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="O202" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="O202" s="10" t="s">
+      <c r="P202" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="P202" s="10" t="s">
+      <c r="Q202" s="10" t="s">
         <v>542</v>
-      </c>
-      <c r="Q202" s="10" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="203" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -14143,32 +14120,32 @@
         <v>2</v>
       </c>
       <c r="G203" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H203" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I203" s="10"/>
       <c r="J203" s="11"/>
       <c r="K203" s="11"/>
       <c r="L203" s="11"/>
       <c r="M203" s="39" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N203" s="10" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="O203" s="39" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="P203" s="39" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="Q203" s="10" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
         <v>0</v>
       </c>
@@ -14188,10 +14165,10 @@
         <v>27</v>
       </c>
       <c r="G204" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H204" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I204" s="10"/>
       <c r="J204" s="11"/>
@@ -14213,7 +14190,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="8" t="s">
         <v>0</v>
       </c>
@@ -14233,17 +14210,17 @@
         <v>2</v>
       </c>
       <c r="G205" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H205" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I205" s="10"/>
       <c r="J205" s="11"/>
       <c r="K205" s="11"/>
       <c r="L205" s="11"/>
       <c r="M205" s="39" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N205" s="10" t="s">
         <v>139</v>
@@ -14258,7 +14235,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="8" t="s">
         <v>0</v>
       </c>
@@ -14278,10 +14255,10 @@
         <v>2</v>
       </c>
       <c r="G206" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H206" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I206" s="10"/>
       <c r="J206" s="11"/>
@@ -14303,7 +14280,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
         <v>0</v>
       </c>
@@ -14323,32 +14300,32 @@
         <v>2</v>
       </c>
       <c r="G207" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H207" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I207" s="10"/>
       <c r="J207" s="11"/>
       <c r="K207" s="11"/>
       <c r="L207" s="11"/>
       <c r="M207" s="39" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N207" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="O207" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="O207" s="10" t="s">
+      <c r="P207" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="P207" s="10" t="s">
+      <c r="Q207" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="Q207" s="10" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="8" t="s">
         <v>0</v>
       </c>
@@ -14368,10 +14345,10 @@
         <v>2</v>
       </c>
       <c r="G208" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H208" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I208" s="10"/>
       <c r="J208" s="11"/>
@@ -14393,7 +14370,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
         <v>0</v>
       </c>
@@ -14413,10 +14390,10 @@
         <v>2</v>
       </c>
       <c r="G209" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H209" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I209" s="10"/>
       <c r="J209" s="11"/>
@@ -14438,7 +14415,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
         <v>0</v>
       </c>
@@ -14458,32 +14435,32 @@
         <v>2</v>
       </c>
       <c r="G210" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H210" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I210" s="10"/>
       <c r="J210" s="11"/>
       <c r="K210" s="11"/>
       <c r="L210" s="11"/>
       <c r="M210" s="39" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N210" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="O210" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="O210" s="10" t="s">
+      <c r="P210" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="P210" s="10" t="s">
+      <c r="Q210" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="Q210" s="10" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="211" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="8" t="s">
         <v>0</v>
       </c>
@@ -14506,29 +14483,29 @@
         <v>27</v>
       </c>
       <c r="H211" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I211" s="10"/>
       <c r="J211" s="11"/>
       <c r="K211" s="11"/>
       <c r="L211" s="11"/>
       <c r="M211" s="56" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="N211" s="54" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="O211" s="54" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="P211" s="54" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="Q211" s="54" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="s">
         <v>0</v>
       </c>
@@ -14544,10 +14521,10 @@
       <c r="E212" s="9"/>
       <c r="F212" s="10"/>
       <c r="G212" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H212" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I212" s="10"/>
       <c r="J212" s="11"/>
@@ -14575,10 +14552,10 @@
         <v>2</v>
       </c>
       <c r="G213" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H213" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I213" s="10"/>
       <c r="J213" s="11"/>
@@ -14588,7 +14565,7 @@
         <v>5</v>
       </c>
       <c r="N213" s="10" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="O213" s="10" t="s">
         <v>6</v>
@@ -14620,10 +14597,10 @@
         <v>9</v>
       </c>
       <c r="G214" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H214" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I214" s="10"/>
       <c r="J214" s="11"/>
@@ -14645,7 +14622,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="s">
         <v>0</v>
       </c>
@@ -14665,10 +14642,10 @@
         <v>2</v>
       </c>
       <c r="G215" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H215" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I215" s="10"/>
       <c r="J215" s="11"/>
@@ -14690,7 +14667,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="8" t="s">
         <v>0</v>
       </c>
@@ -14710,10 +14687,10 @@
         <v>2</v>
       </c>
       <c r="G216" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H216" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I216" s="10"/>
       <c r="J216" s="11"/>
@@ -14723,16 +14700,16 @@
         <v>112</v>
       </c>
       <c r="N216" s="10" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="O216" s="10" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="P216" s="10" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="Q216" s="10" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
     </row>
     <row r="217" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -14755,10 +14732,10 @@
         <v>2</v>
       </c>
       <c r="G217" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H217" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I217" s="10"/>
       <c r="J217" s="11"/>
@@ -14768,7 +14745,7 @@
         <v>14</v>
       </c>
       <c r="N217" s="10" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="O217" s="10" t="s">
         <v>179</v>
@@ -14780,7 +14757,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="218" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
         <v>0</v>
       </c>
@@ -14800,10 +14777,10 @@
         <v>15</v>
       </c>
       <c r="G218" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H218" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I218" s="10"/>
       <c r="J218" s="11"/>
@@ -14825,7 +14802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
         <v>0</v>
       </c>
@@ -14845,10 +14822,10 @@
         <v>2</v>
       </c>
       <c r="G219" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H219" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I219" s="10"/>
       <c r="J219" s="11"/>
@@ -14858,19 +14835,19 @@
         <v>17</v>
       </c>
       <c r="N219" s="10" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="O219" s="10" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="P219" s="10" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="Q219" s="10" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
         <v>0</v>
       </c>
@@ -14890,10 +14867,10 @@
         <v>18</v>
       </c>
       <c r="G220" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H220" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I220" s="10"/>
       <c r="J220" s="11"/>
@@ -14903,19 +14880,19 @@
         <v>113</v>
       </c>
       <c r="N220" s="10" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="O220" s="10" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="P220" s="10" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="Q220" s="10" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="221" spans="1:17" ht="96" x14ac:dyDescent="0.2">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
         <v>0</v>
       </c>
@@ -14939,7 +14916,7 @@
       <c r="K221" s="11"/>
       <c r="L221" s="11"/>
       <c r="M221" s="39" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N221" s="10" t="s">
         <v>114</v>
@@ -14974,10 +14951,10 @@
         <v>2</v>
       </c>
       <c r="G222" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H222" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I222" s="10"/>
       <c r="J222" s="11"/>
@@ -14999,7 +14976,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
         <v>0</v>
       </c>
@@ -15019,10 +14996,10 @@
         <v>2</v>
       </c>
       <c r="G223" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H223" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I223" s="10"/>
       <c r="J223" s="11"/>
@@ -15038,13 +15015,13 @@
         <v>-2</v>
       </c>
       <c r="P223" s="10" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="Q223" s="10" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="224" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
         <v>0</v>
       </c>
@@ -15064,10 +15041,10 @@
         <v>9</v>
       </c>
       <c r="G224" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H224" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I224" s="10"/>
       <c r="J224" s="11"/>
@@ -15089,7 +15066,7 @@
         <v>38575</v>
       </c>
     </row>
-    <row r="225" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="8" t="s">
         <v>0</v>
       </c>
@@ -15109,17 +15086,17 @@
         <v>2</v>
       </c>
       <c r="G225" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H225" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I225" s="10"/>
       <c r="J225" s="11"/>
       <c r="K225" s="11"/>
       <c r="L225" s="11"/>
       <c r="M225" s="39" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N225" s="10">
         <v>1</v>
@@ -15134,7 +15111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
         <v>0</v>
       </c>
@@ -15173,7 +15150,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
         <v>0</v>
       </c>
@@ -15193,7 +15170,7 @@
         <v>2</v>
       </c>
       <c r="H227" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I227" s="10"/>
       <c r="J227" s="11"/>
@@ -15215,7 +15192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
         <v>0</v>
       </c>
@@ -15235,10 +15212,10 @@
         <v>18</v>
       </c>
       <c r="G228" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H228" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I228" s="10"/>
       <c r="J228" s="11"/>
@@ -15260,7 +15237,7 @@
         <v>5040</v>
       </c>
     </row>
-    <row r="229" spans="1:17" ht="80" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
         <v>0</v>
       </c>
@@ -15280,10 +15257,10 @@
         <v>15</v>
       </c>
       <c r="G229" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H229" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I229" s="10"/>
       <c r="J229" s="11"/>
@@ -15305,7 +15282,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="230" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
         <v>0</v>
       </c>
@@ -15325,17 +15302,17 @@
         <v>27</v>
       </c>
       <c r="G230" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H230" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I230" s="10"/>
       <c r="J230" s="11"/>
       <c r="K230" s="11"/>
       <c r="L230" s="11"/>
       <c r="M230" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N230" s="10" t="s">
         <v>28</v>
@@ -15350,7 +15327,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="231" spans="1:17" ht="80" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="8" t="s">
         <v>0</v>
       </c>
@@ -15370,7 +15347,7 @@
         <v>15</v>
       </c>
       <c r="H231" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I231" s="10"/>
       <c r="J231" s="11"/>
@@ -15380,19 +15357,19 @@
         <v>121</v>
       </c>
       <c r="N231" s="10" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="O231" s="10" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="P231" s="10" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="Q231" s="10" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="232" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
         <v>0</v>
       </c>
@@ -15412,29 +15389,29 @@
         <v>27</v>
       </c>
       <c r="G232" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H232" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I232" s="10"/>
       <c r="J232" s="11"/>
       <c r="K232" s="11"/>
       <c r="L232" s="11"/>
       <c r="M232" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N232" s="10" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="O232" s="10" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="P232" s="10" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="Q232" s="10" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="233" spans="1:17" ht="64" x14ac:dyDescent="0.2">
@@ -15457,10 +15434,10 @@
         <v>2</v>
       </c>
       <c r="G233" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H233" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I233" s="10"/>
       <c r="J233" s="11"/>
@@ -15470,19 +15447,19 @@
         <v>32</v>
       </c>
       <c r="N233" s="39" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="O233" s="39" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="P233" s="39" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="Q233" s="39" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="234" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="s">
         <v>0</v>
       </c>
@@ -15502,10 +15479,10 @@
         <v>2</v>
       </c>
       <c r="G234" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H234" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I234" s="10"/>
       <c r="J234" s="11"/>
@@ -15515,19 +15492,19 @@
         <v>122</v>
       </c>
       <c r="N234" s="10" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="O234" s="10" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="P234" s="10" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="Q234" s="10" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
         <v>0</v>
       </c>
@@ -15547,17 +15524,17 @@
         <v>2</v>
       </c>
       <c r="G235" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H235" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I235" s="10"/>
       <c r="J235" s="11"/>
       <c r="K235" s="11"/>
       <c r="L235" s="11"/>
       <c r="M235" s="39" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N235" s="10" t="s">
         <v>33</v>
@@ -15572,7 +15549,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
         <v>0</v>
       </c>
@@ -15592,26 +15569,26 @@
         <v>2</v>
       </c>
       <c r="G236" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H236" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I236" s="10"/>
       <c r="J236" s="11"/>
       <c r="K236" s="11"/>
       <c r="L236" s="11"/>
       <c r="M236" s="39" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N236" s="10" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="O236" s="10">
         <v>-15</v>
       </c>
       <c r="P236" s="10" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="Q236" s="10">
         <v>15</v>
@@ -15637,10 +15614,10 @@
         <v>2</v>
       </c>
       <c r="G237" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H237" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I237" s="10"/>
       <c r="J237" s="11"/>
@@ -15662,7 +15639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="s">
         <v>0</v>
       </c>
@@ -15682,32 +15659,32 @@
         <v>2</v>
       </c>
       <c r="G238" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H238" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I238" s="10"/>
       <c r="J238" s="11"/>
       <c r="K238" s="11"/>
       <c r="L238" s="11"/>
       <c r="M238" s="39" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N238" s="10" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="O238" s="10" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="P238" s="10" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="Q238" s="10" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="239" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="8" t="s">
         <v>0</v>
       </c>
@@ -15727,7 +15704,7 @@
         <v>2</v>
       </c>
       <c r="H239" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I239" s="10"/>
       <c r="J239" s="11"/>
@@ -15749,7 +15726,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="s">
         <v>0</v>
       </c>
@@ -15769,10 +15746,10 @@
         <v>15</v>
       </c>
       <c r="G240" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H240" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I240" s="10"/>
       <c r="J240" s="11"/>
@@ -15794,7 +15771,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="8" t="s">
         <v>0</v>
       </c>
@@ -15814,10 +15791,10 @@
         <v>2</v>
       </c>
       <c r="G241" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H241" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I241" s="10"/>
       <c r="J241" s="11"/>
@@ -15839,7 +15816,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="242" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
         <v>0</v>
       </c>
@@ -15862,7 +15839,7 @@
         <v>27</v>
       </c>
       <c r="H242" s="36" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I242" s="10"/>
       <c r="J242" s="11"/>
@@ -15884,7 +15861,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="8" t="s">
         <v>0</v>
       </c>
@@ -15904,10 +15881,10 @@
         <v>2</v>
       </c>
       <c r="G243" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H243" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I243" s="10"/>
       <c r="J243" s="11"/>
@@ -15917,19 +15894,19 @@
         <v>56</v>
       </c>
       <c r="N243" s="10" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="O243" s="10" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="P243" s="10" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="Q243" s="10" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="244" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="s">
         <v>0</v>
       </c>
@@ -15953,7 +15930,7 @@
       <c r="K244" s="11"/>
       <c r="L244" s="11"/>
       <c r="M244" s="39" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N244" s="10">
         <v>46</v>
@@ -15968,7 +15945,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="8" t="s">
         <v>0</v>
       </c>
@@ -15988,7 +15965,7 @@
         <v>2</v>
       </c>
       <c r="H245" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I245" s="10"/>
       <c r="J245" s="11"/>
@@ -16030,10 +16007,10 @@
         <v>2</v>
       </c>
       <c r="G246" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H246" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I246" s="10"/>
       <c r="J246" s="11"/>
@@ -16075,10 +16052,10 @@
         <v>2</v>
       </c>
       <c r="G247" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H247" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I247" s="10"/>
       <c r="J247" s="11"/>
@@ -16088,19 +16065,19 @@
         <v>59</v>
       </c>
       <c r="N247" s="10" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="O247" s="10" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="P247" s="10" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="Q247" s="10" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="8" t="s">
         <v>0</v>
       </c>
@@ -16120,14 +16097,14 @@
         <v>2</v>
       </c>
       <c r="H248" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I248" s="10"/>
       <c r="J248" s="11"/>
       <c r="K248" s="11"/>
       <c r="L248" s="11"/>
       <c r="M248" s="39" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N248" s="10">
         <v>-9</v>
@@ -16142,7 +16119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="8" t="s">
         <v>0</v>
       </c>
@@ -16162,10 +16139,10 @@
         <v>9</v>
       </c>
       <c r="G249" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H249" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I249" s="10"/>
       <c r="J249" s="11"/>
@@ -16187,7 +16164,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="250" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="8" t="s">
         <v>0</v>
       </c>
@@ -16211,7 +16188,7 @@
       <c r="K250" s="11"/>
       <c r="L250" s="11"/>
       <c r="M250" s="39" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N250" s="10">
         <v>61</v>
@@ -16226,7 +16203,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="8" t="s">
         <v>0</v>
       </c>
@@ -16246,17 +16223,17 @@
         <v>9</v>
       </c>
       <c r="G251" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H251" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I251" s="10"/>
       <c r="J251" s="11"/>
       <c r="K251" s="11"/>
       <c r="L251" s="11"/>
       <c r="M251" s="39" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N251" s="10" t="s">
         <v>175</v>
@@ -16271,7 +16248,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="252" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="8" t="s">
         <v>0</v>
       </c>
@@ -16291,10 +16268,10 @@
         <v>15</v>
       </c>
       <c r="G252" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H252" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I252" s="10"/>
       <c r="J252" s="11"/>
@@ -16316,7 +16293,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="8" t="s">
         <v>0</v>
       </c>
@@ -16340,7 +16317,7 @@
       <c r="K253" s="11"/>
       <c r="L253" s="11"/>
       <c r="M253" s="39" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N253" s="10" t="s">
         <v>60</v>
@@ -16355,7 +16332,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="s">
         <v>0</v>
       </c>
@@ -16375,17 +16352,17 @@
         <v>18</v>
       </c>
       <c r="G254" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="H254" s="35" t="s">
         <v>531</v>
-      </c>
-      <c r="H254" s="35" t="s">
-        <v>532</v>
       </c>
       <c r="I254" s="10"/>
       <c r="J254" s="11"/>
       <c r="K254" s="11"/>
       <c r="L254" s="11"/>
       <c r="M254" s="39" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N254" s="10">
         <v>6</v>
@@ -16400,7 +16377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="8" t="s">
         <v>0</v>
       </c>
@@ -16420,10 +16397,10 @@
         <v>18</v>
       </c>
       <c r="G255" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H255" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I255" s="10"/>
       <c r="J255" s="11"/>
@@ -16445,7 +16422,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="256" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="8" t="s">
         <v>0</v>
       </c>
@@ -16468,14 +16445,14 @@
         <v>27</v>
       </c>
       <c r="H256" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I256" s="10"/>
       <c r="J256" s="11"/>
       <c r="K256" s="11"/>
       <c r="L256" s="11"/>
       <c r="M256" s="39" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N256" s="10">
         <v>60</v>
@@ -16491,7 +16468,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q256"/>
+  <autoFilter ref="A1:Q256">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Word Problems"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:Q248">
     <sortCondition ref="A2:A248"/>
     <sortCondition ref="B2:B248"/>

--- a/mathematics/MathItems.xlsx
+++ b/mathematics/MathItems.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4547,14 +4547,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:R256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M181" sqref="M181"/>
+      <selection pane="bottomRight" activeCell="M191" sqref="M191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4632,7 +4631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>186</v>
       </c>
@@ -4677,7 +4676,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>186</v>
       </c>
@@ -4722,7 +4721,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>186</v>
       </c>
@@ -4767,7 +4766,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>186</v>
       </c>
@@ -4812,7 +4811,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>186</v>
       </c>
@@ -4857,7 +4856,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="137" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="137" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>186</v>
       </c>
@@ -4902,7 +4901,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>186</v>
       </c>
@@ -4947,7 +4946,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>186</v>
       </c>
@@ -4992,7 +4991,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="92" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="92" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>186</v>
       </c>
@@ -5037,7 +5036,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>186</v>
       </c>
@@ -5082,7 +5081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>186</v>
       </c>
@@ -5127,7 +5126,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="163" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="163" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>186</v>
       </c>
@@ -5172,7 +5171,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>186</v>
       </c>
@@ -5217,7 +5216,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>186</v>
       </c>
@@ -5262,7 +5261,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>186</v>
       </c>
@@ -5307,7 +5306,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>186</v>
       </c>
@@ -5352,7 +5351,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>186</v>
       </c>
@@ -5397,7 +5396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>186</v>
       </c>
@@ -5442,7 +5441,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="168" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>186</v>
       </c>
@@ -5489,7 +5488,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="92" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="92" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>186</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>186</v>
       </c>
@@ -5579,7 +5578,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>186</v>
       </c>
@@ -5624,7 +5623,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>186</v>
       </c>
@@ -5669,7 +5668,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>186</v>
       </c>
@@ -5763,7 +5762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>186</v>
       </c>
@@ -5808,7 +5807,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>186</v>
       </c>
@@ -5902,7 +5901,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="163" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="163" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>186</v>
       </c>
@@ -5947,7 +5946,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>186</v>
       </c>
@@ -5993,7 +5992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>186</v>
       </c>
@@ -6042,7 +6041,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>186</v>
       </c>
@@ -6088,7 +6087,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>186</v>
       </c>
@@ -6134,7 +6133,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>186</v>
       </c>
@@ -6180,7 +6179,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>186</v>
       </c>
@@ -6226,7 +6225,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="105" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>186</v>
       </c>
@@ -6271,7 +6270,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>186</v>
       </c>
@@ -6317,7 +6316,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>186</v>
       </c>
@@ -6363,7 +6362,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="92" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="92" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>186</v>
       </c>
@@ -6412,7 +6411,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="163" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="163" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>186</v>
       </c>
@@ -6458,7 +6457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>186</v>
       </c>
@@ -6504,7 +6503,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="137" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="137" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>186</v>
       </c>
@@ -6550,7 +6549,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>186</v>
       </c>
@@ -6596,7 +6595,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>186</v>
       </c>
@@ -6642,7 +6641,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>186</v>
       </c>
@@ -6687,7 +6686,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>186</v>
       </c>
@@ -6732,7 +6731,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>186</v>
       </c>
@@ -6777,7 +6776,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>186</v>
       </c>
@@ -6822,7 +6821,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>186</v>
       </c>
@@ -6867,7 +6866,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>186</v>
       </c>
@@ -6912,7 +6911,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
         <v>186</v>
       </c>
@@ -6957,7 +6956,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>186</v>
       </c>
@@ -7002,7 +7001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>186</v>
       </c>
@@ -7047,7 +7046,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>186</v>
       </c>
@@ -7092,7 +7091,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="202" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="202" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
         <v>186</v>
       </c>
@@ -7141,7 +7140,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="224" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>186</v>
       </c>
@@ -7190,7 +7189,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="367" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="367" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>186</v>
       </c>
@@ -7239,7 +7238,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>186</v>
       </c>
@@ -7288,7 +7287,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>186</v>
       </c>
@@ -7337,7 +7336,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="209" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>186</v>
       </c>
@@ -7386,7 +7385,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
         <v>186</v>
       </c>
@@ -7431,7 +7430,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="185" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="185" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
         <v>186</v>
       </c>
@@ -7480,7 +7479,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
         <v>186</v>
       </c>
@@ -7529,7 +7528,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="183" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="183" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
         <v>186</v>
       </c>
@@ -7578,7 +7577,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
         <v>186</v>
       </c>
@@ -7676,7 +7675,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
         <v>186</v>
       </c>
@@ -7725,7 +7724,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
         <v>186</v>
       </c>
@@ -7774,7 +7773,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
         <v>186</v>
       </c>
@@ -7823,7 +7822,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="183" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="183" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
         <v>186</v>
       </c>
@@ -7872,7 +7871,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
         <v>186</v>
       </c>
@@ -7921,7 +7920,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>186</v>
       </c>
@@ -7970,7 +7969,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="235" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="235" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
         <v>186</v>
       </c>
@@ -8068,7 +8067,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
         <v>186</v>
       </c>
@@ -8117,7 +8116,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>186</v>
       </c>
@@ -8166,7 +8165,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="126" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="126" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>186</v>
       </c>
@@ -8211,7 +8210,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="112" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
         <v>186</v>
       </c>
@@ -8260,7 +8259,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="126" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="126" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
         <v>186</v>
       </c>
@@ -8358,7 +8357,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
         <v>186</v>
       </c>
@@ -8407,7 +8406,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="183" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="183" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
         <v>186</v>
       </c>
@@ -8456,7 +8455,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="112" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
         <v>186</v>
       </c>
@@ -8505,7 +8504,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
         <v>186</v>
       </c>
@@ -8554,7 +8553,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
         <v>186</v>
       </c>
@@ -8603,7 +8602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>186</v>
       </c>
@@ -8652,7 +8651,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
         <v>186</v>
       </c>
@@ -8701,7 +8700,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
         <v>186</v>
       </c>
@@ -8750,7 +8749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
         <v>186</v>
       </c>
@@ -8799,7 +8798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
         <v>186</v>
       </c>
@@ -8848,7 +8847,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>186</v>
       </c>
@@ -8897,7 +8896,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="209" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
         <v>186</v>
       </c>
@@ -8946,7 +8945,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
         <v>186</v>
       </c>
@@ -8995,7 +8994,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
         <v>186</v>
       </c>
@@ -9044,7 +9043,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>186</v>
       </c>
@@ -9093,7 +9092,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
         <v>186</v>
       </c>
@@ -9140,7 +9139,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>186</v>
       </c>
@@ -9238,7 +9237,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
         <v>186</v>
       </c>
@@ -9287,7 +9286,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="183" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" ht="183" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
         <v>186</v>
       </c>
@@ -9336,7 +9335,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="390" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" ht="390" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
         <v>186</v>
       </c>
@@ -9385,7 +9384,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
         <v>186</v>
       </c>
@@ -9434,7 +9433,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
         <v>186</v>
       </c>
@@ -9483,7 +9482,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
         <v>186</v>
       </c>
@@ -9532,7 +9531,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
         <v>186</v>
       </c>
@@ -9581,7 +9580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" ht="224" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
         <v>186</v>
       </c>
@@ -9630,7 +9629,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
         <v>186</v>
       </c>
@@ -9679,7 +9678,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
         <v>186</v>
       </c>
@@ -9774,7 +9773,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
         <v>186</v>
       </c>
@@ -9820,7 +9819,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
         <v>186</v>
       </c>
@@ -9869,7 +9868,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
         <v>186</v>
       </c>
@@ -9914,7 +9913,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
         <v>186</v>
       </c>
@@ -9963,7 +9962,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
         <v>186</v>
       </c>
@@ -10012,7 +10011,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="209" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
         <v>186</v>
       </c>
@@ -10061,7 +10060,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="365" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" ht="365" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
         <v>186</v>
       </c>
@@ -10110,7 +10109,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
         <v>186</v>
       </c>
@@ -10159,7 +10158,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
         <v>186</v>
       </c>
@@ -10208,7 +10207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
         <v>186</v>
       </c>
@@ -10257,7 +10256,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
         <v>186</v>
       </c>
@@ -10306,7 +10305,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="365" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" ht="365" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
         <v>186</v>
       </c>
@@ -10355,7 +10354,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
         <v>186</v>
       </c>
@@ -10404,7 +10403,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="235" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" ht="235" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
         <v>186</v>
       </c>
@@ -10449,7 +10448,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
         <v>186</v>
       </c>
@@ -10498,7 +10497,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
         <v>186</v>
       </c>
@@ -10547,7 +10546,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
         <v>186</v>
       </c>
@@ -10596,7 +10595,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
         <v>186</v>
       </c>
@@ -10641,7 +10640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="209" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
         <v>186</v>
       </c>
@@ -10690,7 +10689,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
         <v>186</v>
       </c>
@@ -10739,7 +10738,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
         <v>186</v>
       </c>
@@ -10837,7 +10836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
         <v>186</v>
       </c>
@@ -10931,7 +10930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:17" s="49" customFormat="1" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" s="49" customFormat="1" ht="131" x14ac:dyDescent="0.2">
       <c r="A135" s="42" t="s">
         <v>186</v>
       </c>
@@ -10980,7 +10979,7 @@
         <v>0.12569444444444444</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
         <v>186</v>
       </c>
@@ -11029,7 +11028,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="326" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" ht="326" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
         <v>186</v>
       </c>
@@ -11078,7 +11077,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
         <v>186</v>
       </c>
@@ -11127,7 +11126,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
         <v>186</v>
       </c>
@@ -11176,7 +11175,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
         <v>186</v>
       </c>
@@ -11225,7 +11224,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="183" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" ht="183" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
         <v>186</v>
       </c>
@@ -11274,7 +11273,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
         <v>186</v>
       </c>
@@ -11323,7 +11322,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
         <v>186</v>
       </c>
@@ -11372,7 +11371,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
         <v>186</v>
       </c>
@@ -11421,7 +11420,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A145" s="18" t="s">
         <v>186</v>
       </c>
@@ -11466,7 +11465,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
         <v>186</v>
       </c>
@@ -11515,7 +11514,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
         <v>186</v>
       </c>
@@ -11561,7 +11560,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A148" s="12" t="s">
         <v>186</v>
       </c>
@@ -11659,7 +11658,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
         <v>186</v>
       </c>
@@ -11708,7 +11707,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
         <v>186</v>
       </c>
@@ -11757,7 +11756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="s">
         <v>186</v>
       </c>
@@ -11806,7 +11805,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
         <v>186</v>
       </c>
@@ -11855,7 +11854,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
         <v>186</v>
       </c>
@@ -11904,7 +11903,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="235" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" ht="235" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
         <v>186</v>
       </c>
@@ -11950,7 +11949,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
         <v>186</v>
       </c>
@@ -12048,7 +12047,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
         <v>186</v>
       </c>
@@ -12093,7 +12092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="150" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" ht="150" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
         <v>186</v>
       </c>
@@ -12142,7 +12141,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="209" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
         <v>186</v>
       </c>
@@ -12191,7 +12190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" ht="131" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
         <v>186</v>
       </c>
@@ -12289,7 +12288,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="196" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18" ht="196" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="s">
         <v>186</v>
       </c>
@@ -12338,7 +12337,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="164" spans="1:18" ht="183" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" ht="183" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="s">
         <v>186</v>
       </c>
@@ -12387,7 +12386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" ht="144" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
         <v>186</v>
       </c>
@@ -12436,7 +12435,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" ht="118" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
         <v>186</v>
       </c>
@@ -12485,7 +12484,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18" ht="118" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
         <v>186</v>
       </c>
@@ -12534,7 +12533,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18" ht="118" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
         <v>186</v>
       </c>
@@ -12583,7 +12582,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="196" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18" ht="196" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
         <v>186</v>
       </c>
@@ -12632,7 +12631,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18" ht="131" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
         <v>186</v>
       </c>
@@ -12681,7 +12680,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="171" spans="1:18" ht="287" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" ht="287" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
         <v>186</v>
       </c>
@@ -12776,7 +12775,7 @@
       </c>
       <c r="R172" s="51"/>
     </row>
-    <row r="173" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
         <v>0</v>
       </c>
@@ -12956,7 +12955,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
         <v>0</v>
       </c>
@@ -13046,7 +13045,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
         <v>0</v>
       </c>
@@ -13091,7 +13090,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
         <v>0</v>
       </c>
@@ -13226,7 +13225,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" s="12" t="s">
         <v>0</v>
       </c>
@@ -13271,7 +13270,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
         <v>0</v>
       </c>
@@ -13316,7 +13315,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="s">
         <v>0</v>
       </c>
@@ -13361,7 +13360,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
         <v>0</v>
       </c>
@@ -13403,7 +13402,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
         <v>0</v>
       </c>
@@ -13448,7 +13447,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="s">
         <v>0</v>
       </c>
@@ -13493,7 +13492,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="s">
         <v>0</v>
       </c>
@@ -13583,7 +13582,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="s">
         <v>0</v>
       </c>
@@ -13628,7 +13627,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
         <v>0</v>
       </c>
@@ -13668,7 +13667,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" ht="128" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
         <v>0</v>
       </c>
@@ -13710,7 +13709,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
         <v>0</v>
       </c>
@@ -13752,7 +13751,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
         <v>0</v>
       </c>
@@ -13797,7 +13796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
         <v>0</v>
       </c>
@@ -13842,7 +13841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
         <v>0</v>
       </c>
@@ -13887,7 +13886,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A198" s="8" t="s">
         <v>0</v>
       </c>
@@ -13926,7 +13925,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
         <v>0</v>
       </c>
@@ -13965,7 +13964,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="s">
         <v>0</v>
       </c>
@@ -14010,7 +14009,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
         <v>0</v>
       </c>
@@ -14055,7 +14054,7 @@
         <v>1483444463</v>
       </c>
     </row>
-    <row r="202" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="s">
         <v>0</v>
       </c>
@@ -14145,7 +14144,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="204" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
         <v>0</v>
       </c>
@@ -14190,7 +14189,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="205" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" s="8" t="s">
         <v>0</v>
       </c>
@@ -14235,7 +14234,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="206" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" s="8" t="s">
         <v>0</v>
       </c>
@@ -14280,7 +14279,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="207" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
         <v>0</v>
       </c>
@@ -14325,7 +14324,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="208" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208" s="8" t="s">
         <v>0</v>
       </c>
@@ -14370,7 +14369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
         <v>0</v>
       </c>
@@ -14415,7 +14414,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
         <v>0</v>
       </c>
@@ -14460,7 +14459,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A211" s="8" t="s">
         <v>0</v>
       </c>
@@ -14505,7 +14504,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="s">
         <v>0</v>
       </c>
@@ -14622,7 +14621,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="s">
         <v>0</v>
       </c>
@@ -14667,7 +14666,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216" s="8" t="s">
         <v>0</v>
       </c>
@@ -14757,7 +14756,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="218" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
         <v>0</v>
       </c>
@@ -14802,7 +14801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
         <v>0</v>
       </c>
@@ -14847,7 +14846,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
         <v>0</v>
       </c>
@@ -14892,7 +14891,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" ht="96" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
         <v>0</v>
       </c>
@@ -14976,7 +14975,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
         <v>0</v>
       </c>
@@ -15021,7 +15020,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="224" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
         <v>0</v>
       </c>
@@ -15066,7 +15065,7 @@
         <v>38575</v>
       </c>
     </row>
-    <row r="225" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A225" s="8" t="s">
         <v>0</v>
       </c>
@@ -15111,7 +15110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:17" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
         <v>0</v>
       </c>
@@ -15150,7 +15149,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="227" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
         <v>0</v>
       </c>
@@ -15192,7 +15191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
         <v>0</v>
       </c>
@@ -15237,7 +15236,7 @@
         <v>5040</v>
       </c>
     </row>
-    <row r="229" spans="1:17" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
         <v>0</v>
       </c>
@@ -15282,7 +15281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="230" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
         <v>0</v>
       </c>
@@ -15327,7 +15326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="231" spans="1:17" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A231" s="8" t="s">
         <v>0</v>
       </c>
@@ -15369,7 +15368,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="232" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
         <v>0</v>
       </c>
@@ -15459,7 +15458,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="234" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="s">
         <v>0</v>
       </c>
@@ -15504,7 +15503,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
         <v>0</v>
       </c>
@@ -15549,7 +15548,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="236" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
         <v>0</v>
       </c>
@@ -15639,7 +15638,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="238" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="s">
         <v>0</v>
       </c>
@@ -15684,7 +15683,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="239" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A239" s="8" t="s">
         <v>0</v>
       </c>
@@ -15726,7 +15725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="s">
         <v>0</v>
       </c>
@@ -15771,7 +15770,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="241" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A241" s="8" t="s">
         <v>0</v>
       </c>
@@ -15816,7 +15815,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="242" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
         <v>0</v>
       </c>
@@ -15861,7 +15860,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="243" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A243" s="8" t="s">
         <v>0</v>
       </c>
@@ -15906,7 +15905,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="244" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="s">
         <v>0</v>
       </c>
@@ -15945,7 +15944,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="245" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A245" s="8" t="s">
         <v>0</v>
       </c>
@@ -16077,7 +16076,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248" s="8" t="s">
         <v>0</v>
       </c>
@@ -16119,7 +16118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A249" s="8" t="s">
         <v>0</v>
       </c>
@@ -16164,7 +16163,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="250" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" s="8" t="s">
         <v>0</v>
       </c>
@@ -16203,7 +16202,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A251" s="8" t="s">
         <v>0</v>
       </c>
@@ -16248,7 +16247,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="252" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A252" s="8" t="s">
         <v>0</v>
       </c>
@@ -16293,7 +16292,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A253" s="8" t="s">
         <v>0</v>
       </c>
@@ -16332,7 +16331,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="s">
         <v>0</v>
       </c>
@@ -16377,7 +16376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A255" s="8" t="s">
         <v>0</v>
       </c>
@@ -16422,7 +16421,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="256" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A256" s="8" t="s">
         <v>0</v>
       </c>
@@ -16468,13 +16467,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q256">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Word Problems"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q256"/>
   <sortState ref="A2:Q248">
     <sortCondition ref="A2:A248"/>
     <sortCondition ref="B2:B248"/>
